--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="735" yWindow="840" windowWidth="26265" windowHeight="7980" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="840" windowWidth="26265" windowHeight="7980" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="156">
   <si>
     <t>ID</t>
   </si>
@@ -201,6 +201,303 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>V-110</t>
+  </si>
+  <si>
+    <t>Estudio DLSI</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P1ES_0.wav</t>
+  </si>
+  <si>
+    <t>V-115</t>
+  </si>
+  <si>
+    <t>V-120</t>
+  </si>
+  <si>
+    <t>V-121</t>
+  </si>
+  <si>
+    <t>V-122</t>
+  </si>
+  <si>
+    <t>V-125</t>
+  </si>
+  <si>
+    <t>V-126</t>
+  </si>
+  <si>
+    <t>V-130</t>
+  </si>
+  <si>
+    <t>V-131</t>
+  </si>
+  <si>
+    <t>V-135</t>
+  </si>
+  <si>
+    <t>V-136</t>
+  </si>
+  <si>
+    <t>V-140</t>
+  </si>
+  <si>
+    <t>V-141</t>
+  </si>
+  <si>
+    <t>V-145</t>
+  </si>
+  <si>
+    <t>V-146</t>
+  </si>
+  <si>
+    <t>V-150</t>
+  </si>
+  <si>
+    <t>V-151</t>
+  </si>
+  <si>
+    <t>V-155</t>
+  </si>
+  <si>
+    <t>V-156</t>
+  </si>
+  <si>
+    <t>V-160</t>
+  </si>
+  <si>
+    <t>V-161</t>
+  </si>
+  <si>
+    <t>V-165</t>
+  </si>
+  <si>
+    <t>V-170</t>
+  </si>
+  <si>
+    <t>V-175</t>
+  </si>
+  <si>
+    <t>V-180</t>
+  </si>
+  <si>
+    <t>V-185</t>
+  </si>
+  <si>
+    <t>V-190</t>
+  </si>
+  <si>
+    <t>V-191</t>
+  </si>
+  <si>
+    <t>V-192</t>
+  </si>
+  <si>
+    <t>V-195</t>
+  </si>
+  <si>
+    <t>V-196</t>
+  </si>
+  <si>
+    <t>V-197</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>Reducción de ruido</t>
+  </si>
+  <si>
+    <t>Reducción de ruido y reducción de amplitud entre 01:900 y 02:000</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P1EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P2ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P2ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P2ES_2.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P2EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P2EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P3ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P3ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P3EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P3EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P4ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P4ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P4EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P4EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P5ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P5ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P5EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P5EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P6ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P6ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P6EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P7ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P7EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P8ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P8EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P9ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P9EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P9ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P9ES_2.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P9EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/P-P9EN_2.wav</t>
+  </si>
+  <si>
+    <t>00.02.350</t>
+  </si>
+  <si>
+    <t>00.02.200</t>
+  </si>
+  <si>
+    <t>00.01.475</t>
+  </si>
+  <si>
+    <t>00.01.200</t>
+  </si>
+  <si>
+    <t>00.00.540</t>
+  </si>
+  <si>
+    <t>00.01.050</t>
+  </si>
+  <si>
+    <t>00.00.440</t>
+  </si>
+  <si>
+    <t>00.00.800</t>
+  </si>
+  <si>
+    <t>00.00.725</t>
+  </si>
+  <si>
+    <t>00.10.050</t>
+  </si>
+  <si>
+    <t>00.00.950</t>
+  </si>
+  <si>
+    <t>00.00.480</t>
+  </si>
+  <si>
+    <t>00.00.500</t>
+  </si>
+  <si>
+    <t>00.00.625</t>
+  </si>
+  <si>
+    <t>00.00.650</t>
+  </si>
+  <si>
+    <t>00.00.380</t>
+  </si>
+  <si>
+    <t>00.00.925</t>
+  </si>
+  <si>
+    <t>00.00.050</t>
+  </si>
+  <si>
+    <t>00.02.550</t>
+  </si>
+  <si>
+    <t>00.02.000</t>
+  </si>
+  <si>
+    <t>00.03.750</t>
+  </si>
+  <si>
+    <t>00.02.600</t>
+  </si>
+  <si>
+    <t>00.00.575</t>
+  </si>
+  <si>
+    <t>00.01.00</t>
+  </si>
+  <si>
+    <t>00.01.600</t>
+  </si>
+  <si>
+    <t>00.01.000</t>
   </si>
 </sst>
 </file>
@@ -349,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -632,6 +929,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -708,7 +1025,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -873,6 +1190,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1399,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="32">
-        <f>'Metadatos V'!E9</f>
+        <f>'Metadatos V'!E45</f>
         <v>0</v>
       </c>
       <c r="E11" s="32">
@@ -1851,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,20 +2909,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:O9"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
     <col min="4" max="6" width="3" style="19" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="10" width="6.140625" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
@@ -2580,13 +2932,13 @@
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:15" s="17" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2626,7 +2978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
@@ -2656,103 +3008,1504 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="28"/>
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="26"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="58"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="23"/>
+      <c r="G4" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="56">
+        <v>16</v>
+      </c>
+      <c r="L4" s="56">
+        <v>1</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="57">
+        <v>-28</v>
+      </c>
+      <c r="O4" s="80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="23"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="59"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="64"/>
+      <c r="G5" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="48">
+        <v>16</v>
+      </c>
+      <c r="L5" s="48">
+        <v>1</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" s="97">
+        <v>-30</v>
+      </c>
+      <c r="O5" s="81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="60"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
+      <c r="G6" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="48">
+        <v>16</v>
+      </c>
+      <c r="L6" s="48">
+        <v>1</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N6" s="49">
+        <v>-29</v>
+      </c>
+      <c r="O6" s="81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="23"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="19">
-        <f>COUNTA(D4:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <f>COUNTA(E4:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <f>COUNTA(F4:F8)</f>
+      <c r="G7" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="48">
+        <v>16</v>
+      </c>
+      <c r="L7" s="48">
+        <v>1</v>
+      </c>
+      <c r="M7" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="20">
+        <v>-27</v>
+      </c>
+      <c r="O7" s="81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="48">
+        <v>16</v>
+      </c>
+      <c r="L8" s="48">
+        <v>1</v>
+      </c>
+      <c r="M8" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="20">
+        <v>-22</v>
+      </c>
+      <c r="O8" s="81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="94"/>
+      <c r="B9" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="48">
+        <v>16</v>
+      </c>
+      <c r="L9" s="48">
+        <v>1</v>
+      </c>
+      <c r="M9" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" s="20">
+        <v>-31</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="94"/>
+      <c r="B10" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="48">
+        <v>16</v>
+      </c>
+      <c r="L10" s="48">
+        <v>1</v>
+      </c>
+      <c r="M10" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="20">
+        <v>-24</v>
+      </c>
+      <c r="O10" s="81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="94"/>
+      <c r="B11" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="48">
+        <v>16</v>
+      </c>
+      <c r="L11" s="48">
+        <v>1</v>
+      </c>
+      <c r="M11" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="20">
+        <v>-23</v>
+      </c>
+      <c r="O11" s="98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="94"/>
+      <c r="B12" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="48">
+        <v>16</v>
+      </c>
+      <c r="L12" s="48">
+        <v>1</v>
+      </c>
+      <c r="M12" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="20">
+        <v>-28</v>
+      </c>
+      <c r="O12" s="98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="94"/>
+      <c r="B13" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="48">
+        <v>16</v>
+      </c>
+      <c r="L13" s="48">
+        <v>1</v>
+      </c>
+      <c r="M13" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O13" s="98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="94"/>
+      <c r="B14" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="48">
+        <v>16</v>
+      </c>
+      <c r="L14" s="48">
+        <v>1</v>
+      </c>
+      <c r="M14" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="20">
+        <v>-28</v>
+      </c>
+      <c r="O14" s="98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="48">
+        <v>16</v>
+      </c>
+      <c r="L15" s="48">
+        <v>1</v>
+      </c>
+      <c r="M15" s="96" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" s="20">
+        <v>-26</v>
+      </c>
+      <c r="O15" s="98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="94"/>
+      <c r="B16" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="48">
+        <v>16</v>
+      </c>
+      <c r="L16" s="48">
+        <v>1</v>
+      </c>
+      <c r="M16" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="N16" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O16" s="98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="94"/>
+      <c r="B17" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="48">
+        <v>16</v>
+      </c>
+      <c r="L17" s="48">
+        <v>1</v>
+      </c>
+      <c r="M17" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="N17" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O17" s="98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="94"/>
+      <c r="B18" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="48">
+        <v>16</v>
+      </c>
+      <c r="L18" s="48">
+        <v>1</v>
+      </c>
+      <c r="M18" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" s="20">
+        <v>-24</v>
+      </c>
+      <c r="O18" s="98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="94"/>
+      <c r="B19" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="48">
+        <v>16</v>
+      </c>
+      <c r="L19" s="48">
+        <v>1</v>
+      </c>
+      <c r="M19" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" s="20">
+        <v>-26</v>
+      </c>
+      <c r="O19" s="98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
+      <c r="B20" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="48">
+        <v>16</v>
+      </c>
+      <c r="L20" s="48">
+        <v>1</v>
+      </c>
+      <c r="M20" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" s="20">
+        <v>-29</v>
+      </c>
+      <c r="O20" s="98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="48">
+        <v>16</v>
+      </c>
+      <c r="L21" s="48">
+        <v>1</v>
+      </c>
+      <c r="M21" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="20">
+        <v>-24</v>
+      </c>
+      <c r="O21" s="98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="94"/>
+      <c r="B22" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="48">
+        <v>16</v>
+      </c>
+      <c r="L22" s="48">
+        <v>1</v>
+      </c>
+      <c r="M22" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" s="20">
+        <v>-27</v>
+      </c>
+      <c r="O22" s="98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="94"/>
+      <c r="B23" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="48">
+        <v>16</v>
+      </c>
+      <c r="L23" s="48">
+        <v>1</v>
+      </c>
+      <c r="M23" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" s="20">
+        <v>-26</v>
+      </c>
+      <c r="O23" s="98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="94"/>
+      <c r="B24" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="48">
+        <v>16</v>
+      </c>
+      <c r="L24" s="48">
+        <v>1</v>
+      </c>
+      <c r="M24" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="N24" s="20">
+        <v>-26</v>
+      </c>
+      <c r="O24" s="98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="94"/>
+      <c r="B25" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="48">
+        <v>16</v>
+      </c>
+      <c r="L25" s="48">
+        <v>1</v>
+      </c>
+      <c r="M25" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" s="20">
+        <v>-23</v>
+      </c>
+      <c r="O25" s="98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="94"/>
+      <c r="B26" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="48">
+        <v>16</v>
+      </c>
+      <c r="L26" s="48">
+        <v>1</v>
+      </c>
+      <c r="M26" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="N26" s="20">
+        <v>-27</v>
+      </c>
+      <c r="O26" s="98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="94"/>
+      <c r="B27" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="48">
+        <v>16</v>
+      </c>
+      <c r="L27" s="48">
+        <v>1</v>
+      </c>
+      <c r="M27" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" s="20">
+        <v>-29</v>
+      </c>
+      <c r="O27" s="98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="94"/>
+      <c r="B28" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="48">
+        <v>16</v>
+      </c>
+      <c r="L28" s="48">
+        <v>1</v>
+      </c>
+      <c r="M28" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="N28" s="20">
+        <v>-29</v>
+      </c>
+      <c r="O28" s="98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="94"/>
+      <c r="B29" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="48">
+        <v>16</v>
+      </c>
+      <c r="L29" s="48">
+        <v>1</v>
+      </c>
+      <c r="M29" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="N29" s="20">
+        <v>-28</v>
+      </c>
+      <c r="O29" s="98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="94"/>
+      <c r="B30" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="48">
+        <v>16</v>
+      </c>
+      <c r="L30" s="48">
+        <v>1</v>
+      </c>
+      <c r="M30" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="N30" s="20">
+        <v>-22</v>
+      </c>
+      <c r="O30" s="98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="94"/>
+      <c r="B31" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="48">
+        <v>16</v>
+      </c>
+      <c r="L31" s="48">
+        <v>1</v>
+      </c>
+      <c r="M31" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="20">
+        <v>-20</v>
+      </c>
+      <c r="O31" s="98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="94"/>
+      <c r="B32" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="48">
+        <v>16</v>
+      </c>
+      <c r="L32" s="48">
+        <v>1</v>
+      </c>
+      <c r="M32" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="N32" s="20">
+        <v>-19</v>
+      </c>
+      <c r="O32" s="98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="94"/>
+      <c r="B33" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="48">
+        <v>16</v>
+      </c>
+      <c r="L33" s="48">
+        <v>1</v>
+      </c>
+      <c r="M33" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="N33" s="20">
+        <v>-22</v>
+      </c>
+      <c r="O33" s="98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="94"/>
+      <c r="B34" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="48">
+        <v>16</v>
+      </c>
+      <c r="L34" s="48">
+        <v>1</v>
+      </c>
+      <c r="M34" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="20">
+        <v>-20</v>
+      </c>
+      <c r="O34" s="98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="94"/>
+      <c r="B35" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="48">
+        <v>16</v>
+      </c>
+      <c r="L35" s="48">
+        <v>1</v>
+      </c>
+      <c r="M35" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="N35" s="20">
+        <v>-19</v>
+      </c>
+      <c r="O35" s="98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="94"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="94"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="94"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="94"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="94"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="94"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="94"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="94"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="94"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="94"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="94"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="94"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="94"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="94"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="94"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="94"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="94"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="89"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="19">
+        <f>COUNTA(D4:D44)</f>
+        <v>32</v>
+      </c>
+      <c r="E45" s="19">
+        <f>COUNTA(E4:E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="19">
+        <f>COUNTA(F4:F44)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O4" r:id="rId1" location="Personajes!B5" xr:uid="{B33A0548-9DC9-4C14-A9CD-22C80F2E32F8}"/>
+    <hyperlink ref="O6" r:id="rId2" location="Personajes!B7" xr:uid="{AD58C9C9-1670-41AA-83F7-5B71FD9CC2E9}"/>
+    <hyperlink ref="O11" r:id="rId3" location="Personajes!B12" xr:uid="{ED57B468-7A57-4D60-A5A6-6AE8E6DFD019}"/>
+    <hyperlink ref="O15" r:id="rId4" location="Personajes!B16" xr:uid="{4068CF2E-5A3C-4CDD-A258-7F94FB52FB07}"/>
+    <hyperlink ref="O19" r:id="rId5" location="Personajes!B20" xr:uid="{5D878E57-0261-49F3-977E-6A679C07F932}"/>
+    <hyperlink ref="O23" r:id="rId6" location="Personajes!B24" xr:uid="{1092A368-3190-43D9-8DEF-5165FA2AAEE8}"/>
+    <hyperlink ref="O26" r:id="rId7" location="Personajes!B27" xr:uid="{5E0479EF-B340-44D7-83EA-C25D4FDB53F3}"/>
+    <hyperlink ref="O28" r:id="rId8" location="Personajes!B29" xr:uid="{A955022D-E085-4CB7-AFFF-03984A4A21D1}"/>
+    <hyperlink ref="O30" r:id="rId9" location="Personajes!B31" xr:uid="{5754CB05-7DB5-42EA-B234-D952D2FB7E32}"/>
+    <hyperlink ref="O5" r:id="rId10" location="Personajes!B5" xr:uid="{92E80E95-78DE-4790-97E0-91F27F726277}"/>
+    <hyperlink ref="O7:O10" r:id="rId11" location="Personajes!B7" display="1.2" xr:uid="{963EEC70-ABEF-4C70-BAF0-A862F8F6C539}"/>
+    <hyperlink ref="O12:O14" r:id="rId12" location="Personajes!B12" display="1.3" xr:uid="{440E36D5-6A7E-41B8-8F40-D8A255CBAAC5}"/>
+    <hyperlink ref="O16:O18" r:id="rId13" location="Personajes!B16" display="1.4" xr:uid="{2F68302D-CEF3-4AC0-B394-1AD663FBFED4}"/>
+    <hyperlink ref="O20:O22" r:id="rId14" location="Personajes!B20" display="1.5" xr:uid="{94F81431-A88C-4AB4-8DF3-B2153F53103F}"/>
+    <hyperlink ref="O24:O25" r:id="rId15" location="Personajes!B24" display="1.6" xr:uid="{E73D9855-8AA0-445D-B8DB-90F3F811DDC5}"/>
+    <hyperlink ref="O27" r:id="rId16" location="Personajes!B27" xr:uid="{B04C2F70-42E7-44B0-B051-72C56DAE147B}"/>
+    <hyperlink ref="O29" r:id="rId17" location="Personajes!B29" xr:uid="{D2DCFD11-4ABA-44A6-926D-504AE85D63DB}"/>
+    <hyperlink ref="O31:O35" r:id="rId18" location="Personajes!B31" display="1.9" xr:uid="{7C818B1F-3C66-49A3-9BC1-56DEFB3B3EF2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId19"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="231">
   <si>
     <t>ID</t>
   </si>
@@ -498,6 +498,231 @@
   </si>
   <si>
     <t>00.01.000</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P1ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P1ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P1EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P2ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P2ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P2EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P2EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P3ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P4ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P3EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P3EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P4ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P4EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P4EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P5ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P5EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P6ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P6EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P6ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P6EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P7ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P7ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P7EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P8ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P8EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P9ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/K-P9EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-210</t>
+  </si>
+  <si>
+    <t>V-211</t>
+  </si>
+  <si>
+    <t>V-215</t>
+  </si>
+  <si>
+    <t>V-220</t>
+  </si>
+  <si>
+    <t>V-221</t>
+  </si>
+  <si>
+    <t>V-225</t>
+  </si>
+  <si>
+    <t>V-226</t>
+  </si>
+  <si>
+    <t>V-230</t>
+  </si>
+  <si>
+    <t>V-235</t>
+  </si>
+  <si>
+    <t>V-236</t>
+  </si>
+  <si>
+    <t>V-240</t>
+  </si>
+  <si>
+    <t>V-241</t>
+  </si>
+  <si>
+    <t>V-245</t>
+  </si>
+  <si>
+    <t>V-246</t>
+  </si>
+  <si>
+    <t>V-250</t>
+  </si>
+  <si>
+    <t>V-255</t>
+  </si>
+  <si>
+    <t>V-260</t>
+  </si>
+  <si>
+    <t>V-261</t>
+  </si>
+  <si>
+    <t>V-265</t>
+  </si>
+  <si>
+    <t>V-266</t>
+  </si>
+  <si>
+    <t>V-270</t>
+  </si>
+  <si>
+    <t>V-271</t>
+  </si>
+  <si>
+    <t>V-275</t>
+  </si>
+  <si>
+    <t>V-280</t>
+  </si>
+  <si>
+    <t>V-285</t>
+  </si>
+  <si>
+    <t>V-290</t>
+  </si>
+  <si>
+    <t>V-295</t>
+  </si>
+  <si>
+    <t>00.03.000</t>
+  </si>
+  <si>
+    <t>00.03.600</t>
+  </si>
+  <si>
+    <t>00.01.800</t>
+  </si>
+  <si>
+    <t>00.00.700</t>
+  </si>
+  <si>
+    <t>00.01.300</t>
+  </si>
+  <si>
+    <t>00.01.875</t>
+  </si>
+  <si>
+    <t>00.00.750</t>
+  </si>
+  <si>
+    <t>00.01.400</t>
+  </si>
+  <si>
+    <t>00.02.300</t>
+  </si>
+  <si>
+    <t>00.03.200</t>
+  </si>
+  <si>
+    <t>00.03.100</t>
+  </si>
+  <si>
+    <t>00.03.900</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="32">
-        <f>'Metadatos V'!E45</f>
+        <f>'Metadatos V'!E77</f>
         <v>0</v>
       </c>
       <c r="E11" s="32">
@@ -2909,10 +3134,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="I28" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,168 +4543,1360 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="94"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E36" s="23"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="94"/>
+      <c r="G36" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="48">
+        <v>16</v>
+      </c>
+      <c r="L36" s="48">
+        <v>1</v>
+      </c>
+      <c r="M36" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" s="20">
+        <v>-15</v>
+      </c>
+      <c r="O36" s="98" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="94"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="23"/>
+      <c r="B37" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E37" s="23"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="94"/>
+      <c r="G37" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="48">
+        <v>16</v>
+      </c>
+      <c r="L37" s="48">
+        <v>1</v>
+      </c>
+      <c r="M37" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="20">
+        <v>-15</v>
+      </c>
+      <c r="O37" s="98" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="94"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="23"/>
+      <c r="B38" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E38" s="23"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="94"/>
+      <c r="G38" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="48">
+        <v>16</v>
+      </c>
+      <c r="L38" s="48">
+        <v>1</v>
+      </c>
+      <c r="M38" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="N38" s="20">
+        <v>-19</v>
+      </c>
+      <c r="O38" s="98" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="94"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="23"/>
+      <c r="B39" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E39" s="23"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="94"/>
+      <c r="G39" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="48">
+        <v>16</v>
+      </c>
+      <c r="L39" s="48">
+        <v>1</v>
+      </c>
+      <c r="M39" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="N39" s="20">
+        <v>-17</v>
+      </c>
+      <c r="O39" s="98" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="94"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="23"/>
+      <c r="B40" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E40" s="23"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="94"/>
+      <c r="G40" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="48">
+        <v>16</v>
+      </c>
+      <c r="L40" s="48">
+        <v>1</v>
+      </c>
+      <c r="M40" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N40" s="20">
+        <v>-20</v>
+      </c>
+      <c r="O40" s="98" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="94"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="23"/>
+      <c r="B41" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E41" s="23"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="94"/>
+      <c r="G41" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="48">
+        <v>16</v>
+      </c>
+      <c r="L41" s="48">
+        <v>1</v>
+      </c>
+      <c r="M41" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" s="20">
+        <v>-18</v>
+      </c>
+      <c r="O41" s="98" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="94"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="23"/>
+      <c r="B42" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E42" s="23"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="94"/>
+      <c r="G42" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="48">
+        <v>16</v>
+      </c>
+      <c r="L42" s="48">
+        <v>1</v>
+      </c>
+      <c r="M42" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="N42" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O42" s="98" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="94"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="23"/>
+      <c r="B43" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E43" s="23"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="94"/>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="48">
+        <v>16</v>
+      </c>
+      <c r="L43" s="48">
+        <v>1</v>
+      </c>
+      <c r="M43" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="N43" s="20">
+        <v>-14</v>
+      </c>
+      <c r="O43" s="98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="94"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="89"/>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="19">
-        <f>COUNTA(D4:D44)</f>
-        <v>32</v>
-      </c>
-      <c r="E45" s="19">
-        <f>COUNTA(E4:E44)</f>
+      <c r="B44" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="48">
+        <v>16</v>
+      </c>
+      <c r="L44" s="48">
+        <v>1</v>
+      </c>
+      <c r="M44" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="N44" s="20">
+        <v>-13</v>
+      </c>
+      <c r="O44" s="98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="94"/>
+      <c r="B45" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="48">
+        <v>16</v>
+      </c>
+      <c r="L45" s="48">
+        <v>1</v>
+      </c>
+      <c r="M45" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="N45" s="20">
+        <v>-20</v>
+      </c>
+      <c r="O45" s="98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="94"/>
+      <c r="B46" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="48">
+        <v>16</v>
+      </c>
+      <c r="L46" s="48">
+        <v>1</v>
+      </c>
+      <c r="M46" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="N46" s="20">
+        <v>-14</v>
+      </c>
+      <c r="O46" s="98" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="94"/>
+      <c r="B47" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="48">
+        <v>16</v>
+      </c>
+      <c r="L47" s="48">
+        <v>1</v>
+      </c>
+      <c r="M47" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N47" s="20">
+        <v>-11</v>
+      </c>
+      <c r="O47" s="98" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="94"/>
+      <c r="B48" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="23"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K48" s="48">
+        <v>16</v>
+      </c>
+      <c r="L48" s="48">
+        <v>1</v>
+      </c>
+      <c r="M48" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="N48" s="20">
+        <v>-13</v>
+      </c>
+      <c r="O48" s="98" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="94"/>
+      <c r="B49" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="48">
+        <v>16</v>
+      </c>
+      <c r="L49" s="48">
+        <v>1</v>
+      </c>
+      <c r="M49" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="N49" s="20">
+        <v>-11</v>
+      </c>
+      <c r="O49" s="98" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="94"/>
+      <c r="B50" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="48">
+        <v>16</v>
+      </c>
+      <c r="L50" s="48">
+        <v>1</v>
+      </c>
+      <c r="M50" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N50" s="20">
+        <v>-19</v>
+      </c>
+      <c r="O50" s="98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="94"/>
+      <c r="B51" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="48">
+        <v>16</v>
+      </c>
+      <c r="L51" s="48">
+        <v>1</v>
+      </c>
+      <c r="M51" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N51" s="20">
+        <v>-19</v>
+      </c>
+      <c r="O51" s="98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="94"/>
+      <c r="B52" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="48">
+        <v>16</v>
+      </c>
+      <c r="L52" s="48">
+        <v>1</v>
+      </c>
+      <c r="M52" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N52" s="20">
+        <v>-19</v>
+      </c>
+      <c r="O52" s="98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="94"/>
+      <c r="B53" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="23"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="48">
+        <v>16</v>
+      </c>
+      <c r="L53" s="48">
+        <v>1</v>
+      </c>
+      <c r="M53" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="N53" s="20">
+        <v>-20</v>
+      </c>
+      <c r="O53" s="98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="94"/>
+      <c r="B54" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="23"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H54" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="48">
+        <v>16</v>
+      </c>
+      <c r="L54" s="48">
+        <v>1</v>
+      </c>
+      <c r="M54" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N54" s="20">
+        <v>-19</v>
+      </c>
+      <c r="O54" s="98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="94"/>
+      <c r="B55" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="23"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="48">
+        <v>16</v>
+      </c>
+      <c r="L55" s="48">
+        <v>1</v>
+      </c>
+      <c r="M55" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="N55" s="20">
+        <v>-20</v>
+      </c>
+      <c r="O55" s="98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="94"/>
+      <c r="B56" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="48">
+        <v>16</v>
+      </c>
+      <c r="L56" s="48">
+        <v>1</v>
+      </c>
+      <c r="M56" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="N56" s="20">
+        <v>-15</v>
+      </c>
+      <c r="O56" s="98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="94"/>
+      <c r="B57" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="23"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="48">
+        <v>16</v>
+      </c>
+      <c r="L57" s="48">
+        <v>1</v>
+      </c>
+      <c r="M57" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="N57" s="20">
+        <v>-15</v>
+      </c>
+      <c r="O57" s="98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="94"/>
+      <c r="B58" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C58" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="23"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="48">
+        <v>16</v>
+      </c>
+      <c r="L58" s="48">
+        <v>1</v>
+      </c>
+      <c r="M58" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="N58" s="20">
+        <v>-15</v>
+      </c>
+      <c r="O58" s="98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="94"/>
+      <c r="B59" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="48">
+        <v>16</v>
+      </c>
+      <c r="L59" s="48">
+        <v>1</v>
+      </c>
+      <c r="M59" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="N59" s="20">
+        <v>-15</v>
+      </c>
+      <c r="O59" s="98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="94"/>
+      <c r="B60" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="48">
+        <v>16</v>
+      </c>
+      <c r="L60" s="48">
+        <v>1</v>
+      </c>
+      <c r="M60" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="N60" s="20">
+        <v>-14</v>
+      </c>
+      <c r="O60" s="98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="94"/>
+      <c r="B61" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="23"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="48">
+        <v>16</v>
+      </c>
+      <c r="L61" s="48">
+        <v>1</v>
+      </c>
+      <c r="M61" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="N61" s="20">
+        <v>-13</v>
+      </c>
+      <c r="O61" s="98" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="94"/>
+      <c r="B62" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" s="48">
+        <v>16</v>
+      </c>
+      <c r="L62" s="48">
+        <v>1</v>
+      </c>
+      <c r="M62" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="N62" s="20">
+        <v>-13</v>
+      </c>
+      <c r="O62" s="98" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="94"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="98"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="94"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="98"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="94"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="98"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="94"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="98"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="94"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="98"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="94"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="94"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="94"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="94"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="94"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="94"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="94"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="94"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="94"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="94"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="94"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="94"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="94"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="94"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="94"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="94"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="94"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="87"/>
+      <c r="N76" s="87"/>
+      <c r="O76" s="89"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="19">
+        <f>COUNTA(D4:D76)</f>
+        <v>59</v>
+      </c>
+      <c r="E77" s="19">
+        <f>COUNTA(E4:E76)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="19">
-        <f>COUNTA(F4:F44)</f>
+      <c r="F77" s="19">
+        <f>COUNTA(F4:F76)</f>
         <v>0</v>
       </c>
     </row>
@@ -4503,9 +5920,28 @@
     <hyperlink ref="O27" r:id="rId16" location="Personajes!B27" xr:uid="{B04C2F70-42E7-44B0-B051-72C56DAE147B}"/>
     <hyperlink ref="O29" r:id="rId17" location="Personajes!B29" xr:uid="{D2DCFD11-4ABA-44A6-926D-504AE85D63DB}"/>
     <hyperlink ref="O31:O35" r:id="rId18" location="Personajes!B31" display="1.9" xr:uid="{7C818B1F-3C66-49A3-9BC1-56DEFB3B3EF2}"/>
+    <hyperlink ref="O35" r:id="rId19" location="Personajes!B31" xr:uid="{32180BEB-0599-47D7-B37A-E3E9F39E587F}"/>
+    <hyperlink ref="O36" r:id="rId20" location="Personajes!B37" xr:uid="{E976FB3E-BDD2-4FF5-9616-4A074EF111F8}"/>
+    <hyperlink ref="O39" r:id="rId21" location="Personajes!B40" xr:uid="{6D3A29F3-4046-4EB3-827E-6A4E36F3008C}"/>
+    <hyperlink ref="O43" r:id="rId22" location="Personajes!B44" xr:uid="{AEB25276-132E-4E32-8251-385E6DE2BDD4}"/>
+    <hyperlink ref="O46" r:id="rId23" location="Personajes!B47" xr:uid="{8232ED02-497D-4F87-9DCB-0FC0E0B337E5}"/>
+    <hyperlink ref="O50" r:id="rId24" location="Personajes!B51" xr:uid="{E82F8AEF-81D4-4195-9229-4D7045F8B1A4}"/>
+    <hyperlink ref="O52" r:id="rId25" location="Personajes!B53" xr:uid="{CBF5ECD2-755B-4691-9B30-9A6FDB379912}"/>
+    <hyperlink ref="O56" r:id="rId26" location="Personajes!B57" xr:uid="{38455E00-92AC-42EE-8682-2DFBB8B3EA90}"/>
+    <hyperlink ref="O59" r:id="rId27" location="Personajes!B60" xr:uid="{DD8F4AEA-D3E9-476C-929A-815DF1364F50}"/>
+    <hyperlink ref="O61" r:id="rId28" location="Personajes!B62" xr:uid="{BC88D34C-27FC-49E5-9EF8-57882A8948E1}"/>
+    <hyperlink ref="O37:O38" r:id="rId29" location="Personajes!B37" display="2.1" xr:uid="{7E687246-EC35-4F51-B65E-134E8FB881A8}"/>
+    <hyperlink ref="O40:O42" r:id="rId30" location="Personajes!B40" display="2.2" xr:uid="{DAB6977C-9901-4100-8AA0-A83160E6486E}"/>
+    <hyperlink ref="O44:O45" r:id="rId31" location="Personajes!B44" display="2.3" xr:uid="{ADD79FED-57AE-46BD-860F-1A1D73C84E9C}"/>
+    <hyperlink ref="O47:O49" r:id="rId32" location="Personajes!B47" display="2.4" xr:uid="{0B4C5A4C-6474-4351-995B-531DFBA6C9C9}"/>
+    <hyperlink ref="O51" r:id="rId33" location="Personajes!B51" xr:uid="{17BEAB1D-BCED-411F-80C2-50DD8954E1FB}"/>
+    <hyperlink ref="O53:O55" r:id="rId34" location="Personajes!B53" display="2.6" xr:uid="{9FD7819D-5A82-401C-932C-CA1B704E982E}"/>
+    <hyperlink ref="O57:O58" r:id="rId35" location="Personajes!B57" display="2.7" xr:uid="{B04FAF41-9941-4BF2-924F-25F1939928C0}"/>
+    <hyperlink ref="O60" r:id="rId36" location="Personajes!B60" xr:uid="{E5508906-E8BF-49D2-93B6-8000308BE4E6}"/>
+    <hyperlink ref="O62" r:id="rId37" location="Personajes!B62" xr:uid="{4D7A5D8C-B071-4453-A203-AC18BEF2C66B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId38"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="317">
   <si>
     <t>ID</t>
   </si>
@@ -491,9 +491,6 @@
     <t>00.00.575</t>
   </si>
   <si>
-    <t>00.01.00</t>
-  </si>
-  <si>
     <t>00.01.600</t>
   </si>
   <si>
@@ -723,6 +720,267 @@
   </si>
   <si>
     <t>2.9</t>
+  </si>
+  <si>
+    <t>V-310</t>
+  </si>
+  <si>
+    <t>V-315</t>
+  </si>
+  <si>
+    <t>V-320</t>
+  </si>
+  <si>
+    <t>V-321</t>
+  </si>
+  <si>
+    <t>V-325</t>
+  </si>
+  <si>
+    <t>V-326</t>
+  </si>
+  <si>
+    <t>V-330</t>
+  </si>
+  <si>
+    <t>V-335</t>
+  </si>
+  <si>
+    <t>V-340</t>
+  </si>
+  <si>
+    <t>V-341</t>
+  </si>
+  <si>
+    <t>V-342</t>
+  </si>
+  <si>
+    <t>V-345</t>
+  </si>
+  <si>
+    <t>V-346</t>
+  </si>
+  <si>
+    <t>V-350</t>
+  </si>
+  <si>
+    <t>V-351</t>
+  </si>
+  <si>
+    <t>V-352</t>
+  </si>
+  <si>
+    <t>V-355</t>
+  </si>
+  <si>
+    <t>V-356</t>
+  </si>
+  <si>
+    <t>V-357</t>
+  </si>
+  <si>
+    <t>V-360</t>
+  </si>
+  <si>
+    <t>V-361</t>
+  </si>
+  <si>
+    <t>V-365</t>
+  </si>
+  <si>
+    <t>V-366</t>
+  </si>
+  <si>
+    <t>V-370</t>
+  </si>
+  <si>
+    <t>V-380</t>
+  </si>
+  <si>
+    <t>V-381</t>
+  </si>
+  <si>
+    <t>V-390</t>
+  </si>
+  <si>
+    <t>V-391</t>
+  </si>
+  <si>
+    <t>V-392</t>
+  </si>
+  <si>
+    <t>V-395</t>
+  </si>
+  <si>
+    <t>V-396</t>
+  </si>
+  <si>
+    <t>V-397</t>
+  </si>
+  <si>
+    <t>V-385</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P1ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P1EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P2ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P2ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P2EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P2EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P3ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P3EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P4ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P4ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P4ES_2.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P4EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P4EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P5ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P5EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P5ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P5ES_2.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P5EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P5EN_2.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P6ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P6EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P6ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P6EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P7ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P7EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P8ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P8ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P8EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P9ES_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P9EN_0.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P9ES_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P9ES_2.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P9EN_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/B-P9EN_2.wav</t>
+  </si>
+  <si>
+    <t>00.03.400</t>
+  </si>
+  <si>
+    <t>Efectos varios (consultables en el .aup de Audacity)</t>
+  </si>
+  <si>
+    <t>00.00.850</t>
+  </si>
+  <si>
+    <t>00.01.150</t>
+  </si>
+  <si>
+    <t>00.00.600</t>
+  </si>
+  <si>
+    <t>00.03.500</t>
+  </si>
+  <si>
+    <t>V-375</t>
+  </si>
+  <si>
+    <t>00.02.900</t>
+  </si>
+  <si>
+    <t>00.03.700</t>
+  </si>
+  <si>
+    <t>00.02.100</t>
+  </si>
+  <si>
+    <t>00.01.350</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="32">
-        <f>'Metadatos V'!E77</f>
+        <f>'Metadatos V'!E116</f>
         <v>0</v>
       </c>
       <c r="E11" s="32">
@@ -3134,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I28" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="96" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N31" s="20">
         <v>-20</v>
@@ -4409,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N32" s="20">
         <v>-19</v>
@@ -4491,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N34" s="20">
         <v>-20</v>
@@ -4532,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N35" s="20">
         <v>-19</v>
@@ -4544,10 +4802,10 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="94"/>
       <c r="B36" s="92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" s="95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>4</v>
@@ -4579,16 +4837,16 @@
         <v>-15</v>
       </c>
       <c r="O36" s="98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="94"/>
       <c r="B37" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>4</v>
@@ -4614,22 +4872,22 @@
         <v>1</v>
       </c>
       <c r="M37" s="96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N37" s="20">
         <v>-15</v>
       </c>
       <c r="O37" s="98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="94"/>
       <c r="B38" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>4</v>
@@ -4655,22 +4913,22 @@
         <v>1</v>
       </c>
       <c r="M38" s="96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N38" s="20">
         <v>-19</v>
       </c>
       <c r="O38" s="98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="94"/>
       <c r="B39" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>4</v>
@@ -4696,22 +4954,22 @@
         <v>1</v>
       </c>
       <c r="M39" s="96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N39" s="20">
         <v>-17</v>
       </c>
       <c r="O39" s="98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="94"/>
       <c r="B40" s="92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>4</v>
@@ -4743,16 +5001,16 @@
         <v>-20</v>
       </c>
       <c r="O40" s="98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="94"/>
       <c r="B41" s="92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" s="95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>4</v>
@@ -4784,16 +5042,16 @@
         <v>-18</v>
       </c>
       <c r="O41" s="98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="94"/>
       <c r="B42" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>4</v>
@@ -4819,22 +5077,22 @@
         <v>1</v>
       </c>
       <c r="M42" s="96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N42" s="20">
         <v>-25</v>
       </c>
       <c r="O42" s="98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="94"/>
       <c r="B43" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>4</v>
@@ -4860,22 +5118,22 @@
         <v>1</v>
       </c>
       <c r="M43" s="96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N43" s="20">
         <v>-14</v>
       </c>
       <c r="O43" s="98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="94"/>
       <c r="B44" s="92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C44" s="95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>4</v>
@@ -4901,22 +5159,22 @@
         <v>1</v>
       </c>
       <c r="M44" s="96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N44" s="20">
         <v>-13</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="94"/>
       <c r="B45" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="95" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>4</v>
@@ -4948,16 +5206,16 @@
         <v>-20</v>
       </c>
       <c r="O45" s="98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="94"/>
       <c r="B46" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>4</v>
@@ -4983,22 +5241,22 @@
         <v>1</v>
       </c>
       <c r="M46" s="96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N46" s="20">
         <v>-14</v>
       </c>
       <c r="O46" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="94"/>
       <c r="B47" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>4</v>
@@ -5030,16 +5288,16 @@
         <v>-11</v>
       </c>
       <c r="O47" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="94"/>
       <c r="B48" s="92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>4</v>
@@ -5065,22 +5323,22 @@
         <v>1</v>
       </c>
       <c r="M48" s="96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N48" s="20">
         <v>-13</v>
       </c>
       <c r="O48" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="94"/>
       <c r="B49" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>4</v>
@@ -5106,22 +5364,22 @@
         <v>1</v>
       </c>
       <c r="M49" s="96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N49" s="20">
         <v>-11</v>
       </c>
       <c r="O49" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="94"/>
       <c r="B50" s="92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>4</v>
@@ -5153,16 +5411,16 @@
         <v>-19</v>
       </c>
       <c r="O50" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="94"/>
       <c r="B51" s="92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" s="95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>4</v>
@@ -5194,16 +5452,16 @@
         <v>-19</v>
       </c>
       <c r="O51" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="94"/>
       <c r="B52" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" s="95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>4</v>
@@ -5235,16 +5493,16 @@
         <v>-19</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="94"/>
       <c r="B53" s="92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>4</v>
@@ -5270,22 +5528,22 @@
         <v>1</v>
       </c>
       <c r="M53" s="96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N53" s="20">
         <v>-20</v>
       </c>
       <c r="O53" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="94"/>
       <c r="B54" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C54" s="95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>4</v>
@@ -5317,16 +5575,16 @@
         <v>-19</v>
       </c>
       <c r="O54" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="94"/>
       <c r="B55" s="92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C55" s="95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>4</v>
@@ -5352,22 +5610,22 @@
         <v>1</v>
       </c>
       <c r="M55" s="96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N55" s="20">
         <v>-20</v>
       </c>
       <c r="O55" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="94"/>
       <c r="B56" s="92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>4</v>
@@ -5393,22 +5651,22 @@
         <v>1</v>
       </c>
       <c r="M56" s="96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N56" s="20">
         <v>-15</v>
       </c>
       <c r="O56" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="94"/>
       <c r="B57" s="92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" s="95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>4</v>
@@ -5434,22 +5692,22 @@
         <v>1</v>
       </c>
       <c r="M57" s="96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N57" s="20">
         <v>-15</v>
       </c>
       <c r="O57" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="94"/>
       <c r="B58" s="92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58" s="95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>4</v>
@@ -5475,22 +5733,22 @@
         <v>1</v>
       </c>
       <c r="M58" s="96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N58" s="20">
         <v>-15</v>
       </c>
       <c r="O58" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="94"/>
       <c r="B59" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C59" s="95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>4</v>
@@ -5516,22 +5774,22 @@
         <v>1</v>
       </c>
       <c r="M59" s="96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N59" s="20">
         <v>-15</v>
       </c>
       <c r="O59" s="98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="94"/>
       <c r="B60" s="92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C60" s="95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>4</v>
@@ -5557,22 +5815,22 @@
         <v>1</v>
       </c>
       <c r="M60" s="96" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N60" s="20">
         <v>-14</v>
       </c>
       <c r="O60" s="98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="94"/>
       <c r="B61" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C61" s="95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>4</v>
@@ -5598,22 +5856,22 @@
         <v>1</v>
       </c>
       <c r="M61" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N61" s="20">
         <v>-13</v>
       </c>
       <c r="O61" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="94"/>
       <c r="B62" s="92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C62" s="95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>4</v>
@@ -5639,264 +5897,1743 @@
         <v>1</v>
       </c>
       <c r="M62" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N62" s="20">
         <v>-13</v>
       </c>
       <c r="O62" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="94"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="20"/>
+      <c r="B63" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E63" s="23"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="98"/>
+      <c r="G63" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="48">
+        <v>16</v>
+      </c>
+      <c r="L63" s="48">
+        <v>1</v>
+      </c>
+      <c r="M63" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="N63" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O63" s="98" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="94"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E64" s="23"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="98"/>
+      <c r="G64" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="48">
+        <v>16</v>
+      </c>
+      <c r="L64" s="48">
+        <v>1</v>
+      </c>
+      <c r="M64" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="N64" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O64" s="98" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="94"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="20"/>
+      <c r="B65" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E65" s="23"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="98"/>
+      <c r="G65" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H65" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="48">
+        <v>16</v>
+      </c>
+      <c r="L65" s="48">
+        <v>1</v>
+      </c>
+      <c r="M65" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="N65" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O65" s="98" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="94"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="20"/>
+      <c r="B66" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E66" s="23"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="98"/>
+      <c r="G66" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H66" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I66" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="48">
+        <v>16</v>
+      </c>
+      <c r="L66" s="48">
+        <v>1</v>
+      </c>
+      <c r="M66" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N66" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O66" s="98" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="94"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="20"/>
+      <c r="B67" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E67" s="23"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="98"/>
+      <c r="G67" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="48">
+        <v>16</v>
+      </c>
+      <c r="L67" s="48">
+        <v>1</v>
+      </c>
+      <c r="M67" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="N67" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O67" s="98" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="94"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="23"/>
+      <c r="B68" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E68" s="23"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="94"/>
+      <c r="G68" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K68" s="48">
+        <v>16</v>
+      </c>
+      <c r="L68" s="48">
+        <v>1</v>
+      </c>
+      <c r="M68" s="96" t="s">
+        <v>299</v>
+      </c>
+      <c r="N68" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O68" s="98" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="94"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="23"/>
+      <c r="B69" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E69" s="23"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="94"/>
+      <c r="G69" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="48">
+        <v>16</v>
+      </c>
+      <c r="L69" s="48">
+        <v>1</v>
+      </c>
+      <c r="M69" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="N69" s="20">
+        <v>-26</v>
+      </c>
+      <c r="O69" s="98" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="94"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="23"/>
+      <c r="B70" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E70" s="23"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="94"/>
+      <c r="G70" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="48">
+        <v>16</v>
+      </c>
+      <c r="L70" s="48">
+        <v>1</v>
+      </c>
+      <c r="M70" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="N70" s="20">
+        <v>-31</v>
+      </c>
+      <c r="O70" s="98" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="94"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="23"/>
+      <c r="B71" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E71" s="23"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="94"/>
+      <c r="G71" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="48">
+        <v>16</v>
+      </c>
+      <c r="L71" s="48">
+        <v>1</v>
+      </c>
+      <c r="M71" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="N71" s="20">
+        <v>-26</v>
+      </c>
+      <c r="O71" s="98" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="94"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="23"/>
+      <c r="B72" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E72" s="23"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="48"/>
-      <c r="L72" s="48"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="94"/>
+      <c r="G72" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H72" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" s="48">
+        <v>16</v>
+      </c>
+      <c r="L72" s="48">
+        <v>1</v>
+      </c>
+      <c r="M72" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="N72" s="20">
+        <v>-30</v>
+      </c>
+      <c r="O72" s="98" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="94"/>
-      <c r="B73" s="92"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="23"/>
+      <c r="B73" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E73" s="23"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="94"/>
+      <c r="G73" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73" s="48">
+        <v>16</v>
+      </c>
+      <c r="L73" s="48">
+        <v>1</v>
+      </c>
+      <c r="M73" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="N73" s="20">
+        <v>-27</v>
+      </c>
+      <c r="O73" s="98" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="94"/>
-      <c r="B74" s="92"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="23"/>
+      <c r="B74" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E74" s="23"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="48"/>
-      <c r="L74" s="48"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="94"/>
+      <c r="G74" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H74" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K74" s="48">
+        <v>16</v>
+      </c>
+      <c r="L74" s="48">
+        <v>1</v>
+      </c>
+      <c r="M74" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="N74" s="20">
+        <v>-26</v>
+      </c>
+      <c r="O74" s="98" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="94"/>
-      <c r="B75" s="92"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="23"/>
+      <c r="B75" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>4</v>
+      </c>
       <c r="E75" s="23"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="48"/>
-      <c r="L75" s="48"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="94"/>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H75" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" s="48">
+        <v>16</v>
+      </c>
+      <c r="L75" s="48">
+        <v>1</v>
+      </c>
+      <c r="M75" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="N75" s="20">
+        <v>-27</v>
+      </c>
+      <c r="O75" s="98" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="94"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="88"/>
-      <c r="M76" s="87"/>
-      <c r="N76" s="87"/>
-      <c r="O76" s="89"/>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="19">
-        <f>COUNTA(D4:D76)</f>
-        <v>59</v>
-      </c>
-      <c r="E77" s="19">
-        <f>COUNTA(E4:E76)</f>
+      <c r="B76" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="23"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76" s="48">
+        <v>16</v>
+      </c>
+      <c r="L76" s="48">
+        <v>1</v>
+      </c>
+      <c r="M76" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="N76" s="20">
+        <v>-34</v>
+      </c>
+      <c r="O76" s="98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="94"/>
+      <c r="B77" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="23"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="48">
+        <v>16</v>
+      </c>
+      <c r="L77" s="48">
+        <v>1</v>
+      </c>
+      <c r="M77" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="N77" s="20">
+        <v>-20</v>
+      </c>
+      <c r="O77" s="98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="94"/>
+      <c r="B78" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="23"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H78" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78" s="48">
+        <v>16</v>
+      </c>
+      <c r="L78" s="48">
+        <v>1</v>
+      </c>
+      <c r="M78" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="N78" s="20">
+        <v>-29</v>
+      </c>
+      <c r="O78" s="98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="94"/>
+      <c r="B79" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="23"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79" s="48">
+        <v>16</v>
+      </c>
+      <c r="L79" s="48">
+        <v>1</v>
+      </c>
+      <c r="M79" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N79" s="20">
+        <v>-28</v>
+      </c>
+      <c r="O79" s="98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="94"/>
+      <c r="B80" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="23"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H80" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80" s="48">
+        <v>16</v>
+      </c>
+      <c r="L80" s="48">
+        <v>1</v>
+      </c>
+      <c r="M80" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N80" s="20">
+        <v>-19</v>
+      </c>
+      <c r="O80" s="98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="94"/>
+      <c r="B81" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="23"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K81" s="48">
+        <v>16</v>
+      </c>
+      <c r="L81" s="48">
+        <v>1</v>
+      </c>
+      <c r="M81" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="N81" s="20">
+        <v>-27</v>
+      </c>
+      <c r="O81" s="98" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="94"/>
+      <c r="B82" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="23"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" s="48">
+        <v>16</v>
+      </c>
+      <c r="L82" s="48">
+        <v>1</v>
+      </c>
+      <c r="M82" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="N82" s="20">
+        <v>-36</v>
+      </c>
+      <c r="O82" s="98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="94"/>
+      <c r="B83" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="23"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I83" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83" s="48">
+        <v>16</v>
+      </c>
+      <c r="L83" s="48">
+        <v>1</v>
+      </c>
+      <c r="M83" s="96" t="s">
+        <v>301</v>
+      </c>
+      <c r="N83" s="20">
+        <v>-34</v>
+      </c>
+      <c r="O83" s="98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="94"/>
+      <c r="B84" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="23"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K84" s="48">
+        <v>16</v>
+      </c>
+      <c r="L84" s="48">
+        <v>1</v>
+      </c>
+      <c r="M84" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="N84" s="20">
+        <v>-36</v>
+      </c>
+      <c r="O84" s="98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="94"/>
+      <c r="B85" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="23"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K85" s="48">
+        <v>16</v>
+      </c>
+      <c r="L85" s="48">
+        <v>1</v>
+      </c>
+      <c r="M85" s="96" t="s">
+        <v>301</v>
+      </c>
+      <c r="N85" s="20">
+        <v>-34</v>
+      </c>
+      <c r="O85" s="98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="94"/>
+      <c r="B86" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C86" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="23"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K86" s="48">
+        <v>16</v>
+      </c>
+      <c r="L86" s="48">
+        <v>1</v>
+      </c>
+      <c r="M86" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="N86" s="20">
+        <v>-29</v>
+      </c>
+      <c r="O86" s="98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="94"/>
+      <c r="B87" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="C87" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="23"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="48">
+        <v>16</v>
+      </c>
+      <c r="L87" s="48">
+        <v>1</v>
+      </c>
+      <c r="M87" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="N87" s="20">
+        <v>-29</v>
+      </c>
+      <c r="O87" s="98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="94"/>
+      <c r="B88" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="23"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H88" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="48">
+        <v>16</v>
+      </c>
+      <c r="L88" s="48">
+        <v>1</v>
+      </c>
+      <c r="M88" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="N88" s="20">
+        <v>-28</v>
+      </c>
+      <c r="O88" s="98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="94"/>
+      <c r="B89" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="23"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H89" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89" s="48">
+        <v>16</v>
+      </c>
+      <c r="L89" s="48">
+        <v>1</v>
+      </c>
+      <c r="M89" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="N89" s="20">
+        <v>-32</v>
+      </c>
+      <c r="O89" s="98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="94"/>
+      <c r="B90" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="23"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K90" s="48">
+        <v>16</v>
+      </c>
+      <c r="L90" s="48">
+        <v>1</v>
+      </c>
+      <c r="M90" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="N90" s="20">
+        <v>-28</v>
+      </c>
+      <c r="O90" s="98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="94"/>
+      <c r="B91" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="23"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I91" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91" s="48">
+        <v>16</v>
+      </c>
+      <c r="L91" s="48">
+        <v>1</v>
+      </c>
+      <c r="M91" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="N91" s="20">
+        <v>-23</v>
+      </c>
+      <c r="O91" s="98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="94"/>
+      <c r="B92" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="23"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92" s="48">
+        <v>16</v>
+      </c>
+      <c r="L92" s="48">
+        <v>1</v>
+      </c>
+      <c r="M92" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="N92" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O92" s="98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="94"/>
+      <c r="B93" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="23"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H93" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I93" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93" s="48">
+        <v>16</v>
+      </c>
+      <c r="L93" s="48">
+        <v>1</v>
+      </c>
+      <c r="M93" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="N93" s="20">
+        <v>-23</v>
+      </c>
+      <c r="O93" s="98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="94"/>
+      <c r="B94" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="95" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="23"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H94" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94" s="48">
+        <v>16</v>
+      </c>
+      <c r="L94" s="48">
+        <v>1</v>
+      </c>
+      <c r="M94" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="N94" s="20">
+        <v>-23</v>
+      </c>
+      <c r="O94" s="98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="94"/>
+      <c r="B95" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="C95" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="23"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H95" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K95" s="48">
+        <v>16</v>
+      </c>
+      <c r="L95" s="48">
+        <v>1</v>
+      </c>
+      <c r="M95" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="N95" s="20">
+        <v>-25</v>
+      </c>
+      <c r="O95" s="98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="94"/>
+      <c r="B96" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="23"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H96" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" s="48">
+        <v>16</v>
+      </c>
+      <c r="L96" s="48">
+        <v>1</v>
+      </c>
+      <c r="M96" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="N96" s="20">
+        <v>-23</v>
+      </c>
+      <c r="O96" s="98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="94"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="63"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="96"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="98"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="94"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="63"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="96"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="98"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="94"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="48"/>
+      <c r="M99" s="96"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="98"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="94"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="63"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="96"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="98"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="94"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="96"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="98"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="94"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="96"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="98"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="94"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="47"/>
+      <c r="K103" s="48"/>
+      <c r="L103" s="48"/>
+      <c r="M103" s="96"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="98"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="94"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="95"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="63"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="47"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="96"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="98"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="94"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="95"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="48"/>
+      <c r="L105" s="48"/>
+      <c r="M105" s="96"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="98"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="94"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="95"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="63"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="47"/>
+      <c r="K106" s="48"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="96"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="98"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="94"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="91"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="47"/>
+      <c r="K107" s="48"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="94"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="94"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="91"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="94"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="94"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="91"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="48"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="94"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="94"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="91"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="94"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="94"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="91"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="48"/>
+      <c r="L111" s="48"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="94"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="94"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="91"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="48"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="94"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="94"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="48"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="94"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="94"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="91"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="48"/>
+      <c r="L114" s="48"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="94"/>
+    </row>
+    <row r="115" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="94"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="84"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="86"/>
+      <c r="J115" s="87"/>
+      <c r="K115" s="88"/>
+      <c r="L115" s="88"/>
+      <c r="M115" s="87"/>
+      <c r="N115" s="87"/>
+      <c r="O115" s="89"/>
+    </row>
+    <row r="116" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="19">
+        <f>COUNTA(D4:D115)</f>
+        <v>93</v>
+      </c>
+      <c r="E116" s="19">
+        <f>COUNTA(E4:E115)</f>
         <v>0</v>
       </c>
-      <c r="F77" s="19">
-        <f>COUNTA(F4:F76)</f>
+      <c r="F116" s="19">
+        <f>COUNTA(F4:F115)</f>
         <v>0</v>
       </c>
     </row>
@@ -5939,9 +7676,27 @@
     <hyperlink ref="O57:O58" r:id="rId35" location="Personajes!B57" display="2.7" xr:uid="{B04FAF41-9941-4BF2-924F-25F1939928C0}"/>
     <hyperlink ref="O60" r:id="rId36" location="Personajes!B60" xr:uid="{E5508906-E8BF-49D2-93B6-8000308BE4E6}"/>
     <hyperlink ref="O62" r:id="rId37" location="Personajes!B62" xr:uid="{4D7A5D8C-B071-4453-A203-AC18BEF2C66B}"/>
+    <hyperlink ref="O63" r:id="rId38" location="Personajes!B64" xr:uid="{C6ED0C5D-A122-4F7D-84A1-283B76B6F9AE}"/>
+    <hyperlink ref="O65" r:id="rId39" location="Personajes!B66" xr:uid="{D3A5A1E5-A122-4885-80A2-85DCC72DB805}"/>
+    <hyperlink ref="O69" r:id="rId40" location="Personajes!B70" xr:uid="{DA3ED20A-0D4F-4E9B-B012-E795FBF05D82}"/>
+    <hyperlink ref="O71" r:id="rId41" location="Personajes!B72" xr:uid="{AFE80BEF-15A8-4D7E-B578-4A7E8029BF25}"/>
+    <hyperlink ref="O76" r:id="rId42" location="Personajes!B77" xr:uid="{D84330C9-45C7-4805-B190-ED9AC4CCF420}"/>
+    <hyperlink ref="O82" r:id="rId43" location="Personajes!B83" xr:uid="{3B1320E3-4F69-4A71-B8C9-B248EC150584}"/>
+    <hyperlink ref="O86" r:id="rId44" location="Personajes!B87" xr:uid="{F11006AA-9519-45A2-88A6-8EFB43798C98}"/>
+    <hyperlink ref="O88" r:id="rId45" location="Personajes!B89" xr:uid="{1D1E7D58-1A8E-456A-BE85-FDDE537A8B1F}"/>
+    <hyperlink ref="O91" r:id="rId46" location="Personajes!B92" xr:uid="{3E93AE16-AA16-409D-9C8A-982EBFFEEAC9}"/>
+    <hyperlink ref="O64" r:id="rId47" location="Personajes!B64" xr:uid="{BD88B733-5B0D-44FB-B2FC-E74844849C9B}"/>
+    <hyperlink ref="O66:O68" r:id="rId48" location="Personajes!B66" display="3.2" xr:uid="{1FD704E4-9606-4F5E-BA37-8533362CDF22}"/>
+    <hyperlink ref="O70" r:id="rId49" location="Personajes!B70" xr:uid="{707AA539-D206-415A-B9D9-D4D4DC543C25}"/>
+    <hyperlink ref="O72:O75" r:id="rId50" location="Personajes!B72" display="3.4" xr:uid="{17DE853D-4F86-4FA4-885F-1C77FDFF750B}"/>
+    <hyperlink ref="O77:O81" r:id="rId51" location="Personajes!B77" display="3.5" xr:uid="{9C2F3363-F444-4CBA-B5DA-ADF6A21628E5}"/>
+    <hyperlink ref="O83:O85" r:id="rId52" location="Personajes!B83" display="3.6" xr:uid="{71607043-1BDA-4094-BBBE-38E341349CE1}"/>
+    <hyperlink ref="O87" r:id="rId53" location="Personajes!B87" xr:uid="{75DB7810-AFDC-43DB-8CB9-974E87F69769}"/>
+    <hyperlink ref="O89:O90" r:id="rId54" location="Personajes!B89" display="3.8" xr:uid="{21A954C3-EB34-488B-953A-F74266A8AAF8}"/>
+    <hyperlink ref="O92:O96" r:id="rId55" location="Personajes!B92" display="3.9" xr:uid="{C03D6EEB-CB77-4173-B0A8-1354D40BAB57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId56"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Wasted-Racing\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="735" yWindow="840" windowWidth="26265" windowHeight="7980" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="7620" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="9" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <sheet name="Metadatos D" sheetId="7" r:id="rId6"/>
     <sheet name="Metadatos V" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="402">
   <si>
     <t>ID</t>
   </si>
@@ -981,13 +976,268 @@
   </si>
   <si>
     <t>3.9</t>
+  </si>
+  <si>
+    <t>V-410</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P1ES_0.wav</t>
+  </si>
+  <si>
+    <t>Reducción de ruido, cambio de tono y eco</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>V-411</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P1ES_1.wav</t>
+  </si>
+  <si>
+    <t>V-415</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P1EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-420</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P2ES_0.wav</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-425 </t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P2EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-426</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P2EN_1.wav</t>
+  </si>
+  <si>
+    <t>V-430</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P3ES_0.wav</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>V-431</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P3ES_1.wav</t>
+  </si>
+  <si>
+    <t>V-435</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P3EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-436</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P3EN_1.wav</t>
+  </si>
+  <si>
+    <t>V-440</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P4ES_0.wav</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>V-441</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P4ES_1.wav</t>
+  </si>
+  <si>
+    <t>V-445</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P4EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-450</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P5ES_0.wav</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>V-451</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P5ES_1.wav</t>
+  </si>
+  <si>
+    <t>V-455</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P5EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-456</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P5EN_1.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-460 </t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P6ES_0.wav</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>V-461</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P6ES_1.wav</t>
+  </si>
+  <si>
+    <t>V-465</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P6EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-466</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P6EN_1.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-470 </t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P7ES_0.wav</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>V-475</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P7EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-480</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P8ES_0.wav</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-485 </t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P8EN_0.wav</t>
+  </si>
+  <si>
+    <t>V-490</t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P9ES_0.wav</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-495 </t>
+  </si>
+  <si>
+    <t>Game/media/audio/voices/C-P9EN_0.wav</t>
+  </si>
+  <si>
+    <t>00.02.403</t>
+  </si>
+  <si>
+    <t>00.03.073</t>
+  </si>
+  <si>
+    <t>00.02.450</t>
+  </si>
+  <si>
+    <t>00.01.826</t>
+  </si>
+  <si>
+    <t>00.01.962</t>
+  </si>
+  <si>
+    <t>00.00.940</t>
+  </si>
+  <si>
+    <t>00.01.486</t>
+  </si>
+  <si>
+    <t>00.00.789</t>
+  </si>
+  <si>
+    <t>00.01.614</t>
+  </si>
+  <si>
+    <t>00.00.813</t>
+  </si>
+  <si>
+    <t>00.01.057</t>
+  </si>
+  <si>
+    <t>00.01.823</t>
+  </si>
+  <si>
+    <t>00.01.018</t>
+  </si>
+  <si>
+    <t>00.00.917</t>
+  </si>
+  <si>
+    <t>00.01.303</t>
+  </si>
+  <si>
+    <t>00.01.022</t>
+  </si>
+  <si>
+    <t>00.00.534</t>
+  </si>
+  <si>
+    <t>00.00.627</t>
+  </si>
+  <si>
+    <t>00.03.320</t>
+  </si>
+  <si>
+    <t>00.02.752</t>
+  </si>
+  <si>
+    <t>00.02.577</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,6 +1358,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1129,7 +1407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1432,8 +1710,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -1507,8 +1796,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1673,30 +1964,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1708,9 +1977,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="70"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="70" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="70" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="70" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="71" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="70" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="72">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo 2" xfId="71"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
@@ -1780,6 +2097,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="70"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2083,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -2253,12 +2571,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" location="'Metadatos M'!A1" display="Metadatos Música" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" location="'Metadatos A'!A1" display="Metadatos Ambientes" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" location="'Metadatos H'!A1" display="Metadatos HardFX" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" location="'Metadatos F'!A1" display="Metadatos Foleys" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B10" location="'Metadatos D'!A1" display="Metadatos Diseño" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B11" location="'Metadatos V'!A1" display="Metadatos Voces" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B6" location="'Metadatos M'!A1" display="Metadatos Música"/>
+    <hyperlink ref="B7" location="'Metadatos A'!A1" display="Metadatos Ambientes"/>
+    <hyperlink ref="B8" location="'Metadatos H'!A1" display="Metadatos HardFX"/>
+    <hyperlink ref="B9" location="'Metadatos F'!A1" display="Metadatos Foleys"/>
+    <hyperlink ref="B10" location="'Metadatos D'!A1" display="Metadatos Diseño"/>
+    <hyperlink ref="B11" location="'Metadatos V'!A1" display="Metadatos Voces"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2271,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -2477,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -2683,7 +3001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P17"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -2961,12 +3279,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{7446D709-72BD-4AED-822C-47971524E67A}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{099D432C-2946-4073-925B-53FEA2A67976}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{B4160306-D119-4FAF-8C23-D70122BE1BE1}"/>
-    <hyperlink ref="O4" r:id="rId4" location="'Menu principal'!B6" xr:uid="{BDE91E05-024E-4A3E-957B-74F6524BA8D6}"/>
-    <hyperlink ref="O5" r:id="rId5" location="'Menu principal'!B7" xr:uid="{CE5C9F75-58A8-4DE4-ACA0-F2732AA35A7C}"/>
-    <hyperlink ref="O6" r:id="rId6" location="'Menu principal'!B9" xr:uid="{B4E69740-3721-41B0-A6FF-5C8A82B9257F}"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="O4" r:id="rId4" location="'Menu principal'!B6"/>
+    <hyperlink ref="O5" r:id="rId5" location="'Menu principal'!B7"/>
+    <hyperlink ref="O6" r:id="rId6" location="'Menu principal'!B9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId7"/>
@@ -2979,7 +3297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -3185,7 +3503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -3391,11 +3709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="E106" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3403,7 +3721,8 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" customWidth="1"/>
-    <col min="4" max="6" width="3" style="19" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="19" customWidth="1"/>
+    <col min="5" max="6" width="3" style="19" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="62.5703125" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
@@ -3503,7 +3822,7 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="82" t="s">
         <v>58</v>
       </c>
       <c r="H4" s="63" t="s">
@@ -3535,7 +3854,7 @@
       <c r="B5" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="85" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -3564,7 +3883,7 @@
       <c r="M5" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="97">
+      <c r="N5" s="87">
         <v>-30</v>
       </c>
       <c r="O5" s="81" t="s">
@@ -3575,7 +3894,7 @@
       <c r="B6" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="85" t="s">
         <v>100</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -3615,7 +3934,7 @@
       <c r="B7" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="85" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -3641,7 +3960,7 @@
       <c r="L7" s="48">
         <v>1</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="86" t="s">
         <v>133</v>
       </c>
       <c r="N7" s="20">
@@ -3652,11 +3971,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="92" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="85" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -3682,7 +4001,7 @@
       <c r="L8" s="48">
         <v>1</v>
       </c>
-      <c r="M8" s="96" t="s">
+      <c r="M8" s="86" t="s">
         <v>134</v>
       </c>
       <c r="N8" s="20">
@@ -3693,11 +4012,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="92" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="85" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -3723,7 +4042,7 @@
       <c r="L9" s="48">
         <v>1</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="86" t="s">
         <v>135</v>
       </c>
       <c r="N9" s="20">
@@ -3734,11 +4053,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="92" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="85" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -3764,7 +4083,7 @@
       <c r="L10" s="48">
         <v>1</v>
       </c>
-      <c r="M10" s="96" t="s">
+      <c r="M10" s="86" t="s">
         <v>136</v>
       </c>
       <c r="N10" s="20">
@@ -3775,11 +4094,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="85" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -3805,22 +4124,22 @@
       <c r="L11" s="48">
         <v>1</v>
       </c>
-      <c r="M11" s="96" t="s">
+      <c r="M11" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N11" s="20">
         <v>-23</v>
       </c>
-      <c r="O11" s="98" t="s">
+      <c r="O11" s="88" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="92" t="s">
+      <c r="A12" s="84"/>
+      <c r="B12" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="85" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -3846,22 +4165,22 @@
       <c r="L12" s="48">
         <v>1</v>
       </c>
-      <c r="M12" s="96" t="s">
+      <c r="M12" s="86" t="s">
         <v>138</v>
       </c>
       <c r="N12" s="20">
         <v>-28</v>
       </c>
-      <c r="O12" s="98" t="s">
+      <c r="O12" s="88" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="92" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="85" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -3887,22 +4206,22 @@
       <c r="L13" s="48">
         <v>1</v>
       </c>
-      <c r="M13" s="96" t="s">
+      <c r="M13" s="86" t="s">
         <v>139</v>
       </c>
       <c r="N13" s="20">
         <v>-25</v>
       </c>
-      <c r="O13" s="98" t="s">
+      <c r="O13" s="88" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="92" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="85" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -3928,22 +4247,22 @@
       <c r="L14" s="48">
         <v>1</v>
       </c>
-      <c r="M14" s="96" t="s">
+      <c r="M14" s="86" t="s">
         <v>138</v>
       </c>
       <c r="N14" s="20">
         <v>-28</v>
       </c>
-      <c r="O14" s="98" t="s">
+      <c r="O14" s="88" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="92" t="s">
+      <c r="A15" s="84"/>
+      <c r="B15" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="85" t="s">
         <v>109</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -3969,22 +4288,22 @@
       <c r="L15" s="48">
         <v>1</v>
       </c>
-      <c r="M15" s="96" t="s">
+      <c r="M15" s="86" t="s">
         <v>140</v>
       </c>
       <c r="N15" s="20">
         <v>-26</v>
       </c>
-      <c r="O15" s="98" t="s">
+      <c r="O15" s="88" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="92" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="85" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -4010,22 +4329,22 @@
       <c r="L16" s="48">
         <v>1</v>
       </c>
-      <c r="M16" s="96" t="s">
+      <c r="M16" s="86" t="s">
         <v>141</v>
       </c>
       <c r="N16" s="20">
         <v>-25</v>
       </c>
-      <c r="O16" s="98" t="s">
+      <c r="O16" s="88" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="85" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="20" t="s">
@@ -4051,22 +4370,22 @@
       <c r="L17" s="48">
         <v>1</v>
       </c>
-      <c r="M17" s="96" t="s">
+      <c r="M17" s="86" t="s">
         <v>133</v>
       </c>
       <c r="N17" s="20">
         <v>-25</v>
       </c>
-      <c r="O17" s="98" t="s">
+      <c r="O17" s="88" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="92" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="85" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -4092,22 +4411,22 @@
       <c r="L18" s="48">
         <v>1</v>
       </c>
-      <c r="M18" s="96" t="s">
+      <c r="M18" s="86" t="s">
         <v>142</v>
       </c>
       <c r="N18" s="20">
         <v>-24</v>
       </c>
-      <c r="O18" s="98" t="s">
+      <c r="O18" s="88" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="92" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="85" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -4133,22 +4452,22 @@
       <c r="L19" s="48">
         <v>1</v>
       </c>
-      <c r="M19" s="96" t="s">
+      <c r="M19" s="86" t="s">
         <v>143</v>
       </c>
       <c r="N19" s="20">
         <v>-26</v>
       </c>
-      <c r="O19" s="98" t="s">
+      <c r="O19" s="88" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="92" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="85" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -4174,22 +4493,22 @@
       <c r="L20" s="48">
         <v>1</v>
       </c>
-      <c r="M20" s="96" t="s">
+      <c r="M20" s="86" t="s">
         <v>134</v>
       </c>
       <c r="N20" s="20">
         <v>-29</v>
       </c>
-      <c r="O20" s="98" t="s">
+      <c r="O20" s="88" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="92" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="85" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -4215,22 +4534,22 @@
       <c r="L21" s="48">
         <v>1</v>
       </c>
-      <c r="M21" s="96" t="s">
+      <c r="M21" s="86" t="s">
         <v>144</v>
       </c>
       <c r="N21" s="20">
         <v>-24</v>
       </c>
-      <c r="O21" s="98" t="s">
+      <c r="O21" s="88" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="92" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="85" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -4256,22 +4575,22 @@
       <c r="L22" s="48">
         <v>1</v>
       </c>
-      <c r="M22" s="96" t="s">
+      <c r="M22" s="86" t="s">
         <v>142</v>
       </c>
       <c r="N22" s="20">
         <v>-27</v>
       </c>
-      <c r="O22" s="98" t="s">
+      <c r="O22" s="88" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="85" t="s">
         <v>117</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -4297,22 +4616,22 @@
       <c r="L23" s="48">
         <v>1</v>
       </c>
-      <c r="M23" s="96" t="s">
+      <c r="M23" s="86" t="s">
         <v>145</v>
       </c>
       <c r="N23" s="20">
         <v>-26</v>
       </c>
-      <c r="O23" s="98" t="s">
+      <c r="O23" s="88" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="92" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="85" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -4338,22 +4657,22 @@
       <c r="L24" s="48">
         <v>1</v>
       </c>
-      <c r="M24" s="96" t="s">
+      <c r="M24" s="86" t="s">
         <v>146</v>
       </c>
       <c r="N24" s="20">
         <v>-26</v>
       </c>
-      <c r="O24" s="98" t="s">
+      <c r="O24" s="88" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="92" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="85" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -4379,22 +4698,22 @@
       <c r="L25" s="48">
         <v>1</v>
       </c>
-      <c r="M25" s="96" t="s">
+      <c r="M25" s="86" t="s">
         <v>147</v>
       </c>
       <c r="N25" s="20">
         <v>-23</v>
       </c>
-      <c r="O25" s="98" t="s">
+      <c r="O25" s="88" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="92" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="85" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -4420,22 +4739,22 @@
       <c r="L26" s="48">
         <v>1</v>
       </c>
-      <c r="M26" s="96" t="s">
+      <c r="M26" s="86" t="s">
         <v>148</v>
       </c>
       <c r="N26" s="20">
         <v>-27</v>
       </c>
-      <c r="O26" s="98" t="s">
+      <c r="O26" s="88" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="92" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="85" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -4461,22 +4780,22 @@
       <c r="L27" s="48">
         <v>1</v>
       </c>
-      <c r="M27" s="96" t="s">
+      <c r="M27" s="86" t="s">
         <v>149</v>
       </c>
       <c r="N27" s="20">
         <v>-29</v>
       </c>
-      <c r="O27" s="98" t="s">
+      <c r="O27" s="88" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="92" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="85" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -4502,22 +4821,22 @@
       <c r="L28" s="48">
         <v>1</v>
       </c>
-      <c r="M28" s="96" t="s">
+      <c r="M28" s="86" t="s">
         <v>150</v>
       </c>
       <c r="N28" s="20">
         <v>-29</v>
       </c>
-      <c r="O28" s="98" t="s">
+      <c r="O28" s="88" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="92" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C29" s="85" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -4543,22 +4862,22 @@
       <c r="L29" s="48">
         <v>1</v>
       </c>
-      <c r="M29" s="96" t="s">
+      <c r="M29" s="86" t="s">
         <v>151</v>
       </c>
       <c r="N29" s="20">
         <v>-28</v>
       </c>
-      <c r="O29" s="98" t="s">
+      <c r="O29" s="88" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="92" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="85" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -4584,22 +4903,22 @@
       <c r="L30" s="48">
         <v>1</v>
       </c>
-      <c r="M30" s="96" t="s">
+      <c r="M30" s="86" t="s">
         <v>152</v>
       </c>
       <c r="N30" s="20">
         <v>-22</v>
       </c>
-      <c r="O30" s="98" t="s">
+      <c r="O30" s="88" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="92" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="85" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -4625,22 +4944,22 @@
       <c r="L31" s="48">
         <v>1</v>
       </c>
-      <c r="M31" s="96" t="s">
+      <c r="M31" s="86" t="s">
         <v>154</v>
       </c>
       <c r="N31" s="20">
         <v>-20</v>
       </c>
-      <c r="O31" s="98" t="s">
+      <c r="O31" s="88" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="92" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="85" t="s">
         <v>127</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -4666,22 +4985,22 @@
       <c r="L32" s="48">
         <v>1</v>
       </c>
-      <c r="M32" s="96" t="s">
+      <c r="M32" s="86" t="s">
         <v>153</v>
       </c>
       <c r="N32" s="20">
         <v>-19</v>
       </c>
-      <c r="O32" s="98" t="s">
+      <c r="O32" s="88" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="92" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="85" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -4707,22 +5026,22 @@
       <c r="L33" s="48">
         <v>1</v>
       </c>
-      <c r="M33" s="96" t="s">
+      <c r="M33" s="86" t="s">
         <v>152</v>
       </c>
       <c r="N33" s="20">
         <v>-22</v>
       </c>
-      <c r="O33" s="98" t="s">
+      <c r="O33" s="88" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="92" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="C34" s="85" t="s">
         <v>128</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -4748,22 +5067,22 @@
       <c r="L34" s="48">
         <v>1</v>
       </c>
-      <c r="M34" s="96" t="s">
+      <c r="M34" s="86" t="s">
         <v>154</v>
       </c>
       <c r="N34" s="20">
         <v>-20</v>
       </c>
-      <c r="O34" s="98" t="s">
+      <c r="O34" s="88" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="92" t="s">
+      <c r="A35" s="84"/>
+      <c r="B35" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="85" t="s">
         <v>129</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -4789,22 +5108,22 @@
       <c r="L35" s="48">
         <v>1</v>
       </c>
-      <c r="M35" s="96" t="s">
+      <c r="M35" s="86" t="s">
         <v>153</v>
       </c>
       <c r="N35" s="20">
         <v>-19</v>
       </c>
-      <c r="O35" s="98" t="s">
+      <c r="O35" s="88" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="92" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="C36" s="85" t="s">
         <v>155</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -4830,22 +5149,22 @@
       <c r="L36" s="48">
         <v>1</v>
       </c>
-      <c r="M36" s="96" t="s">
+      <c r="M36" s="86" t="s">
         <v>131</v>
       </c>
       <c r="N36" s="20">
         <v>-15</v>
       </c>
-      <c r="O36" s="98" t="s">
+      <c r="O36" s="88" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="92" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="85" t="s">
         <v>156</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -4871,22 +5190,22 @@
       <c r="L37" s="48">
         <v>1</v>
       </c>
-      <c r="M37" s="96" t="s">
+      <c r="M37" s="86" t="s">
         <v>209</v>
       </c>
       <c r="N37" s="20">
         <v>-15</v>
       </c>
-      <c r="O37" s="98" t="s">
+      <c r="O37" s="88" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="92" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C38" s="85" t="s">
         <v>157</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -4912,22 +5231,22 @@
       <c r="L38" s="48">
         <v>1</v>
       </c>
-      <c r="M38" s="96" t="s">
+      <c r="M38" s="86" t="s">
         <v>210</v>
       </c>
       <c r="N38" s="20">
         <v>-19</v>
       </c>
-      <c r="O38" s="98" t="s">
+      <c r="O38" s="88" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="92" t="s">
+      <c r="A39" s="84"/>
+      <c r="B39" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="85" t="s">
         <v>158</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -4953,22 +5272,22 @@
       <c r="L39" s="48">
         <v>1</v>
       </c>
-      <c r="M39" s="96" t="s">
+      <c r="M39" s="86" t="s">
         <v>211</v>
       </c>
       <c r="N39" s="20">
         <v>-17</v>
       </c>
-      <c r="O39" s="98" t="s">
+      <c r="O39" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="92" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="85" t="s">
         <v>159</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -4994,22 +5313,22 @@
       <c r="L40" s="48">
         <v>1</v>
       </c>
-      <c r="M40" s="96" t="s">
+      <c r="M40" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N40" s="20">
         <v>-20</v>
       </c>
-      <c r="O40" s="98" t="s">
+      <c r="O40" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="92" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="85" t="s">
         <v>160</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -5035,22 +5354,22 @@
       <c r="L41" s="48">
         <v>1</v>
       </c>
-      <c r="M41" s="96" t="s">
+      <c r="M41" s="86" t="s">
         <v>130</v>
       </c>
       <c r="N41" s="20">
         <v>-18</v>
       </c>
-      <c r="O41" s="98" t="s">
+      <c r="O41" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="92" t="s">
+      <c r="A42" s="84"/>
+      <c r="B42" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="85" t="s">
         <v>161</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -5076,22 +5395,22 @@
       <c r="L42" s="48">
         <v>1</v>
       </c>
-      <c r="M42" s="96" t="s">
+      <c r="M42" s="86" t="s">
         <v>212</v>
       </c>
       <c r="N42" s="20">
         <v>-25</v>
       </c>
-      <c r="O42" s="98" t="s">
+      <c r="O42" s="88" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="92" t="s">
+      <c r="A43" s="84"/>
+      <c r="B43" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="95" t="s">
+      <c r="C43" s="85" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -5117,22 +5436,22 @@
       <c r="L43" s="48">
         <v>1</v>
       </c>
-      <c r="M43" s="96" t="s">
+      <c r="M43" s="86" t="s">
         <v>213</v>
       </c>
       <c r="N43" s="20">
         <v>-14</v>
       </c>
-      <c r="O43" s="98" t="s">
+      <c r="O43" s="88" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
-      <c r="B44" s="92" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="95" t="s">
+      <c r="C44" s="85" t="s">
         <v>164</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -5158,22 +5477,22 @@
       <c r="L44" s="48">
         <v>1</v>
       </c>
-      <c r="M44" s="96" t="s">
+      <c r="M44" s="86" t="s">
         <v>214</v>
       </c>
       <c r="N44" s="20">
         <v>-13</v>
       </c>
-      <c r="O44" s="98" t="s">
+      <c r="O44" s="88" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
-      <c r="B45" s="92" t="s">
+      <c r="A45" s="84"/>
+      <c r="B45" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="95" t="s">
+      <c r="C45" s="85" t="s">
         <v>165</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -5199,22 +5518,22 @@
       <c r="L45" s="48">
         <v>1</v>
       </c>
-      <c r="M45" s="96" t="s">
+      <c r="M45" s="86" t="s">
         <v>135</v>
       </c>
       <c r="N45" s="20">
         <v>-20</v>
       </c>
-      <c r="O45" s="98" t="s">
+      <c r="O45" s="88" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="92" t="s">
+      <c r="A46" s="84"/>
+      <c r="B46" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="95" t="s">
+      <c r="C46" s="85" t="s">
         <v>163</v>
       </c>
       <c r="D46" s="20" t="s">
@@ -5240,22 +5559,22 @@
       <c r="L46" s="48">
         <v>1</v>
       </c>
-      <c r="M46" s="96" t="s">
+      <c r="M46" s="86" t="s">
         <v>215</v>
       </c>
       <c r="N46" s="20">
         <v>-14</v>
       </c>
-      <c r="O46" s="98" t="s">
+      <c r="O46" s="88" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
-      <c r="B47" s="92" t="s">
+      <c r="A47" s="84"/>
+      <c r="B47" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="95" t="s">
+      <c r="C47" s="85" t="s">
         <v>166</v>
       </c>
       <c r="D47" s="20" t="s">
@@ -5281,22 +5600,22 @@
       <c r="L47" s="48">
         <v>1</v>
       </c>
-      <c r="M47" s="96" t="s">
+      <c r="M47" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N47" s="20">
         <v>-11</v>
       </c>
-      <c r="O47" s="98" t="s">
+      <c r="O47" s="88" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="92" t="s">
+      <c r="A48" s="84"/>
+      <c r="B48" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="95" t="s">
+      <c r="C48" s="85" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -5322,22 +5641,22 @@
       <c r="L48" s="48">
         <v>1</v>
       </c>
-      <c r="M48" s="96" t="s">
+      <c r="M48" s="86" t="s">
         <v>216</v>
       </c>
       <c r="N48" s="20">
         <v>-13</v>
       </c>
-      <c r="O48" s="98" t="s">
+      <c r="O48" s="88" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
-      <c r="B49" s="92" t="s">
+      <c r="A49" s="84"/>
+      <c r="B49" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="95" t="s">
+      <c r="C49" s="85" t="s">
         <v>168</v>
       </c>
       <c r="D49" s="20" t="s">
@@ -5363,22 +5682,22 @@
       <c r="L49" s="48">
         <v>1</v>
       </c>
-      <c r="M49" s="96" t="s">
+      <c r="M49" s="86" t="s">
         <v>212</v>
       </c>
       <c r="N49" s="20">
         <v>-11</v>
       </c>
-      <c r="O49" s="98" t="s">
+      <c r="O49" s="88" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
-      <c r="B50" s="92" t="s">
+      <c r="A50" s="84"/>
+      <c r="B50" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="95" t="s">
+      <c r="C50" s="85" t="s">
         <v>169</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -5404,22 +5723,22 @@
       <c r="L50" s="48">
         <v>1</v>
       </c>
-      <c r="M50" s="96" t="s">
+      <c r="M50" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N50" s="20">
         <v>-19</v>
       </c>
-      <c r="O50" s="98" t="s">
+      <c r="O50" s="88" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="92" t="s">
+      <c r="A51" s="84"/>
+      <c r="B51" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="85" t="s">
         <v>170</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -5445,22 +5764,22 @@
       <c r="L51" s="48">
         <v>1</v>
       </c>
-      <c r="M51" s="96" t="s">
+      <c r="M51" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N51" s="20">
         <v>-19</v>
       </c>
-      <c r="O51" s="98" t="s">
+      <c r="O51" s="88" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
-      <c r="B52" s="92" t="s">
+      <c r="A52" s="84"/>
+      <c r="B52" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="95" t="s">
+      <c r="C52" s="85" t="s">
         <v>171</v>
       </c>
       <c r="D52" s="20" t="s">
@@ -5486,22 +5805,22 @@
       <c r="L52" s="48">
         <v>1</v>
       </c>
-      <c r="M52" s="96" t="s">
+      <c r="M52" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N52" s="20">
         <v>-19</v>
       </c>
-      <c r="O52" s="98" t="s">
+      <c r="O52" s="88" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="92" t="s">
+      <c r="A53" s="84"/>
+      <c r="B53" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="95" t="s">
+      <c r="C53" s="85" t="s">
         <v>173</v>
       </c>
       <c r="D53" s="20" t="s">
@@ -5527,22 +5846,22 @@
       <c r="L53" s="48">
         <v>1</v>
       </c>
-      <c r="M53" s="96" t="s">
+      <c r="M53" s="86" t="s">
         <v>215</v>
       </c>
       <c r="N53" s="20">
         <v>-20</v>
       </c>
-      <c r="O53" s="98" t="s">
+      <c r="O53" s="88" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="92" t="s">
+      <c r="A54" s="84"/>
+      <c r="B54" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="95" t="s">
+      <c r="C54" s="85" t="s">
         <v>172</v>
       </c>
       <c r="D54" s="20" t="s">
@@ -5568,22 +5887,22 @@
       <c r="L54" s="48">
         <v>1</v>
       </c>
-      <c r="M54" s="96" t="s">
+      <c r="M54" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N54" s="20">
         <v>-19</v>
       </c>
-      <c r="O54" s="98" t="s">
+      <c r="O54" s="88" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="94"/>
-      <c r="B55" s="92" t="s">
+      <c r="A55" s="84"/>
+      <c r="B55" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="95" t="s">
+      <c r="C55" s="85" t="s">
         <v>174</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -5609,22 +5928,22 @@
       <c r="L55" s="48">
         <v>1</v>
       </c>
-      <c r="M55" s="96" t="s">
+      <c r="M55" s="86" t="s">
         <v>215</v>
       </c>
       <c r="N55" s="20">
         <v>-20</v>
       </c>
-      <c r="O55" s="98" t="s">
+      <c r="O55" s="88" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
-      <c r="B56" s="92" t="s">
+      <c r="A56" s="84"/>
+      <c r="B56" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="95" t="s">
+      <c r="C56" s="85" t="s">
         <v>175</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -5650,22 +5969,22 @@
       <c r="L56" s="48">
         <v>1</v>
       </c>
-      <c r="M56" s="96" t="s">
+      <c r="M56" s="86" t="s">
         <v>217</v>
       </c>
       <c r="N56" s="20">
         <v>-15</v>
       </c>
-      <c r="O56" s="98" t="s">
+      <c r="O56" s="88" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
-      <c r="B57" s="92" t="s">
+      <c r="A57" s="84"/>
+      <c r="B57" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="95" t="s">
+      <c r="C57" s="85" t="s">
         <v>176</v>
       </c>
       <c r="D57" s="20" t="s">
@@ -5691,22 +6010,22 @@
       <c r="L57" s="48">
         <v>1</v>
       </c>
-      <c r="M57" s="96" t="s">
+      <c r="M57" s="86" t="s">
         <v>218</v>
       </c>
       <c r="N57" s="20">
         <v>-15</v>
       </c>
-      <c r="O57" s="98" t="s">
+      <c r="O57" s="88" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="94"/>
-      <c r="B58" s="92" t="s">
+      <c r="A58" s="84"/>
+      <c r="B58" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="95" t="s">
+      <c r="C58" s="85" t="s">
         <v>177</v>
       </c>
       <c r="D58" s="20" t="s">
@@ -5732,22 +6051,22 @@
       <c r="L58" s="48">
         <v>1</v>
       </c>
-      <c r="M58" s="96" t="s">
+      <c r="M58" s="86" t="s">
         <v>217</v>
       </c>
       <c r="N58" s="20">
         <v>-15</v>
       </c>
-      <c r="O58" s="98" t="s">
+      <c r="O58" s="88" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="94"/>
-      <c r="B59" s="92" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="95" t="s">
+      <c r="C59" s="85" t="s">
         <v>178</v>
       </c>
       <c r="D59" s="20" t="s">
@@ -5773,22 +6092,22 @@
       <c r="L59" s="48">
         <v>1</v>
       </c>
-      <c r="M59" s="96" t="s">
+      <c r="M59" s="86" t="s">
         <v>219</v>
       </c>
       <c r="N59" s="20">
         <v>-15</v>
       </c>
-      <c r="O59" s="98" t="s">
+      <c r="O59" s="88" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="94"/>
-      <c r="B60" s="92" t="s">
+      <c r="A60" s="84"/>
+      <c r="B60" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="95" t="s">
+      <c r="C60" s="85" t="s">
         <v>179</v>
       </c>
       <c r="D60" s="20" t="s">
@@ -5814,22 +6133,22 @@
       <c r="L60" s="48">
         <v>1</v>
       </c>
-      <c r="M60" s="96" t="s">
+      <c r="M60" s="86" t="s">
         <v>220</v>
       </c>
       <c r="N60" s="20">
         <v>-14</v>
       </c>
-      <c r="O60" s="98" t="s">
+      <c r="O60" s="88" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
-      <c r="B61" s="92" t="s">
+      <c r="A61" s="84"/>
+      <c r="B61" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="95" t="s">
+      <c r="C61" s="85" t="s">
         <v>180</v>
       </c>
       <c r="D61" s="20" t="s">
@@ -5855,22 +6174,22 @@
       <c r="L61" s="48">
         <v>1</v>
       </c>
-      <c r="M61" s="96" t="s">
+      <c r="M61" s="86" t="s">
         <v>154</v>
       </c>
       <c r="N61" s="20">
         <v>-13</v>
       </c>
-      <c r="O61" s="98" t="s">
+      <c r="O61" s="88" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
-      <c r="B62" s="92" t="s">
+      <c r="A62" s="84"/>
+      <c r="B62" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="95" t="s">
+      <c r="C62" s="85" t="s">
         <v>181</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -5896,22 +6215,22 @@
       <c r="L62" s="48">
         <v>1</v>
       </c>
-      <c r="M62" s="96" t="s">
+      <c r="M62" s="86" t="s">
         <v>154</v>
       </c>
       <c r="N62" s="20">
         <v>-13</v>
       </c>
-      <c r="O62" s="98" t="s">
+      <c r="O62" s="88" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
-      <c r="B63" s="92" t="s">
+      <c r="A63" s="84"/>
+      <c r="B63" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="95" t="s">
+      <c r="C63" s="85" t="s">
         <v>263</v>
       </c>
       <c r="D63" s="20" t="s">
@@ -5937,22 +6256,22 @@
       <c r="L63" s="48">
         <v>1</v>
       </c>
-      <c r="M63" s="96" t="s">
+      <c r="M63" s="86" t="s">
         <v>297</v>
       </c>
       <c r="N63" s="20">
         <v>-25</v>
       </c>
-      <c r="O63" s="98" t="s">
+      <c r="O63" s="88" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
-      <c r="B64" s="92" t="s">
+      <c r="A64" s="84"/>
+      <c r="B64" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="95" t="s">
+      <c r="C64" s="85" t="s">
         <v>264</v>
       </c>
       <c r="D64" s="20" t="s">
@@ -5978,22 +6297,22 @@
       <c r="L64" s="48">
         <v>1</v>
       </c>
-      <c r="M64" s="96" t="s">
+      <c r="M64" s="86" t="s">
         <v>297</v>
       </c>
       <c r="N64" s="20">
         <v>-25</v>
       </c>
-      <c r="O64" s="98" t="s">
+      <c r="O64" s="88" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
-      <c r="B65" s="92" t="s">
+      <c r="A65" s="84"/>
+      <c r="B65" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="C65" s="95" t="s">
+      <c r="C65" s="85" t="s">
         <v>265</v>
       </c>
       <c r="D65" s="20" t="s">
@@ -6019,22 +6338,22 @@
       <c r="L65" s="48">
         <v>1</v>
       </c>
-      <c r="M65" s="96" t="s">
+      <c r="M65" s="86" t="s">
         <v>216</v>
       </c>
       <c r="N65" s="20">
         <v>-25</v>
       </c>
-      <c r="O65" s="98" t="s">
+      <c r="O65" s="88" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="94"/>
-      <c r="B66" s="92" t="s">
+      <c r="A66" s="84"/>
+      <c r="B66" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="C66" s="95" t="s">
+      <c r="C66" s="85" t="s">
         <v>266</v>
       </c>
       <c r="D66" s="20" t="s">
@@ -6060,22 +6379,22 @@
       <c r="L66" s="48">
         <v>1</v>
       </c>
-      <c r="M66" s="96" t="s">
+      <c r="M66" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N66" s="20">
         <v>-25</v>
       </c>
-      <c r="O66" s="98" t="s">
+      <c r="O66" s="88" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="94"/>
-      <c r="B67" s="92" t="s">
+      <c r="A67" s="84"/>
+      <c r="B67" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="95" t="s">
+      <c r="C67" s="85" t="s">
         <v>267</v>
       </c>
       <c r="D67" s="20" t="s">
@@ -6101,22 +6420,22 @@
       <c r="L67" s="48">
         <v>1</v>
       </c>
-      <c r="M67" s="96" t="s">
+      <c r="M67" s="86" t="s">
         <v>216</v>
       </c>
       <c r="N67" s="20">
         <v>-25</v>
       </c>
-      <c r="O67" s="98" t="s">
+      <c r="O67" s="88" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="92" t="s">
+      <c r="A68" s="84"/>
+      <c r="B68" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="C68" s="95" t="s">
+      <c r="C68" s="85" t="s">
         <v>268</v>
       </c>
       <c r="D68" s="20" t="s">
@@ -6142,22 +6461,22 @@
       <c r="L68" s="48">
         <v>1</v>
       </c>
-      <c r="M68" s="96" t="s">
+      <c r="M68" s="86" t="s">
         <v>299</v>
       </c>
       <c r="N68" s="20">
         <v>-25</v>
       </c>
-      <c r="O68" s="98" t="s">
+      <c r="O68" s="88" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
-      <c r="B69" s="92" t="s">
+      <c r="A69" s="84"/>
+      <c r="B69" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="95" t="s">
+      <c r="C69" s="85" t="s">
         <v>269</v>
       </c>
       <c r="D69" s="20" t="s">
@@ -6183,22 +6502,22 @@
       <c r="L69" s="48">
         <v>1</v>
       </c>
-      <c r="M69" s="96" t="s">
+      <c r="M69" s="86" t="s">
         <v>216</v>
       </c>
       <c r="N69" s="20">
         <v>-26</v>
       </c>
-      <c r="O69" s="98" t="s">
+      <c r="O69" s="88" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="94"/>
-      <c r="B70" s="92" t="s">
+      <c r="A70" s="84"/>
+      <c r="B70" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="95" t="s">
+      <c r="C70" s="85" t="s">
         <v>270</v>
       </c>
       <c r="D70" s="20" t="s">
@@ -6224,22 +6543,22 @@
       <c r="L70" s="48">
         <v>1</v>
       </c>
-      <c r="M70" s="96" t="s">
+      <c r="M70" s="86" t="s">
         <v>153</v>
       </c>
       <c r="N70" s="20">
         <v>-31</v>
       </c>
-      <c r="O70" s="98" t="s">
+      <c r="O70" s="88" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="94"/>
-      <c r="B71" s="92" t="s">
+      <c r="A71" s="84"/>
+      <c r="B71" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="95" t="s">
+      <c r="C71" s="85" t="s">
         <v>271</v>
       </c>
       <c r="D71" s="20" t="s">
@@ -6265,22 +6584,22 @@
       <c r="L71" s="48">
         <v>1</v>
       </c>
-      <c r="M71" s="96" t="s">
+      <c r="M71" s="86" t="s">
         <v>300</v>
       </c>
       <c r="N71" s="20">
         <v>-26</v>
       </c>
-      <c r="O71" s="98" t="s">
+      <c r="O71" s="88" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
-      <c r="B72" s="92" t="s">
+      <c r="A72" s="84"/>
+      <c r="B72" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="95" t="s">
+      <c r="C72" s="85" t="s">
         <v>272</v>
       </c>
       <c r="D72" s="20" t="s">
@@ -6306,22 +6625,22 @@
       <c r="L72" s="48">
         <v>1</v>
       </c>
-      <c r="M72" s="96" t="s">
+      <c r="M72" s="86" t="s">
         <v>153</v>
       </c>
       <c r="N72" s="20">
         <v>-30</v>
       </c>
-      <c r="O72" s="98" t="s">
+      <c r="O72" s="88" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="92" t="s">
+      <c r="A73" s="84"/>
+      <c r="B73" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="95" t="s">
+      <c r="C73" s="85" t="s">
         <v>273</v>
       </c>
       <c r="D73" s="20" t="s">
@@ -6347,22 +6666,22 @@
       <c r="L73" s="48">
         <v>1</v>
       </c>
-      <c r="M73" s="96" t="s">
+      <c r="M73" s="86" t="s">
         <v>144</v>
       </c>
       <c r="N73" s="20">
         <v>-27</v>
       </c>
-      <c r="O73" s="98" t="s">
+      <c r="O73" s="88" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
-      <c r="B74" s="92" t="s">
+      <c r="A74" s="84"/>
+      <c r="B74" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="95" t="s">
+      <c r="C74" s="85" t="s">
         <v>274</v>
       </c>
       <c r="D74" s="20" t="s">
@@ -6388,22 +6707,22 @@
       <c r="L74" s="48">
         <v>1</v>
       </c>
-      <c r="M74" s="96" t="s">
+      <c r="M74" s="86" t="s">
         <v>133</v>
       </c>
       <c r="N74" s="20">
         <v>-26</v>
       </c>
-      <c r="O74" s="98" t="s">
+      <c r="O74" s="88" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="94"/>
-      <c r="B75" s="92" t="s">
+      <c r="A75" s="84"/>
+      <c r="B75" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="95" t="s">
+      <c r="C75" s="85" t="s">
         <v>275</v>
       </c>
       <c r="D75" s="20" t="s">
@@ -6429,22 +6748,22 @@
       <c r="L75" s="48">
         <v>1</v>
       </c>
-      <c r="M75" s="96" t="s">
+      <c r="M75" s="86" t="s">
         <v>212</v>
       </c>
       <c r="N75" s="20">
         <v>-27</v>
       </c>
-      <c r="O75" s="98" t="s">
+      <c r="O75" s="88" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="94"/>
-      <c r="B76" s="92" t="s">
+      <c r="A76" s="84"/>
+      <c r="B76" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="95" t="s">
+      <c r="C76" s="85" t="s">
         <v>276</v>
       </c>
       <c r="D76" s="20" t="s">
@@ -6470,22 +6789,22 @@
       <c r="L76" s="48">
         <v>1</v>
       </c>
-      <c r="M76" s="96" t="s">
+      <c r="M76" s="86" t="s">
         <v>133</v>
       </c>
       <c r="N76" s="20">
         <v>-34</v>
       </c>
-      <c r="O76" s="98" t="s">
+      <c r="O76" s="88" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="94"/>
-      <c r="B77" s="92" t="s">
+      <c r="A77" s="84"/>
+      <c r="B77" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="95" t="s">
+      <c r="C77" s="85" t="s">
         <v>278</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -6511,22 +6830,22 @@
       <c r="L77" s="48">
         <v>1</v>
       </c>
-      <c r="M77" s="96" t="s">
+      <c r="M77" s="86" t="s">
         <v>215</v>
       </c>
       <c r="N77" s="20">
         <v>-20</v>
       </c>
-      <c r="O77" s="98" t="s">
+      <c r="O77" s="88" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="94"/>
-      <c r="B78" s="92" t="s">
+      <c r="A78" s="84"/>
+      <c r="B78" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="95" t="s">
+      <c r="C78" s="85" t="s">
         <v>279</v>
       </c>
       <c r="D78" s="20" t="s">
@@ -6552,22 +6871,22 @@
       <c r="L78" s="48">
         <v>1</v>
       </c>
-      <c r="M78" s="96" t="s">
+      <c r="M78" s="86" t="s">
         <v>212</v>
       </c>
       <c r="N78" s="20">
         <v>-29</v>
       </c>
-      <c r="O78" s="98" t="s">
+      <c r="O78" s="88" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="94"/>
-      <c r="B79" s="92" t="s">
+      <c r="A79" s="84"/>
+      <c r="B79" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="95" t="s">
+      <c r="C79" s="85" t="s">
         <v>277</v>
       </c>
       <c r="D79" s="20" t="s">
@@ -6599,16 +6918,16 @@
       <c r="N79" s="20">
         <v>-28</v>
       </c>
-      <c r="O79" s="98" t="s">
+      <c r="O79" s="88" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="94"/>
-      <c r="B80" s="92" t="s">
+      <c r="A80" s="84"/>
+      <c r="B80" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="95" t="s">
+      <c r="C80" s="85" t="s">
         <v>280</v>
       </c>
       <c r="D80" s="20" t="s">
@@ -6634,22 +6953,22 @@
       <c r="L80" s="48">
         <v>1</v>
       </c>
-      <c r="M80" s="96" t="s">
+      <c r="M80" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N80" s="20">
         <v>-19</v>
       </c>
-      <c r="O80" s="98" t="s">
+      <c r="O80" s="88" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="94"/>
-      <c r="B81" s="92" t="s">
+      <c r="A81" s="84"/>
+      <c r="B81" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="95" t="s">
+      <c r="C81" s="85" t="s">
         <v>281</v>
       </c>
       <c r="D81" s="20" t="s">
@@ -6675,22 +6994,22 @@
       <c r="L81" s="48">
         <v>1</v>
       </c>
-      <c r="M81" s="96" t="s">
+      <c r="M81" s="86" t="s">
         <v>137</v>
       </c>
       <c r="N81" s="20">
         <v>-27</v>
       </c>
-      <c r="O81" s="98" t="s">
+      <c r="O81" s="88" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="94"/>
-      <c r="B82" s="92" t="s">
+      <c r="A82" s="84"/>
+      <c r="B82" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="95" t="s">
+      <c r="C82" s="85" t="s">
         <v>282</v>
       </c>
       <c r="D82" s="20" t="s">
@@ -6716,22 +7035,22 @@
       <c r="L82" s="48">
         <v>1</v>
       </c>
-      <c r="M82" s="96" t="s">
+      <c r="M82" s="86" t="s">
         <v>212</v>
       </c>
       <c r="N82" s="20">
         <v>-36</v>
       </c>
-      <c r="O82" s="98" t="s">
+      <c r="O82" s="88" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
-      <c r="B83" s="92" t="s">
+      <c r="A83" s="84"/>
+      <c r="B83" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="95" t="s">
+      <c r="C83" s="85" t="s">
         <v>284</v>
       </c>
       <c r="D83" s="20" t="s">
@@ -6757,22 +7076,22 @@
       <c r="L83" s="48">
         <v>1</v>
       </c>
-      <c r="M83" s="96" t="s">
+      <c r="M83" s="86" t="s">
         <v>301</v>
       </c>
       <c r="N83" s="20">
         <v>-34</v>
       </c>
-      <c r="O83" s="98" t="s">
+      <c r="O83" s="88" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
-      <c r="B84" s="92" t="s">
+      <c r="A84" s="84"/>
+      <c r="B84" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="C84" s="95" t="s">
+      <c r="C84" s="85" t="s">
         <v>283</v>
       </c>
       <c r="D84" s="20" t="s">
@@ -6798,22 +7117,22 @@
       <c r="L84" s="48">
         <v>1</v>
       </c>
-      <c r="M84" s="96" t="s">
+      <c r="M84" s="86" t="s">
         <v>212</v>
       </c>
       <c r="N84" s="20">
         <v>-36</v>
       </c>
-      <c r="O84" s="98" t="s">
+      <c r="O84" s="88" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="94"/>
-      <c r="B85" s="92" t="s">
+      <c r="A85" s="84"/>
+      <c r="B85" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="95" t="s">
+      <c r="C85" s="85" t="s">
         <v>285</v>
       </c>
       <c r="D85" s="20" t="s">
@@ -6839,22 +7158,22 @@
       <c r="L85" s="48">
         <v>1</v>
       </c>
-      <c r="M85" s="96" t="s">
+      <c r="M85" s="86" t="s">
         <v>301</v>
       </c>
       <c r="N85" s="20">
         <v>-34</v>
       </c>
-      <c r="O85" s="98" t="s">
+      <c r="O85" s="88" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="94"/>
-      <c r="B86" s="92" t="s">
+      <c r="A86" s="84"/>
+      <c r="B86" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="95" t="s">
+      <c r="C86" s="85" t="s">
         <v>286</v>
       </c>
       <c r="D86" s="20" t="s">
@@ -6880,22 +7199,22 @@
       <c r="L86" s="48">
         <v>1</v>
       </c>
-      <c r="M86" s="96" t="s">
+      <c r="M86" s="86" t="s">
         <v>302</v>
       </c>
       <c r="N86" s="20">
         <v>-29</v>
       </c>
-      <c r="O86" s="98" t="s">
+      <c r="O86" s="88" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="94"/>
-      <c r="B87" s="92" t="s">
+      <c r="A87" s="84"/>
+      <c r="B87" s="83" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="95" t="s">
+      <c r="C87" s="85" t="s">
         <v>287</v>
       </c>
       <c r="D87" s="20" t="s">
@@ -6921,22 +7240,22 @@
       <c r="L87" s="48">
         <v>1</v>
       </c>
-      <c r="M87" s="96" t="s">
+      <c r="M87" s="86" t="s">
         <v>304</v>
       </c>
       <c r="N87" s="20">
         <v>-29</v>
       </c>
-      <c r="O87" s="98" t="s">
+      <c r="O87" s="88" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="94"/>
-      <c r="B88" s="92" t="s">
+      <c r="A88" s="84"/>
+      <c r="B88" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="95" t="s">
+      <c r="C88" s="85" t="s">
         <v>288</v>
       </c>
       <c r="D88" s="20" t="s">
@@ -6962,22 +7281,22 @@
       <c r="L88" s="48">
         <v>1</v>
       </c>
-      <c r="M88" s="96" t="s">
+      <c r="M88" s="86" t="s">
         <v>305</v>
       </c>
       <c r="N88" s="20">
         <v>-28</v>
       </c>
-      <c r="O88" s="98" t="s">
+      <c r="O88" s="88" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="94"/>
-      <c r="B89" s="92" t="s">
+      <c r="A89" s="84"/>
+      <c r="B89" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="95" t="s">
+      <c r="C89" s="85" t="s">
         <v>289</v>
       </c>
       <c r="D89" s="20" t="s">
@@ -7003,22 +7322,22 @@
       <c r="L89" s="48">
         <v>1</v>
       </c>
-      <c r="M89" s="96" t="s">
+      <c r="M89" s="86" t="s">
         <v>306</v>
       </c>
       <c r="N89" s="20">
         <v>-32</v>
       </c>
-      <c r="O89" s="98" t="s">
+      <c r="O89" s="88" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="94"/>
-      <c r="B90" s="92" t="s">
+      <c r="A90" s="84"/>
+      <c r="B90" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="95" t="s">
+      <c r="C90" s="85" t="s">
         <v>290</v>
       </c>
       <c r="D90" s="20" t="s">
@@ -7044,22 +7363,22 @@
       <c r="L90" s="48">
         <v>1</v>
       </c>
-      <c r="M90" s="96" t="s">
+      <c r="M90" s="86" t="s">
         <v>305</v>
       </c>
       <c r="N90" s="20">
         <v>-28</v>
       </c>
-      <c r="O90" s="98" t="s">
+      <c r="O90" s="88" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="94"/>
-      <c r="B91" s="92" t="s">
+      <c r="A91" s="84"/>
+      <c r="B91" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="95" t="s">
+      <c r="C91" s="85" t="s">
         <v>291</v>
       </c>
       <c r="D91" s="20" t="s">
@@ -7085,22 +7404,22 @@
       <c r="L91" s="48">
         <v>1</v>
       </c>
-      <c r="M91" s="96" t="s">
+      <c r="M91" s="86" t="s">
         <v>307</v>
       </c>
       <c r="N91" s="20">
         <v>-23</v>
       </c>
-      <c r="O91" s="98" t="s">
+      <c r="O91" s="88" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="94"/>
-      <c r="B92" s="92" t="s">
+      <c r="A92" s="84"/>
+      <c r="B92" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="95" t="s">
+      <c r="C92" s="85" t="s">
         <v>293</v>
       </c>
       <c r="D92" s="20" t="s">
@@ -7126,22 +7445,22 @@
       <c r="L92" s="48">
         <v>1</v>
       </c>
-      <c r="M92" s="96" t="s">
+      <c r="M92" s="86" t="s">
         <v>300</v>
       </c>
       <c r="N92" s="20">
         <v>-25</v>
       </c>
-      <c r="O92" s="98" t="s">
+      <c r="O92" s="88" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="94"/>
-      <c r="B93" s="92" t="s">
+      <c r="A93" s="84"/>
+      <c r="B93" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="95" t="s">
+      <c r="C93" s="85" t="s">
         <v>294</v>
       </c>
       <c r="D93" s="20" t="s">
@@ -7167,22 +7486,22 @@
       <c r="L93" s="48">
         <v>1</v>
       </c>
-      <c r="M93" s="96" t="s">
+      <c r="M93" s="86" t="s">
         <v>213</v>
       </c>
       <c r="N93" s="20">
         <v>-23</v>
       </c>
-      <c r="O93" s="98" t="s">
+      <c r="O93" s="88" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="94"/>
-      <c r="B94" s="92" t="s">
+      <c r="A94" s="84"/>
+      <c r="B94" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="C94" s="95" t="s">
+      <c r="C94" s="85" t="s">
         <v>292</v>
       </c>
       <c r="D94" s="20" t="s">
@@ -7208,22 +7527,22 @@
       <c r="L94" s="48">
         <v>1</v>
       </c>
-      <c r="M94" s="96" t="s">
+      <c r="M94" s="86" t="s">
         <v>307</v>
       </c>
       <c r="N94" s="20">
         <v>-23</v>
       </c>
-      <c r="O94" s="98" t="s">
+      <c r="O94" s="88" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="94"/>
-      <c r="B95" s="92" t="s">
+      <c r="A95" s="84"/>
+      <c r="B95" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="95" t="s">
+      <c r="C95" s="85" t="s">
         <v>295</v>
       </c>
       <c r="D95" s="20" t="s">
@@ -7249,22 +7568,22 @@
       <c r="L95" s="48">
         <v>1</v>
       </c>
-      <c r="M95" s="96" t="s">
+      <c r="M95" s="86" t="s">
         <v>300</v>
       </c>
       <c r="N95" s="20">
         <v>-25</v>
       </c>
-      <c r="O95" s="98" t="s">
+      <c r="O95" s="88" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="94"/>
-      <c r="B96" s="92" t="s">
+      <c r="A96" s="84"/>
+      <c r="B96" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="95" t="s">
+      <c r="C96" s="85" t="s">
         <v>296</v>
       </c>
       <c r="D96" s="20" t="s">
@@ -7290,417 +7609,1239 @@
       <c r="L96" s="48">
         <v>1</v>
       </c>
-      <c r="M96" s="96" t="s">
+      <c r="M96" s="86" t="s">
         <v>213</v>
       </c>
       <c r="N96" s="20">
         <v>-23</v>
       </c>
-      <c r="O96" s="98" t="s">
+      <c r="O96" s="88" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="94"/>
-      <c r="B97" s="92"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="63"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="48"/>
-      <c r="L97" s="48"/>
-      <c r="M97" s="96"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="98"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I97" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="94">
+        <v>16</v>
+      </c>
+      <c r="L97" s="94">
+        <v>1</v>
+      </c>
+      <c r="M97" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="N97" s="92">
+        <v>-36</v>
+      </c>
+      <c r="O97" s="88" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="94"/>
-      <c r="B98" s="92"/>
-      <c r="C98" s="95"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="63"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="48"/>
-      <c r="L98" s="48"/>
-      <c r="M98" s="96"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="98"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="97" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="95" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I98" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="94">
+        <v>16</v>
+      </c>
+      <c r="L98" s="94">
+        <v>1</v>
+      </c>
+      <c r="M98" s="96" t="s">
+        <v>383</v>
+      </c>
+      <c r="N98" s="92">
+        <v>-55</v>
+      </c>
+      <c r="O98" s="88" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="94"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="96"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="98"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I99" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" s="94">
+        <v>16</v>
+      </c>
+      <c r="L99" s="94">
+        <v>1</v>
+      </c>
+      <c r="M99" s="96" t="s">
+        <v>381</v>
+      </c>
+      <c r="N99" s="92">
+        <v>-39</v>
+      </c>
+      <c r="O99" s="88" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="94"/>
-      <c r="B100" s="92"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="63"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="48"/>
-      <c r="L100" s="48"/>
-      <c r="M100" s="96"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="98"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="C100" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H100" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I100" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="94">
+        <v>16</v>
+      </c>
+      <c r="L100" s="94">
+        <v>1</v>
+      </c>
+      <c r="M100" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="N100" s="92">
+        <v>-58</v>
+      </c>
+      <c r="O100" s="88" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="94"/>
-      <c r="B101" s="92"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="47"/>
-      <c r="K101" s="48"/>
-      <c r="L101" s="48"/>
-      <c r="M101" s="96"/>
-      <c r="N101" s="20"/>
-      <c r="O101" s="98"/>
+      <c r="A101" s="84"/>
+      <c r="B101" s="97" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I101" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="94">
+        <v>16</v>
+      </c>
+      <c r="L101" s="94">
+        <v>1</v>
+      </c>
+      <c r="M101" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="N101" s="92">
+        <v>-32</v>
+      </c>
+      <c r="O101" s="88" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="94"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="95"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="48"/>
-      <c r="L102" s="48"/>
-      <c r="M102" s="96"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="98"/>
+      <c r="A102" s="84"/>
+      <c r="B102" s="97" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="D102" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I102" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" s="94">
+        <v>16</v>
+      </c>
+      <c r="L102" s="94">
+        <v>1</v>
+      </c>
+      <c r="M102" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="N102" s="92">
+        <v>-67</v>
+      </c>
+      <c r="O102" s="88" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="94"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="63"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="48"/>
-      <c r="L103" s="48"/>
-      <c r="M103" s="96"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="98"/>
+      <c r="A103" s="84"/>
+      <c r="B103" s="97" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I103" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" s="94">
+        <v>16</v>
+      </c>
+      <c r="L103" s="94">
+        <v>1</v>
+      </c>
+      <c r="M103" s="96" t="s">
+        <v>387</v>
+      </c>
+      <c r="N103" s="92">
+        <v>-38</v>
+      </c>
+      <c r="O103" s="88" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="94"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="95"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="63"/>
-      <c r="H104" s="63"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="47"/>
-      <c r="K104" s="48"/>
-      <c r="L104" s="48"/>
-      <c r="M104" s="96"/>
-      <c r="N104" s="20"/>
-      <c r="O104" s="98"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="C104" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="92"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H104" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I104" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="94">
+        <v>16</v>
+      </c>
+      <c r="L104" s="94">
+        <v>1</v>
+      </c>
+      <c r="M104" s="96" t="s">
+        <v>388</v>
+      </c>
+      <c r="N104" s="92">
+        <v>-73</v>
+      </c>
+      <c r="O104" s="88" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="94"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="95"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="48"/>
-      <c r="L105" s="48"/>
-      <c r="M105" s="96"/>
-      <c r="N105" s="20"/>
-      <c r="O105" s="98"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="C105" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="D105" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I105" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" s="94">
+        <v>16</v>
+      </c>
+      <c r="L105" s="94">
+        <v>1</v>
+      </c>
+      <c r="M105" s="96" t="s">
+        <v>389</v>
+      </c>
+      <c r="N105" s="92">
+        <v>-43</v>
+      </c>
+      <c r="O105" s="88" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="94"/>
-      <c r="B106" s="92"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="63"/>
-      <c r="H106" s="63"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="47"/>
-      <c r="K106" s="48"/>
-      <c r="L106" s="48"/>
-      <c r="M106" s="96"/>
-      <c r="N106" s="20"/>
-      <c r="O106" s="98"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106" s="95" t="s">
+        <v>340</v>
+      </c>
+      <c r="D106" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="92"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I106" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106" s="94">
+        <v>16</v>
+      </c>
+      <c r="L106" s="94">
+        <v>1</v>
+      </c>
+      <c r="M106" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="N106" s="92">
+        <v>-61</v>
+      </c>
+      <c r="O106" s="88" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="94"/>
-      <c r="B107" s="92"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="91"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="48"/>
-      <c r="L107" s="48"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="94"/>
+      <c r="A107" s="84"/>
+      <c r="B107" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="C107" s="95" t="s">
+        <v>342</v>
+      </c>
+      <c r="D107" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I107" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107" s="94">
+        <v>16</v>
+      </c>
+      <c r="L107" s="94">
+        <v>1</v>
+      </c>
+      <c r="M107" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="N107" s="92">
+        <v>-61</v>
+      </c>
+      <c r="O107" s="88" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
-      <c r="B108" s="92"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="91"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="48"/>
-      <c r="L108" s="48"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="94"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="97" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="95" t="s">
+        <v>345</v>
+      </c>
+      <c r="D108" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H108" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I108" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K108" s="94">
+        <v>16</v>
+      </c>
+      <c r="L108" s="94">
+        <v>1</v>
+      </c>
+      <c r="M108" s="96" t="s">
+        <v>392</v>
+      </c>
+      <c r="N108" s="92">
+        <v>-58</v>
+      </c>
+      <c r="O108" s="88" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="94"/>
-      <c r="B109" s="92"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="47"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="48"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="94"/>
+      <c r="A109" s="84"/>
+      <c r="B109" s="97" t="s">
+        <v>346</v>
+      </c>
+      <c r="C109" s="95" t="s">
+        <v>347</v>
+      </c>
+      <c r="D109" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="92"/>
+      <c r="F109" s="92"/>
+      <c r="G109" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I109" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109" s="94">
+        <v>16</v>
+      </c>
+      <c r="L109" s="94">
+        <v>1</v>
+      </c>
+      <c r="M109" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="N109" s="92">
+        <v>-61</v>
+      </c>
+      <c r="O109" s="88" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="94"/>
-      <c r="B110" s="92"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="47"/>
-      <c r="K110" s="48"/>
-      <c r="L110" s="48"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="94"/>
+      <c r="A110" s="84"/>
+      <c r="B110" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="D110" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="92"/>
+      <c r="F110" s="92"/>
+      <c r="G110" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H110" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I110" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K110" s="94">
+        <v>16</v>
+      </c>
+      <c r="L110" s="94">
+        <v>1</v>
+      </c>
+      <c r="M110" s="96" t="s">
+        <v>393</v>
+      </c>
+      <c r="N110" s="92">
+        <v>-51</v>
+      </c>
+      <c r="O110" s="88" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="94"/>
-      <c r="B111" s="92"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="47"/>
-      <c r="K111" s="48"/>
-      <c r="L111" s="48"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="94"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="97" t="s">
+        <v>351</v>
+      </c>
+      <c r="C111" s="95" t="s">
+        <v>352</v>
+      </c>
+      <c r="D111" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="92"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I111" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K111" s="94">
+        <v>16</v>
+      </c>
+      <c r="L111" s="94">
+        <v>1</v>
+      </c>
+      <c r="M111" s="96" t="s">
+        <v>394</v>
+      </c>
+      <c r="N111" s="92">
+        <v>-55</v>
+      </c>
+      <c r="O111" s="88" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="94"/>
-      <c r="B112" s="92"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="91"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="48"/>
-      <c r="L112" s="48"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="94"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="97" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="95" t="s">
+        <v>354</v>
+      </c>
+      <c r="D112" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="92"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I112" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="94">
+        <v>16</v>
+      </c>
+      <c r="L112" s="94">
+        <v>1</v>
+      </c>
+      <c r="M112" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="N112" s="92">
+        <v>-75</v>
+      </c>
+      <c r="O112" s="88" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="94"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="91"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="47"/>
-      <c r="K113" s="48"/>
-      <c r="L113" s="48"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="94"/>
+      <c r="A113" s="84"/>
+      <c r="B113" s="97" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="95" t="s">
+        <v>356</v>
+      </c>
+      <c r="D113" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="92"/>
+      <c r="F113" s="92"/>
+      <c r="G113" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I113" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K113" s="94">
+        <v>16</v>
+      </c>
+      <c r="L113" s="94">
+        <v>1</v>
+      </c>
+      <c r="M113" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="N113" s="92">
+        <v>-38</v>
+      </c>
+      <c r="O113" s="88" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="94"/>
-      <c r="B114" s="92"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="91"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="47"/>
-      <c r="K114" s="48"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="94"/>
-    </row>
-    <row r="115" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="94"/>
-      <c r="B115" s="93"/>
-      <c r="C115" s="82"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="84"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="86"/>
-      <c r="J115" s="87"/>
-      <c r="K115" s="88"/>
-      <c r="L115" s="88"/>
-      <c r="M115" s="87"/>
-      <c r="N115" s="87"/>
-      <c r="O115" s="89"/>
-    </row>
-    <row r="116" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D116" s="19">
-        <f>COUNTA(D4:D115)</f>
-        <v>93</v>
-      </c>
-      <c r="E116" s="19">
-        <f>COUNTA(E4:E115)</f>
+      <c r="A114" s="84"/>
+      <c r="B114" s="97" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="92"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H114" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I114" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114" s="94">
+        <v>16</v>
+      </c>
+      <c r="L114" s="94">
+        <v>1</v>
+      </c>
+      <c r="M114" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="N114" s="92">
+        <v>-65</v>
+      </c>
+      <c r="O114" s="88" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="84"/>
+      <c r="B115" s="97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C115" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="D115" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="92"/>
+      <c r="F115" s="92"/>
+      <c r="G115" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H115" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I115" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" s="94">
+        <v>16</v>
+      </c>
+      <c r="L115" s="94">
+        <v>1</v>
+      </c>
+      <c r="M115" s="96" t="s">
+        <v>398</v>
+      </c>
+      <c r="N115" s="92">
+        <v>-43</v>
+      </c>
+      <c r="O115" s="88" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="C116" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="D116" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="92"/>
+      <c r="F116" s="92"/>
+      <c r="G116" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I116" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K116" s="94">
+        <v>16</v>
+      </c>
+      <c r="L116" s="94">
+        <v>1</v>
+      </c>
+      <c r="M116" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="N116" s="92">
+        <v>-65</v>
+      </c>
+      <c r="O116" s="88" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="C117" s="95" t="s">
+        <v>365</v>
+      </c>
+      <c r="D117" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="92"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I117" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K117" s="94">
+        <v>16</v>
+      </c>
+      <c r="L117" s="94">
+        <v>1</v>
+      </c>
+      <c r="M117" s="96" t="s">
+        <v>398</v>
+      </c>
+      <c r="N117" s="92">
+        <v>-43</v>
+      </c>
+      <c r="O117" s="88" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" s="95" t="s">
+        <v>367</v>
+      </c>
+      <c r="D118" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="92"/>
+      <c r="F118" s="92"/>
+      <c r="G118" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H118" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I118" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K118" s="94">
+        <v>16</v>
+      </c>
+      <c r="L118" s="94">
+        <v>1</v>
+      </c>
+      <c r="M118" s="105" t="s">
+        <v>399</v>
+      </c>
+      <c r="N118" s="106">
+        <v>-50</v>
+      </c>
+      <c r="O118" s="88" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B119" s="103" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" s="95" t="s">
+        <v>370</v>
+      </c>
+      <c r="D119" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="92"/>
+      <c r="F119" s="92"/>
+      <c r="G119" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I119" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K119" s="94">
+        <v>16</v>
+      </c>
+      <c r="L119" s="94">
+        <v>1</v>
+      </c>
+      <c r="M119" s="107" t="s">
+        <v>400</v>
+      </c>
+      <c r="N119" s="92">
+        <v>-36</v>
+      </c>
+      <c r="O119" s="88" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B120" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" s="95" t="s">
+        <v>372</v>
+      </c>
+      <c r="D120" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="92"/>
+      <c r="F120" s="92"/>
+      <c r="G120" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H120" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I120" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K120" s="94">
+        <v>16</v>
+      </c>
+      <c r="L120" s="94">
+        <v>1</v>
+      </c>
+      <c r="M120" s="107" t="s">
+        <v>401</v>
+      </c>
+      <c r="N120" s="92">
+        <v>-75</v>
+      </c>
+      <c r="O120" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B121" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" s="95" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H121" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I121" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K121" s="94">
+        <v>16</v>
+      </c>
+      <c r="L121" s="94">
+        <v>1</v>
+      </c>
+      <c r="M121" s="107" t="s">
+        <v>401</v>
+      </c>
+      <c r="N121" s="92">
+        <v>-75</v>
+      </c>
+      <c r="O121" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B122" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="C122" s="95" t="s">
+        <v>377</v>
+      </c>
+      <c r="D122" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="92"/>
+      <c r="F122" s="92"/>
+      <c r="G122" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I122" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K122" s="94">
+        <v>16</v>
+      </c>
+      <c r="L122" s="94">
+        <v>1</v>
+      </c>
+      <c r="M122" s="107"/>
+      <c r="N122" s="92"/>
+      <c r="O122" s="88" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B123" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="C123" s="95" t="s">
+        <v>380</v>
+      </c>
+      <c r="D123" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="92"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I123" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K123" s="94">
+        <v>16</v>
+      </c>
+      <c r="L123" s="94">
+        <v>1</v>
+      </c>
+      <c r="M123" s="107"/>
+      <c r="N123" s="92"/>
+      <c r="O123" s="88" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="104"/>
+      <c r="C124" s="98"/>
+      <c r="D124" s="99"/>
+      <c r="E124" s="99"/>
+      <c r="F124" s="99"/>
+      <c r="G124" s="100"/>
+      <c r="H124" s="100"/>
+      <c r="I124" s="99"/>
+      <c r="J124" s="101"/>
+      <c r="K124" s="101"/>
+      <c r="L124" s="101"/>
+      <c r="M124" s="101"/>
+      <c r="N124" s="101"/>
+      <c r="O124" s="102"/>
+    </row>
+    <row r="125" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="89"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="90">
+        <v>120</v>
+      </c>
+      <c r="E125" s="90">
         <v>0</v>
       </c>
-      <c r="F116" s="19">
-        <f>COUNTA(F4:F115)</f>
+      <c r="F125" s="90">
         <v>0</v>
       </c>
+      <c r="G125" s="89"/>
+      <c r="H125" s="89"/>
+      <c r="I125" s="89"/>
+      <c r="J125" s="89"/>
+      <c r="K125" s="89"/>
+      <c r="L125" s="89"/>
+      <c r="M125" s="89"/>
+      <c r="N125" s="89"/>
+      <c r="O125" s="89"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" location="Personajes!B5" xr:uid="{B33A0548-9DC9-4C14-A9CD-22C80F2E32F8}"/>
-    <hyperlink ref="O6" r:id="rId2" location="Personajes!B7" xr:uid="{AD58C9C9-1670-41AA-83F7-5B71FD9CC2E9}"/>
-    <hyperlink ref="O11" r:id="rId3" location="Personajes!B12" xr:uid="{ED57B468-7A57-4D60-A5A6-6AE8E6DFD019}"/>
-    <hyperlink ref="O15" r:id="rId4" location="Personajes!B16" xr:uid="{4068CF2E-5A3C-4CDD-A258-7F94FB52FB07}"/>
-    <hyperlink ref="O19" r:id="rId5" location="Personajes!B20" xr:uid="{5D878E57-0261-49F3-977E-6A679C07F932}"/>
-    <hyperlink ref="O23" r:id="rId6" location="Personajes!B24" xr:uid="{1092A368-3190-43D9-8DEF-5165FA2AAEE8}"/>
-    <hyperlink ref="O26" r:id="rId7" location="Personajes!B27" xr:uid="{5E0479EF-B340-44D7-83EA-C25D4FDB53F3}"/>
-    <hyperlink ref="O28" r:id="rId8" location="Personajes!B29" xr:uid="{A955022D-E085-4CB7-AFFF-03984A4A21D1}"/>
-    <hyperlink ref="O30" r:id="rId9" location="Personajes!B31" xr:uid="{5754CB05-7DB5-42EA-B234-D952D2FB7E32}"/>
-    <hyperlink ref="O5" r:id="rId10" location="Personajes!B5" xr:uid="{92E80E95-78DE-4790-97E0-91F27F726277}"/>
-    <hyperlink ref="O7:O10" r:id="rId11" location="Personajes!B7" display="1.2" xr:uid="{963EEC70-ABEF-4C70-BAF0-A862F8F6C539}"/>
-    <hyperlink ref="O12:O14" r:id="rId12" location="Personajes!B12" display="1.3" xr:uid="{440E36D5-6A7E-41B8-8F40-D8A255CBAAC5}"/>
-    <hyperlink ref="O16:O18" r:id="rId13" location="Personajes!B16" display="1.4" xr:uid="{2F68302D-CEF3-4AC0-B394-1AD663FBFED4}"/>
-    <hyperlink ref="O20:O22" r:id="rId14" location="Personajes!B20" display="1.5" xr:uid="{94F81431-A88C-4AB4-8DF3-B2153F53103F}"/>
-    <hyperlink ref="O24:O25" r:id="rId15" location="Personajes!B24" display="1.6" xr:uid="{E73D9855-8AA0-445D-B8DB-90F3F811DDC5}"/>
-    <hyperlink ref="O27" r:id="rId16" location="Personajes!B27" xr:uid="{B04C2F70-42E7-44B0-B051-72C56DAE147B}"/>
-    <hyperlink ref="O29" r:id="rId17" location="Personajes!B29" xr:uid="{D2DCFD11-4ABA-44A6-926D-504AE85D63DB}"/>
-    <hyperlink ref="O31:O35" r:id="rId18" location="Personajes!B31" display="1.9" xr:uid="{7C818B1F-3C66-49A3-9BC1-56DEFB3B3EF2}"/>
-    <hyperlink ref="O35" r:id="rId19" location="Personajes!B31" xr:uid="{32180BEB-0599-47D7-B37A-E3E9F39E587F}"/>
-    <hyperlink ref="O36" r:id="rId20" location="Personajes!B37" xr:uid="{E976FB3E-BDD2-4FF5-9616-4A074EF111F8}"/>
-    <hyperlink ref="O39" r:id="rId21" location="Personajes!B40" xr:uid="{6D3A29F3-4046-4EB3-827E-6A4E36F3008C}"/>
-    <hyperlink ref="O43" r:id="rId22" location="Personajes!B44" xr:uid="{AEB25276-132E-4E32-8251-385E6DE2BDD4}"/>
-    <hyperlink ref="O46" r:id="rId23" location="Personajes!B47" xr:uid="{8232ED02-497D-4F87-9DCB-0FC0E0B337E5}"/>
-    <hyperlink ref="O50" r:id="rId24" location="Personajes!B51" xr:uid="{E82F8AEF-81D4-4195-9229-4D7045F8B1A4}"/>
-    <hyperlink ref="O52" r:id="rId25" location="Personajes!B53" xr:uid="{CBF5ECD2-755B-4691-9B30-9A6FDB379912}"/>
-    <hyperlink ref="O56" r:id="rId26" location="Personajes!B57" xr:uid="{38455E00-92AC-42EE-8682-2DFBB8B3EA90}"/>
-    <hyperlink ref="O59" r:id="rId27" location="Personajes!B60" xr:uid="{DD8F4AEA-D3E9-476C-929A-815DF1364F50}"/>
-    <hyperlink ref="O61" r:id="rId28" location="Personajes!B62" xr:uid="{BC88D34C-27FC-49E5-9EF8-57882A8948E1}"/>
-    <hyperlink ref="O37:O38" r:id="rId29" location="Personajes!B37" display="2.1" xr:uid="{7E687246-EC35-4F51-B65E-134E8FB881A8}"/>
-    <hyperlink ref="O40:O42" r:id="rId30" location="Personajes!B40" display="2.2" xr:uid="{DAB6977C-9901-4100-8AA0-A83160E6486E}"/>
-    <hyperlink ref="O44:O45" r:id="rId31" location="Personajes!B44" display="2.3" xr:uid="{ADD79FED-57AE-46BD-860F-1A1D73C84E9C}"/>
-    <hyperlink ref="O47:O49" r:id="rId32" location="Personajes!B47" display="2.4" xr:uid="{0B4C5A4C-6474-4351-995B-531DFBA6C9C9}"/>
-    <hyperlink ref="O51" r:id="rId33" location="Personajes!B51" xr:uid="{17BEAB1D-BCED-411F-80C2-50DD8954E1FB}"/>
-    <hyperlink ref="O53:O55" r:id="rId34" location="Personajes!B53" display="2.6" xr:uid="{9FD7819D-5A82-401C-932C-CA1B704E982E}"/>
-    <hyperlink ref="O57:O58" r:id="rId35" location="Personajes!B57" display="2.7" xr:uid="{B04FAF41-9941-4BF2-924F-25F1939928C0}"/>
-    <hyperlink ref="O60" r:id="rId36" location="Personajes!B60" xr:uid="{E5508906-E8BF-49D2-93B6-8000308BE4E6}"/>
-    <hyperlink ref="O62" r:id="rId37" location="Personajes!B62" xr:uid="{4D7A5D8C-B071-4453-A203-AC18BEF2C66B}"/>
-    <hyperlink ref="O63" r:id="rId38" location="Personajes!B64" xr:uid="{C6ED0C5D-A122-4F7D-84A1-283B76B6F9AE}"/>
-    <hyperlink ref="O65" r:id="rId39" location="Personajes!B66" xr:uid="{D3A5A1E5-A122-4885-80A2-85DCC72DB805}"/>
-    <hyperlink ref="O69" r:id="rId40" location="Personajes!B70" xr:uid="{DA3ED20A-0D4F-4E9B-B012-E795FBF05D82}"/>
-    <hyperlink ref="O71" r:id="rId41" location="Personajes!B72" xr:uid="{AFE80BEF-15A8-4D7E-B578-4A7E8029BF25}"/>
-    <hyperlink ref="O76" r:id="rId42" location="Personajes!B77" xr:uid="{D84330C9-45C7-4805-B190-ED9AC4CCF420}"/>
-    <hyperlink ref="O82" r:id="rId43" location="Personajes!B83" xr:uid="{3B1320E3-4F69-4A71-B8C9-B248EC150584}"/>
-    <hyperlink ref="O86" r:id="rId44" location="Personajes!B87" xr:uid="{F11006AA-9519-45A2-88A6-8EFB43798C98}"/>
-    <hyperlink ref="O88" r:id="rId45" location="Personajes!B89" xr:uid="{1D1E7D58-1A8E-456A-BE85-FDDE537A8B1F}"/>
-    <hyperlink ref="O91" r:id="rId46" location="Personajes!B92" xr:uid="{3E93AE16-AA16-409D-9C8A-982EBFFEEAC9}"/>
-    <hyperlink ref="O64" r:id="rId47" location="Personajes!B64" xr:uid="{BD88B733-5B0D-44FB-B2FC-E74844849C9B}"/>
-    <hyperlink ref="O66:O68" r:id="rId48" location="Personajes!B66" display="3.2" xr:uid="{1FD704E4-9606-4F5E-BA37-8533362CDF22}"/>
-    <hyperlink ref="O70" r:id="rId49" location="Personajes!B70" xr:uid="{707AA539-D206-415A-B9D9-D4D4DC543C25}"/>
-    <hyperlink ref="O72:O75" r:id="rId50" location="Personajes!B72" display="3.4" xr:uid="{17DE853D-4F86-4FA4-885F-1C77FDFF750B}"/>
-    <hyperlink ref="O77:O81" r:id="rId51" location="Personajes!B77" display="3.5" xr:uid="{9C2F3363-F444-4CBA-B5DA-ADF6A21628E5}"/>
-    <hyperlink ref="O83:O85" r:id="rId52" location="Personajes!B83" display="3.6" xr:uid="{71607043-1BDA-4094-BBBE-38E341349CE1}"/>
-    <hyperlink ref="O87" r:id="rId53" location="Personajes!B87" xr:uid="{75DB7810-AFDC-43DB-8CB9-974E87F69769}"/>
-    <hyperlink ref="O89:O90" r:id="rId54" location="Personajes!B89" display="3.8" xr:uid="{21A954C3-EB34-488B-953A-F74266A8AAF8}"/>
-    <hyperlink ref="O92:O96" r:id="rId55" location="Personajes!B92" display="3.9" xr:uid="{C03D6EEB-CB77-4173-B0A8-1354D40BAB57}"/>
+    <hyperlink ref="O4" r:id="rId1" location="Personajes!B5"/>
+    <hyperlink ref="O6" r:id="rId2" location="Personajes!B7"/>
+    <hyperlink ref="O11" r:id="rId3" location="Personajes!B12"/>
+    <hyperlink ref="O15" r:id="rId4" location="Personajes!B16"/>
+    <hyperlink ref="O19" r:id="rId5" location="Personajes!B20"/>
+    <hyperlink ref="O23" r:id="rId6" location="Personajes!B24"/>
+    <hyperlink ref="O26" r:id="rId7" location="Personajes!B27"/>
+    <hyperlink ref="O28" r:id="rId8" location="Personajes!B29"/>
+    <hyperlink ref="O30" r:id="rId9" location="Personajes!B31"/>
+    <hyperlink ref="O5" r:id="rId10" location="Personajes!B5"/>
+    <hyperlink ref="O7:O10" r:id="rId11" location="Personajes!B7" display="1.2"/>
+    <hyperlink ref="O12:O14" r:id="rId12" location="Personajes!B12" display="1.3"/>
+    <hyperlink ref="O16:O18" r:id="rId13" location="Personajes!B16" display="1.4"/>
+    <hyperlink ref="O20:O22" r:id="rId14" location="Personajes!B20" display="1.5"/>
+    <hyperlink ref="O24:O25" r:id="rId15" location="Personajes!B24" display="1.6"/>
+    <hyperlink ref="O27" r:id="rId16" location="Personajes!B27"/>
+    <hyperlink ref="O29" r:id="rId17" location="Personajes!B29"/>
+    <hyperlink ref="O31:O35" r:id="rId18" location="Personajes!B31" display="1.9"/>
+    <hyperlink ref="O35" r:id="rId19" location="Personajes!B31"/>
+    <hyperlink ref="O36" r:id="rId20" location="Personajes!B37"/>
+    <hyperlink ref="O39" r:id="rId21" location="Personajes!B40"/>
+    <hyperlink ref="O43" r:id="rId22" location="Personajes!B44"/>
+    <hyperlink ref="O46" r:id="rId23" location="Personajes!B47"/>
+    <hyperlink ref="O50" r:id="rId24" location="Personajes!B51"/>
+    <hyperlink ref="O52" r:id="rId25" location="Personajes!B53"/>
+    <hyperlink ref="O56" r:id="rId26" location="Personajes!B57"/>
+    <hyperlink ref="O59" r:id="rId27" location="Personajes!B60"/>
+    <hyperlink ref="O61" r:id="rId28" location="Personajes!B62"/>
+    <hyperlink ref="O37:O38" r:id="rId29" location="Personajes!B37" display="2.1"/>
+    <hyperlink ref="O40:O42" r:id="rId30" location="Personajes!B40" display="2.2"/>
+    <hyperlink ref="O44:O45" r:id="rId31" location="Personajes!B44" display="2.3"/>
+    <hyperlink ref="O47:O49" r:id="rId32" location="Personajes!B47" display="2.4"/>
+    <hyperlink ref="O51" r:id="rId33" location="Personajes!B51"/>
+    <hyperlink ref="O53:O55" r:id="rId34" location="Personajes!B53" display="2.6"/>
+    <hyperlink ref="O57:O58" r:id="rId35" location="Personajes!B57" display="2.7"/>
+    <hyperlink ref="O60" r:id="rId36" location="Personajes!B60"/>
+    <hyperlink ref="O62" r:id="rId37" location="Personajes!B62"/>
+    <hyperlink ref="O63" r:id="rId38" location="Personajes!B64"/>
+    <hyperlink ref="O65" r:id="rId39" location="Personajes!B66"/>
+    <hyperlink ref="O69" r:id="rId40" location="Personajes!B70"/>
+    <hyperlink ref="O71" r:id="rId41" location="Personajes!B72"/>
+    <hyperlink ref="O76" r:id="rId42" location="Personajes!B77"/>
+    <hyperlink ref="O82" r:id="rId43" location="Personajes!B83"/>
+    <hyperlink ref="O86" r:id="rId44" location="Personajes!B87"/>
+    <hyperlink ref="O88" r:id="rId45" location="Personajes!B89"/>
+    <hyperlink ref="O91" r:id="rId46" location="Personajes!B92"/>
+    <hyperlink ref="O64" r:id="rId47" location="Personajes!B64"/>
+    <hyperlink ref="O66:O68" r:id="rId48" location="Personajes!B66" display="3.2"/>
+    <hyperlink ref="O70" r:id="rId49" location="Personajes!B70"/>
+    <hyperlink ref="O72:O75" r:id="rId50" location="Personajes!B72" display="3.4"/>
+    <hyperlink ref="O77:O81" r:id="rId51" location="Personajes!B77" display="3.5"/>
+    <hyperlink ref="O83:O85" r:id="rId52" location="Personajes!B83" display="3.6"/>
+    <hyperlink ref="O87" r:id="rId53" location="Personajes!B87"/>
+    <hyperlink ref="O89:O90" r:id="rId54" location="Personajes!B89" display="3.8"/>
+    <hyperlink ref="O92:O96" r:id="rId55" location="Personajes!B92" display="3.9"/>
+    <hyperlink ref="O97" r:id="rId56" location="Personajes!B98"/>
+    <hyperlink ref="O98" r:id="rId57" location="Personajes!B98"/>
+    <hyperlink ref="O99" r:id="rId58" location="Personajes!B98"/>
+    <hyperlink ref="O100" r:id="rId59" location="Personajes!B101"/>
+    <hyperlink ref="O101" r:id="rId60" location="Personajes!B101"/>
+    <hyperlink ref="O102" r:id="rId61" location="Personajes!B101"/>
+    <hyperlink ref="O103" r:id="rId62" location="Personajes!B104"/>
+    <hyperlink ref="O104" r:id="rId63" location="Personajes!B104"/>
+    <hyperlink ref="O105" r:id="rId64" location="Personajes!B104"/>
+    <hyperlink ref="O106" r:id="rId65" location="Personajes!B104"/>
+    <hyperlink ref="O107" r:id="rId66" location="Personajes!B108"/>
+    <hyperlink ref="O108" r:id="rId67" location="Personajes!B108"/>
+    <hyperlink ref="O109" r:id="rId68" location="Personajes!B108"/>
+    <hyperlink ref="O110" r:id="rId69" location="Personajes!B111"/>
+    <hyperlink ref="O111" r:id="rId70" location="Personajes!B111"/>
+    <hyperlink ref="O112" r:id="rId71" location="Personajes!B111"/>
+    <hyperlink ref="O113" r:id="rId72" location="Personajes!B111"/>
+    <hyperlink ref="O114" r:id="rId73" location="Personajes!B115"/>
+    <hyperlink ref="O115" r:id="rId74" location="Personajes!B115"/>
+    <hyperlink ref="O116" r:id="rId75" location="Personajes!B115"/>
+    <hyperlink ref="O117" r:id="rId76" location="Personajes!B115"/>
+    <hyperlink ref="O118" r:id="rId77" location="Personajes!B119"/>
+    <hyperlink ref="O119" r:id="rId78" location="Personajes!B119"/>
+    <hyperlink ref="O120" r:id="rId79" location="Personajes!B121"/>
+    <hyperlink ref="O121" r:id="rId80" location="Personajes!B121"/>
+    <hyperlink ref="O122" r:id="rId81" location="Personajes!B123"/>
+    <hyperlink ref="O123" r:id="rId82" location="Personajes!B123"/>
+    <hyperlink ref="O100:O102" r:id="rId83" location="Personajes!B101" display="4.2"/>
+    <hyperlink ref="O103:O106" r:id="rId84" location="Personajes!B104" display="4.3"/>
+    <hyperlink ref="O107:O109" r:id="rId85" location="Personajes!B108" display="4.4"/>
+    <hyperlink ref="O110:O113" r:id="rId86" location="Personajes!B111" display="4.5"/>
+    <hyperlink ref="O114:O117" r:id="rId87" location="Personajes!B115" display="4.6"/>
+    <hyperlink ref="O118:O119" r:id="rId88" location="Personajes!B119" display="4.7"/>
+    <hyperlink ref="O120:O121" r:id="rId89" location="Personajes!B121" display="4.8"/>
+    <hyperlink ref="O122:O123" r:id="rId90" location="Personajes!B123" display="4.9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId56"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId91"/>
 </worksheet>
 </file>
--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="7620" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="7620" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="437">
   <si>
     <t>ID</t>
   </si>
@@ -1231,6 +1231,111 @@
   </si>
   <si>
     <t>00.02.577</t>
+  </si>
+  <si>
+    <t>H-012</t>
+  </si>
+  <si>
+    <t>Game/media/audio/hards/player_selection.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/benjaminharveydesign/sounds/350433/</t>
+  </si>
+  <si>
+    <t>Recorte, cambio de tono a -15 y desvanecer progresivamente</t>
+  </si>
+  <si>
+    <t>00.01.324</t>
+  </si>
+  <si>
+    <t>Game/media/audio/hards/menu_access.wav</t>
+  </si>
+  <si>
+    <t>H-003</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/shinephoenixstormcrow/sounds/337049/</t>
+  </si>
+  <si>
+    <t>Recorte, cambio de tono a -7 y desvanecer progresivamente</t>
+  </si>
+  <si>
+    <t>00.00.751</t>
+  </si>
+  <si>
+    <t>Game/media/audio/hards/lap.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/LittleRobotSoundFactory/sounds/270333/</t>
+  </si>
+  <si>
+    <t>H-011</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>00.02.189</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>H-008</t>
+  </si>
+  <si>
+    <t>Game/media/audio/hards/last_lap.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/gvgmedia/sounds/321656/</t>
+  </si>
+  <si>
+    <t>00.02.560</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>Game/media/audio/hards/speeding_skates.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Cribbler/sounds/376517/</t>
+  </si>
+  <si>
+    <t>Recorte, cambio de tono a -11 y desvanecer progresivamente</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>00.00.314</t>
+  </si>
+  <si>
+    <t>H-013</t>
+  </si>
+  <si>
+    <t>H-010</t>
+  </si>
+  <si>
+    <t>Game/media/audio/hards/slidin_skates.wav</t>
+  </si>
+  <si>
+    <t>00.01.069</t>
+  </si>
+  <si>
+    <t>Game/media/audio/hards/victory.wav</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/jimhancock/sounds/376318/</t>
+  </si>
+  <si>
+    <t>00.02.954</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>H-014</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1904,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1943,7 +2048,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3002,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P17"/>
+  <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:O6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,23 +3210,23 @@
         <v>7</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>39</v>
+        <v>407</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="77" t="s">
+      <c r="H4" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="56">
@@ -3131,13 +3235,13 @@
       <c r="L4" s="56">
         <v>2</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77">
+      <c r="N4" s="76">
         <v>-13</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="P4" s="43"/>
@@ -3154,16 +3258,16 @@
       <c r="F5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="78" t="s">
+      <c r="I5" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="48">
@@ -3175,15 +3279,15 @@
       <c r="M5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="78">
+      <c r="N5" s="77">
         <v>-13</v>
       </c>
-      <c r="O5" s="81" t="s">
+      <c r="O5" s="80" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="78" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="70" t="s">
@@ -3194,16 +3298,16 @@
       <c r="F6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="78" t="s">
+      <c r="I6" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="77" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="48">
@@ -3212,70 +3316,350 @@
       <c r="L6" s="48">
         <v>2</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="78">
+      <c r="N6" s="77">
         <v>-23</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="80" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="19">
-        <f>COUNTA(D4:D8)</f>
+      <c r="B7" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="48">
+        <v>16</v>
+      </c>
+      <c r="L7" s="48">
+        <v>1</v>
+      </c>
+      <c r="M7" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="N7" s="77">
+        <v>-55</v>
+      </c>
+      <c r="O7" s="80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="48">
+        <v>16</v>
+      </c>
+      <c r="L8" s="48">
+        <v>2</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="N8" s="77">
+        <v>-54</v>
+      </c>
+      <c r="O8" s="80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9" s="48">
+        <v>16</v>
+      </c>
+      <c r="L9" s="48">
+        <v>1</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="N9" s="77">
+        <v>-56</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K10" s="48">
+        <v>16</v>
+      </c>
+      <c r="L10" s="48">
+        <v>1</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="N10" s="77">
+        <v>-51</v>
+      </c>
+      <c r="O10" s="80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="I11" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="K11" s="48">
+        <v>16</v>
+      </c>
+      <c r="L11" s="48">
+        <v>1</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="N11" s="77">
+        <v>-41</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="K12" s="48">
+        <v>16</v>
+      </c>
+      <c r="L12" s="48">
+        <v>1</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="N12" s="77">
+        <v>-15</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="48">
+        <v>16</v>
+      </c>
+      <c r="L13" s="48">
+        <v>1</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="N13" s="77">
+        <v>-53</v>
+      </c>
+      <c r="O13" s="80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="19">
+        <f>COUNTA(D4:D15)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="19">
-        <f>COUNTA(E4:E8)</f>
+      <c r="E16" s="19">
+        <f>COUNTA(E4:E15)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="19">
-        <f>COUNTA(F4:F8)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="61"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H16" s="61"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="61"/>
+      <c r="F16" s="19">
+        <f>COUNTA(F4:F15)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="61"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="61"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3285,9 +3669,21 @@
     <hyperlink ref="O4" r:id="rId4" location="'Menu principal'!B6"/>
     <hyperlink ref="O5" r:id="rId5" location="'Menu principal'!B7"/>
     <hyperlink ref="O6" r:id="rId6" location="'Menu principal'!B9"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="O7" r:id="rId8" location="'Menu principal'!B10"/>
+    <hyperlink ref="O8" r:id="rId9" location="'Menu principal'!B8"/>
+    <hyperlink ref="O9" r:id="rId10" location="'Niveles'!B33" display="1.7"/>
+    <hyperlink ref="G9" r:id="rId11"/>
+    <hyperlink ref="O10" r:id="rId12" location="'Niveles'!B29"/>
+    <hyperlink ref="G10" r:id="rId13"/>
+    <hyperlink ref="O11" r:id="rId14" location="'Niveles'!B18"/>
+    <hyperlink ref="G11" r:id="rId15"/>
+    <hyperlink ref="O12" r:id="rId16" location="'Niveles'!B18"/>
+    <hyperlink ref="G12" r:id="rId17"/>
+    <hyperlink ref="O13" r:id="rId18" location="'Niveles'!B31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId19"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3712,7 +4108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E106" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="E106" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
@@ -3822,7 +4218,7 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="81" t="s">
         <v>58</v>
       </c>
       <c r="H4" s="63" t="s">
@@ -3846,7 +4242,7 @@
       <c r="N4" s="57">
         <v>-28</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="79" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3854,7 +4250,7 @@
       <c r="B5" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -3883,10 +4279,10 @@
       <c r="M5" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="87">
+      <c r="N5" s="86">
         <v>-30</v>
       </c>
-      <c r="O5" s="81" t="s">
+      <c r="O5" s="80" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3894,7 +4290,7 @@
       <c r="B6" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="84" t="s">
         <v>100</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -3926,7 +4322,7 @@
       <c r="N6" s="49">
         <v>-29</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="80" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3934,7 +4330,7 @@
       <c r="B7" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="84" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -3960,22 +4356,22 @@
       <c r="L7" s="48">
         <v>1</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="85" t="s">
         <v>133</v>
       </c>
       <c r="N7" s="20">
         <v>-27</v>
       </c>
-      <c r="O7" s="81" t="s">
+      <c r="O7" s="80" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="84" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -4001,22 +4397,22 @@
       <c r="L8" s="48">
         <v>1</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="85" t="s">
         <v>134</v>
       </c>
       <c r="N8" s="20">
         <v>-22</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="O8" s="80" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="83" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -4042,22 +4438,22 @@
       <c r="L9" s="48">
         <v>1</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="85" t="s">
         <v>135</v>
       </c>
       <c r="N9" s="20">
         <v>-31</v>
       </c>
-      <c r="O9" s="81" t="s">
+      <c r="O9" s="80" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="84" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -4083,22 +4479,22 @@
       <c r="L10" s="48">
         <v>1</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="85" t="s">
         <v>136</v>
       </c>
       <c r="N10" s="20">
         <v>-24</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="80" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="84" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -4124,22 +4520,22 @@
       <c r="L11" s="48">
         <v>1</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N11" s="20">
         <v>-23</v>
       </c>
-      <c r="O11" s="88" t="s">
+      <c r="O11" s="87" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="83" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="84" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -4165,22 +4561,22 @@
       <c r="L12" s="48">
         <v>1</v>
       </c>
-      <c r="M12" s="86" t="s">
+      <c r="M12" s="85" t="s">
         <v>138</v>
       </c>
       <c r="N12" s="20">
         <v>-28</v>
       </c>
-      <c r="O12" s="88" t="s">
+      <c r="O12" s="87" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="83"/>
+      <c r="B13" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="84" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -4206,22 +4602,22 @@
       <c r="L13" s="48">
         <v>1</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="M13" s="85" t="s">
         <v>139</v>
       </c>
       <c r="N13" s="20">
         <v>-25</v>
       </c>
-      <c r="O13" s="88" t="s">
+      <c r="O13" s="87" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="84" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -4247,22 +4643,22 @@
       <c r="L14" s="48">
         <v>1</v>
       </c>
-      <c r="M14" s="86" t="s">
+      <c r="M14" s="85" t="s">
         <v>138</v>
       </c>
       <c r="N14" s="20">
         <v>-28</v>
       </c>
-      <c r="O14" s="88" t="s">
+      <c r="O14" s="87" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="83" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="84" t="s">
         <v>109</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -4288,22 +4684,22 @@
       <c r="L15" s="48">
         <v>1</v>
       </c>
-      <c r="M15" s="86" t="s">
+      <c r="M15" s="85" t="s">
         <v>140</v>
       </c>
       <c r="N15" s="20">
         <v>-26</v>
       </c>
-      <c r="O15" s="88" t="s">
+      <c r="O15" s="87" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="84" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -4329,22 +4725,22 @@
       <c r="L16" s="48">
         <v>1</v>
       </c>
-      <c r="M16" s="86" t="s">
+      <c r="M16" s="85" t="s">
         <v>141</v>
       </c>
       <c r="N16" s="20">
         <v>-25</v>
       </c>
-      <c r="O16" s="88" t="s">
+      <c r="O16" s="87" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="83"/>
+      <c r="B17" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="84" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="20" t="s">
@@ -4370,22 +4766,22 @@
       <c r="L17" s="48">
         <v>1</v>
       </c>
-      <c r="M17" s="86" t="s">
+      <c r="M17" s="85" t="s">
         <v>133</v>
       </c>
       <c r="N17" s="20">
         <v>-25</v>
       </c>
-      <c r="O17" s="88" t="s">
+      <c r="O17" s="87" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="83" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="84" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -4411,22 +4807,22 @@
       <c r="L18" s="48">
         <v>1</v>
       </c>
-      <c r="M18" s="86" t="s">
+      <c r="M18" s="85" t="s">
         <v>142</v>
       </c>
       <c r="N18" s="20">
         <v>-24</v>
       </c>
-      <c r="O18" s="88" t="s">
+      <c r="O18" s="87" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="83" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="84" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -4452,22 +4848,22 @@
       <c r="L19" s="48">
         <v>1</v>
       </c>
-      <c r="M19" s="86" t="s">
+      <c r="M19" s="85" t="s">
         <v>143</v>
       </c>
       <c r="N19" s="20">
         <v>-26</v>
       </c>
-      <c r="O19" s="88" t="s">
+      <c r="O19" s="87" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="84" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -4493,22 +4889,22 @@
       <c r="L20" s="48">
         <v>1</v>
       </c>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="85" t="s">
         <v>134</v>
       </c>
       <c r="N20" s="20">
         <v>-29</v>
       </c>
-      <c r="O20" s="88" t="s">
+      <c r="O20" s="87" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="84" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -4534,22 +4930,22 @@
       <c r="L21" s="48">
         <v>1</v>
       </c>
-      <c r="M21" s="86" t="s">
+      <c r="M21" s="85" t="s">
         <v>144</v>
       </c>
       <c r="N21" s="20">
         <v>-24</v>
       </c>
-      <c r="O21" s="88" t="s">
+      <c r="O21" s="87" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="83"/>
+      <c r="B22" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="84" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -4575,22 +4971,22 @@
       <c r="L22" s="48">
         <v>1</v>
       </c>
-      <c r="M22" s="86" t="s">
+      <c r="M22" s="85" t="s">
         <v>142</v>
       </c>
       <c r="N22" s="20">
         <v>-27</v>
       </c>
-      <c r="O22" s="88" t="s">
+      <c r="O22" s="87" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="84" t="s">
         <v>117</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -4616,22 +5012,22 @@
       <c r="L23" s="48">
         <v>1</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="85" t="s">
         <v>145</v>
       </c>
       <c r="N23" s="20">
         <v>-26</v>
       </c>
-      <c r="O23" s="88" t="s">
+      <c r="O23" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="83"/>
+      <c r="B24" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="84" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -4657,22 +5053,22 @@
       <c r="L24" s="48">
         <v>1</v>
       </c>
-      <c r="M24" s="86" t="s">
+      <c r="M24" s="85" t="s">
         <v>146</v>
       </c>
       <c r="N24" s="20">
         <v>-26</v>
       </c>
-      <c r="O24" s="88" t="s">
+      <c r="O24" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="83" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="84" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -4698,22 +5094,22 @@
       <c r="L25" s="48">
         <v>1</v>
       </c>
-      <c r="M25" s="86" t="s">
+      <c r="M25" s="85" t="s">
         <v>147</v>
       </c>
       <c r="N25" s="20">
         <v>-23</v>
       </c>
-      <c r="O25" s="88" t="s">
+      <c r="O25" s="87" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="84"/>
-      <c r="B26" s="83" t="s">
+      <c r="A26" s="83"/>
+      <c r="B26" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="84" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -4739,22 +5135,22 @@
       <c r="L26" s="48">
         <v>1</v>
       </c>
-      <c r="M26" s="86" t="s">
+      <c r="M26" s="85" t="s">
         <v>148</v>
       </c>
       <c r="N26" s="20">
         <v>-27</v>
       </c>
-      <c r="O26" s="88" t="s">
+      <c r="O26" s="87" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="83" t="s">
+      <c r="A27" s="83"/>
+      <c r="B27" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="84" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -4780,22 +5176,22 @@
       <c r="L27" s="48">
         <v>1</v>
       </c>
-      <c r="M27" s="86" t="s">
+      <c r="M27" s="85" t="s">
         <v>149</v>
       </c>
       <c r="N27" s="20">
         <v>-29</v>
       </c>
-      <c r="O27" s="88" t="s">
+      <c r="O27" s="87" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="83" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="84" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -4821,22 +5217,22 @@
       <c r="L28" s="48">
         <v>1</v>
       </c>
-      <c r="M28" s="86" t="s">
+      <c r="M28" s="85" t="s">
         <v>150</v>
       </c>
       <c r="N28" s="20">
         <v>-29</v>
       </c>
-      <c r="O28" s="88" t="s">
+      <c r="O28" s="87" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="83" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="84" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -4862,22 +5258,22 @@
       <c r="L29" s="48">
         <v>1</v>
       </c>
-      <c r="M29" s="86" t="s">
+      <c r="M29" s="85" t="s">
         <v>151</v>
       </c>
       <c r="N29" s="20">
         <v>-28</v>
       </c>
-      <c r="O29" s="88" t="s">
+      <c r="O29" s="87" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="83" t="s">
+      <c r="A30" s="83"/>
+      <c r="B30" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="84" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -4903,22 +5299,22 @@
       <c r="L30" s="48">
         <v>1</v>
       </c>
-      <c r="M30" s="86" t="s">
+      <c r="M30" s="85" t="s">
         <v>152</v>
       </c>
       <c r="N30" s="20">
         <v>-22</v>
       </c>
-      <c r="O30" s="88" t="s">
+      <c r="O30" s="87" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="84"/>
-      <c r="B31" s="83" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="84" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -4944,22 +5340,22 @@
       <c r="L31" s="48">
         <v>1</v>
       </c>
-      <c r="M31" s="86" t="s">
+      <c r="M31" s="85" t="s">
         <v>154</v>
       </c>
       <c r="N31" s="20">
         <v>-20</v>
       </c>
-      <c r="O31" s="88" t="s">
+      <c r="O31" s="87" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="83" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="84" t="s">
         <v>127</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -4985,22 +5381,22 @@
       <c r="L32" s="48">
         <v>1</v>
       </c>
-      <c r="M32" s="86" t="s">
+      <c r="M32" s="85" t="s">
         <v>153</v>
       </c>
       <c r="N32" s="20">
         <v>-19</v>
       </c>
-      <c r="O32" s="88" t="s">
+      <c r="O32" s="87" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="84" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -5026,22 +5422,22 @@
       <c r="L33" s="48">
         <v>1</v>
       </c>
-      <c r="M33" s="86" t="s">
+      <c r="M33" s="85" t="s">
         <v>152</v>
       </c>
       <c r="N33" s="20">
         <v>-22</v>
       </c>
-      <c r="O33" s="88" t="s">
+      <c r="O33" s="87" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="83" t="s">
+      <c r="A34" s="83"/>
+      <c r="B34" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="84" t="s">
         <v>128</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -5067,22 +5463,22 @@
       <c r="L34" s="48">
         <v>1</v>
       </c>
-      <c r="M34" s="86" t="s">
+      <c r="M34" s="85" t="s">
         <v>154</v>
       </c>
       <c r="N34" s="20">
         <v>-20</v>
       </c>
-      <c r="O34" s="88" t="s">
+      <c r="O34" s="87" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="83" t="s">
+      <c r="A35" s="83"/>
+      <c r="B35" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="84" t="s">
         <v>129</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -5108,22 +5504,22 @@
       <c r="L35" s="48">
         <v>1</v>
       </c>
-      <c r="M35" s="86" t="s">
+      <c r="M35" s="85" t="s">
         <v>153</v>
       </c>
       <c r="N35" s="20">
         <v>-19</v>
       </c>
-      <c r="O35" s="88" t="s">
+      <c r="O35" s="87" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="83" t="s">
+      <c r="A36" s="83"/>
+      <c r="B36" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="84" t="s">
         <v>155</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -5149,22 +5545,22 @@
       <c r="L36" s="48">
         <v>1</v>
       </c>
-      <c r="M36" s="86" t="s">
+      <c r="M36" s="85" t="s">
         <v>131</v>
       </c>
       <c r="N36" s="20">
         <v>-15</v>
       </c>
-      <c r="O36" s="88" t="s">
+      <c r="O36" s="87" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="83" t="s">
+      <c r="A37" s="83"/>
+      <c r="B37" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="84" t="s">
         <v>156</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -5190,22 +5586,22 @@
       <c r="L37" s="48">
         <v>1</v>
       </c>
-      <c r="M37" s="86" t="s">
+      <c r="M37" s="85" t="s">
         <v>209</v>
       </c>
       <c r="N37" s="20">
         <v>-15</v>
       </c>
-      <c r="O37" s="88" t="s">
+      <c r="O37" s="87" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="83" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="84" t="s">
         <v>157</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -5231,22 +5627,22 @@
       <c r="L38" s="48">
         <v>1</v>
       </c>
-      <c r="M38" s="86" t="s">
+      <c r="M38" s="85" t="s">
         <v>210</v>
       </c>
       <c r="N38" s="20">
         <v>-19</v>
       </c>
-      <c r="O38" s="88" t="s">
+      <c r="O38" s="87" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="83" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="84" t="s">
         <v>158</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -5272,22 +5668,22 @@
       <c r="L39" s="48">
         <v>1</v>
       </c>
-      <c r="M39" s="86" t="s">
+      <c r="M39" s="85" t="s">
         <v>211</v>
       </c>
       <c r="N39" s="20">
         <v>-17</v>
       </c>
-      <c r="O39" s="88" t="s">
+      <c r="O39" s="87" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="83" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="84" t="s">
         <v>159</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -5313,22 +5709,22 @@
       <c r="L40" s="48">
         <v>1</v>
       </c>
-      <c r="M40" s="86" t="s">
+      <c r="M40" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N40" s="20">
         <v>-20</v>
       </c>
-      <c r="O40" s="88" t="s">
+      <c r="O40" s="87" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="83" t="s">
+      <c r="A41" s="83"/>
+      <c r="B41" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="84" t="s">
         <v>160</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -5354,22 +5750,22 @@
       <c r="L41" s="48">
         <v>1</v>
       </c>
-      <c r="M41" s="86" t="s">
+      <c r="M41" s="85" t="s">
         <v>130</v>
       </c>
       <c r="N41" s="20">
         <v>-18</v>
       </c>
-      <c r="O41" s="88" t="s">
+      <c r="O41" s="87" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
-      <c r="B42" s="83" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="84" t="s">
         <v>161</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -5395,22 +5791,22 @@
       <c r="L42" s="48">
         <v>1</v>
       </c>
-      <c r="M42" s="86" t="s">
+      <c r="M42" s="85" t="s">
         <v>212</v>
       </c>
       <c r="N42" s="20">
         <v>-25</v>
       </c>
-      <c r="O42" s="88" t="s">
+      <c r="O42" s="87" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
-      <c r="B43" s="83" t="s">
+      <c r="A43" s="83"/>
+      <c r="B43" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="84" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -5436,22 +5832,22 @@
       <c r="L43" s="48">
         <v>1</v>
       </c>
-      <c r="M43" s="86" t="s">
+      <c r="M43" s="85" t="s">
         <v>213</v>
       </c>
       <c r="N43" s="20">
         <v>-14</v>
       </c>
-      <c r="O43" s="88" t="s">
+      <c r="O43" s="87" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
-      <c r="B44" s="83" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="84" t="s">
         <v>164</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -5477,22 +5873,22 @@
       <c r="L44" s="48">
         <v>1</v>
       </c>
-      <c r="M44" s="86" t="s">
+      <c r="M44" s="85" t="s">
         <v>214</v>
       </c>
       <c r="N44" s="20">
         <v>-13</v>
       </c>
-      <c r="O44" s="88" t="s">
+      <c r="O44" s="87" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="83" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="84" t="s">
         <v>165</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -5518,22 +5914,22 @@
       <c r="L45" s="48">
         <v>1</v>
       </c>
-      <c r="M45" s="86" t="s">
+      <c r="M45" s="85" t="s">
         <v>135</v>
       </c>
       <c r="N45" s="20">
         <v>-20</v>
       </c>
-      <c r="O45" s="88" t="s">
+      <c r="O45" s="87" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
-      <c r="B46" s="83" t="s">
+      <c r="A46" s="83"/>
+      <c r="B46" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="84" t="s">
         <v>163</v>
       </c>
       <c r="D46" s="20" t="s">
@@ -5559,22 +5955,22 @@
       <c r="L46" s="48">
         <v>1</v>
       </c>
-      <c r="M46" s="86" t="s">
+      <c r="M46" s="85" t="s">
         <v>215</v>
       </c>
       <c r="N46" s="20">
         <v>-14</v>
       </c>
-      <c r="O46" s="88" t="s">
+      <c r="O46" s="87" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="83" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="84" t="s">
         <v>166</v>
       </c>
       <c r="D47" s="20" t="s">
@@ -5600,22 +5996,22 @@
       <c r="L47" s="48">
         <v>1</v>
       </c>
-      <c r="M47" s="86" t="s">
+      <c r="M47" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N47" s="20">
         <v>-11</v>
       </c>
-      <c r="O47" s="88" t="s">
+      <c r="O47" s="87" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="83" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="84" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -5641,22 +6037,22 @@
       <c r="L48" s="48">
         <v>1</v>
       </c>
-      <c r="M48" s="86" t="s">
+      <c r="M48" s="85" t="s">
         <v>216</v>
       </c>
       <c r="N48" s="20">
         <v>-13</v>
       </c>
-      <c r="O48" s="88" t="s">
+      <c r="O48" s="87" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="83" t="s">
+      <c r="A49" s="83"/>
+      <c r="B49" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="84" t="s">
         <v>168</v>
       </c>
       <c r="D49" s="20" t="s">
@@ -5682,22 +6078,22 @@
       <c r="L49" s="48">
         <v>1</v>
       </c>
-      <c r="M49" s="86" t="s">
+      <c r="M49" s="85" t="s">
         <v>212</v>
       </c>
       <c r="N49" s="20">
         <v>-11</v>
       </c>
-      <c r="O49" s="88" t="s">
+      <c r="O49" s="87" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
-      <c r="B50" s="83" t="s">
+      <c r="A50" s="83"/>
+      <c r="B50" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="84" t="s">
         <v>169</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -5723,22 +6119,22 @@
       <c r="L50" s="48">
         <v>1</v>
       </c>
-      <c r="M50" s="86" t="s">
+      <c r="M50" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N50" s="20">
         <v>-19</v>
       </c>
-      <c r="O50" s="88" t="s">
+      <c r="O50" s="87" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
-      <c r="B51" s="83" t="s">
+      <c r="A51" s="83"/>
+      <c r="B51" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="84" t="s">
         <v>170</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -5764,22 +6160,22 @@
       <c r="L51" s="48">
         <v>1</v>
       </c>
-      <c r="M51" s="86" t="s">
+      <c r="M51" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N51" s="20">
         <v>-19</v>
       </c>
-      <c r="O51" s="88" t="s">
+      <c r="O51" s="87" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
-      <c r="B52" s="83" t="s">
+      <c r="A52" s="83"/>
+      <c r="B52" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="84" t="s">
         <v>171</v>
       </c>
       <c r="D52" s="20" t="s">
@@ -5805,22 +6201,22 @@
       <c r="L52" s="48">
         <v>1</v>
       </c>
-      <c r="M52" s="86" t="s">
+      <c r="M52" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N52" s="20">
         <v>-19</v>
       </c>
-      <c r="O52" s="88" t="s">
+      <c r="O52" s="87" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
-      <c r="B53" s="83" t="s">
+      <c r="A53" s="83"/>
+      <c r="B53" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="84" t="s">
         <v>173</v>
       </c>
       <c r="D53" s="20" t="s">
@@ -5846,22 +6242,22 @@
       <c r="L53" s="48">
         <v>1</v>
       </c>
-      <c r="M53" s="86" t="s">
+      <c r="M53" s="85" t="s">
         <v>215</v>
       </c>
       <c r="N53" s="20">
         <v>-20</v>
       </c>
-      <c r="O53" s="88" t="s">
+      <c r="O53" s="87" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="84"/>
-      <c r="B54" s="83" t="s">
+      <c r="A54" s="83"/>
+      <c r="B54" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="84" t="s">
         <v>172</v>
       </c>
       <c r="D54" s="20" t="s">
@@ -5887,22 +6283,22 @@
       <c r="L54" s="48">
         <v>1</v>
       </c>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N54" s="20">
         <v>-19</v>
       </c>
-      <c r="O54" s="88" t="s">
+      <c r="O54" s="87" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
-      <c r="B55" s="83" t="s">
+      <c r="A55" s="83"/>
+      <c r="B55" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="85" t="s">
+      <c r="C55" s="84" t="s">
         <v>174</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -5928,22 +6324,22 @@
       <c r="L55" s="48">
         <v>1</v>
       </c>
-      <c r="M55" s="86" t="s">
+      <c r="M55" s="85" t="s">
         <v>215</v>
       </c>
       <c r="N55" s="20">
         <v>-20</v>
       </c>
-      <c r="O55" s="88" t="s">
+      <c r="O55" s="87" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
-      <c r="B56" s="83" t="s">
+      <c r="A56" s="83"/>
+      <c r="B56" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="84" t="s">
         <v>175</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -5969,22 +6365,22 @@
       <c r="L56" s="48">
         <v>1</v>
       </c>
-      <c r="M56" s="86" t="s">
+      <c r="M56" s="85" t="s">
         <v>217</v>
       </c>
       <c r="N56" s="20">
         <v>-15</v>
       </c>
-      <c r="O56" s="88" t="s">
+      <c r="O56" s="87" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
-      <c r="B57" s="83" t="s">
+      <c r="A57" s="83"/>
+      <c r="B57" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="84" t="s">
         <v>176</v>
       </c>
       <c r="D57" s="20" t="s">
@@ -6010,22 +6406,22 @@
       <c r="L57" s="48">
         <v>1</v>
       </c>
-      <c r="M57" s="86" t="s">
+      <c r="M57" s="85" t="s">
         <v>218</v>
       </c>
       <c r="N57" s="20">
         <v>-15</v>
       </c>
-      <c r="O57" s="88" t="s">
+      <c r="O57" s="87" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
-      <c r="B58" s="83" t="s">
+      <c r="A58" s="83"/>
+      <c r="B58" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="85" t="s">
+      <c r="C58" s="84" t="s">
         <v>177</v>
       </c>
       <c r="D58" s="20" t="s">
@@ -6051,22 +6447,22 @@
       <c r="L58" s="48">
         <v>1</v>
       </c>
-      <c r="M58" s="86" t="s">
+      <c r="M58" s="85" t="s">
         <v>217</v>
       </c>
       <c r="N58" s="20">
         <v>-15</v>
       </c>
-      <c r="O58" s="88" t="s">
+      <c r="O58" s="87" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
-      <c r="B59" s="83" t="s">
+      <c r="A59" s="83"/>
+      <c r="B59" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="84" t="s">
         <v>178</v>
       </c>
       <c r="D59" s="20" t="s">
@@ -6092,22 +6488,22 @@
       <c r="L59" s="48">
         <v>1</v>
       </c>
-      <c r="M59" s="86" t="s">
+      <c r="M59" s="85" t="s">
         <v>219</v>
       </c>
       <c r="N59" s="20">
         <v>-15</v>
       </c>
-      <c r="O59" s="88" t="s">
+      <c r="O59" s="87" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="84"/>
-      <c r="B60" s="83" t="s">
+      <c r="A60" s="83"/>
+      <c r="B60" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="84" t="s">
         <v>179</v>
       </c>
       <c r="D60" s="20" t="s">
@@ -6133,22 +6529,22 @@
       <c r="L60" s="48">
         <v>1</v>
       </c>
-      <c r="M60" s="86" t="s">
+      <c r="M60" s="85" t="s">
         <v>220</v>
       </c>
       <c r="N60" s="20">
         <v>-14</v>
       </c>
-      <c r="O60" s="88" t="s">
+      <c r="O60" s="87" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="83" t="s">
+      <c r="A61" s="83"/>
+      <c r="B61" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="84" t="s">
         <v>180</v>
       </c>
       <c r="D61" s="20" t="s">
@@ -6174,22 +6570,22 @@
       <c r="L61" s="48">
         <v>1</v>
       </c>
-      <c r="M61" s="86" t="s">
+      <c r="M61" s="85" t="s">
         <v>154</v>
       </c>
       <c r="N61" s="20">
         <v>-13</v>
       </c>
-      <c r="O61" s="88" t="s">
+      <c r="O61" s="87" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="83" t="s">
+      <c r="A62" s="83"/>
+      <c r="B62" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="85" t="s">
+      <c r="C62" s="84" t="s">
         <v>181</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -6215,22 +6611,22 @@
       <c r="L62" s="48">
         <v>1</v>
       </c>
-      <c r="M62" s="86" t="s">
+      <c r="M62" s="85" t="s">
         <v>154</v>
       </c>
       <c r="N62" s="20">
         <v>-13</v>
       </c>
-      <c r="O62" s="88" t="s">
+      <c r="O62" s="87" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
-      <c r="B63" s="83" t="s">
+      <c r="A63" s="83"/>
+      <c r="B63" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="84" t="s">
         <v>263</v>
       </c>
       <c r="D63" s="20" t="s">
@@ -6256,22 +6652,22 @@
       <c r="L63" s="48">
         <v>1</v>
       </c>
-      <c r="M63" s="86" t="s">
+      <c r="M63" s="85" t="s">
         <v>297</v>
       </c>
       <c r="N63" s="20">
         <v>-25</v>
       </c>
-      <c r="O63" s="88" t="s">
+      <c r="O63" s="87" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
-      <c r="B64" s="83" t="s">
+      <c r="A64" s="83"/>
+      <c r="B64" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="84" t="s">
         <v>264</v>
       </c>
       <c r="D64" s="20" t="s">
@@ -6297,22 +6693,22 @@
       <c r="L64" s="48">
         <v>1</v>
       </c>
-      <c r="M64" s="86" t="s">
+      <c r="M64" s="85" t="s">
         <v>297</v>
       </c>
       <c r="N64" s="20">
         <v>-25</v>
       </c>
-      <c r="O64" s="88" t="s">
+      <c r="O64" s="87" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
-      <c r="B65" s="83" t="s">
+      <c r="A65" s="83"/>
+      <c r="B65" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="C65" s="85" t="s">
+      <c r="C65" s="84" t="s">
         <v>265</v>
       </c>
       <c r="D65" s="20" t="s">
@@ -6338,22 +6734,22 @@
       <c r="L65" s="48">
         <v>1</v>
       </c>
-      <c r="M65" s="86" t="s">
+      <c r="M65" s="85" t="s">
         <v>216</v>
       </c>
       <c r="N65" s="20">
         <v>-25</v>
       </c>
-      <c r="O65" s="88" t="s">
+      <c r="O65" s="87" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="83" t="s">
+      <c r="A66" s="83"/>
+      <c r="B66" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="84" t="s">
         <v>266</v>
       </c>
       <c r="D66" s="20" t="s">
@@ -6379,22 +6775,22 @@
       <c r="L66" s="48">
         <v>1</v>
       </c>
-      <c r="M66" s="86" t="s">
+      <c r="M66" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N66" s="20">
         <v>-25</v>
       </c>
-      <c r="O66" s="88" t="s">
+      <c r="O66" s="87" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
-      <c r="B67" s="83" t="s">
+      <c r="A67" s="83"/>
+      <c r="B67" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="85" t="s">
+      <c r="C67" s="84" t="s">
         <v>267</v>
       </c>
       <c r="D67" s="20" t="s">
@@ -6420,22 +6816,22 @@
       <c r="L67" s="48">
         <v>1</v>
       </c>
-      <c r="M67" s="86" t="s">
+      <c r="M67" s="85" t="s">
         <v>216</v>
       </c>
       <c r="N67" s="20">
         <v>-25</v>
       </c>
-      <c r="O67" s="88" t="s">
+      <c r="O67" s="87" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
-      <c r="B68" s="83" t="s">
+      <c r="A68" s="83"/>
+      <c r="B68" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="84" t="s">
         <v>268</v>
       </c>
       <c r="D68" s="20" t="s">
@@ -6461,22 +6857,22 @@
       <c r="L68" s="48">
         <v>1</v>
       </c>
-      <c r="M68" s="86" t="s">
+      <c r="M68" s="85" t="s">
         <v>299</v>
       </c>
       <c r="N68" s="20">
         <v>-25</v>
       </c>
-      <c r="O68" s="88" t="s">
+      <c r="O68" s="87" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
-      <c r="B69" s="83" t="s">
+      <c r="A69" s="83"/>
+      <c r="B69" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="85" t="s">
+      <c r="C69" s="84" t="s">
         <v>269</v>
       </c>
       <c r="D69" s="20" t="s">
@@ -6502,22 +6898,22 @@
       <c r="L69" s="48">
         <v>1</v>
       </c>
-      <c r="M69" s="86" t="s">
+      <c r="M69" s="85" t="s">
         <v>216</v>
       </c>
       <c r="N69" s="20">
         <v>-26</v>
       </c>
-      <c r="O69" s="88" t="s">
+      <c r="O69" s="87" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="84"/>
-      <c r="B70" s="83" t="s">
+      <c r="A70" s="83"/>
+      <c r="B70" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="84" t="s">
         <v>270</v>
       </c>
       <c r="D70" s="20" t="s">
@@ -6543,22 +6939,22 @@
       <c r="L70" s="48">
         <v>1</v>
       </c>
-      <c r="M70" s="86" t="s">
+      <c r="M70" s="85" t="s">
         <v>153</v>
       </c>
       <c r="N70" s="20">
         <v>-31</v>
       </c>
-      <c r="O70" s="88" t="s">
+      <c r="O70" s="87" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="84"/>
-      <c r="B71" s="83" t="s">
+      <c r="A71" s="83"/>
+      <c r="B71" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="85" t="s">
+      <c r="C71" s="84" t="s">
         <v>271</v>
       </c>
       <c r="D71" s="20" t="s">
@@ -6584,22 +6980,22 @@
       <c r="L71" s="48">
         <v>1</v>
       </c>
-      <c r="M71" s="86" t="s">
+      <c r="M71" s="85" t="s">
         <v>300</v>
       </c>
       <c r="N71" s="20">
         <v>-26</v>
       </c>
-      <c r="O71" s="88" t="s">
+      <c r="O71" s="87" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="84"/>
-      <c r="B72" s="83" t="s">
+      <c r="A72" s="83"/>
+      <c r="B72" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="85" t="s">
+      <c r="C72" s="84" t="s">
         <v>272</v>
       </c>
       <c r="D72" s="20" t="s">
@@ -6625,22 +7021,22 @@
       <c r="L72" s="48">
         <v>1</v>
       </c>
-      <c r="M72" s="86" t="s">
+      <c r="M72" s="85" t="s">
         <v>153</v>
       </c>
       <c r="N72" s="20">
         <v>-30</v>
       </c>
-      <c r="O72" s="88" t="s">
+      <c r="O72" s="87" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="84"/>
-      <c r="B73" s="83" t="s">
+      <c r="A73" s="83"/>
+      <c r="B73" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="84" t="s">
         <v>273</v>
       </c>
       <c r="D73" s="20" t="s">
@@ -6666,22 +7062,22 @@
       <c r="L73" s="48">
         <v>1</v>
       </c>
-      <c r="M73" s="86" t="s">
+      <c r="M73" s="85" t="s">
         <v>144</v>
       </c>
       <c r="N73" s="20">
         <v>-27</v>
       </c>
-      <c r="O73" s="88" t="s">
+      <c r="O73" s="87" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="84"/>
-      <c r="B74" s="83" t="s">
+      <c r="A74" s="83"/>
+      <c r="B74" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="85" t="s">
+      <c r="C74" s="84" t="s">
         <v>274</v>
       </c>
       <c r="D74" s="20" t="s">
@@ -6707,22 +7103,22 @@
       <c r="L74" s="48">
         <v>1</v>
       </c>
-      <c r="M74" s="86" t="s">
+      <c r="M74" s="85" t="s">
         <v>133</v>
       </c>
       <c r="N74" s="20">
         <v>-26</v>
       </c>
-      <c r="O74" s="88" t="s">
+      <c r="O74" s="87" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="84"/>
-      <c r="B75" s="83" t="s">
+      <c r="A75" s="83"/>
+      <c r="B75" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="84" t="s">
         <v>275</v>
       </c>
       <c r="D75" s="20" t="s">
@@ -6748,22 +7144,22 @@
       <c r="L75" s="48">
         <v>1</v>
       </c>
-      <c r="M75" s="86" t="s">
+      <c r="M75" s="85" t="s">
         <v>212</v>
       </c>
       <c r="N75" s="20">
         <v>-27</v>
       </c>
-      <c r="O75" s="88" t="s">
+      <c r="O75" s="87" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="84"/>
-      <c r="B76" s="83" t="s">
+      <c r="A76" s="83"/>
+      <c r="B76" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="84" t="s">
         <v>276</v>
       </c>
       <c r="D76" s="20" t="s">
@@ -6789,22 +7185,22 @@
       <c r="L76" s="48">
         <v>1</v>
       </c>
-      <c r="M76" s="86" t="s">
+      <c r="M76" s="85" t="s">
         <v>133</v>
       </c>
       <c r="N76" s="20">
         <v>-34</v>
       </c>
-      <c r="O76" s="88" t="s">
+      <c r="O76" s="87" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
-      <c r="B77" s="83" t="s">
+      <c r="A77" s="83"/>
+      <c r="B77" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="85" t="s">
+      <c r="C77" s="84" t="s">
         <v>278</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -6830,22 +7226,22 @@
       <c r="L77" s="48">
         <v>1</v>
       </c>
-      <c r="M77" s="86" t="s">
+      <c r="M77" s="85" t="s">
         <v>215</v>
       </c>
       <c r="N77" s="20">
         <v>-20</v>
       </c>
-      <c r="O77" s="88" t="s">
+      <c r="O77" s="87" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
-      <c r="B78" s="83" t="s">
+      <c r="A78" s="83"/>
+      <c r="B78" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="C78" s="84" t="s">
         <v>279</v>
       </c>
       <c r="D78" s="20" t="s">
@@ -6871,22 +7267,22 @@
       <c r="L78" s="48">
         <v>1</v>
       </c>
-      <c r="M78" s="86" t="s">
+      <c r="M78" s="85" t="s">
         <v>212</v>
       </c>
       <c r="N78" s="20">
         <v>-29</v>
       </c>
-      <c r="O78" s="88" t="s">
+      <c r="O78" s="87" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="84"/>
-      <c r="B79" s="83" t="s">
+      <c r="A79" s="83"/>
+      <c r="B79" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="85" t="s">
+      <c r="C79" s="84" t="s">
         <v>277</v>
       </c>
       <c r="D79" s="20" t="s">
@@ -6918,16 +7314,16 @@
       <c r="N79" s="20">
         <v>-28</v>
       </c>
-      <c r="O79" s="88" t="s">
+      <c r="O79" s="87" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="84"/>
-      <c r="B80" s="83" t="s">
+      <c r="A80" s="83"/>
+      <c r="B80" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="85" t="s">
+      <c r="C80" s="84" t="s">
         <v>280</v>
       </c>
       <c r="D80" s="20" t="s">
@@ -6953,22 +7349,22 @@
       <c r="L80" s="48">
         <v>1</v>
       </c>
-      <c r="M80" s="86" t="s">
+      <c r="M80" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N80" s="20">
         <v>-19</v>
       </c>
-      <c r="O80" s="88" t="s">
+      <c r="O80" s="87" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="84"/>
-      <c r="B81" s="83" t="s">
+      <c r="A81" s="83"/>
+      <c r="B81" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="84" t="s">
         <v>281</v>
       </c>
       <c r="D81" s="20" t="s">
@@ -6994,22 +7390,22 @@
       <c r="L81" s="48">
         <v>1</v>
       </c>
-      <c r="M81" s="86" t="s">
+      <c r="M81" s="85" t="s">
         <v>137</v>
       </c>
       <c r="N81" s="20">
         <v>-27</v>
       </c>
-      <c r="O81" s="88" t="s">
+      <c r="O81" s="87" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="84"/>
-      <c r="B82" s="83" t="s">
+      <c r="A82" s="83"/>
+      <c r="B82" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="84" t="s">
         <v>282</v>
       </c>
       <c r="D82" s="20" t="s">
@@ -7035,22 +7431,22 @@
       <c r="L82" s="48">
         <v>1</v>
       </c>
-      <c r="M82" s="86" t="s">
+      <c r="M82" s="85" t="s">
         <v>212</v>
       </c>
       <c r="N82" s="20">
         <v>-36</v>
       </c>
-      <c r="O82" s="88" t="s">
+      <c r="O82" s="87" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="84"/>
-      <c r="B83" s="83" t="s">
+      <c r="A83" s="83"/>
+      <c r="B83" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="85" t="s">
+      <c r="C83" s="84" t="s">
         <v>284</v>
       </c>
       <c r="D83" s="20" t="s">
@@ -7076,22 +7472,22 @@
       <c r="L83" s="48">
         <v>1</v>
       </c>
-      <c r="M83" s="86" t="s">
+      <c r="M83" s="85" t="s">
         <v>301</v>
       </c>
       <c r="N83" s="20">
         <v>-34</v>
       </c>
-      <c r="O83" s="88" t="s">
+      <c r="O83" s="87" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="84"/>
-      <c r="B84" s="83" t="s">
+      <c r="A84" s="83"/>
+      <c r="B84" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="C84" s="85" t="s">
+      <c r="C84" s="84" t="s">
         <v>283</v>
       </c>
       <c r="D84" s="20" t="s">
@@ -7117,22 +7513,22 @@
       <c r="L84" s="48">
         <v>1</v>
       </c>
-      <c r="M84" s="86" t="s">
+      <c r="M84" s="85" t="s">
         <v>212</v>
       </c>
       <c r="N84" s="20">
         <v>-36</v>
       </c>
-      <c r="O84" s="88" t="s">
+      <c r="O84" s="87" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="84"/>
-      <c r="B85" s="83" t="s">
+      <c r="A85" s="83"/>
+      <c r="B85" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="84" t="s">
         <v>285</v>
       </c>
       <c r="D85" s="20" t="s">
@@ -7158,22 +7554,22 @@
       <c r="L85" s="48">
         <v>1</v>
       </c>
-      <c r="M85" s="86" t="s">
+      <c r="M85" s="85" t="s">
         <v>301</v>
       </c>
       <c r="N85" s="20">
         <v>-34</v>
       </c>
-      <c r="O85" s="88" t="s">
+      <c r="O85" s="87" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="84"/>
-      <c r="B86" s="83" t="s">
+      <c r="A86" s="83"/>
+      <c r="B86" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="85" t="s">
+      <c r="C86" s="84" t="s">
         <v>286</v>
       </c>
       <c r="D86" s="20" t="s">
@@ -7199,22 +7595,22 @@
       <c r="L86" s="48">
         <v>1</v>
       </c>
-      <c r="M86" s="86" t="s">
+      <c r="M86" s="85" t="s">
         <v>302</v>
       </c>
       <c r="N86" s="20">
         <v>-29</v>
       </c>
-      <c r="O86" s="88" t="s">
+      <c r="O86" s="87" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
-      <c r="B87" s="83" t="s">
+      <c r="A87" s="83"/>
+      <c r="B87" s="82" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="85" t="s">
+      <c r="C87" s="84" t="s">
         <v>287</v>
       </c>
       <c r="D87" s="20" t="s">
@@ -7240,22 +7636,22 @@
       <c r="L87" s="48">
         <v>1</v>
       </c>
-      <c r="M87" s="86" t="s">
+      <c r="M87" s="85" t="s">
         <v>304</v>
       </c>
       <c r="N87" s="20">
         <v>-29</v>
       </c>
-      <c r="O87" s="88" t="s">
+      <c r="O87" s="87" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="83" t="s">
+      <c r="A88" s="83"/>
+      <c r="B88" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="85" t="s">
+      <c r="C88" s="84" t="s">
         <v>288</v>
       </c>
       <c r="D88" s="20" t="s">
@@ -7281,22 +7677,22 @@
       <c r="L88" s="48">
         <v>1</v>
       </c>
-      <c r="M88" s="86" t="s">
+      <c r="M88" s="85" t="s">
         <v>305</v>
       </c>
       <c r="N88" s="20">
         <v>-28</v>
       </c>
-      <c r="O88" s="88" t="s">
+      <c r="O88" s="87" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
-      <c r="B89" s="83" t="s">
+      <c r="A89" s="83"/>
+      <c r="B89" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="85" t="s">
+      <c r="C89" s="84" t="s">
         <v>289</v>
       </c>
       <c r="D89" s="20" t="s">
@@ -7322,22 +7718,22 @@
       <c r="L89" s="48">
         <v>1</v>
       </c>
-      <c r="M89" s="86" t="s">
+      <c r="M89" s="85" t="s">
         <v>306</v>
       </c>
       <c r="N89" s="20">
         <v>-32</v>
       </c>
-      <c r="O89" s="88" t="s">
+      <c r="O89" s="87" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
-      <c r="B90" s="83" t="s">
+      <c r="A90" s="83"/>
+      <c r="B90" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="85" t="s">
+      <c r="C90" s="84" t="s">
         <v>290</v>
       </c>
       <c r="D90" s="20" t="s">
@@ -7363,22 +7759,22 @@
       <c r="L90" s="48">
         <v>1</v>
       </c>
-      <c r="M90" s="86" t="s">
+      <c r="M90" s="85" t="s">
         <v>305</v>
       </c>
       <c r="N90" s="20">
         <v>-28</v>
       </c>
-      <c r="O90" s="88" t="s">
+      <c r="O90" s="87" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
-      <c r="B91" s="83" t="s">
+      <c r="A91" s="83"/>
+      <c r="B91" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="85" t="s">
+      <c r="C91" s="84" t="s">
         <v>291</v>
       </c>
       <c r="D91" s="20" t="s">
@@ -7404,22 +7800,22 @@
       <c r="L91" s="48">
         <v>1</v>
       </c>
-      <c r="M91" s="86" t="s">
+      <c r="M91" s="85" t="s">
         <v>307</v>
       </c>
       <c r="N91" s="20">
         <v>-23</v>
       </c>
-      <c r="O91" s="88" t="s">
+      <c r="O91" s="87" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
-      <c r="B92" s="83" t="s">
+      <c r="A92" s="83"/>
+      <c r="B92" s="82" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="85" t="s">
+      <c r="C92" s="84" t="s">
         <v>293</v>
       </c>
       <c r="D92" s="20" t="s">
@@ -7445,22 +7841,22 @@
       <c r="L92" s="48">
         <v>1</v>
       </c>
-      <c r="M92" s="86" t="s">
+      <c r="M92" s="85" t="s">
         <v>300</v>
       </c>
       <c r="N92" s="20">
         <v>-25</v>
       </c>
-      <c r="O92" s="88" t="s">
+      <c r="O92" s="87" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="83" t="s">
+      <c r="A93" s="83"/>
+      <c r="B93" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="85" t="s">
+      <c r="C93" s="84" t="s">
         <v>294</v>
       </c>
       <c r="D93" s="20" t="s">
@@ -7486,22 +7882,22 @@
       <c r="L93" s="48">
         <v>1</v>
       </c>
-      <c r="M93" s="86" t="s">
+      <c r="M93" s="85" t="s">
         <v>213</v>
       </c>
       <c r="N93" s="20">
         <v>-23</v>
       </c>
-      <c r="O93" s="88" t="s">
+      <c r="O93" s="87" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
-      <c r="B94" s="83" t="s">
+      <c r="A94" s="83"/>
+      <c r="B94" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="C94" s="85" t="s">
+      <c r="C94" s="84" t="s">
         <v>292</v>
       </c>
       <c r="D94" s="20" t="s">
@@ -7527,22 +7923,22 @@
       <c r="L94" s="48">
         <v>1</v>
       </c>
-      <c r="M94" s="86" t="s">
+      <c r="M94" s="85" t="s">
         <v>307</v>
       </c>
       <c r="N94" s="20">
         <v>-23</v>
       </c>
-      <c r="O94" s="88" t="s">
+      <c r="O94" s="87" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="84"/>
-      <c r="B95" s="83" t="s">
+      <c r="A95" s="83"/>
+      <c r="B95" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="85" t="s">
+      <c r="C95" s="84" t="s">
         <v>295</v>
       </c>
       <c r="D95" s="20" t="s">
@@ -7568,22 +7964,22 @@
       <c r="L95" s="48">
         <v>1</v>
       </c>
-      <c r="M95" s="86" t="s">
+      <c r="M95" s="85" t="s">
         <v>300</v>
       </c>
       <c r="N95" s="20">
         <v>-25</v>
       </c>
-      <c r="O95" s="88" t="s">
+      <c r="O95" s="87" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
-      <c r="B96" s="83" t="s">
+      <c r="A96" s="83"/>
+      <c r="B96" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="85" t="s">
+      <c r="C96" s="84" t="s">
         <v>296</v>
       </c>
       <c r="D96" s="20" t="s">
@@ -7609,1144 +8005,1144 @@
       <c r="L96" s="48">
         <v>1</v>
       </c>
-      <c r="M96" s="86" t="s">
+      <c r="M96" s="85" t="s">
         <v>213</v>
       </c>
       <c r="N96" s="20">
         <v>-23</v>
       </c>
-      <c r="O96" s="88" t="s">
+      <c r="O96" s="87" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
-      <c r="B97" s="97" t="s">
+      <c r="A97" s="83"/>
+      <c r="B97" s="96" t="s">
         <v>317</v>
       </c>
-      <c r="C97" s="95" t="s">
+      <c r="C97" s="94" t="s">
         <v>318</v>
       </c>
-      <c r="D97" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H97" s="91" t="s">
+      <c r="D97" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="91"/>
+      <c r="F97" s="91"/>
+      <c r="G97" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I97" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K97" s="94">
-        <v>16</v>
-      </c>
-      <c r="L97" s="94">
-        <v>1</v>
-      </c>
-      <c r="M97" s="96" t="s">
+      <c r="I97" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="93">
+        <v>16</v>
+      </c>
+      <c r="L97" s="93">
+        <v>1</v>
+      </c>
+      <c r="M97" s="95" t="s">
         <v>382</v>
       </c>
-      <c r="N97" s="92">
+      <c r="N97" s="91">
         <v>-36</v>
       </c>
-      <c r="O97" s="88" t="s">
+      <c r="O97" s="87" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
-      <c r="B98" s="97" t="s">
+      <c r="A98" s="83"/>
+      <c r="B98" s="96" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="95" t="s">
+      <c r="C98" s="94" t="s">
         <v>322</v>
       </c>
-      <c r="D98" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H98" s="91" t="s">
+      <c r="D98" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I98" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" s="94">
-        <v>16</v>
-      </c>
-      <c r="L98" s="94">
-        <v>1</v>
-      </c>
-      <c r="M98" s="96" t="s">
+      <c r="I98" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="93">
+        <v>16</v>
+      </c>
+      <c r="L98" s="93">
+        <v>1</v>
+      </c>
+      <c r="M98" s="95" t="s">
         <v>383</v>
       </c>
-      <c r="N98" s="92">
+      <c r="N98" s="91">
         <v>-55</v>
       </c>
-      <c r="O98" s="88" t="s">
+      <c r="O98" s="87" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
-      <c r="B99" s="97" t="s">
+      <c r="A99" s="83"/>
+      <c r="B99" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="C99" s="95" t="s">
+      <c r="C99" s="94" t="s">
         <v>324</v>
       </c>
-      <c r="D99" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H99" s="91" t="s">
+      <c r="D99" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I99" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K99" s="94">
-        <v>16</v>
-      </c>
-      <c r="L99" s="94">
-        <v>1</v>
-      </c>
-      <c r="M99" s="96" t="s">
+      <c r="I99" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" s="93">
+        <v>16</v>
+      </c>
+      <c r="L99" s="93">
+        <v>1</v>
+      </c>
+      <c r="M99" s="95" t="s">
         <v>381</v>
       </c>
-      <c r="N99" s="92">
+      <c r="N99" s="91">
         <v>-39</v>
       </c>
-      <c r="O99" s="88" t="s">
+      <c r="O99" s="87" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
-      <c r="B100" s="97" t="s">
+      <c r="A100" s="83"/>
+      <c r="B100" s="96" t="s">
         <v>325</v>
       </c>
-      <c r="C100" s="95" t="s">
+      <c r="C100" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="D100" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H100" s="91" t="s">
+      <c r="D100" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="91"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H100" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I100" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100" s="94">
-        <v>16</v>
-      </c>
-      <c r="L100" s="94">
-        <v>1</v>
-      </c>
-      <c r="M100" s="96" t="s">
+      <c r="I100" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="93">
+        <v>16</v>
+      </c>
+      <c r="L100" s="93">
+        <v>1</v>
+      </c>
+      <c r="M100" s="95" t="s">
         <v>384</v>
       </c>
-      <c r="N100" s="92">
+      <c r="N100" s="91">
         <v>-58</v>
       </c>
-      <c r="O100" s="88" t="s">
+      <c r="O100" s="87" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="84"/>
-      <c r="B101" s="97" t="s">
+      <c r="A101" s="83"/>
+      <c r="B101" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="C101" s="95" t="s">
+      <c r="C101" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="D101" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H101" s="91" t="s">
+      <c r="D101" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
+      <c r="G101" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I101" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K101" s="94">
-        <v>16</v>
-      </c>
-      <c r="L101" s="94">
-        <v>1</v>
-      </c>
-      <c r="M101" s="96" t="s">
+      <c r="I101" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="93">
+        <v>16</v>
+      </c>
+      <c r="L101" s="93">
+        <v>1</v>
+      </c>
+      <c r="M101" s="95" t="s">
         <v>385</v>
       </c>
-      <c r="N101" s="92">
+      <c r="N101" s="91">
         <v>-32</v>
       </c>
-      <c r="O101" s="88" t="s">
+      <c r="O101" s="87" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="84"/>
-      <c r="B102" s="97" t="s">
+      <c r="A102" s="83"/>
+      <c r="B102" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="C102" s="95" t="s">
+      <c r="C102" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="D102" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H102" s="91" t="s">
+      <c r="D102" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I102" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K102" s="94">
-        <v>16</v>
-      </c>
-      <c r="L102" s="94">
-        <v>1</v>
-      </c>
-      <c r="M102" s="96" t="s">
+      <c r="I102" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" s="93">
+        <v>16</v>
+      </c>
+      <c r="L102" s="93">
+        <v>1</v>
+      </c>
+      <c r="M102" s="95" t="s">
         <v>386</v>
       </c>
-      <c r="N102" s="92">
+      <c r="N102" s="91">
         <v>-67</v>
       </c>
-      <c r="O102" s="88" t="s">
+      <c r="O102" s="87" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="84"/>
-      <c r="B103" s="97" t="s">
+      <c r="A103" s="83"/>
+      <c r="B103" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="C103" s="95" t="s">
+      <c r="C103" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="D103" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H103" s="91" t="s">
+      <c r="D103" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="91"/>
+      <c r="F103" s="91"/>
+      <c r="G103" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I103" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J103" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103" s="94">
-        <v>16</v>
-      </c>
-      <c r="L103" s="94">
-        <v>1</v>
-      </c>
-      <c r="M103" s="96" t="s">
+      <c r="I103" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" s="93">
+        <v>16</v>
+      </c>
+      <c r="L103" s="93">
+        <v>1</v>
+      </c>
+      <c r="M103" s="95" t="s">
         <v>387</v>
       </c>
-      <c r="N103" s="92">
+      <c r="N103" s="91">
         <v>-38</v>
       </c>
-      <c r="O103" s="88" t="s">
+      <c r="O103" s="87" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="84"/>
-      <c r="B104" s="97" t="s">
+      <c r="A104" s="83"/>
+      <c r="B104" s="96" t="s">
         <v>335</v>
       </c>
-      <c r="C104" s="95" t="s">
+      <c r="C104" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="D104" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="92"/>
-      <c r="F104" s="92"/>
-      <c r="G104" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H104" s="91" t="s">
+      <c r="D104" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="91"/>
+      <c r="F104" s="91"/>
+      <c r="G104" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H104" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I104" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K104" s="94">
-        <v>16</v>
-      </c>
-      <c r="L104" s="94">
-        <v>1</v>
-      </c>
-      <c r="M104" s="96" t="s">
+      <c r="I104" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="93">
+        <v>16</v>
+      </c>
+      <c r="L104" s="93">
+        <v>1</v>
+      </c>
+      <c r="M104" s="95" t="s">
         <v>388</v>
       </c>
-      <c r="N104" s="92">
+      <c r="N104" s="91">
         <v>-73</v>
       </c>
-      <c r="O104" s="88" t="s">
+      <c r="O104" s="87" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="84"/>
-      <c r="B105" s="97" t="s">
+      <c r="A105" s="83"/>
+      <c r="B105" s="96" t="s">
         <v>337</v>
       </c>
-      <c r="C105" s="95" t="s">
+      <c r="C105" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="D105" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H105" s="91" t="s">
+      <c r="D105" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="91"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I105" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J105" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K105" s="94">
-        <v>16</v>
-      </c>
-      <c r="L105" s="94">
-        <v>1</v>
-      </c>
-      <c r="M105" s="96" t="s">
+      <c r="I105" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" s="93">
+        <v>16</v>
+      </c>
+      <c r="L105" s="93">
+        <v>1</v>
+      </c>
+      <c r="M105" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="N105" s="92">
+      <c r="N105" s="91">
         <v>-43</v>
       </c>
-      <c r="O105" s="88" t="s">
+      <c r="O105" s="87" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="84"/>
-      <c r="B106" s="97" t="s">
+      <c r="A106" s="83"/>
+      <c r="B106" s="96" t="s">
         <v>339</v>
       </c>
-      <c r="C106" s="95" t="s">
+      <c r="C106" s="94" t="s">
         <v>340</v>
       </c>
-      <c r="D106" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H106" s="91" t="s">
+      <c r="D106" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I106" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J106" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K106" s="94">
-        <v>16</v>
-      </c>
-      <c r="L106" s="94">
-        <v>1</v>
-      </c>
-      <c r="M106" s="96" t="s">
+      <c r="I106" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106" s="93">
+        <v>16</v>
+      </c>
+      <c r="L106" s="93">
+        <v>1</v>
+      </c>
+      <c r="M106" s="95" t="s">
         <v>390</v>
       </c>
-      <c r="N106" s="92">
+      <c r="N106" s="91">
         <v>-61</v>
       </c>
-      <c r="O106" s="88" t="s">
+      <c r="O106" s="87" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="84"/>
-      <c r="B107" s="97" t="s">
+      <c r="A107" s="83"/>
+      <c r="B107" s="96" t="s">
         <v>341</v>
       </c>
-      <c r="C107" s="95" t="s">
+      <c r="C107" s="94" t="s">
         <v>342</v>
       </c>
-      <c r="D107" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H107" s="91" t="s">
+      <c r="D107" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I107" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J107" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K107" s="94">
-        <v>16</v>
-      </c>
-      <c r="L107" s="94">
-        <v>1</v>
-      </c>
-      <c r="M107" s="96" t="s">
+      <c r="I107" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107" s="93">
+        <v>16</v>
+      </c>
+      <c r="L107" s="93">
+        <v>1</v>
+      </c>
+      <c r="M107" s="95" t="s">
         <v>391</v>
       </c>
-      <c r="N107" s="92">
+      <c r="N107" s="91">
         <v>-61</v>
       </c>
-      <c r="O107" s="88" t="s">
+      <c r="O107" s="87" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="84"/>
-      <c r="B108" s="97" t="s">
+      <c r="A108" s="83"/>
+      <c r="B108" s="96" t="s">
         <v>344</v>
       </c>
-      <c r="C108" s="95" t="s">
+      <c r="C108" s="94" t="s">
         <v>345</v>
       </c>
-      <c r="D108" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="92"/>
-      <c r="F108" s="92"/>
-      <c r="G108" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H108" s="91" t="s">
+      <c r="D108" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="91"/>
+      <c r="F108" s="91"/>
+      <c r="G108" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H108" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I108" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J108" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K108" s="94">
-        <v>16</v>
-      </c>
-      <c r="L108" s="94">
-        <v>1</v>
-      </c>
-      <c r="M108" s="96" t="s">
+      <c r="I108" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K108" s="93">
+        <v>16</v>
+      </c>
+      <c r="L108" s="93">
+        <v>1</v>
+      </c>
+      <c r="M108" s="95" t="s">
         <v>392</v>
       </c>
-      <c r="N108" s="92">
+      <c r="N108" s="91">
         <v>-58</v>
       </c>
-      <c r="O108" s="88" t="s">
+      <c r="O108" s="87" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="84"/>
-      <c r="B109" s="97" t="s">
+      <c r="A109" s="83"/>
+      <c r="B109" s="96" t="s">
         <v>346</v>
       </c>
-      <c r="C109" s="95" t="s">
+      <c r="C109" s="94" t="s">
         <v>347</v>
       </c>
-      <c r="D109" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="92"/>
-      <c r="F109" s="92"/>
-      <c r="G109" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H109" s="91" t="s">
+      <c r="D109" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="91"/>
+      <c r="F109" s="91"/>
+      <c r="G109" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I109" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J109" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K109" s="94">
-        <v>16</v>
-      </c>
-      <c r="L109" s="94">
-        <v>1</v>
-      </c>
-      <c r="M109" s="96" t="s">
+      <c r="I109" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109" s="93">
+        <v>16</v>
+      </c>
+      <c r="L109" s="93">
+        <v>1</v>
+      </c>
+      <c r="M109" s="95" t="s">
         <v>391</v>
       </c>
-      <c r="N109" s="92">
+      <c r="N109" s="91">
         <v>-61</v>
       </c>
-      <c r="O109" s="88" t="s">
+      <c r="O109" s="87" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="84"/>
-      <c r="B110" s="97" t="s">
+      <c r="A110" s="83"/>
+      <c r="B110" s="96" t="s">
         <v>348</v>
       </c>
-      <c r="C110" s="95" t="s">
+      <c r="C110" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="D110" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" s="92"/>
-      <c r="F110" s="92"/>
-      <c r="G110" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H110" s="91" t="s">
+      <c r="D110" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="91"/>
+      <c r="F110" s="91"/>
+      <c r="G110" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H110" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I110" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J110" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K110" s="94">
-        <v>16</v>
-      </c>
-      <c r="L110" s="94">
-        <v>1</v>
-      </c>
-      <c r="M110" s="96" t="s">
+      <c r="I110" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K110" s="93">
+        <v>16</v>
+      </c>
+      <c r="L110" s="93">
+        <v>1</v>
+      </c>
+      <c r="M110" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="N110" s="92">
+      <c r="N110" s="91">
         <v>-51</v>
       </c>
-      <c r="O110" s="88" t="s">
+      <c r="O110" s="87" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="97" t="s">
+      <c r="A111" s="83"/>
+      <c r="B111" s="96" t="s">
         <v>351</v>
       </c>
-      <c r="C111" s="95" t="s">
+      <c r="C111" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="D111" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E111" s="92"/>
-      <c r="F111" s="92"/>
-      <c r="G111" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H111" s="91" t="s">
+      <c r="D111" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="91"/>
+      <c r="F111" s="91"/>
+      <c r="G111" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I111" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J111" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K111" s="94">
-        <v>16</v>
-      </c>
-      <c r="L111" s="94">
-        <v>1</v>
-      </c>
-      <c r="M111" s="96" t="s">
+      <c r="I111" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K111" s="93">
+        <v>16</v>
+      </c>
+      <c r="L111" s="93">
+        <v>1</v>
+      </c>
+      <c r="M111" s="95" t="s">
         <v>394</v>
       </c>
-      <c r="N111" s="92">
+      <c r="N111" s="91">
         <v>-55</v>
       </c>
-      <c r="O111" s="88" t="s">
+      <c r="O111" s="87" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="97" t="s">
+      <c r="A112" s="83"/>
+      <c r="B112" s="96" t="s">
         <v>353</v>
       </c>
-      <c r="C112" s="95" t="s">
+      <c r="C112" s="94" t="s">
         <v>354</v>
       </c>
-      <c r="D112" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="92"/>
-      <c r="F112" s="92"/>
-      <c r="G112" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H112" s="91" t="s">
+      <c r="D112" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="91"/>
+      <c r="F112" s="91"/>
+      <c r="G112" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I112" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J112" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K112" s="94">
-        <v>16</v>
-      </c>
-      <c r="L112" s="94">
-        <v>1</v>
-      </c>
-      <c r="M112" s="96" t="s">
+      <c r="I112" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="93">
+        <v>16</v>
+      </c>
+      <c r="L112" s="93">
+        <v>1</v>
+      </c>
+      <c r="M112" s="95" t="s">
         <v>395</v>
       </c>
-      <c r="N112" s="92">
+      <c r="N112" s="91">
         <v>-75</v>
       </c>
-      <c r="O112" s="88" t="s">
+      <c r="O112" s="87" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="84"/>
-      <c r="B113" s="97" t="s">
+      <c r="A113" s="83"/>
+      <c r="B113" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="C113" s="95" t="s">
+      <c r="C113" s="94" t="s">
         <v>356</v>
       </c>
-      <c r="D113" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E113" s="92"/>
-      <c r="F113" s="92"/>
-      <c r="G113" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H113" s="91" t="s">
+      <c r="D113" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="91"/>
+      <c r="F113" s="91"/>
+      <c r="G113" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I113" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J113" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K113" s="94">
-        <v>16</v>
-      </c>
-      <c r="L113" s="94">
-        <v>1</v>
-      </c>
-      <c r="M113" s="96" t="s">
+      <c r="I113" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K113" s="93">
+        <v>16</v>
+      </c>
+      <c r="L113" s="93">
+        <v>1</v>
+      </c>
+      <c r="M113" s="95" t="s">
         <v>396</v>
       </c>
-      <c r="N113" s="92">
+      <c r="N113" s="91">
         <v>-38</v>
       </c>
-      <c r="O113" s="88" t="s">
+      <c r="O113" s="87" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="84"/>
-      <c r="B114" s="97" t="s">
+      <c r="A114" s="83"/>
+      <c r="B114" s="96" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="95" t="s">
+      <c r="C114" s="94" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="92"/>
-      <c r="F114" s="92"/>
-      <c r="G114" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H114" s="91" t="s">
+      <c r="D114" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="91"/>
+      <c r="F114" s="91"/>
+      <c r="G114" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H114" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I114" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J114" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K114" s="94">
-        <v>16</v>
-      </c>
-      <c r="L114" s="94">
-        <v>1</v>
-      </c>
-      <c r="M114" s="96" t="s">
+      <c r="I114" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114" s="93">
+        <v>16</v>
+      </c>
+      <c r="L114" s="93">
+        <v>1</v>
+      </c>
+      <c r="M114" s="95" t="s">
         <v>397</v>
       </c>
-      <c r="N114" s="92">
+      <c r="N114" s="91">
         <v>-65</v>
       </c>
-      <c r="O114" s="88" t="s">
+      <c r="O114" s="87" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="84"/>
-      <c r="B115" s="97" t="s">
+      <c r="A115" s="83"/>
+      <c r="B115" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="95" t="s">
+      <c r="C115" s="94" t="s">
         <v>361</v>
       </c>
-      <c r="D115" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="92"/>
-      <c r="F115" s="92"/>
-      <c r="G115" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H115" s="91" t="s">
+      <c r="D115" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="91"/>
+      <c r="F115" s="91"/>
+      <c r="G115" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H115" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I115" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J115" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K115" s="94">
-        <v>16</v>
-      </c>
-      <c r="L115" s="94">
-        <v>1</v>
-      </c>
-      <c r="M115" s="96" t="s">
+      <c r="I115" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" s="93">
+        <v>16</v>
+      </c>
+      <c r="L115" s="93">
+        <v>1</v>
+      </c>
+      <c r="M115" s="95" t="s">
         <v>398</v>
       </c>
-      <c r="N115" s="92">
+      <c r="N115" s="91">
         <v>-43</v>
       </c>
-      <c r="O115" s="88" t="s">
+      <c r="O115" s="87" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B116" s="103" t="s">
+      <c r="B116" s="102" t="s">
         <v>362</v>
       </c>
-      <c r="C116" s="95" t="s">
+      <c r="C116" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="D116" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="92"/>
-      <c r="F116" s="92"/>
-      <c r="G116" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H116" s="91" t="s">
+      <c r="D116" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="91"/>
+      <c r="F116" s="91"/>
+      <c r="G116" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I116" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K116" s="94">
-        <v>16</v>
-      </c>
-      <c r="L116" s="94">
-        <v>1</v>
-      </c>
-      <c r="M116" s="96" t="s">
+      <c r="I116" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K116" s="93">
+        <v>16</v>
+      </c>
+      <c r="L116" s="93">
+        <v>1</v>
+      </c>
+      <c r="M116" s="95" t="s">
         <v>397</v>
       </c>
-      <c r="N116" s="92">
+      <c r="N116" s="91">
         <v>-65</v>
       </c>
-      <c r="O116" s="88" t="s">
+      <c r="O116" s="87" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B117" s="103" t="s">
+      <c r="B117" s="102" t="s">
         <v>364</v>
       </c>
-      <c r="C117" s="95" t="s">
+      <c r="C117" s="94" t="s">
         <v>365</v>
       </c>
-      <c r="D117" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" s="92"/>
-      <c r="F117" s="92"/>
-      <c r="G117" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H117" s="91" t="s">
+      <c r="D117" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="91"/>
+      <c r="F117" s="91"/>
+      <c r="G117" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I117" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K117" s="94">
-        <v>16</v>
-      </c>
-      <c r="L117" s="94">
-        <v>1</v>
-      </c>
-      <c r="M117" s="96" t="s">
+      <c r="I117" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K117" s="93">
+        <v>16</v>
+      </c>
+      <c r="L117" s="93">
+        <v>1</v>
+      </c>
+      <c r="M117" s="95" t="s">
         <v>398</v>
       </c>
-      <c r="N117" s="92">
+      <c r="N117" s="91">
         <v>-43</v>
       </c>
-      <c r="O117" s="88" t="s">
+      <c r="O117" s="87" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B118" s="103" t="s">
+      <c r="B118" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="C118" s="95" t="s">
+      <c r="C118" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="D118" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E118" s="92"/>
-      <c r="F118" s="92"/>
-      <c r="G118" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H118" s="91" t="s">
+      <c r="D118" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="91"/>
+      <c r="F118" s="91"/>
+      <c r="G118" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H118" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I118" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J118" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K118" s="94">
-        <v>16</v>
-      </c>
-      <c r="L118" s="94">
-        <v>1</v>
-      </c>
-      <c r="M118" s="105" t="s">
+      <c r="I118" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K118" s="93">
+        <v>16</v>
+      </c>
+      <c r="L118" s="93">
+        <v>1</v>
+      </c>
+      <c r="M118" s="104" t="s">
         <v>399</v>
       </c>
-      <c r="N118" s="106">
+      <c r="N118" s="105">
         <v>-50</v>
       </c>
-      <c r="O118" s="88" t="s">
+      <c r="O118" s="87" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B119" s="103" t="s">
+      <c r="B119" s="102" t="s">
         <v>369</v>
       </c>
-      <c r="C119" s="95" t="s">
+      <c r="C119" s="94" t="s">
         <v>370</v>
       </c>
-      <c r="D119" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E119" s="92"/>
-      <c r="F119" s="92"/>
-      <c r="G119" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H119" s="91" t="s">
+      <c r="D119" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I119" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J119" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K119" s="94">
-        <v>16</v>
-      </c>
-      <c r="L119" s="94">
-        <v>1</v>
-      </c>
-      <c r="M119" s="107" t="s">
+      <c r="I119" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K119" s="93">
+        <v>16</v>
+      </c>
+      <c r="L119" s="93">
+        <v>1</v>
+      </c>
+      <c r="M119" s="106" t="s">
         <v>400</v>
       </c>
-      <c r="N119" s="92">
+      <c r="N119" s="91">
         <v>-36</v>
       </c>
-      <c r="O119" s="88" t="s">
+      <c r="O119" s="87" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B120" s="103" t="s">
+      <c r="B120" s="102" t="s">
         <v>371</v>
       </c>
-      <c r="C120" s="95" t="s">
+      <c r="C120" s="94" t="s">
         <v>372</v>
       </c>
-      <c r="D120" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" s="92"/>
-      <c r="F120" s="92"/>
-      <c r="G120" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H120" s="91" t="s">
+      <c r="D120" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="91"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H120" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I120" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K120" s="94">
-        <v>16</v>
-      </c>
-      <c r="L120" s="94">
-        <v>1</v>
-      </c>
-      <c r="M120" s="107" t="s">
+      <c r="I120" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K120" s="93">
+        <v>16</v>
+      </c>
+      <c r="L120" s="93">
+        <v>1</v>
+      </c>
+      <c r="M120" s="106" t="s">
         <v>401</v>
       </c>
-      <c r="N120" s="92">
+      <c r="N120" s="91">
         <v>-75</v>
       </c>
-      <c r="O120" s="88" t="s">
+      <c r="O120" s="87" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B121" s="103" t="s">
+      <c r="B121" s="102" t="s">
         <v>374</v>
       </c>
-      <c r="C121" s="95" t="s">
+      <c r="C121" s="94" t="s">
         <v>375</v>
       </c>
-      <c r="D121" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="92"/>
-      <c r="F121" s="92"/>
-      <c r="G121" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H121" s="91" t="s">
+      <c r="D121" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H121" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I121" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J121" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K121" s="94">
-        <v>16</v>
-      </c>
-      <c r="L121" s="94">
-        <v>1</v>
-      </c>
-      <c r="M121" s="107" t="s">
+      <c r="I121" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K121" s="93">
+        <v>16</v>
+      </c>
+      <c r="L121" s="93">
+        <v>1</v>
+      </c>
+      <c r="M121" s="106" t="s">
         <v>401</v>
       </c>
-      <c r="N121" s="92">
+      <c r="N121" s="91">
         <v>-75</v>
       </c>
-      <c r="O121" s="88" t="s">
+      <c r="O121" s="87" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B122" s="103" t="s">
+      <c r="B122" s="102" t="s">
         <v>376</v>
       </c>
-      <c r="C122" s="95" t="s">
+      <c r="C122" s="94" t="s">
         <v>377</v>
       </c>
-      <c r="D122" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="92"/>
-      <c r="F122" s="92"/>
-      <c r="G122" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H122" s="91" t="s">
+      <c r="D122" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="91"/>
+      <c r="F122" s="91"/>
+      <c r="G122" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H122" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I122" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J122" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K122" s="94">
-        <v>16</v>
-      </c>
-      <c r="L122" s="94">
-        <v>1</v>
-      </c>
-      <c r="M122" s="107"/>
-      <c r="N122" s="92"/>
-      <c r="O122" s="88" t="s">
+      <c r="I122" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K122" s="93">
+        <v>16</v>
+      </c>
+      <c r="L122" s="93">
+        <v>1</v>
+      </c>
+      <c r="M122" s="106"/>
+      <c r="N122" s="91"/>
+      <c r="O122" s="87" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B123" s="103" t="s">
+      <c r="B123" s="102" t="s">
         <v>379</v>
       </c>
-      <c r="C123" s="95" t="s">
+      <c r="C123" s="94" t="s">
         <v>380</v>
       </c>
-      <c r="D123" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="92"/>
-      <c r="F123" s="92"/>
-      <c r="G123" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H123" s="91" t="s">
+      <c r="D123" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="H123" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="I123" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J123" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="K123" s="94">
-        <v>16</v>
-      </c>
-      <c r="L123" s="94">
-        <v>1</v>
-      </c>
-      <c r="M123" s="107"/>
-      <c r="N123" s="92"/>
-      <c r="O123" s="88" t="s">
+      <c r="I123" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K123" s="93">
+        <v>16</v>
+      </c>
+      <c r="L123" s="93">
+        <v>1</v>
+      </c>
+      <c r="M123" s="106"/>
+      <c r="N123" s="91"/>
+      <c r="O123" s="87" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="104"/>
-      <c r="C124" s="98"/>
-      <c r="D124" s="99"/>
-      <c r="E124" s="99"/>
-      <c r="F124" s="99"/>
-      <c r="G124" s="100"/>
-      <c r="H124" s="100"/>
-      <c r="I124" s="99"/>
-      <c r="J124" s="101"/>
-      <c r="K124" s="101"/>
-      <c r="L124" s="101"/>
-      <c r="M124" s="101"/>
-      <c r="N124" s="101"/>
-      <c r="O124" s="102"/>
+      <c r="B124" s="103"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="98"/>
+      <c r="J124" s="100"/>
+      <c r="K124" s="100"/>
+      <c r="L124" s="100"/>
+      <c r="M124" s="100"/>
+      <c r="N124" s="100"/>
+      <c r="O124" s="101"/>
     </row>
     <row r="125" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="89"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="90">
+      <c r="B125" s="88"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="89">
         <v>120</v>
       </c>
-      <c r="E125" s="90">
+      <c r="E125" s="89">
         <v>0</v>
       </c>
-      <c r="F125" s="90">
+      <c r="F125" s="89">
         <v>0</v>
       </c>
-      <c r="G125" s="89"/>
-      <c r="H125" s="89"/>
-      <c r="I125" s="89"/>
-      <c r="J125" s="89"/>
-      <c r="K125" s="89"/>
-      <c r="L125" s="89"/>
-      <c r="M125" s="89"/>
-      <c r="N125" s="89"/>
-      <c r="O125" s="89"/>
+      <c r="G125" s="88"/>
+      <c r="H125" s="88"/>
+      <c r="I125" s="88"/>
+      <c r="J125" s="88"/>
+      <c r="K125" s="88"/>
+      <c r="L125" s="88"/>
+      <c r="M125" s="88"/>
+      <c r="N125" s="88"/>
+      <c r="O125" s="88"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19215" windowHeight="7620" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="432">
   <si>
     <t>ID</t>
   </si>
@@ -1153,21 +1153,6 @@
   </si>
   <si>
     <t>Game/media/audio/voices/C-P8EN_0.wav</t>
-  </si>
-  <si>
-    <t>V-490</t>
-  </si>
-  <si>
-    <t>Game/media/audio/voices/C-P9ES_0.wav</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-495 </t>
-  </si>
-  <si>
-    <t>Game/media/audio/voices/C-P9EN_0.wav</t>
   </si>
   <si>
     <t>00.02.403</t>
@@ -1904,7 +1889,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2037,9 +2022,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2047,7 +2029,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -2071,9 +2052,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2094,9 +2072,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="70" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2127,6 +2102,12 @@
     </xf>
     <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="70" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -2508,17 +2489,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2561,9 +2541,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="31">
+        <f>'Metadatos M'!E9</f>
         <v>0</v>
       </c>
       <c r="E6" s="31">
+        <f>'Metadatos M'!F9</f>
         <v>0</v>
       </c>
       <c r="F6" s="34">
@@ -2584,6 +2566,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="31">
+        <f>'Metadatos A'!F9</f>
         <v>0</v>
       </c>
       <c r="F7" s="34">
@@ -2596,17 +2579,20 @@
         <v>28</v>
       </c>
       <c r="C8" s="31">
+        <f>'Metadatos H'!D16</f>
         <v>0</v>
       </c>
       <c r="D8" s="31">
+        <f>'Metadatos H'!E16</f>
         <v>0</v>
       </c>
       <c r="E8" s="31">
-        <v>0</v>
+        <f>'Metadatos H'!F16</f>
+        <v>10</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" ref="F8:F10" si="0">SUM(C8:E8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2622,6 +2608,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="31">
+        <f>'Metadatos F'!F9</f>
         <v>0</v>
       </c>
       <c r="F9" s="34">
@@ -2638,9 +2625,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="31">
+        <f>'Metadatos D'!E9</f>
         <v>0</v>
       </c>
       <c r="E10" s="31">
+        <f>'Metadatos D'!F9</f>
         <v>0</v>
       </c>
       <c r="F10" s="34">
@@ -2653,24 +2642,26 @@
         <v>31</v>
       </c>
       <c r="C11" s="32">
+        <f>'Metadatos V'!D125</f>
+        <v>118</v>
+      </c>
+      <c r="D11" s="32">
+        <f>'Metadatos V'!E125</f>
         <v>0</v>
       </c>
-      <c r="D11" s="32">
-        <f>'Metadatos V'!E116</f>
-        <v>0</v>
-      </c>
       <c r="E11" s="32">
+        <f>'Metadatos V'!F125</f>
         <v>0</v>
       </c>
       <c r="F11" s="35">
         <f>SUM(C11:E11)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F12" s="33">
         <f>SUM(F6:F11)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2688,7 @@
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,8 +3099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,10 +3200,10 @@
       <c r="B4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="D4" s="67"/>
+      <c r="C4" s="103" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" s="66"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
         <v>6</v>
@@ -3220,13 +3211,13 @@
       <c r="G4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="71" t="s">
-        <v>410</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="76" t="s">
+      <c r="H4" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="74" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="56">
@@ -3235,39 +3226,39 @@
       <c r="L4" s="56">
         <v>2</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="76">
+      <c r="N4" s="74">
         <v>-13</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="P4" s="43"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="45" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="77" t="s">
+      <c r="I5" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="75" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="48">
@@ -3279,35 +3270,35 @@
       <c r="M5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="77">
+      <c r="N5" s="75">
         <v>-13</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="78" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="77" t="s">
+      <c r="I6" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="75" t="s">
         <v>41</v>
       </c>
       <c r="K6" s="48">
@@ -3316,38 +3307,38 @@
       <c r="L6" s="48">
         <v>2</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="77">
+      <c r="N6" s="75">
         <v>-23</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="78" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>403</v>
+      <c r="B7" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>398</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="67" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>405</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="75" t="s">
         <v>41</v>
       </c>
       <c r="K7" s="48">
@@ -3357,37 +3348,37 @@
         <v>1</v>
       </c>
       <c r="M7" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="N7" s="77">
+        <v>401</v>
+      </c>
+      <c r="N7" s="75">
         <v>-55</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="78" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="78" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>409</v>
-      </c>
-      <c r="H8" s="71" t="s">
+      <c r="G8" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="H8" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="77" t="s">
+      <c r="I8" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="75" t="s">
         <v>41</v>
       </c>
       <c r="K8" s="48">
@@ -3397,78 +3388,78 @@
         <v>2</v>
       </c>
       <c r="M8" s="49" t="s">
-        <v>411</v>
-      </c>
-      <c r="N8" s="77">
+        <v>406</v>
+      </c>
+      <c r="N8" s="75">
         <v>-54</v>
       </c>
-      <c r="O8" s="80" t="s">
+      <c r="O8" s="78" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="78" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>412</v>
+      <c r="B9" s="76" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>407</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="67" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K9" s="48">
+        <v>16</v>
+      </c>
+      <c r="L9" s="48">
+        <v>1</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="N9" s="75">
+        <v>-56</v>
+      </c>
+      <c r="O9" s="78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="H9" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="K9" s="48">
-        <v>16</v>
-      </c>
-      <c r="L9" s="48">
-        <v>1</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="N9" s="77">
-        <v>-56</v>
-      </c>
-      <c r="O9" s="80" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="78" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>419</v>
+      <c r="C10" s="45" t="s">
+        <v>414</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="67" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="H10" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="H10" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="73" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K10" s="48">
         <v>16</v>
@@ -3477,117 +3468,117 @@
         <v>1</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="N10" s="77">
+        <v>416</v>
+      </c>
+      <c r="N10" s="75">
         <v>-51</v>
       </c>
-      <c r="O10" s="80" t="s">
-        <v>422</v>
+      <c r="O10" s="78" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
-        <v>428</v>
-      </c>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="76" t="s">
         <v>423</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>418</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="67" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K11" s="48">
+        <v>16</v>
+      </c>
+      <c r="L11" s="48">
+        <v>1</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="N11" s="75">
+        <v>-41</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="76" t="s">
         <v>424</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="C12" s="45" t="s">
         <v>425</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>426</v>
-      </c>
-      <c r="K11" s="48">
-        <v>16</v>
-      </c>
-      <c r="L11" s="48">
-        <v>1</v>
-      </c>
-      <c r="M11" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="N11" s="77">
-        <v>-41</v>
-      </c>
-      <c r="O11" s="80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>430</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="67" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="H12" s="71" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="75" t="s">
+      <c r="I12" s="73" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K12" s="48">
+        <v>16</v>
+      </c>
+      <c r="L12" s="48">
+        <v>1</v>
+      </c>
+      <c r="M12" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="K12" s="48">
-        <v>16</v>
-      </c>
-      <c r="L12" s="48">
-        <v>1</v>
-      </c>
-      <c r="M12" s="49" t="s">
+      <c r="N12" s="75">
+        <v>-15</v>
+      </c>
+      <c r="O12" s="78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="76" t="s">
         <v>431</v>
       </c>
-      <c r="N12" s="77">
-        <v>-15</v>
-      </c>
-      <c r="O12" s="80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="78" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>432</v>
+      <c r="C13" s="45" t="s">
+        <v>427</v>
       </c>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="67" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="H13" s="71" t="s">
+        <v>428</v>
+      </c>
+      <c r="H13" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="77" t="s">
+      <c r="I13" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="75" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="48">
@@ -3597,13 +3588,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="N13" s="77">
+        <v>429</v>
+      </c>
+      <c r="N13" s="75">
         <v>-53</v>
       </c>
-      <c r="O13" s="80" t="s">
-        <v>435</v>
+      <c r="O13" s="78" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -3681,9 +3672,19 @@
     <hyperlink ref="O12" r:id="rId16" location="'Niveles'!B18"/>
     <hyperlink ref="G12" r:id="rId17"/>
     <hyperlink ref="O13" r:id="rId18" location="'Niveles'!B31"/>
+    <hyperlink ref="C4" r:id="rId19"/>
+    <hyperlink ref="C5" r:id="rId20"/>
+    <hyperlink ref="C6" r:id="rId21"/>
+    <hyperlink ref="C7" r:id="rId22"/>
+    <hyperlink ref="C8" r:id="rId23"/>
+    <hyperlink ref="C9" r:id="rId24"/>
+    <hyperlink ref="C10" r:id="rId25"/>
+    <hyperlink ref="C11" r:id="rId26"/>
+    <hyperlink ref="C12" r:id="rId27"/>
+    <hyperlink ref="C13" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId29"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4108,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView topLeftCell="E106" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView topLeftCell="A128" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4117,7 +4118,7 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="19" customWidth="1"/>
     <col min="5" max="6" width="3" style="19" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="62.5703125" customWidth="1"/>
@@ -4210,7 +4211,7 @@
       <c r="B4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="103" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -4218,7 +4219,7 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="79" t="s">
         <v>58</v>
       </c>
       <c r="H4" s="63" t="s">
@@ -4242,15 +4243,15 @@
       <c r="N4" s="57">
         <v>-28</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="77" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="104" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="20" t="s">
@@ -4279,10 +4280,10 @@
       <c r="M5" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="86">
+      <c r="N5" s="83">
         <v>-30</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="78" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4290,7 +4291,7 @@
       <c r="B6" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="104" t="s">
         <v>100</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -4322,15 +4323,15 @@
       <c r="N6" s="49">
         <v>-29</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="78" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="104" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -4356,22 +4357,22 @@
       <c r="L7" s="48">
         <v>1</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="82" t="s">
         <v>133</v>
       </c>
       <c r="N7" s="20">
         <v>-27</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="78" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="104" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -4397,22 +4398,22 @@
       <c r="L8" s="48">
         <v>1</v>
       </c>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="82" t="s">
         <v>134</v>
       </c>
       <c r="N8" s="20">
         <v>-22</v>
       </c>
-      <c r="O8" s="80" t="s">
+      <c r="O8" s="78" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="104" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -4438,22 +4439,22 @@
       <c r="L9" s="48">
         <v>1</v>
       </c>
-      <c r="M9" s="85" t="s">
+      <c r="M9" s="82" t="s">
         <v>135</v>
       </c>
       <c r="N9" s="20">
         <v>-31</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="78" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="104" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -4479,22 +4480,22 @@
       <c r="L10" s="48">
         <v>1</v>
       </c>
-      <c r="M10" s="85" t="s">
+      <c r="M10" s="82" t="s">
         <v>136</v>
       </c>
       <c r="N10" s="20">
         <v>-24</v>
       </c>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="78" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="82" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="104" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -4520,22 +4521,22 @@
       <c r="L11" s="48">
         <v>1</v>
       </c>
-      <c r="M11" s="85" t="s">
+      <c r="M11" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N11" s="20">
         <v>-23</v>
       </c>
-      <c r="O11" s="87" t="s">
+      <c r="O11" s="84" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="104" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="20" t="s">
@@ -4561,22 +4562,22 @@
       <c r="L12" s="48">
         <v>1</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="82" t="s">
         <v>138</v>
       </c>
       <c r="N12" s="20">
         <v>-28</v>
       </c>
-      <c r="O12" s="87" t="s">
+      <c r="O12" s="84" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="104" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -4602,22 +4603,22 @@
       <c r="L13" s="48">
         <v>1</v>
       </c>
-      <c r="M13" s="85" t="s">
+      <c r="M13" s="82" t="s">
         <v>139</v>
       </c>
       <c r="N13" s="20">
         <v>-25</v>
       </c>
-      <c r="O13" s="87" t="s">
+      <c r="O13" s="84" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="82" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="104" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -4643,22 +4644,22 @@
       <c r="L14" s="48">
         <v>1</v>
       </c>
-      <c r="M14" s="85" t="s">
+      <c r="M14" s="82" t="s">
         <v>138</v>
       </c>
       <c r="N14" s="20">
         <v>-28</v>
       </c>
-      <c r="O14" s="87" t="s">
+      <c r="O14" s="84" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="82" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="104" t="s">
         <v>109</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -4684,22 +4685,22 @@
       <c r="L15" s="48">
         <v>1</v>
       </c>
-      <c r="M15" s="85" t="s">
+      <c r="M15" s="82" t="s">
         <v>140</v>
       </c>
       <c r="N15" s="20">
         <v>-26</v>
       </c>
-      <c r="O15" s="87" t="s">
+      <c r="O15" s="84" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="82" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="104" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -4725,22 +4726,22 @@
       <c r="L16" s="48">
         <v>1</v>
       </c>
-      <c r="M16" s="85" t="s">
+      <c r="M16" s="82" t="s">
         <v>141</v>
       </c>
       <c r="N16" s="20">
         <v>-25</v>
       </c>
-      <c r="O16" s="87" t="s">
+      <c r="O16" s="84" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="82" t="s">
+      <c r="A17" s="81"/>
+      <c r="B17" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="104" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="20" t="s">
@@ -4766,22 +4767,22 @@
       <c r="L17" s="48">
         <v>1</v>
       </c>
-      <c r="M17" s="85" t="s">
+      <c r="M17" s="82" t="s">
         <v>133</v>
       </c>
       <c r="N17" s="20">
         <v>-25</v>
       </c>
-      <c r="O17" s="87" t="s">
+      <c r="O17" s="84" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="104" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -4807,22 +4808,22 @@
       <c r="L18" s="48">
         <v>1</v>
       </c>
-      <c r="M18" s="85" t="s">
+      <c r="M18" s="82" t="s">
         <v>142</v>
       </c>
       <c r="N18" s="20">
         <v>-24</v>
       </c>
-      <c r="O18" s="87" t="s">
+      <c r="O18" s="84" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="82" t="s">
+      <c r="A19" s="81"/>
+      <c r="B19" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="104" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -4848,22 +4849,22 @@
       <c r="L19" s="48">
         <v>1</v>
       </c>
-      <c r="M19" s="85" t="s">
+      <c r="M19" s="82" t="s">
         <v>143</v>
       </c>
       <c r="N19" s="20">
         <v>-26</v>
       </c>
-      <c r="O19" s="87" t="s">
+      <c r="O19" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="82" t="s">
+      <c r="A20" s="81"/>
+      <c r="B20" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="104" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -4889,22 +4890,22 @@
       <c r="L20" s="48">
         <v>1</v>
       </c>
-      <c r="M20" s="85" t="s">
+      <c r="M20" s="82" t="s">
         <v>134</v>
       </c>
       <c r="N20" s="20">
         <v>-29</v>
       </c>
-      <c r="O20" s="87" t="s">
+      <c r="O20" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="82" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="104" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -4930,22 +4931,22 @@
       <c r="L21" s="48">
         <v>1</v>
       </c>
-      <c r="M21" s="85" t="s">
+      <c r="M21" s="82" t="s">
         <v>144</v>
       </c>
       <c r="N21" s="20">
         <v>-24</v>
       </c>
-      <c r="O21" s="87" t="s">
+      <c r="O21" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="82" t="s">
+      <c r="A22" s="81"/>
+      <c r="B22" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="104" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -4971,22 +4972,22 @@
       <c r="L22" s="48">
         <v>1</v>
       </c>
-      <c r="M22" s="85" t="s">
+      <c r="M22" s="82" t="s">
         <v>142</v>
       </c>
       <c r="N22" s="20">
         <v>-27</v>
       </c>
-      <c r="O22" s="87" t="s">
+      <c r="O22" s="84" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="104" t="s">
         <v>117</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -5012,22 +5013,22 @@
       <c r="L23" s="48">
         <v>1</v>
       </c>
-      <c r="M23" s="85" t="s">
+      <c r="M23" s="82" t="s">
         <v>145</v>
       </c>
       <c r="N23" s="20">
         <v>-26</v>
       </c>
-      <c r="O23" s="87" t="s">
+      <c r="O23" s="84" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="82" t="s">
+      <c r="A24" s="81"/>
+      <c r="B24" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="104" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -5053,22 +5054,22 @@
       <c r="L24" s="48">
         <v>1</v>
       </c>
-      <c r="M24" s="85" t="s">
+      <c r="M24" s="82" t="s">
         <v>146</v>
       </c>
       <c r="N24" s="20">
         <v>-26</v>
       </c>
-      <c r="O24" s="87" t="s">
+      <c r="O24" s="84" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="82" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="104" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -5094,22 +5095,22 @@
       <c r="L25" s="48">
         <v>1</v>
       </c>
-      <c r="M25" s="85" t="s">
+      <c r="M25" s="82" t="s">
         <v>147</v>
       </c>
       <c r="N25" s="20">
         <v>-23</v>
       </c>
-      <c r="O25" s="87" t="s">
+      <c r="O25" s="84" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="82" t="s">
+      <c r="A26" s="81"/>
+      <c r="B26" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="104" t="s">
         <v>120</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -5135,22 +5136,22 @@
       <c r="L26" s="48">
         <v>1</v>
       </c>
-      <c r="M26" s="85" t="s">
+      <c r="M26" s="82" t="s">
         <v>148</v>
       </c>
       <c r="N26" s="20">
         <v>-27</v>
       </c>
-      <c r="O26" s="87" t="s">
+      <c r="O26" s="84" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="82" t="s">
+      <c r="A27" s="81"/>
+      <c r="B27" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="104" t="s">
         <v>121</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -5176,22 +5177,22 @@
       <c r="L27" s="48">
         <v>1</v>
       </c>
-      <c r="M27" s="85" t="s">
+      <c r="M27" s="82" t="s">
         <v>149</v>
       </c>
       <c r="N27" s="20">
         <v>-29</v>
       </c>
-      <c r="O27" s="87" t="s">
+      <c r="O27" s="84" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="82" t="s">
+      <c r="A28" s="81"/>
+      <c r="B28" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="104" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -5217,22 +5218,22 @@
       <c r="L28" s="48">
         <v>1</v>
       </c>
-      <c r="M28" s="85" t="s">
+      <c r="M28" s="82" t="s">
         <v>150</v>
       </c>
       <c r="N28" s="20">
         <v>-29</v>
       </c>
-      <c r="O28" s="87" t="s">
+      <c r="O28" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="82" t="s">
+      <c r="A29" s="81"/>
+      <c r="B29" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="104" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -5258,22 +5259,22 @@
       <c r="L29" s="48">
         <v>1</v>
       </c>
-      <c r="M29" s="85" t="s">
+      <c r="M29" s="82" t="s">
         <v>151</v>
       </c>
       <c r="N29" s="20">
         <v>-28</v>
       </c>
-      <c r="O29" s="87" t="s">
+      <c r="O29" s="84" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="82" t="s">
+      <c r="A30" s="81"/>
+      <c r="B30" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="104" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -5299,22 +5300,22 @@
       <c r="L30" s="48">
         <v>1</v>
       </c>
-      <c r="M30" s="85" t="s">
+      <c r="M30" s="82" t="s">
         <v>152</v>
       </c>
       <c r="N30" s="20">
         <v>-22</v>
       </c>
-      <c r="O30" s="87" t="s">
+      <c r="O30" s="84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="82" t="s">
+      <c r="A31" s="81"/>
+      <c r="B31" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="104" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -5340,22 +5341,22 @@
       <c r="L31" s="48">
         <v>1</v>
       </c>
-      <c r="M31" s="85" t="s">
+      <c r="M31" s="82" t="s">
         <v>154</v>
       </c>
       <c r="N31" s="20">
         <v>-20</v>
       </c>
-      <c r="O31" s="87" t="s">
+      <c r="O31" s="84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="82" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="104" t="s">
         <v>127</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -5381,22 +5382,22 @@
       <c r="L32" s="48">
         <v>1</v>
       </c>
-      <c r="M32" s="85" t="s">
+      <c r="M32" s="82" t="s">
         <v>153</v>
       </c>
       <c r="N32" s="20">
         <v>-19</v>
       </c>
-      <c r="O32" s="87" t="s">
+      <c r="O32" s="84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="82" t="s">
+      <c r="A33" s="81"/>
+      <c r="B33" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="104" t="s">
         <v>125</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -5422,22 +5423,22 @@
       <c r="L33" s="48">
         <v>1</v>
       </c>
-      <c r="M33" s="85" t="s">
+      <c r="M33" s="82" t="s">
         <v>152</v>
       </c>
       <c r="N33" s="20">
         <v>-22</v>
       </c>
-      <c r="O33" s="87" t="s">
+      <c r="O33" s="84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="82" t="s">
+      <c r="A34" s="81"/>
+      <c r="B34" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="104" t="s">
         <v>128</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -5463,22 +5464,22 @@
       <c r="L34" s="48">
         <v>1</v>
       </c>
-      <c r="M34" s="85" t="s">
+      <c r="M34" s="82" t="s">
         <v>154</v>
       </c>
       <c r="N34" s="20">
         <v>-20</v>
       </c>
-      <c r="O34" s="87" t="s">
+      <c r="O34" s="84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="82" t="s">
+      <c r="A35" s="81"/>
+      <c r="B35" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="104" t="s">
         <v>129</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -5504,22 +5505,22 @@
       <c r="L35" s="48">
         <v>1</v>
       </c>
-      <c r="M35" s="85" t="s">
+      <c r="M35" s="82" t="s">
         <v>153</v>
       </c>
       <c r="N35" s="20">
         <v>-19</v>
       </c>
-      <c r="O35" s="87" t="s">
+      <c r="O35" s="84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="82" t="s">
+      <c r="A36" s="81"/>
+      <c r="B36" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="104" t="s">
         <v>155</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -5545,22 +5546,22 @@
       <c r="L36" s="48">
         <v>1</v>
       </c>
-      <c r="M36" s="85" t="s">
+      <c r="M36" s="82" t="s">
         <v>131</v>
       </c>
       <c r="N36" s="20">
         <v>-15</v>
       </c>
-      <c r="O36" s="87" t="s">
+      <c r="O36" s="84" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="82" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="43" t="s">
         <v>156</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -5586,22 +5587,22 @@
       <c r="L37" s="48">
         <v>1</v>
       </c>
-      <c r="M37" s="85" t="s">
+      <c r="M37" s="82" t="s">
         <v>209</v>
       </c>
       <c r="N37" s="20">
         <v>-15</v>
       </c>
-      <c r="O37" s="87" t="s">
+      <c r="O37" s="84" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="82" t="s">
+      <c r="A38" s="81"/>
+      <c r="B38" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="43" t="s">
         <v>157</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -5627,22 +5628,22 @@
       <c r="L38" s="48">
         <v>1</v>
       </c>
-      <c r="M38" s="85" t="s">
+      <c r="M38" s="82" t="s">
         <v>210</v>
       </c>
       <c r="N38" s="20">
         <v>-19</v>
       </c>
-      <c r="O38" s="87" t="s">
+      <c r="O38" s="84" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="82" t="s">
+      <c r="A39" s="81"/>
+      <c r="B39" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="43" t="s">
         <v>158</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -5668,22 +5669,22 @@
       <c r="L39" s="48">
         <v>1</v>
       </c>
-      <c r="M39" s="85" t="s">
+      <c r="M39" s="82" t="s">
         <v>211</v>
       </c>
       <c r="N39" s="20">
         <v>-17</v>
       </c>
-      <c r="O39" s="87" t="s">
+      <c r="O39" s="84" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="82" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="43" t="s">
         <v>159</v>
       </c>
       <c r="D40" s="20" t="s">
@@ -5709,22 +5710,22 @@
       <c r="L40" s="48">
         <v>1</v>
       </c>
-      <c r="M40" s="85" t="s">
+      <c r="M40" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N40" s="20">
         <v>-20</v>
       </c>
-      <c r="O40" s="87" t="s">
+      <c r="O40" s="84" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="82" t="s">
+      <c r="A41" s="81"/>
+      <c r="B41" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="43" t="s">
         <v>160</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -5750,22 +5751,22 @@
       <c r="L41" s="48">
         <v>1</v>
       </c>
-      <c r="M41" s="85" t="s">
+      <c r="M41" s="82" t="s">
         <v>130</v>
       </c>
       <c r="N41" s="20">
         <v>-18</v>
       </c>
-      <c r="O41" s="87" t="s">
+      <c r="O41" s="84" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="82" t="s">
+      <c r="A42" s="81"/>
+      <c r="B42" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="43" t="s">
         <v>161</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -5791,22 +5792,22 @@
       <c r="L42" s="48">
         <v>1</v>
       </c>
-      <c r="M42" s="85" t="s">
+      <c r="M42" s="82" t="s">
         <v>212</v>
       </c>
       <c r="N42" s="20">
         <v>-25</v>
       </c>
-      <c r="O42" s="87" t="s">
+      <c r="O42" s="84" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="82" t="s">
+      <c r="A43" s="81"/>
+      <c r="B43" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="43" t="s">
         <v>162</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -5832,22 +5833,22 @@
       <c r="L43" s="48">
         <v>1</v>
       </c>
-      <c r="M43" s="85" t="s">
+      <c r="M43" s="82" t="s">
         <v>213</v>
       </c>
       <c r="N43" s="20">
         <v>-14</v>
       </c>
-      <c r="O43" s="87" t="s">
+      <c r="O43" s="84" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="82" t="s">
+      <c r="A44" s="81"/>
+      <c r="B44" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="43" t="s">
         <v>164</v>
       </c>
       <c r="D44" s="20" t="s">
@@ -5873,22 +5874,22 @@
       <c r="L44" s="48">
         <v>1</v>
       </c>
-      <c r="M44" s="85" t="s">
+      <c r="M44" s="82" t="s">
         <v>214</v>
       </c>
       <c r="N44" s="20">
         <v>-13</v>
       </c>
-      <c r="O44" s="87" t="s">
+      <c r="O44" s="84" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="82" t="s">
+      <c r="A45" s="81"/>
+      <c r="B45" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="43" t="s">
         <v>165</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -5914,22 +5915,22 @@
       <c r="L45" s="48">
         <v>1</v>
       </c>
-      <c r="M45" s="85" t="s">
+      <c r="M45" s="82" t="s">
         <v>135</v>
       </c>
       <c r="N45" s="20">
         <v>-20</v>
       </c>
-      <c r="O45" s="87" t="s">
+      <c r="O45" s="84" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="82" t="s">
+      <c r="A46" s="81"/>
+      <c r="B46" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="43" t="s">
         <v>163</v>
       </c>
       <c r="D46" s="20" t="s">
@@ -5955,22 +5956,22 @@
       <c r="L46" s="48">
         <v>1</v>
       </c>
-      <c r="M46" s="85" t="s">
+      <c r="M46" s="82" t="s">
         <v>215</v>
       </c>
       <c r="N46" s="20">
         <v>-14</v>
       </c>
-      <c r="O46" s="87" t="s">
+      <c r="O46" s="84" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="82" t="s">
+      <c r="A47" s="81"/>
+      <c r="B47" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="43" t="s">
         <v>166</v>
       </c>
       <c r="D47" s="20" t="s">
@@ -5996,22 +5997,22 @@
       <c r="L47" s="48">
         <v>1</v>
       </c>
-      <c r="M47" s="85" t="s">
+      <c r="M47" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N47" s="20">
         <v>-11</v>
       </c>
-      <c r="O47" s="87" t="s">
+      <c r="O47" s="84" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="82" t="s">
+      <c r="A48" s="81"/>
+      <c r="B48" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="43" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="20" t="s">
@@ -6037,22 +6038,22 @@
       <c r="L48" s="48">
         <v>1</v>
       </c>
-      <c r="M48" s="85" t="s">
+      <c r="M48" s="82" t="s">
         <v>216</v>
       </c>
       <c r="N48" s="20">
         <v>-13</v>
       </c>
-      <c r="O48" s="87" t="s">
+      <c r="O48" s="84" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="82" t="s">
+      <c r="A49" s="81"/>
+      <c r="B49" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="43" t="s">
         <v>168</v>
       </c>
       <c r="D49" s="20" t="s">
@@ -6078,22 +6079,22 @@
       <c r="L49" s="48">
         <v>1</v>
       </c>
-      <c r="M49" s="85" t="s">
+      <c r="M49" s="82" t="s">
         <v>212</v>
       </c>
       <c r="N49" s="20">
         <v>-11</v>
       </c>
-      <c r="O49" s="87" t="s">
+      <c r="O49" s="84" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
-      <c r="B50" s="82" t="s">
+      <c r="A50" s="81"/>
+      <c r="B50" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="84" t="s">
+      <c r="C50" s="43" t="s">
         <v>169</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -6119,22 +6120,22 @@
       <c r="L50" s="48">
         <v>1</v>
       </c>
-      <c r="M50" s="85" t="s">
+      <c r="M50" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N50" s="20">
         <v>-19</v>
       </c>
-      <c r="O50" s="87" t="s">
+      <c r="O50" s="84" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="82" t="s">
+      <c r="A51" s="81"/>
+      <c r="B51" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="43" t="s">
         <v>170</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -6160,22 +6161,22 @@
       <c r="L51" s="48">
         <v>1</v>
       </c>
-      <c r="M51" s="85" t="s">
+      <c r="M51" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N51" s="20">
         <v>-19</v>
       </c>
-      <c r="O51" s="87" t="s">
+      <c r="O51" s="84" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
-      <c r="B52" s="82" t="s">
+      <c r="A52" s="81"/>
+      <c r="B52" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="84" t="s">
+      <c r="C52" s="43" t="s">
         <v>171</v>
       </c>
       <c r="D52" s="20" t="s">
@@ -6201,22 +6202,22 @@
       <c r="L52" s="48">
         <v>1</v>
       </c>
-      <c r="M52" s="85" t="s">
+      <c r="M52" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N52" s="20">
         <v>-19</v>
       </c>
-      <c r="O52" s="87" t="s">
+      <c r="O52" s="84" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
-      <c r="B53" s="82" t="s">
+      <c r="A53" s="81"/>
+      <c r="B53" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="84" t="s">
+      <c r="C53" s="43" t="s">
         <v>173</v>
       </c>
       <c r="D53" s="20" t="s">
@@ -6242,22 +6243,22 @@
       <c r="L53" s="48">
         <v>1</v>
       </c>
-      <c r="M53" s="85" t="s">
+      <c r="M53" s="82" t="s">
         <v>215</v>
       </c>
       <c r="N53" s="20">
         <v>-20</v>
       </c>
-      <c r="O53" s="87" t="s">
+      <c r="O53" s="84" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
-      <c r="B54" s="82" t="s">
+      <c r="A54" s="81"/>
+      <c r="B54" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D54" s="20" t="s">
@@ -6283,22 +6284,22 @@
       <c r="L54" s="48">
         <v>1</v>
       </c>
-      <c r="M54" s="85" t="s">
+      <c r="M54" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N54" s="20">
         <v>-19</v>
       </c>
-      <c r="O54" s="87" t="s">
+      <c r="O54" s="84" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
-      <c r="B55" s="82" t="s">
+      <c r="A55" s="81"/>
+      <c r="B55" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="84" t="s">
+      <c r="C55" s="43" t="s">
         <v>174</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -6324,22 +6325,22 @@
       <c r="L55" s="48">
         <v>1</v>
       </c>
-      <c r="M55" s="85" t="s">
+      <c r="M55" s="82" t="s">
         <v>215</v>
       </c>
       <c r="N55" s="20">
         <v>-20</v>
       </c>
-      <c r="O55" s="87" t="s">
+      <c r="O55" s="84" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="82" t="s">
+      <c r="A56" s="81"/>
+      <c r="B56" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="84" t="s">
+      <c r="C56" s="43" t="s">
         <v>175</v>
       </c>
       <c r="D56" s="20" t="s">
@@ -6365,22 +6366,22 @@
       <c r="L56" s="48">
         <v>1</v>
       </c>
-      <c r="M56" s="85" t="s">
+      <c r="M56" s="82" t="s">
         <v>217</v>
       </c>
       <c r="N56" s="20">
         <v>-15</v>
       </c>
-      <c r="O56" s="87" t="s">
+      <c r="O56" s="84" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
-      <c r="B57" s="82" t="s">
+      <c r="A57" s="81"/>
+      <c r="B57" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="43" t="s">
         <v>176</v>
       </c>
       <c r="D57" s="20" t="s">
@@ -6406,22 +6407,22 @@
       <c r="L57" s="48">
         <v>1</v>
       </c>
-      <c r="M57" s="85" t="s">
+      <c r="M57" s="82" t="s">
         <v>218</v>
       </c>
       <c r="N57" s="20">
         <v>-15</v>
       </c>
-      <c r="O57" s="87" t="s">
+      <c r="O57" s="84" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="82" t="s">
+      <c r="A58" s="81"/>
+      <c r="B58" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="84" t="s">
+      <c r="C58" s="43" t="s">
         <v>177</v>
       </c>
       <c r="D58" s="20" t="s">
@@ -6447,22 +6448,22 @@
       <c r="L58" s="48">
         <v>1</v>
       </c>
-      <c r="M58" s="85" t="s">
+      <c r="M58" s="82" t="s">
         <v>217</v>
       </c>
       <c r="N58" s="20">
         <v>-15</v>
       </c>
-      <c r="O58" s="87" t="s">
+      <c r="O58" s="84" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="82" t="s">
+      <c r="A59" s="81"/>
+      <c r="B59" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="43" t="s">
         <v>178</v>
       </c>
       <c r="D59" s="20" t="s">
@@ -6488,22 +6489,22 @@
       <c r="L59" s="48">
         <v>1</v>
       </c>
-      <c r="M59" s="85" t="s">
+      <c r="M59" s="82" t="s">
         <v>219</v>
       </c>
       <c r="N59" s="20">
         <v>-15</v>
       </c>
-      <c r="O59" s="87" t="s">
+      <c r="O59" s="84" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="82" t="s">
+      <c r="A60" s="81"/>
+      <c r="B60" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="84" t="s">
+      <c r="C60" s="43" t="s">
         <v>179</v>
       </c>
       <c r="D60" s="20" t="s">
@@ -6529,22 +6530,22 @@
       <c r="L60" s="48">
         <v>1</v>
       </c>
-      <c r="M60" s="85" t="s">
+      <c r="M60" s="82" t="s">
         <v>220</v>
       </c>
       <c r="N60" s="20">
         <v>-14</v>
       </c>
-      <c r="O60" s="87" t="s">
+      <c r="O60" s="84" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
-      <c r="B61" s="82" t="s">
+      <c r="A61" s="81"/>
+      <c r="B61" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="84" t="s">
+      <c r="C61" s="43" t="s">
         <v>180</v>
       </c>
       <c r="D61" s="20" t="s">
@@ -6570,22 +6571,22 @@
       <c r="L61" s="48">
         <v>1</v>
       </c>
-      <c r="M61" s="85" t="s">
+      <c r="M61" s="82" t="s">
         <v>154</v>
       </c>
       <c r="N61" s="20">
         <v>-13</v>
       </c>
-      <c r="O61" s="87" t="s">
+      <c r="O61" s="84" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="82" t="s">
+      <c r="A62" s="81"/>
+      <c r="B62" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="84" t="s">
+      <c r="C62" s="43" t="s">
         <v>181</v>
       </c>
       <c r="D62" s="20" t="s">
@@ -6611,22 +6612,22 @@
       <c r="L62" s="48">
         <v>1</v>
       </c>
-      <c r="M62" s="85" t="s">
+      <c r="M62" s="82" t="s">
         <v>154</v>
       </c>
       <c r="N62" s="20">
         <v>-13</v>
       </c>
-      <c r="O62" s="87" t="s">
+      <c r="O62" s="84" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
-      <c r="B63" s="82" t="s">
+      <c r="A63" s="81"/>
+      <c r="B63" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="84" t="s">
+      <c r="C63" s="43" t="s">
         <v>263</v>
       </c>
       <c r="D63" s="20" t="s">
@@ -6652,22 +6653,22 @@
       <c r="L63" s="48">
         <v>1</v>
       </c>
-      <c r="M63" s="85" t="s">
+      <c r="M63" s="82" t="s">
         <v>297</v>
       </c>
       <c r="N63" s="20">
         <v>-25</v>
       </c>
-      <c r="O63" s="87" t="s">
+      <c r="O63" s="84" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
-      <c r="B64" s="82" t="s">
+      <c r="A64" s="81"/>
+      <c r="B64" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="84" t="s">
+      <c r="C64" s="43" t="s">
         <v>264</v>
       </c>
       <c r="D64" s="20" t="s">
@@ -6693,22 +6694,22 @@
       <c r="L64" s="48">
         <v>1</v>
       </c>
-      <c r="M64" s="85" t="s">
+      <c r="M64" s="82" t="s">
         <v>297</v>
       </c>
       <c r="N64" s="20">
         <v>-25</v>
       </c>
-      <c r="O64" s="87" t="s">
+      <c r="O64" s="84" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
-      <c r="B65" s="82" t="s">
+      <c r="A65" s="81"/>
+      <c r="B65" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="C65" s="84" t="s">
+      <c r="C65" s="43" t="s">
         <v>265</v>
       </c>
       <c r="D65" s="20" t="s">
@@ -6734,22 +6735,22 @@
       <c r="L65" s="48">
         <v>1</v>
       </c>
-      <c r="M65" s="85" t="s">
+      <c r="M65" s="82" t="s">
         <v>216</v>
       </c>
       <c r="N65" s="20">
         <v>-25</v>
       </c>
-      <c r="O65" s="87" t="s">
+      <c r="O65" s="84" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="82" t="s">
+      <c r="A66" s="81"/>
+      <c r="B66" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="C66" s="84" t="s">
+      <c r="C66" s="43" t="s">
         <v>266</v>
       </c>
       <c r="D66" s="20" t="s">
@@ -6775,22 +6776,22 @@
       <c r="L66" s="48">
         <v>1</v>
       </c>
-      <c r="M66" s="85" t="s">
+      <c r="M66" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N66" s="20">
         <v>-25</v>
       </c>
-      <c r="O66" s="87" t="s">
+      <c r="O66" s="84" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
-      <c r="B67" s="82" t="s">
+      <c r="A67" s="81"/>
+      <c r="B67" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="43" t="s">
         <v>267</v>
       </c>
       <c r="D67" s="20" t="s">
@@ -6816,22 +6817,22 @@
       <c r="L67" s="48">
         <v>1</v>
       </c>
-      <c r="M67" s="85" t="s">
+      <c r="M67" s="82" t="s">
         <v>216</v>
       </c>
       <c r="N67" s="20">
         <v>-25</v>
       </c>
-      <c r="O67" s="87" t="s">
+      <c r="O67" s="84" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
-      <c r="B68" s="82" t="s">
+      <c r="A68" s="81"/>
+      <c r="B68" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="C68" s="84" t="s">
+      <c r="C68" s="43" t="s">
         <v>268</v>
       </c>
       <c r="D68" s="20" t="s">
@@ -6857,22 +6858,22 @@
       <c r="L68" s="48">
         <v>1</v>
       </c>
-      <c r="M68" s="85" t="s">
+      <c r="M68" s="82" t="s">
         <v>299</v>
       </c>
       <c r="N68" s="20">
         <v>-25</v>
       </c>
-      <c r="O68" s="87" t="s">
+      <c r="O68" s="84" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
-      <c r="B69" s="82" t="s">
+      <c r="A69" s="81"/>
+      <c r="B69" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="84" t="s">
+      <c r="C69" s="43" t="s">
         <v>269</v>
       </c>
       <c r="D69" s="20" t="s">
@@ -6898,22 +6899,22 @@
       <c r="L69" s="48">
         <v>1</v>
       </c>
-      <c r="M69" s="85" t="s">
+      <c r="M69" s="82" t="s">
         <v>216</v>
       </c>
       <c r="N69" s="20">
         <v>-26</v>
       </c>
-      <c r="O69" s="87" t="s">
+      <c r="O69" s="84" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="82" t="s">
+      <c r="A70" s="81"/>
+      <c r="B70" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="84" t="s">
+      <c r="C70" s="43" t="s">
         <v>270</v>
       </c>
       <c r="D70" s="20" t="s">
@@ -6939,22 +6940,22 @@
       <c r="L70" s="48">
         <v>1</v>
       </c>
-      <c r="M70" s="85" t="s">
+      <c r="M70" s="82" t="s">
         <v>153</v>
       </c>
       <c r="N70" s="20">
         <v>-31</v>
       </c>
-      <c r="O70" s="87" t="s">
+      <c r="O70" s="84" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
-      <c r="B71" s="82" t="s">
+      <c r="A71" s="81"/>
+      <c r="B71" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="43" t="s">
         <v>271</v>
       </c>
       <c r="D71" s="20" t="s">
@@ -6980,22 +6981,22 @@
       <c r="L71" s="48">
         <v>1</v>
       </c>
-      <c r="M71" s="85" t="s">
+      <c r="M71" s="82" t="s">
         <v>300</v>
       </c>
       <c r="N71" s="20">
         <v>-26</v>
       </c>
-      <c r="O71" s="87" t="s">
+      <c r="O71" s="84" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
-      <c r="B72" s="82" t="s">
+      <c r="A72" s="81"/>
+      <c r="B72" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="84" t="s">
+      <c r="C72" s="43" t="s">
         <v>272</v>
       </c>
       <c r="D72" s="20" t="s">
@@ -7021,22 +7022,22 @@
       <c r="L72" s="48">
         <v>1</v>
       </c>
-      <c r="M72" s="85" t="s">
+      <c r="M72" s="82" t="s">
         <v>153</v>
       </c>
       <c r="N72" s="20">
         <v>-30</v>
       </c>
-      <c r="O72" s="87" t="s">
+      <c r="O72" s="84" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
-      <c r="B73" s="82" t="s">
+      <c r="A73" s="81"/>
+      <c r="B73" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="84" t="s">
+      <c r="C73" s="43" t="s">
         <v>273</v>
       </c>
       <c r="D73" s="20" t="s">
@@ -7062,22 +7063,22 @@
       <c r="L73" s="48">
         <v>1</v>
       </c>
-      <c r="M73" s="85" t="s">
+      <c r="M73" s="82" t="s">
         <v>144</v>
       </c>
       <c r="N73" s="20">
         <v>-27</v>
       </c>
-      <c r="O73" s="87" t="s">
+      <c r="O73" s="84" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
-      <c r="B74" s="82" t="s">
+      <c r="A74" s="81"/>
+      <c r="B74" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="43" t="s">
         <v>274</v>
       </c>
       <c r="D74" s="20" t="s">
@@ -7103,22 +7104,22 @@
       <c r="L74" s="48">
         <v>1</v>
       </c>
-      <c r="M74" s="85" t="s">
+      <c r="M74" s="82" t="s">
         <v>133</v>
       </c>
       <c r="N74" s="20">
         <v>-26</v>
       </c>
-      <c r="O74" s="87" t="s">
+      <c r="O74" s="84" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
-      <c r="B75" s="82" t="s">
+      <c r="A75" s="81"/>
+      <c r="B75" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="84" t="s">
+      <c r="C75" s="43" t="s">
         <v>275</v>
       </c>
       <c r="D75" s="20" t="s">
@@ -7144,22 +7145,22 @@
       <c r="L75" s="48">
         <v>1</v>
       </c>
-      <c r="M75" s="85" t="s">
+      <c r="M75" s="82" t="s">
         <v>212</v>
       </c>
       <c r="N75" s="20">
         <v>-27</v>
       </c>
-      <c r="O75" s="87" t="s">
+      <c r="O75" s="84" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="83"/>
-      <c r="B76" s="82" t="s">
+      <c r="A76" s="81"/>
+      <c r="B76" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="84" t="s">
+      <c r="C76" s="43" t="s">
         <v>276</v>
       </c>
       <c r="D76" s="20" t="s">
@@ -7185,22 +7186,22 @@
       <c r="L76" s="48">
         <v>1</v>
       </c>
-      <c r="M76" s="85" t="s">
+      <c r="M76" s="82" t="s">
         <v>133</v>
       </c>
       <c r="N76" s="20">
         <v>-34</v>
       </c>
-      <c r="O76" s="87" t="s">
+      <c r="O76" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
-      <c r="B77" s="82" t="s">
+      <c r="A77" s="81"/>
+      <c r="B77" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="43" t="s">
         <v>278</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -7226,22 +7227,22 @@
       <c r="L77" s="48">
         <v>1</v>
       </c>
-      <c r="M77" s="85" t="s">
+      <c r="M77" s="82" t="s">
         <v>215</v>
       </c>
       <c r="N77" s="20">
         <v>-20</v>
       </c>
-      <c r="O77" s="87" t="s">
+      <c r="O77" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="83"/>
-      <c r="B78" s="82" t="s">
+      <c r="A78" s="81"/>
+      <c r="B78" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="84" t="s">
+      <c r="C78" s="43" t="s">
         <v>279</v>
       </c>
       <c r="D78" s="20" t="s">
@@ -7267,22 +7268,22 @@
       <c r="L78" s="48">
         <v>1</v>
       </c>
-      <c r="M78" s="85" t="s">
+      <c r="M78" s="82" t="s">
         <v>212</v>
       </c>
       <c r="N78" s="20">
         <v>-29</v>
       </c>
-      <c r="O78" s="87" t="s">
+      <c r="O78" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
-      <c r="B79" s="82" t="s">
+      <c r="A79" s="81"/>
+      <c r="B79" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="84" t="s">
+      <c r="C79" s="43" t="s">
         <v>277</v>
       </c>
       <c r="D79" s="20" t="s">
@@ -7314,16 +7315,16 @@
       <c r="N79" s="20">
         <v>-28</v>
       </c>
-      <c r="O79" s="87" t="s">
+      <c r="O79" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
-      <c r="B80" s="82" t="s">
+      <c r="A80" s="81"/>
+      <c r="B80" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="84" t="s">
+      <c r="C80" s="43" t="s">
         <v>280</v>
       </c>
       <c r="D80" s="20" t="s">
@@ -7349,22 +7350,22 @@
       <c r="L80" s="48">
         <v>1</v>
       </c>
-      <c r="M80" s="85" t="s">
+      <c r="M80" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N80" s="20">
         <v>-19</v>
       </c>
-      <c r="O80" s="87" t="s">
+      <c r="O80" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="83"/>
-      <c r="B81" s="82" t="s">
+      <c r="A81" s="81"/>
+      <c r="B81" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="84" t="s">
+      <c r="C81" s="43" t="s">
         <v>281</v>
       </c>
       <c r="D81" s="20" t="s">
@@ -7390,22 +7391,22 @@
       <c r="L81" s="48">
         <v>1</v>
       </c>
-      <c r="M81" s="85" t="s">
+      <c r="M81" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N81" s="20">
         <v>-27</v>
       </c>
-      <c r="O81" s="87" t="s">
+      <c r="O81" s="84" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
-      <c r="B82" s="82" t="s">
+      <c r="A82" s="81"/>
+      <c r="B82" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="84" t="s">
+      <c r="C82" s="43" t="s">
         <v>282</v>
       </c>
       <c r="D82" s="20" t="s">
@@ -7431,22 +7432,22 @@
       <c r="L82" s="48">
         <v>1</v>
       </c>
-      <c r="M82" s="85" t="s">
+      <c r="M82" s="82" t="s">
         <v>212</v>
       </c>
       <c r="N82" s="20">
         <v>-36</v>
       </c>
-      <c r="O82" s="87" t="s">
+      <c r="O82" s="84" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
-      <c r="B83" s="82" t="s">
+      <c r="A83" s="81"/>
+      <c r="B83" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="84" t="s">
+      <c r="C83" s="43" t="s">
         <v>284</v>
       </c>
       <c r="D83" s="20" t="s">
@@ -7472,22 +7473,22 @@
       <c r="L83" s="48">
         <v>1</v>
       </c>
-      <c r="M83" s="85" t="s">
+      <c r="M83" s="82" t="s">
         <v>301</v>
       </c>
       <c r="N83" s="20">
         <v>-34</v>
       </c>
-      <c r="O83" s="87" t="s">
+      <c r="O83" s="84" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="83"/>
-      <c r="B84" s="82" t="s">
+      <c r="A84" s="81"/>
+      <c r="B84" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="C84" s="84" t="s">
+      <c r="C84" s="43" t="s">
         <v>283</v>
       </c>
       <c r="D84" s="20" t="s">
@@ -7513,22 +7514,22 @@
       <c r="L84" s="48">
         <v>1</v>
       </c>
-      <c r="M84" s="85" t="s">
+      <c r="M84" s="82" t="s">
         <v>212</v>
       </c>
       <c r="N84" s="20">
         <v>-36</v>
       </c>
-      <c r="O84" s="87" t="s">
+      <c r="O84" s="84" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
-      <c r="B85" s="82" t="s">
+      <c r="A85" s="81"/>
+      <c r="B85" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="84" t="s">
+      <c r="C85" s="43" t="s">
         <v>285</v>
       </c>
       <c r="D85" s="20" t="s">
@@ -7554,22 +7555,22 @@
       <c r="L85" s="48">
         <v>1</v>
       </c>
-      <c r="M85" s="85" t="s">
+      <c r="M85" s="82" t="s">
         <v>301</v>
       </c>
       <c r="N85" s="20">
         <v>-34</v>
       </c>
-      <c r="O85" s="87" t="s">
+      <c r="O85" s="84" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
-      <c r="B86" s="82" t="s">
+      <c r="A86" s="81"/>
+      <c r="B86" s="80" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="84" t="s">
+      <c r="C86" s="43" t="s">
         <v>286</v>
       </c>
       <c r="D86" s="20" t="s">
@@ -7595,22 +7596,22 @@
       <c r="L86" s="48">
         <v>1</v>
       </c>
-      <c r="M86" s="85" t="s">
+      <c r="M86" s="82" t="s">
         <v>302</v>
       </c>
       <c r="N86" s="20">
         <v>-29</v>
       </c>
-      <c r="O86" s="87" t="s">
+      <c r="O86" s="84" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="83"/>
-      <c r="B87" s="82" t="s">
+      <c r="A87" s="81"/>
+      <c r="B87" s="80" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="84" t="s">
+      <c r="C87" s="43" t="s">
         <v>287</v>
       </c>
       <c r="D87" s="20" t="s">
@@ -7636,22 +7637,22 @@
       <c r="L87" s="48">
         <v>1</v>
       </c>
-      <c r="M87" s="85" t="s">
+      <c r="M87" s="82" t="s">
         <v>304</v>
       </c>
       <c r="N87" s="20">
         <v>-29</v>
       </c>
-      <c r="O87" s="87" t="s">
+      <c r="O87" s="84" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
-      <c r="B88" s="82" t="s">
+      <c r="A88" s="81"/>
+      <c r="B88" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="84" t="s">
+      <c r="C88" s="43" t="s">
         <v>288</v>
       </c>
       <c r="D88" s="20" t="s">
@@ -7677,22 +7678,22 @@
       <c r="L88" s="48">
         <v>1</v>
       </c>
-      <c r="M88" s="85" t="s">
+      <c r="M88" s="82" t="s">
         <v>305</v>
       </c>
       <c r="N88" s="20">
         <v>-28</v>
       </c>
-      <c r="O88" s="87" t="s">
+      <c r="O88" s="84" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
-      <c r="B89" s="82" t="s">
+      <c r="A89" s="81"/>
+      <c r="B89" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="C89" s="84" t="s">
+      <c r="C89" s="43" t="s">
         <v>289</v>
       </c>
       <c r="D89" s="20" t="s">
@@ -7718,22 +7719,22 @@
       <c r="L89" s="48">
         <v>1</v>
       </c>
-      <c r="M89" s="85" t="s">
+      <c r="M89" s="82" t="s">
         <v>306</v>
       </c>
       <c r="N89" s="20">
         <v>-32</v>
       </c>
-      <c r="O89" s="87" t="s">
+      <c r="O89" s="84" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
-      <c r="B90" s="82" t="s">
+      <c r="A90" s="81"/>
+      <c r="B90" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="84" t="s">
+      <c r="C90" s="43" t="s">
         <v>290</v>
       </c>
       <c r="D90" s="20" t="s">
@@ -7759,22 +7760,22 @@
       <c r="L90" s="48">
         <v>1</v>
       </c>
-      <c r="M90" s="85" t="s">
+      <c r="M90" s="82" t="s">
         <v>305</v>
       </c>
       <c r="N90" s="20">
         <v>-28</v>
       </c>
-      <c r="O90" s="87" t="s">
+      <c r="O90" s="84" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
-      <c r="B91" s="82" t="s">
+      <c r="A91" s="81"/>
+      <c r="B91" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="84" t="s">
+      <c r="C91" s="43" t="s">
         <v>291</v>
       </c>
       <c r="D91" s="20" t="s">
@@ -7800,22 +7801,22 @@
       <c r="L91" s="48">
         <v>1</v>
       </c>
-      <c r="M91" s="85" t="s">
+      <c r="M91" s="82" t="s">
         <v>307</v>
       </c>
       <c r="N91" s="20">
         <v>-23</v>
       </c>
-      <c r="O91" s="87" t="s">
+      <c r="O91" s="84" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
-      <c r="B92" s="82" t="s">
+      <c r="A92" s="81"/>
+      <c r="B92" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="C92" s="84" t="s">
+      <c r="C92" s="43" t="s">
         <v>293</v>
       </c>
       <c r="D92" s="20" t="s">
@@ -7841,22 +7842,22 @@
       <c r="L92" s="48">
         <v>1</v>
       </c>
-      <c r="M92" s="85" t="s">
+      <c r="M92" s="82" t="s">
         <v>300</v>
       </c>
       <c r="N92" s="20">
         <v>-25</v>
       </c>
-      <c r="O92" s="87" t="s">
+      <c r="O92" s="84" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="83"/>
-      <c r="B93" s="82" t="s">
+      <c r="A93" s="81"/>
+      <c r="B93" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="84" t="s">
+      <c r="C93" s="43" t="s">
         <v>294</v>
       </c>
       <c r="D93" s="20" t="s">
@@ -7882,22 +7883,22 @@
       <c r="L93" s="48">
         <v>1</v>
       </c>
-      <c r="M93" s="85" t="s">
+      <c r="M93" s="82" t="s">
         <v>213</v>
       </c>
       <c r="N93" s="20">
         <v>-23</v>
       </c>
-      <c r="O93" s="87" t="s">
+      <c r="O93" s="84" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
-      <c r="B94" s="82" t="s">
+      <c r="A94" s="81"/>
+      <c r="B94" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="C94" s="84" t="s">
+      <c r="C94" s="43" t="s">
         <v>292</v>
       </c>
       <c r="D94" s="20" t="s">
@@ -7923,22 +7924,22 @@
       <c r="L94" s="48">
         <v>1</v>
       </c>
-      <c r="M94" s="85" t="s">
+      <c r="M94" s="82" t="s">
         <v>307</v>
       </c>
       <c r="N94" s="20">
         <v>-23</v>
       </c>
-      <c r="O94" s="87" t="s">
+      <c r="O94" s="84" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
-      <c r="B95" s="82" t="s">
+      <c r="A95" s="81"/>
+      <c r="B95" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="84" t="s">
+      <c r="C95" s="43" t="s">
         <v>295</v>
       </c>
       <c r="D95" s="20" t="s">
@@ -7964,22 +7965,22 @@
       <c r="L95" s="48">
         <v>1</v>
       </c>
-      <c r="M95" s="85" t="s">
+      <c r="M95" s="82" t="s">
         <v>300</v>
       </c>
       <c r="N95" s="20">
         <v>-25</v>
       </c>
-      <c r="O95" s="87" t="s">
+      <c r="O95" s="84" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
-      <c r="B96" s="82" t="s">
+      <c r="A96" s="81"/>
+      <c r="B96" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="84" t="s">
+      <c r="C96" s="43" t="s">
         <v>296</v>
       </c>
       <c r="D96" s="20" t="s">
@@ -8005,1144 +8006,1102 @@
       <c r="L96" s="48">
         <v>1</v>
       </c>
-      <c r="M96" s="85" t="s">
+      <c r="M96" s="82" t="s">
         <v>213</v>
       </c>
       <c r="N96" s="20">
         <v>-23</v>
       </c>
-      <c r="O96" s="87" t="s">
+      <c r="O96" s="84" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
-      <c r="B97" s="96" t="s">
+      <c r="A97" s="81"/>
+      <c r="B97" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="C97" s="94" t="s">
+      <c r="C97" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="D97" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="91"/>
-      <c r="F97" s="91"/>
-      <c r="G97" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H97" s="90" t="s">
+      <c r="D97" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="88"/>
+      <c r="F97" s="88"/>
+      <c r="G97" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H97" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="I97" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K97" s="93">
-        <v>16</v>
-      </c>
-      <c r="L97" s="93">
-        <v>1</v>
-      </c>
-      <c r="M97" s="95" t="s">
+      <c r="I97" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="90">
+        <v>16</v>
+      </c>
+      <c r="L97" s="90">
+        <v>1</v>
+      </c>
+      <c r="M97" s="91" t="s">
+        <v>377</v>
+      </c>
+      <c r="N97" s="88">
+        <v>-36</v>
+      </c>
+      <c r="O97" s="84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="81"/>
+      <c r="B98" s="92" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="88"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H98" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I98" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="90">
+        <v>16</v>
+      </c>
+      <c r="L98" s="90">
+        <v>1</v>
+      </c>
+      <c r="M98" s="91" t="s">
+        <v>378</v>
+      </c>
+      <c r="N98" s="88">
+        <v>-55</v>
+      </c>
+      <c r="O98" s="84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="81"/>
+      <c r="B99" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I99" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" s="90">
+        <v>16</v>
+      </c>
+      <c r="L99" s="90">
+        <v>1</v>
+      </c>
+      <c r="M99" s="91" t="s">
+        <v>376</v>
+      </c>
+      <c r="N99" s="88">
+        <v>-39</v>
+      </c>
+      <c r="O99" s="84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="81"/>
+      <c r="B100" s="92" t="s">
+        <v>325</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="88"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H100" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I100" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="90">
+        <v>16</v>
+      </c>
+      <c r="L100" s="90">
+        <v>1</v>
+      </c>
+      <c r="M100" s="91" t="s">
+        <v>379</v>
+      </c>
+      <c r="N100" s="88">
+        <v>-58</v>
+      </c>
+      <c r="O100" s="84" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="81"/>
+      <c r="B101" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="88"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I101" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="90">
+        <v>16</v>
+      </c>
+      <c r="L101" s="90">
+        <v>1</v>
+      </c>
+      <c r="M101" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="N101" s="88">
+        <v>-32</v>
+      </c>
+      <c r="O101" s="84" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="81"/>
+      <c r="B102" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="D102" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="88"/>
+      <c r="F102" s="88"/>
+      <c r="G102" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I102" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" s="90">
+        <v>16</v>
+      </c>
+      <c r="L102" s="90">
+        <v>1</v>
+      </c>
+      <c r="M102" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="N102" s="88">
+        <v>-67</v>
+      </c>
+      <c r="O102" s="84" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="81"/>
+      <c r="B103" s="92" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H103" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I103" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" s="90">
+        <v>16</v>
+      </c>
+      <c r="L103" s="90">
+        <v>1</v>
+      </c>
+      <c r="M103" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="N97" s="91">
+      <c r="N103" s="88">
+        <v>-38</v>
+      </c>
+      <c r="O103" s="84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="81"/>
+      <c r="B104" s="92" t="s">
+        <v>335</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H104" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I104" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="90">
+        <v>16</v>
+      </c>
+      <c r="L104" s="90">
+        <v>1</v>
+      </c>
+      <c r="M104" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="N104" s="88">
+        <v>-73</v>
+      </c>
+      <c r="O104" s="84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="81"/>
+      <c r="B105" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="D105" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I105" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" s="90">
+        <v>16</v>
+      </c>
+      <c r="L105" s="90">
+        <v>1</v>
+      </c>
+      <c r="M105" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="N105" s="88">
+        <v>-43</v>
+      </c>
+      <c r="O105" s="84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="81"/>
+      <c r="B106" s="92" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="D106" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I106" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106" s="90">
+        <v>16</v>
+      </c>
+      <c r="L106" s="90">
+        <v>1</v>
+      </c>
+      <c r="M106" s="91" t="s">
+        <v>385</v>
+      </c>
+      <c r="N106" s="88">
+        <v>-61</v>
+      </c>
+      <c r="O106" s="84" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="81"/>
+      <c r="B107" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="D107" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I107" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107" s="90">
+        <v>16</v>
+      </c>
+      <c r="L107" s="90">
+        <v>1</v>
+      </c>
+      <c r="M107" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="N107" s="88">
+        <v>-61</v>
+      </c>
+      <c r="O107" s="84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="81"/>
+      <c r="B108" s="92" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="D108" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H108" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I108" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K108" s="90">
+        <v>16</v>
+      </c>
+      <c r="L108" s="90">
+        <v>1</v>
+      </c>
+      <c r="M108" s="91" t="s">
+        <v>387</v>
+      </c>
+      <c r="N108" s="88">
+        <v>-58</v>
+      </c>
+      <c r="O108" s="84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="81"/>
+      <c r="B109" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="C109" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="D109" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I109" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109" s="90">
+        <v>16</v>
+      </c>
+      <c r="L109" s="90">
+        <v>1</v>
+      </c>
+      <c r="M109" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="N109" s="88">
+        <v>-61</v>
+      </c>
+      <c r="O109" s="84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="81"/>
+      <c r="B110" s="92" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D110" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="88"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H110" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I110" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K110" s="90">
+        <v>16</v>
+      </c>
+      <c r="L110" s="90">
+        <v>1</v>
+      </c>
+      <c r="M110" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="N110" s="88">
+        <v>-51</v>
+      </c>
+      <c r="O110" s="84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="81"/>
+      <c r="B111" s="92" t="s">
+        <v>351</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D111" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I111" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K111" s="90">
+        <v>16</v>
+      </c>
+      <c r="L111" s="90">
+        <v>1</v>
+      </c>
+      <c r="M111" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="N111" s="88">
+        <v>-55</v>
+      </c>
+      <c r="O111" s="84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="81"/>
+      <c r="B112" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="D112" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112" s="88"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I112" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="90">
+        <v>16</v>
+      </c>
+      <c r="L112" s="90">
+        <v>1</v>
+      </c>
+      <c r="M112" s="91" t="s">
+        <v>390</v>
+      </c>
+      <c r="N112" s="88">
+        <v>-75</v>
+      </c>
+      <c r="O112" s="84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="81"/>
+      <c r="B113" s="92" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D113" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" s="88"/>
+      <c r="F113" s="88"/>
+      <c r="G113" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I113" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K113" s="90">
+        <v>16</v>
+      </c>
+      <c r="L113" s="90">
+        <v>1</v>
+      </c>
+      <c r="M113" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="N113" s="88">
+        <v>-38</v>
+      </c>
+      <c r="O113" s="84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="81"/>
+      <c r="B114" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="88"/>
+      <c r="F114" s="88"/>
+      <c r="G114" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H114" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I114" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114" s="90">
+        <v>16</v>
+      </c>
+      <c r="L114" s="90">
+        <v>1</v>
+      </c>
+      <c r="M114" s="91" t="s">
+        <v>392</v>
+      </c>
+      <c r="N114" s="88">
+        <v>-65</v>
+      </c>
+      <c r="O114" s="84" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="81"/>
+      <c r="B115" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="D115" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="88"/>
+      <c r="F115" s="88"/>
+      <c r="G115" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H115" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I115" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J115" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" s="90">
+        <v>16</v>
+      </c>
+      <c r="L115" s="90">
+        <v>1</v>
+      </c>
+      <c r="M115" s="91" t="s">
+        <v>393</v>
+      </c>
+      <c r="N115" s="88">
+        <v>-43</v>
+      </c>
+      <c r="O115" s="84" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="98" t="s">
+        <v>362</v>
+      </c>
+      <c r="C116" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D116" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="88"/>
+      <c r="F116" s="88"/>
+      <c r="G116" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I116" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J116" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K116" s="90">
+        <v>16</v>
+      </c>
+      <c r="L116" s="90">
+        <v>1</v>
+      </c>
+      <c r="M116" s="91" t="s">
+        <v>392</v>
+      </c>
+      <c r="N116" s="88">
+        <v>-65</v>
+      </c>
+      <c r="O116" s="84" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="98" t="s">
+        <v>364</v>
+      </c>
+      <c r="C117" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="D117" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="88"/>
+      <c r="F117" s="88"/>
+      <c r="G117" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H117" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I117" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K117" s="90">
+        <v>16</v>
+      </c>
+      <c r="L117" s="90">
+        <v>1</v>
+      </c>
+      <c r="M117" s="91" t="s">
+        <v>393</v>
+      </c>
+      <c r="N117" s="88">
+        <v>-43</v>
+      </c>
+      <c r="O117" s="84" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="98" t="s">
+        <v>366</v>
+      </c>
+      <c r="C118" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D118" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="88"/>
+      <c r="F118" s="88"/>
+      <c r="G118" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H118" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I118" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K118" s="90">
+        <v>16</v>
+      </c>
+      <c r="L118" s="90">
+        <v>1</v>
+      </c>
+      <c r="M118" s="100" t="s">
+        <v>394</v>
+      </c>
+      <c r="N118" s="101">
+        <v>-50</v>
+      </c>
+      <c r="O118" s="84" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B119" s="98" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="D119" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="88"/>
+      <c r="F119" s="88"/>
+      <c r="G119" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="I119" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K119" s="90">
+        <v>16</v>
+      </c>
+      <c r="L119" s="90">
+        <v>1</v>
+      </c>
+      <c r="M119" s="102" t="s">
+        <v>395</v>
+      </c>
+      <c r="N119" s="88">
         <v>-36</v>
       </c>
-      <c r="O97" s="87" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="83"/>
-      <c r="B98" s="96" t="s">
-        <v>321</v>
-      </c>
-      <c r="C98" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="D98" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" s="91"/>
-      <c r="F98" s="91"/>
-      <c r="G98" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H98" s="90" t="s">
+      <c r="O119" s="84" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B120" s="98" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="D120" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" s="88"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H120" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="I98" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K98" s="93">
-        <v>16</v>
-      </c>
-      <c r="L98" s="93">
-        <v>1</v>
-      </c>
-      <c r="M98" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="N98" s="91">
-        <v>-55</v>
-      </c>
-      <c r="O98" s="87" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
-      <c r="B99" s="96" t="s">
-        <v>323</v>
-      </c>
-      <c r="C99" s="94" t="s">
-        <v>324</v>
-      </c>
-      <c r="D99" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="91"/>
-      <c r="F99" s="91"/>
-      <c r="G99" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H99" s="90" t="s">
+      <c r="I120" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K120" s="90">
+        <v>16</v>
+      </c>
+      <c r="L120" s="90">
+        <v>1</v>
+      </c>
+      <c r="M120" s="102" t="s">
+        <v>396</v>
+      </c>
+      <c r="N120" s="88">
+        <v>-75</v>
+      </c>
+      <c r="O120" s="84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B121" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H121" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="I99" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K99" s="93">
-        <v>16</v>
-      </c>
-      <c r="L99" s="93">
-        <v>1</v>
-      </c>
-      <c r="M99" s="95" t="s">
-        <v>381</v>
-      </c>
-      <c r="N99" s="91">
-        <v>-39</v>
-      </c>
-      <c r="O99" s="87" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="83"/>
-      <c r="B100" s="96" t="s">
-        <v>325</v>
-      </c>
-      <c r="C100" s="94" t="s">
-        <v>326</v>
-      </c>
-      <c r="D100" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="91"/>
-      <c r="F100" s="91"/>
-      <c r="G100" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H100" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I100" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100" s="93">
-        <v>16</v>
-      </c>
-      <c r="L100" s="93">
-        <v>1</v>
-      </c>
-      <c r="M100" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="N100" s="91">
-        <v>-58</v>
-      </c>
-      <c r="O100" s="87" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="83"/>
-      <c r="B101" s="96" t="s">
-        <v>328</v>
-      </c>
-      <c r="C101" s="94" t="s">
-        <v>329</v>
-      </c>
-      <c r="D101" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
-      <c r="G101" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H101" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I101" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K101" s="93">
-        <v>16</v>
-      </c>
-      <c r="L101" s="93">
-        <v>1</v>
-      </c>
-      <c r="M101" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="N101" s="91">
-        <v>-32</v>
-      </c>
-      <c r="O101" s="87" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="83"/>
-      <c r="B102" s="96" t="s">
-        <v>330</v>
-      </c>
-      <c r="C102" s="94" t="s">
-        <v>331</v>
-      </c>
-      <c r="D102" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H102" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I102" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K102" s="93">
-        <v>16</v>
-      </c>
-      <c r="L102" s="93">
-        <v>1</v>
-      </c>
-      <c r="M102" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="N102" s="91">
-        <v>-67</v>
-      </c>
-      <c r="O102" s="87" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="83"/>
-      <c r="B103" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="C103" s="94" t="s">
-        <v>333</v>
-      </c>
-      <c r="D103" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="91"/>
-      <c r="F103" s="91"/>
-      <c r="G103" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H103" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I103" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J103" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103" s="93">
-        <v>16</v>
-      </c>
-      <c r="L103" s="93">
-        <v>1</v>
-      </c>
-      <c r="M103" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="N103" s="91">
-        <v>-38</v>
-      </c>
-      <c r="O103" s="87" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="83"/>
-      <c r="B104" s="96" t="s">
-        <v>335</v>
-      </c>
-      <c r="C104" s="94" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="91"/>
-      <c r="F104" s="91"/>
-      <c r="G104" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H104" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I104" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K104" s="93">
-        <v>16</v>
-      </c>
-      <c r="L104" s="93">
-        <v>1</v>
-      </c>
-      <c r="M104" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="N104" s="91">
-        <v>-73</v>
-      </c>
-      <c r="O104" s="87" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
-      <c r="B105" s="96" t="s">
-        <v>337</v>
-      </c>
-      <c r="C105" s="94" t="s">
-        <v>338</v>
-      </c>
-      <c r="D105" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="91"/>
-      <c r="F105" s="91"/>
-      <c r="G105" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H105" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I105" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J105" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K105" s="93">
-        <v>16</v>
-      </c>
-      <c r="L105" s="93">
-        <v>1</v>
-      </c>
-      <c r="M105" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="N105" s="91">
-        <v>-43</v>
-      </c>
-      <c r="O105" s="87" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
-      <c r="B106" s="96" t="s">
-        <v>339</v>
-      </c>
-      <c r="C106" s="94" t="s">
-        <v>340</v>
-      </c>
-      <c r="D106" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="91"/>
-      <c r="F106" s="91"/>
-      <c r="G106" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H106" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I106" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J106" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K106" s="93">
-        <v>16</v>
-      </c>
-      <c r="L106" s="93">
-        <v>1</v>
-      </c>
-      <c r="M106" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="N106" s="91">
-        <v>-61</v>
-      </c>
-      <c r="O106" s="87" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="83"/>
-      <c r="B107" s="96" t="s">
-        <v>341</v>
-      </c>
-      <c r="C107" s="94" t="s">
-        <v>342</v>
-      </c>
-      <c r="D107" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
-      <c r="G107" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H107" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I107" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J107" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K107" s="93">
-        <v>16</v>
-      </c>
-      <c r="L107" s="93">
-        <v>1</v>
-      </c>
-      <c r="M107" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="N107" s="91">
-        <v>-61</v>
-      </c>
-      <c r="O107" s="87" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="83"/>
-      <c r="B108" s="96" t="s">
-        <v>344</v>
-      </c>
-      <c r="C108" s="94" t="s">
-        <v>345</v>
-      </c>
-      <c r="D108" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="91"/>
-      <c r="F108" s="91"/>
-      <c r="G108" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H108" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I108" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J108" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K108" s="93">
-        <v>16</v>
-      </c>
-      <c r="L108" s="93">
-        <v>1</v>
-      </c>
-      <c r="M108" s="95" t="s">
-        <v>392</v>
-      </c>
-      <c r="N108" s="91">
-        <v>-58</v>
-      </c>
-      <c r="O108" s="87" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="83"/>
-      <c r="B109" s="96" t="s">
-        <v>346</v>
-      </c>
-      <c r="C109" s="94" t="s">
-        <v>347</v>
-      </c>
-      <c r="D109" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="91"/>
-      <c r="F109" s="91"/>
-      <c r="G109" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H109" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I109" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J109" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K109" s="93">
-        <v>16</v>
-      </c>
-      <c r="L109" s="93">
-        <v>1</v>
-      </c>
-      <c r="M109" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="N109" s="91">
-        <v>-61</v>
-      </c>
-      <c r="O109" s="87" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="83"/>
-      <c r="B110" s="96" t="s">
-        <v>348</v>
-      </c>
-      <c r="C110" s="94" t="s">
-        <v>349</v>
-      </c>
-      <c r="D110" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" s="91"/>
-      <c r="F110" s="91"/>
-      <c r="G110" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H110" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I110" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J110" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K110" s="93">
-        <v>16</v>
-      </c>
-      <c r="L110" s="93">
-        <v>1</v>
-      </c>
-      <c r="M110" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="N110" s="91">
-        <v>-51</v>
-      </c>
-      <c r="O110" s="87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="83"/>
-      <c r="B111" s="96" t="s">
-        <v>351</v>
-      </c>
-      <c r="C111" s="94" t="s">
-        <v>352</v>
-      </c>
-      <c r="D111" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E111" s="91"/>
-      <c r="F111" s="91"/>
-      <c r="G111" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H111" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I111" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J111" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K111" s="93">
-        <v>16</v>
-      </c>
-      <c r="L111" s="93">
-        <v>1</v>
-      </c>
-      <c r="M111" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="N111" s="91">
-        <v>-55</v>
-      </c>
-      <c r="O111" s="87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="83"/>
-      <c r="B112" s="96" t="s">
-        <v>353</v>
-      </c>
-      <c r="C112" s="94" t="s">
-        <v>354</v>
-      </c>
-      <c r="D112" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="91"/>
-      <c r="F112" s="91"/>
-      <c r="G112" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H112" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I112" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J112" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K112" s="93">
-        <v>16</v>
-      </c>
-      <c r="L112" s="93">
-        <v>1</v>
-      </c>
-      <c r="M112" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="N112" s="91">
+      <c r="I121" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K121" s="90">
+        <v>16</v>
+      </c>
+      <c r="L121" s="90">
+        <v>1</v>
+      </c>
+      <c r="M121" s="102" t="s">
+        <v>396</v>
+      </c>
+      <c r="N121" s="88">
         <v>-75</v>
       </c>
-      <c r="O112" s="87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="83"/>
-      <c r="B113" s="96" t="s">
-        <v>355</v>
-      </c>
-      <c r="C113" s="94" t="s">
-        <v>356</v>
-      </c>
-      <c r="D113" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E113" s="91"/>
-      <c r="F113" s="91"/>
-      <c r="G113" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H113" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I113" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J113" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K113" s="93">
-        <v>16</v>
-      </c>
-      <c r="L113" s="93">
-        <v>1</v>
-      </c>
-      <c r="M113" s="95" t="s">
-        <v>396</v>
-      </c>
-      <c r="N113" s="91">
-        <v>-38</v>
-      </c>
-      <c r="O113" s="87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="83"/>
-      <c r="B114" s="96" t="s">
-        <v>357</v>
-      </c>
-      <c r="C114" s="94" t="s">
-        <v>358</v>
-      </c>
-      <c r="D114" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="91"/>
-      <c r="F114" s="91"/>
-      <c r="G114" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H114" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I114" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J114" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K114" s="93">
-        <v>16</v>
-      </c>
-      <c r="L114" s="93">
-        <v>1</v>
-      </c>
-      <c r="M114" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="N114" s="91">
-        <v>-65</v>
-      </c>
-      <c r="O114" s="87" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="83"/>
-      <c r="B115" s="96" t="s">
-        <v>360</v>
-      </c>
-      <c r="C115" s="94" t="s">
-        <v>361</v>
-      </c>
-      <c r="D115" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="91"/>
-      <c r="F115" s="91"/>
-      <c r="G115" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H115" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I115" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J115" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K115" s="93">
-        <v>16</v>
-      </c>
-      <c r="L115" s="93">
-        <v>1</v>
-      </c>
-      <c r="M115" s="95" t="s">
-        <v>398</v>
-      </c>
-      <c r="N115" s="91">
-        <v>-43</v>
-      </c>
-      <c r="O115" s="87" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B116" s="102" t="s">
-        <v>362</v>
-      </c>
-      <c r="C116" s="94" t="s">
-        <v>363</v>
-      </c>
-      <c r="D116" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="91"/>
-      <c r="F116" s="91"/>
-      <c r="G116" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H116" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I116" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K116" s="93">
-        <v>16</v>
-      </c>
-      <c r="L116" s="93">
-        <v>1</v>
-      </c>
-      <c r="M116" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="N116" s="91">
-        <v>-65</v>
-      </c>
-      <c r="O116" s="87" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B117" s="102" t="s">
-        <v>364</v>
-      </c>
-      <c r="C117" s="94" t="s">
-        <v>365</v>
-      </c>
-      <c r="D117" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" s="91"/>
-      <c r="F117" s="91"/>
-      <c r="G117" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H117" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I117" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K117" s="93">
-        <v>16</v>
-      </c>
-      <c r="L117" s="93">
-        <v>1</v>
-      </c>
-      <c r="M117" s="95" t="s">
-        <v>398</v>
-      </c>
-      <c r="N117" s="91">
-        <v>-43</v>
-      </c>
-      <c r="O117" s="87" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B118" s="102" t="s">
-        <v>366</v>
-      </c>
-      <c r="C118" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="D118" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E118" s="91"/>
-      <c r="F118" s="91"/>
-      <c r="G118" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H118" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I118" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J118" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K118" s="93">
-        <v>16</v>
-      </c>
-      <c r="L118" s="93">
-        <v>1</v>
-      </c>
-      <c r="M118" s="104" t="s">
-        <v>399</v>
-      </c>
-      <c r="N118" s="105">
-        <v>-50</v>
-      </c>
-      <c r="O118" s="87" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B119" s="102" t="s">
-        <v>369</v>
-      </c>
-      <c r="C119" s="94" t="s">
-        <v>370</v>
-      </c>
-      <c r="D119" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E119" s="91"/>
-      <c r="F119" s="91"/>
-      <c r="G119" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H119" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I119" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J119" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K119" s="93">
-        <v>16</v>
-      </c>
-      <c r="L119" s="93">
-        <v>1</v>
-      </c>
-      <c r="M119" s="106" t="s">
-        <v>400</v>
-      </c>
-      <c r="N119" s="91">
-        <v>-36</v>
-      </c>
-      <c r="O119" s="87" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B120" s="102" t="s">
-        <v>371</v>
-      </c>
-      <c r="C120" s="94" t="s">
-        <v>372</v>
-      </c>
-      <c r="D120" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" s="91"/>
-      <c r="F120" s="91"/>
-      <c r="G120" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H120" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I120" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K120" s="93">
-        <v>16</v>
-      </c>
-      <c r="L120" s="93">
-        <v>1</v>
-      </c>
-      <c r="M120" s="106" t="s">
-        <v>401</v>
-      </c>
-      <c r="N120" s="91">
-        <v>-75</v>
-      </c>
-      <c r="O120" s="87" t="s">
+      <c r="O121" s="84" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B121" s="102" t="s">
-        <v>374</v>
-      </c>
-      <c r="C121" s="94" t="s">
-        <v>375</v>
-      </c>
-      <c r="D121" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121" s="91"/>
-      <c r="F121" s="91"/>
-      <c r="G121" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H121" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I121" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J121" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K121" s="93">
-        <v>16</v>
-      </c>
-      <c r="L121" s="93">
-        <v>1</v>
-      </c>
-      <c r="M121" s="106" t="s">
-        <v>401</v>
-      </c>
-      <c r="N121" s="91">
-        <v>-75</v>
-      </c>
-      <c r="O121" s="87" t="s">
-        <v>373</v>
-      </c>
-    </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B122" s="102" t="s">
-        <v>376</v>
-      </c>
-      <c r="C122" s="94" t="s">
-        <v>377</v>
-      </c>
-      <c r="D122" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="91"/>
-      <c r="F122" s="91"/>
-      <c r="G122" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H122" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I122" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J122" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K122" s="93">
-        <v>16</v>
-      </c>
-      <c r="L122" s="93">
-        <v>1</v>
-      </c>
-      <c r="M122" s="106"/>
-      <c r="N122" s="91"/>
-      <c r="O122" s="87" t="s">
-        <v>378</v>
-      </c>
+      <c r="B122" s="98"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="87"/>
+      <c r="H122" s="87"/>
+      <c r="I122" s="88"/>
+      <c r="J122" s="89"/>
+      <c r="K122" s="90"/>
+      <c r="L122" s="90"/>
+      <c r="M122" s="102"/>
+      <c r="N122" s="88"/>
+      <c r="O122" s="84"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B123" s="102" t="s">
-        <v>379</v>
-      </c>
-      <c r="C123" s="94" t="s">
-        <v>380</v>
-      </c>
-      <c r="D123" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="91"/>
-      <c r="F123" s="91"/>
-      <c r="G123" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="H123" s="90" t="s">
-        <v>319</v>
-      </c>
-      <c r="I123" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J123" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K123" s="93">
-        <v>16</v>
-      </c>
-      <c r="L123" s="93">
-        <v>1</v>
-      </c>
-      <c r="M123" s="106"/>
-      <c r="N123" s="91"/>
-      <c r="O123" s="87" t="s">
-        <v>378</v>
-      </c>
+      <c r="B123" s="98"/>
+      <c r="D123" s="88"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="88"/>
+      <c r="G123" s="87"/>
+      <c r="H123" s="87"/>
+      <c r="I123" s="88"/>
+      <c r="J123" s="89"/>
+      <c r="K123" s="90"/>
+      <c r="L123" s="90"/>
+      <c r="M123" s="102"/>
+      <c r="N123" s="88"/>
+      <c r="O123" s="84"/>
     </row>
     <row r="124" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="103"/>
-      <c r="C124" s="97"/>
-      <c r="D124" s="98"/>
-      <c r="E124" s="98"/>
-      <c r="F124" s="98"/>
-      <c r="G124" s="99"/>
-      <c r="H124" s="99"/>
-      <c r="I124" s="98"/>
-      <c r="J124" s="100"/>
-      <c r="K124" s="100"/>
-      <c r="L124" s="100"/>
-      <c r="M124" s="100"/>
-      <c r="N124" s="100"/>
-      <c r="O124" s="101"/>
+      <c r="B124" s="99"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="94"/>
+      <c r="E124" s="94"/>
+      <c r="F124" s="94"/>
+      <c r="G124" s="95"/>
+      <c r="H124" s="95"/>
+      <c r="I124" s="94"/>
+      <c r="J124" s="96"/>
+      <c r="K124" s="96"/>
+      <c r="L124" s="96"/>
+      <c r="M124" s="96"/>
+      <c r="N124" s="96"/>
+      <c r="O124" s="97"/>
     </row>
     <row r="125" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="88"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="89">
-        <v>120</v>
-      </c>
-      <c r="E125" s="89">
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="86">
+        <v>118</v>
+      </c>
+      <c r="E125" s="86">
         <v>0</v>
       </c>
-      <c r="F125" s="89">
+      <c r="F125" s="86">
         <v>0</v>
       </c>
-      <c r="G125" s="88"/>
-      <c r="H125" s="88"/>
-      <c r="I125" s="88"/>
-      <c r="J125" s="88"/>
-      <c r="K125" s="88"/>
-      <c r="L125" s="88"/>
-      <c r="M125" s="88"/>
-      <c r="N125" s="88"/>
-      <c r="O125" s="88"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+      <c r="K125" s="85"/>
+      <c r="L125" s="85"/>
+      <c r="M125" s="85"/>
+      <c r="N125" s="85"/>
+      <c r="O125" s="85"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9226,18 +9185,133 @@
     <hyperlink ref="O119" r:id="rId78" location="Personajes!B119"/>
     <hyperlink ref="O120" r:id="rId79" location="Personajes!B121"/>
     <hyperlink ref="O121" r:id="rId80" location="Personajes!B121"/>
-    <hyperlink ref="O122" r:id="rId81" location="Personajes!B123"/>
-    <hyperlink ref="O123" r:id="rId82" location="Personajes!B123"/>
-    <hyperlink ref="O100:O102" r:id="rId83" location="Personajes!B101" display="4.2"/>
-    <hyperlink ref="O103:O106" r:id="rId84" location="Personajes!B104" display="4.3"/>
-    <hyperlink ref="O107:O109" r:id="rId85" location="Personajes!B108" display="4.4"/>
-    <hyperlink ref="O110:O113" r:id="rId86" location="Personajes!B111" display="4.5"/>
-    <hyperlink ref="O114:O117" r:id="rId87" location="Personajes!B115" display="4.6"/>
-    <hyperlink ref="O118:O119" r:id="rId88" location="Personajes!B119" display="4.7"/>
-    <hyperlink ref="O120:O121" r:id="rId89" location="Personajes!B121" display="4.8"/>
-    <hyperlink ref="O122:O123" r:id="rId90" location="Personajes!B123" display="4.9"/>
+    <hyperlink ref="O100:O102" r:id="rId81" location="Personajes!B101" display="4.2"/>
+    <hyperlink ref="O103:O106" r:id="rId82" location="Personajes!B104" display="4.3"/>
+    <hyperlink ref="O107:O109" r:id="rId83" location="Personajes!B108" display="4.4"/>
+    <hyperlink ref="O110:O113" r:id="rId84" location="Personajes!B111" display="4.5"/>
+    <hyperlink ref="O114:O117" r:id="rId85" location="Personajes!B115" display="4.6"/>
+    <hyperlink ref="O118:O119" r:id="rId86" location="Personajes!B119" display="4.7"/>
+    <hyperlink ref="O120:O121" r:id="rId87" location="Personajes!B121" display="4.8"/>
+    <hyperlink ref="C4" r:id="rId88"/>
+    <hyperlink ref="C5" r:id="rId89"/>
+    <hyperlink ref="C6" r:id="rId90"/>
+    <hyperlink ref="C7" r:id="rId91"/>
+    <hyperlink ref="C8" r:id="rId92"/>
+    <hyperlink ref="C9" r:id="rId93"/>
+    <hyperlink ref="C10" r:id="rId94"/>
+    <hyperlink ref="C11" r:id="rId95"/>
+    <hyperlink ref="C12" r:id="rId96"/>
+    <hyperlink ref="C13" r:id="rId97"/>
+    <hyperlink ref="C14" r:id="rId98"/>
+    <hyperlink ref="C15" r:id="rId99"/>
+    <hyperlink ref="C16" r:id="rId100"/>
+    <hyperlink ref="C17" r:id="rId101"/>
+    <hyperlink ref="C18" r:id="rId102"/>
+    <hyperlink ref="C19" r:id="rId103"/>
+    <hyperlink ref="C20" r:id="rId104"/>
+    <hyperlink ref="C21" r:id="rId105"/>
+    <hyperlink ref="C22" r:id="rId106"/>
+    <hyperlink ref="C23" r:id="rId107"/>
+    <hyperlink ref="C24" r:id="rId108"/>
+    <hyperlink ref="C25" r:id="rId109"/>
+    <hyperlink ref="C26" r:id="rId110"/>
+    <hyperlink ref="C27" r:id="rId111"/>
+    <hyperlink ref="C28" r:id="rId112"/>
+    <hyperlink ref="C29" r:id="rId113"/>
+    <hyperlink ref="C30" r:id="rId114"/>
+    <hyperlink ref="C31" r:id="rId115"/>
+    <hyperlink ref="C32" r:id="rId116"/>
+    <hyperlink ref="C33" r:id="rId117"/>
+    <hyperlink ref="C34" r:id="rId118"/>
+    <hyperlink ref="C35" r:id="rId119"/>
+    <hyperlink ref="C36" r:id="rId120"/>
+    <hyperlink ref="C37" r:id="rId121"/>
+    <hyperlink ref="C38" r:id="rId122"/>
+    <hyperlink ref="C39" r:id="rId123"/>
+    <hyperlink ref="C40" r:id="rId124"/>
+    <hyperlink ref="C41" r:id="rId125"/>
+    <hyperlink ref="C42" r:id="rId126"/>
+    <hyperlink ref="C43" r:id="rId127"/>
+    <hyperlink ref="C44" r:id="rId128"/>
+    <hyperlink ref="C45" r:id="rId129"/>
+    <hyperlink ref="C46" r:id="rId130"/>
+    <hyperlink ref="C47" r:id="rId131"/>
+    <hyperlink ref="C48" r:id="rId132"/>
+    <hyperlink ref="C49" r:id="rId133"/>
+    <hyperlink ref="C50" r:id="rId134"/>
+    <hyperlink ref="C51" r:id="rId135"/>
+    <hyperlink ref="C52" r:id="rId136"/>
+    <hyperlink ref="C53" r:id="rId137"/>
+    <hyperlink ref="C54" r:id="rId138"/>
+    <hyperlink ref="C55" r:id="rId139"/>
+    <hyperlink ref="C56" r:id="rId140"/>
+    <hyperlink ref="C57" r:id="rId141"/>
+    <hyperlink ref="C58" r:id="rId142"/>
+    <hyperlink ref="C59" r:id="rId143"/>
+    <hyperlink ref="C60" r:id="rId144"/>
+    <hyperlink ref="C61" r:id="rId145"/>
+    <hyperlink ref="C62" r:id="rId146"/>
+    <hyperlink ref="C63" r:id="rId147"/>
+    <hyperlink ref="C64" r:id="rId148"/>
+    <hyperlink ref="C65" r:id="rId149"/>
+    <hyperlink ref="C66" r:id="rId150"/>
+    <hyperlink ref="C67" r:id="rId151"/>
+    <hyperlink ref="C68" r:id="rId152"/>
+    <hyperlink ref="C69" r:id="rId153"/>
+    <hyperlink ref="C70" r:id="rId154"/>
+    <hyperlink ref="C71" r:id="rId155"/>
+    <hyperlink ref="C72" r:id="rId156"/>
+    <hyperlink ref="C73" r:id="rId157"/>
+    <hyperlink ref="C74" r:id="rId158"/>
+    <hyperlink ref="C75" r:id="rId159"/>
+    <hyperlink ref="C76" r:id="rId160"/>
+    <hyperlink ref="C77" r:id="rId161"/>
+    <hyperlink ref="C78" r:id="rId162"/>
+    <hyperlink ref="C79" r:id="rId163"/>
+    <hyperlink ref="C80" r:id="rId164"/>
+    <hyperlink ref="C81" r:id="rId165"/>
+    <hyperlink ref="C82" r:id="rId166"/>
+    <hyperlink ref="C83" r:id="rId167"/>
+    <hyperlink ref="C84" r:id="rId168"/>
+    <hyperlink ref="C85" r:id="rId169"/>
+    <hyperlink ref="C86" r:id="rId170"/>
+    <hyperlink ref="C87" r:id="rId171"/>
+    <hyperlink ref="C88" r:id="rId172"/>
+    <hyperlink ref="C89" r:id="rId173"/>
+    <hyperlink ref="C90" r:id="rId174"/>
+    <hyperlink ref="C91" r:id="rId175"/>
+    <hyperlink ref="C92" r:id="rId176"/>
+    <hyperlink ref="C93" r:id="rId177"/>
+    <hyperlink ref="C94" r:id="rId178"/>
+    <hyperlink ref="C95" r:id="rId179"/>
+    <hyperlink ref="C96" r:id="rId180"/>
+    <hyperlink ref="C97" r:id="rId181"/>
+    <hyperlink ref="C98" r:id="rId182"/>
+    <hyperlink ref="C99" r:id="rId183"/>
+    <hyperlink ref="C100" r:id="rId184"/>
+    <hyperlink ref="C101" r:id="rId185"/>
+    <hyperlink ref="C102" r:id="rId186"/>
+    <hyperlink ref="C103" r:id="rId187"/>
+    <hyperlink ref="C104" r:id="rId188"/>
+    <hyperlink ref="C105" r:id="rId189"/>
+    <hyperlink ref="C106" r:id="rId190"/>
+    <hyperlink ref="C107" r:id="rId191"/>
+    <hyperlink ref="C108" r:id="rId192"/>
+    <hyperlink ref="C109" r:id="rId193"/>
+    <hyperlink ref="C110" r:id="rId194"/>
+    <hyperlink ref="C111" r:id="rId195"/>
+    <hyperlink ref="C112" r:id="rId196"/>
+    <hyperlink ref="C113" r:id="rId197"/>
+    <hyperlink ref="C114" r:id="rId198"/>
+    <hyperlink ref="C115" r:id="rId199"/>
+    <hyperlink ref="C116" r:id="rId200"/>
+    <hyperlink ref="C117" r:id="rId201"/>
+    <hyperlink ref="C118" r:id="rId202"/>
+    <hyperlink ref="C119" r:id="rId203"/>
+    <hyperlink ref="C120" r:id="rId204"/>
+    <hyperlink ref="C121" r:id="rId205"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId91"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId206"/>
 </worksheet>
 </file>
--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MinGW\msys\1.0\home\Luis\Wasted-Racing\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="9" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Metadatos D" sheetId="7" r:id="rId6"/>
     <sheet name="Metadatos V" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="468">
   <si>
     <t>ID</t>
   </si>
@@ -1321,13 +1321,121 @@
   </si>
   <si>
     <t>H-014</t>
+  </si>
+  <si>
+    <t>H-015</t>
+  </si>
+  <si>
+    <t>H-016</t>
+  </si>
+  <si>
+    <t>H-017</t>
+  </si>
+  <si>
+    <t>H-018</t>
+  </si>
+  <si>
+    <t>H-019</t>
+  </si>
+  <si>
+    <t>H-020</t>
+  </si>
+  <si>
+    <t>H-021</t>
+  </si>
+  <si>
+    <t>H-022</t>
+  </si>
+  <si>
+    <t>H-023</t>
+  </si>
+  <si>
+    <t>H-024</t>
+  </si>
+  <si>
+    <t>H-025</t>
+  </si>
+  <si>
+    <t>H-026</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/ArcadeAmbience.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Whip3.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Bling.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Hit.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Arrow.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Liquid.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Whoosh.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Whistle1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Boing.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/FluorescentBlink.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Crash.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/FluorescentTube.aiff</t>
+  </si>
+  <si>
+    <t>Game/media/audio/logo/Glitch.wav</t>
+  </si>
+  <si>
+    <t>A-001</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>mp3</t>
+  </si>
+  <si>
+    <t>aiff</t>
+  </si>
+  <si>
+    <t>Freesound (link no disponible)</t>
+  </si>
+  <si>
+    <t>00.23.000</t>
+  </si>
+  <si>
+    <t>00.24.000</t>
+  </si>
+  <si>
+    <t>00.04.300</t>
+  </si>
+  <si>
+    <t>00.00.430</t>
+  </si>
+  <si>
+    <t>00.31.000</t>
+  </si>
+  <si>
+    <t>00.04.400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1475,6 +1583,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8.8000000000000007"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1889,7 +2003,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2109,10 +2223,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="72">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="71"/>
+    <cellStyle name="Hipervínculo 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
@@ -2182,7 +2301,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="70"/>
+    <cellStyle name="Normal 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2486,10 +2605,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2567,11 +2686,11 @@
       </c>
       <c r="E7" s="31">
         <f>'Metadatos A'!F9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="34">
         <f>SUM(C7:E7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -2579,20 +2698,20 @@
         <v>28</v>
       </c>
       <c r="C8" s="31">
-        <f>'Metadatos H'!D16</f>
+        <f>'Metadatos H'!D29</f>
         <v>0</v>
       </c>
       <c r="D8" s="31">
-        <f>'Metadatos H'!E16</f>
+        <f>'Metadatos H'!E29</f>
         <v>0</v>
       </c>
       <c r="E8" s="31">
-        <f>'Metadatos H'!F16</f>
-        <v>10</v>
+        <f>'Metadatos H'!F29</f>
+        <v>22</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" ref="F8:F10" si="0">SUM(C8:E8)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2661,17 +2780,17 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F12" s="33">
         <f>SUM(F6:F11)</f>
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" location="'Metadatos M'!A1" display="Metadatos Música"/>
-    <hyperlink ref="B7" location="'Metadatos A'!A1" display="Metadatos Ambientes"/>
-    <hyperlink ref="B8" location="'Metadatos H'!A1" display="Metadatos HardFX"/>
-    <hyperlink ref="B9" location="'Metadatos F'!A1" display="Metadatos Foleys"/>
-    <hyperlink ref="B10" location="'Metadatos D'!A1" display="Metadatos Diseño"/>
-    <hyperlink ref="B11" location="'Metadatos V'!A1" display="Metadatos Voces"/>
+    <hyperlink ref="B6" location="'Metadatos M'!A1" display="Metadatos Música" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" location="'Metadatos A'!A1" display="Metadatos Ambientes" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" location="'Metadatos H'!A1" display="Metadatos HardFX" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" location="'Metadatos F'!A1" display="Metadatos Foleys" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" location="'Metadatos D'!A1" display="Metadatos Diseño" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" location="'Metadatos V'!A1" display="Metadatos Voces" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2684,7 +2803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -2890,27 +3009,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="6" width="3" style="19" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
     <col min="15" max="15" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2991,20 +3110,44 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>444</v>
+      </c>
       <c r="D4" s="28"/>
       <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="58"/>
+      <c r="F4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="56">
+        <v>16</v>
+      </c>
+      <c r="L4" s="56">
+        <v>2</v>
+      </c>
+      <c r="M4" s="107">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="N4" s="57">
+        <v>-8</v>
+      </c>
+      <c r="O4" s="77" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
@@ -3012,15 +3155,15 @@
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="59"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
@@ -3081,10 +3224,14 @@
       </c>
       <c r="F9" s="19">
         <f>COUNTA(F4:F8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="Game/media/audio/logo/ArcadeAmbience.wav" xr:uid="{5F15F187-8DB8-4035-9AA2-DC642332E811}"/>
+    <hyperlink ref="O4" r:id="rId2" location="'Logo'!B5" xr:uid="{CFDAAC5C-5250-41E9-93F0-08B8CACFDD69}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3096,11 +3243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,13 +3267,13 @@
     <col min="15" max="15" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:16" s="17" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="17" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
@@ -3196,7 +3343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="65" t="s">
         <v>7</v>
       </c>
@@ -3237,7 +3384,7 @@
       </c>
       <c r="P4" s="43"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="68" t="s">
         <v>8</v>
       </c>
@@ -3277,7 +3424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="76" t="s">
         <v>45</v>
       </c>
@@ -3317,7 +3464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="76" t="s">
         <v>397</v>
       </c>
@@ -3357,7 +3504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="76" t="s">
         <v>403</v>
       </c>
@@ -3397,7 +3544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="76" t="s">
         <v>409</v>
       </c>
@@ -3437,7 +3584,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="76" t="s">
         <v>413</v>
       </c>
@@ -3477,7 +3624,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="76" t="s">
         <v>423</v>
       </c>
@@ -3517,7 +3664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="76" t="s">
         <v>424</v>
       </c>
@@ -3557,7 +3704,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="76" t="s">
         <v>431</v>
       </c>
@@ -3597,94 +3744,627 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="19">
-        <f>COUNTA(D4:D15)</f>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="48">
+        <v>16</v>
+      </c>
+      <c r="L14" s="48">
+        <v>2</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="75">
+        <v>-21</v>
+      </c>
+      <c r="O14" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="48">
+        <v>16</v>
+      </c>
+      <c r="L15" s="48">
+        <v>2</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="75">
+        <v>-33</v>
+      </c>
+      <c r="O15" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="48">
+        <v>16</v>
+      </c>
+      <c r="L16" s="48">
+        <v>2</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="75">
         <v>0</v>
       </c>
-      <c r="E16" s="19">
-        <f>COUNTA(E4:E15)</f>
+      <c r="O16" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="48">
+        <v>16</v>
+      </c>
+      <c r="L17" s="48">
+        <v>1</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="N17" s="75">
+        <v>-18</v>
+      </c>
+      <c r="O17" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H18" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K18" s="48">
+        <v>16</v>
+      </c>
+      <c r="L18" s="48">
+        <v>2</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="N18" s="75">
+        <v>-41</v>
+      </c>
+      <c r="O18" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K19" s="48">
+        <v>16</v>
+      </c>
+      <c r="L19" s="48">
+        <v>2</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="N19" s="75">
+        <v>-27</v>
+      </c>
+      <c r="O19" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="48">
+        <v>16</v>
+      </c>
+      <c r="L20" s="48">
+        <v>2</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="N20" s="75">
+        <v>-18</v>
+      </c>
+      <c r="O20" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="76" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="48">
+        <v>16</v>
+      </c>
+      <c r="L21" s="48">
+        <v>2</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="N21" s="75">
+        <v>-17</v>
+      </c>
+      <c r="O21" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="81"/>
+      <c r="B22" s="76" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H22" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="48">
+        <v>16</v>
+      </c>
+      <c r="L22" s="48">
+        <v>2</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="N22" s="75">
+        <v>-27</v>
+      </c>
+      <c r="O22" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="81"/>
+      <c r="B23" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H23" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K23" s="48">
+        <v>16</v>
+      </c>
+      <c r="L23" s="48">
+        <v>1</v>
+      </c>
+      <c r="M23" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="N23" s="75">
+        <v>-29</v>
+      </c>
+      <c r="O23" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="76" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>460</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K24" s="48">
+        <v>16</v>
+      </c>
+      <c r="L24" s="48">
+        <v>2</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="N24" s="75">
+        <v>-54</v>
+      </c>
+      <c r="O24" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="76" t="s">
+        <v>443</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="48">
+        <v>16</v>
+      </c>
+      <c r="L25" s="48">
+        <v>2</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="N25" s="75">
+        <v>-42</v>
+      </c>
+      <c r="O25" s="78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="78"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="19">
+        <f>COUNTA(D4:D28)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="19">
-        <f>COUNTA(F4:F15)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="61"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="61"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="61"/>
+      <c r="E29" s="19">
+        <f>COUNTA(E4:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <f>COUNTA(F4:F28)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="61"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="61"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="61"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="O4" r:id="rId4" location="'Menu principal'!B6"/>
-    <hyperlink ref="O5" r:id="rId5" location="'Menu principal'!B7"/>
-    <hyperlink ref="O6" r:id="rId6" location="'Menu principal'!B9"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="O7" r:id="rId8" location="'Menu principal'!B10"/>
-    <hyperlink ref="O8" r:id="rId9" location="'Menu principal'!B8"/>
-    <hyperlink ref="O9" r:id="rId10" location="'Niveles'!B33" display="1.7"/>
-    <hyperlink ref="G9" r:id="rId11"/>
-    <hyperlink ref="O10" r:id="rId12" location="'Niveles'!B29"/>
-    <hyperlink ref="G10" r:id="rId13"/>
-    <hyperlink ref="O11" r:id="rId14" location="'Niveles'!B18"/>
-    <hyperlink ref="G11" r:id="rId15"/>
-    <hyperlink ref="O12" r:id="rId16" location="'Niveles'!B18"/>
-    <hyperlink ref="G12" r:id="rId17"/>
-    <hyperlink ref="O13" r:id="rId18" location="'Niveles'!B31"/>
-    <hyperlink ref="C4" r:id="rId19"/>
-    <hyperlink ref="C5" r:id="rId20"/>
-    <hyperlink ref="C6" r:id="rId21"/>
-    <hyperlink ref="C7" r:id="rId22"/>
-    <hyperlink ref="C8" r:id="rId23"/>
-    <hyperlink ref="C9" r:id="rId24"/>
-    <hyperlink ref="C10" r:id="rId25"/>
-    <hyperlink ref="C11" r:id="rId26"/>
-    <hyperlink ref="C12" r:id="rId27"/>
-    <hyperlink ref="C13" r:id="rId28"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="O4" r:id="rId4" location="'Menu principal'!B6" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="O5" r:id="rId5" location="'Menu principal'!B7" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="O6" r:id="rId6" location="'Menu principal'!B9" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="O7" r:id="rId8" location="'Menu principal'!B10" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="O8" r:id="rId9" location="'Menu principal'!B8" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="O9" r:id="rId10" location="'Niveles'!B33" display="1.7" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="G9" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="O10" r:id="rId12" location="'Niveles'!B29" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="G10" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="O11" r:id="rId14" location="'Niveles'!B18" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="G11" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="O12" r:id="rId16" location="'Niveles'!B18" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="G12" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="O13" r:id="rId18" location="'Niveles'!B31" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C4" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="C7" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="C8" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="C9" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="C10" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="C11" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="C12" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="C13" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="C14" r:id="rId29" xr:uid="{D8FAC866-386A-4D17-9097-F3F8B3AFE8A0}"/>
+    <hyperlink ref="C15" r:id="rId30" xr:uid="{6D1BAABB-89F5-4DFE-A57E-1ED79191BD3E}"/>
+    <hyperlink ref="C16" r:id="rId31" xr:uid="{8A69D7F6-F192-434C-9823-FD27421511FC}"/>
+    <hyperlink ref="C17" r:id="rId32" xr:uid="{B0684C41-CD1B-40E2-921C-67A22D2952E0}"/>
+    <hyperlink ref="C18" r:id="rId33" xr:uid="{A58F63FC-4449-4546-8D4D-F2548304EF64}"/>
+    <hyperlink ref="C19" r:id="rId34" xr:uid="{764F2F89-D390-4570-86F9-094D0B3C6AE3}"/>
+    <hyperlink ref="C20" r:id="rId35" xr:uid="{5B9FAE39-423B-4271-A49D-4C1A8D2B3E52}"/>
+    <hyperlink ref="C21" r:id="rId36" xr:uid="{EBF37DAA-70E0-41B9-AC6D-E1AC3CBFFA04}"/>
+    <hyperlink ref="C22" r:id="rId37" xr:uid="{DB9459C3-9CD4-4A80-A842-5B7A03AAAC38}"/>
+    <hyperlink ref="C23" r:id="rId38" xr:uid="{57A79780-E01B-4B4A-8718-624A6177AFF3}"/>
+    <hyperlink ref="C24" r:id="rId39" xr:uid="{DB3FA34F-0C3A-4BE3-A2DE-6850FEB4470F}"/>
+    <hyperlink ref="C25" r:id="rId40" xr:uid="{BCDC5E36-A2F8-4286-B965-8FFDC093800D}"/>
+    <hyperlink ref="O14" r:id="rId41" location="'Logo'!B6" xr:uid="{2F7094E4-0F8A-494D-974D-B801B36BE98B}"/>
+    <hyperlink ref="O15" r:id="rId42" location="'Logo'!B8" xr:uid="{14BC72DC-DBE3-4D69-B810-0F25CD1C9308}"/>
+    <hyperlink ref="O16" r:id="rId43" location="'Logo'!B10" xr:uid="{8A9B59B7-9A0F-492F-9C2B-391C479F053B}"/>
+    <hyperlink ref="O17" r:id="rId44" location="'Logo'!B11" xr:uid="{1A83D8C7-B971-487A-8BA0-74838D6671D2}"/>
+    <hyperlink ref="O18" r:id="rId45" location="'Logo'!B13" xr:uid="{3135EB18-7056-44EB-B203-99AF67CF44CE}"/>
+    <hyperlink ref="O19" r:id="rId46" location="'Logo'!B15" xr:uid="{9BC3801A-98DB-4399-99FF-91BE83A711FB}"/>
+    <hyperlink ref="O20" r:id="rId47" location="'Logo'!B18" xr:uid="{0EDD9BB7-B7C9-4582-BC81-9AA694C68313}"/>
+    <hyperlink ref="O21" r:id="rId48" location="'Logo'!B19" xr:uid="{B1B10212-6184-42AB-9481-56759931ABB6}"/>
+    <hyperlink ref="O22" r:id="rId49" location="'Logo'!B20" xr:uid="{C3B33A00-C593-47A8-A313-7286373B03F5}"/>
+    <hyperlink ref="O23" r:id="rId50" location="'Logo'!B21" xr:uid="{C0F7E9A6-4498-4B1D-847E-04CD10DD84F5}"/>
+    <hyperlink ref="O24" r:id="rId51" location="'Logo'!B23" xr:uid="{5142729C-5E93-4FEA-8E66-FE839433A24F}"/>
+    <hyperlink ref="O25" r:id="rId52" location="'Logo'!B24" xr:uid="{42A35799-8600-49D6-BA1B-A584E356D56A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId53"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3694,7 +4374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -3900,7 +4580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -4106,11 +4786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9105,211 +9785,211 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1" location="Personajes!B5"/>
-    <hyperlink ref="O6" r:id="rId2" location="Personajes!B7"/>
-    <hyperlink ref="O11" r:id="rId3" location="Personajes!B12"/>
-    <hyperlink ref="O15" r:id="rId4" location="Personajes!B16"/>
-    <hyperlink ref="O19" r:id="rId5" location="Personajes!B20"/>
-    <hyperlink ref="O23" r:id="rId6" location="Personajes!B24"/>
-    <hyperlink ref="O26" r:id="rId7" location="Personajes!B27"/>
-    <hyperlink ref="O28" r:id="rId8" location="Personajes!B29"/>
-    <hyperlink ref="O30" r:id="rId9" location="Personajes!B31"/>
-    <hyperlink ref="O5" r:id="rId10" location="Personajes!B5"/>
-    <hyperlink ref="O7:O10" r:id="rId11" location="Personajes!B7" display="1.2"/>
-    <hyperlink ref="O12:O14" r:id="rId12" location="Personajes!B12" display="1.3"/>
-    <hyperlink ref="O16:O18" r:id="rId13" location="Personajes!B16" display="1.4"/>
-    <hyperlink ref="O20:O22" r:id="rId14" location="Personajes!B20" display="1.5"/>
-    <hyperlink ref="O24:O25" r:id="rId15" location="Personajes!B24" display="1.6"/>
-    <hyperlink ref="O27" r:id="rId16" location="Personajes!B27"/>
-    <hyperlink ref="O29" r:id="rId17" location="Personajes!B29"/>
-    <hyperlink ref="O31:O35" r:id="rId18" location="Personajes!B31" display="1.9"/>
-    <hyperlink ref="O35" r:id="rId19" location="Personajes!B31"/>
-    <hyperlink ref="O36" r:id="rId20" location="Personajes!B37"/>
-    <hyperlink ref="O39" r:id="rId21" location="Personajes!B40"/>
-    <hyperlink ref="O43" r:id="rId22" location="Personajes!B44"/>
-    <hyperlink ref="O46" r:id="rId23" location="Personajes!B47"/>
-    <hyperlink ref="O50" r:id="rId24" location="Personajes!B51"/>
-    <hyperlink ref="O52" r:id="rId25" location="Personajes!B53"/>
-    <hyperlink ref="O56" r:id="rId26" location="Personajes!B57"/>
-    <hyperlink ref="O59" r:id="rId27" location="Personajes!B60"/>
-    <hyperlink ref="O61" r:id="rId28" location="Personajes!B62"/>
-    <hyperlink ref="O37:O38" r:id="rId29" location="Personajes!B37" display="2.1"/>
-    <hyperlink ref="O40:O42" r:id="rId30" location="Personajes!B40" display="2.2"/>
-    <hyperlink ref="O44:O45" r:id="rId31" location="Personajes!B44" display="2.3"/>
-    <hyperlink ref="O47:O49" r:id="rId32" location="Personajes!B47" display="2.4"/>
-    <hyperlink ref="O51" r:id="rId33" location="Personajes!B51"/>
-    <hyperlink ref="O53:O55" r:id="rId34" location="Personajes!B53" display="2.6"/>
-    <hyperlink ref="O57:O58" r:id="rId35" location="Personajes!B57" display="2.7"/>
-    <hyperlink ref="O60" r:id="rId36" location="Personajes!B60"/>
-    <hyperlink ref="O62" r:id="rId37" location="Personajes!B62"/>
-    <hyperlink ref="O63" r:id="rId38" location="Personajes!B64"/>
-    <hyperlink ref="O65" r:id="rId39" location="Personajes!B66"/>
-    <hyperlink ref="O69" r:id="rId40" location="Personajes!B70"/>
-    <hyperlink ref="O71" r:id="rId41" location="Personajes!B72"/>
-    <hyperlink ref="O76" r:id="rId42" location="Personajes!B77"/>
-    <hyperlink ref="O82" r:id="rId43" location="Personajes!B83"/>
-    <hyperlink ref="O86" r:id="rId44" location="Personajes!B87"/>
-    <hyperlink ref="O88" r:id="rId45" location="Personajes!B89"/>
-    <hyperlink ref="O91" r:id="rId46" location="Personajes!B92"/>
-    <hyperlink ref="O64" r:id="rId47" location="Personajes!B64"/>
-    <hyperlink ref="O66:O68" r:id="rId48" location="Personajes!B66" display="3.2"/>
-    <hyperlink ref="O70" r:id="rId49" location="Personajes!B70"/>
-    <hyperlink ref="O72:O75" r:id="rId50" location="Personajes!B72" display="3.4"/>
-    <hyperlink ref="O77:O81" r:id="rId51" location="Personajes!B77" display="3.5"/>
-    <hyperlink ref="O83:O85" r:id="rId52" location="Personajes!B83" display="3.6"/>
-    <hyperlink ref="O87" r:id="rId53" location="Personajes!B87"/>
-    <hyperlink ref="O89:O90" r:id="rId54" location="Personajes!B89" display="3.8"/>
-    <hyperlink ref="O92:O96" r:id="rId55" location="Personajes!B92" display="3.9"/>
-    <hyperlink ref="O97" r:id="rId56" location="Personajes!B98"/>
-    <hyperlink ref="O98" r:id="rId57" location="Personajes!B98"/>
-    <hyperlink ref="O99" r:id="rId58" location="Personajes!B98"/>
-    <hyperlink ref="O100" r:id="rId59" location="Personajes!B101"/>
-    <hyperlink ref="O101" r:id="rId60" location="Personajes!B101"/>
-    <hyperlink ref="O102" r:id="rId61" location="Personajes!B101"/>
-    <hyperlink ref="O103" r:id="rId62" location="Personajes!B104"/>
-    <hyperlink ref="O104" r:id="rId63" location="Personajes!B104"/>
-    <hyperlink ref="O105" r:id="rId64" location="Personajes!B104"/>
-    <hyperlink ref="O106" r:id="rId65" location="Personajes!B104"/>
-    <hyperlink ref="O107" r:id="rId66" location="Personajes!B108"/>
-    <hyperlink ref="O108" r:id="rId67" location="Personajes!B108"/>
-    <hyperlink ref="O109" r:id="rId68" location="Personajes!B108"/>
-    <hyperlink ref="O110" r:id="rId69" location="Personajes!B111"/>
-    <hyperlink ref="O111" r:id="rId70" location="Personajes!B111"/>
-    <hyperlink ref="O112" r:id="rId71" location="Personajes!B111"/>
-    <hyperlink ref="O113" r:id="rId72" location="Personajes!B111"/>
-    <hyperlink ref="O114" r:id="rId73" location="Personajes!B115"/>
-    <hyperlink ref="O115" r:id="rId74" location="Personajes!B115"/>
-    <hyperlink ref="O116" r:id="rId75" location="Personajes!B115"/>
-    <hyperlink ref="O117" r:id="rId76" location="Personajes!B115"/>
-    <hyperlink ref="O118" r:id="rId77" location="Personajes!B119"/>
-    <hyperlink ref="O119" r:id="rId78" location="Personajes!B119"/>
-    <hyperlink ref="O120" r:id="rId79" location="Personajes!B121"/>
-    <hyperlink ref="O121" r:id="rId80" location="Personajes!B121"/>
-    <hyperlink ref="O100:O102" r:id="rId81" location="Personajes!B101" display="4.2"/>
-    <hyperlink ref="O103:O106" r:id="rId82" location="Personajes!B104" display="4.3"/>
-    <hyperlink ref="O107:O109" r:id="rId83" location="Personajes!B108" display="4.4"/>
-    <hyperlink ref="O110:O113" r:id="rId84" location="Personajes!B111" display="4.5"/>
-    <hyperlink ref="O114:O117" r:id="rId85" location="Personajes!B115" display="4.6"/>
-    <hyperlink ref="O118:O119" r:id="rId86" location="Personajes!B119" display="4.7"/>
-    <hyperlink ref="O120:O121" r:id="rId87" location="Personajes!B121" display="4.8"/>
-    <hyperlink ref="C4" r:id="rId88"/>
-    <hyperlink ref="C5" r:id="rId89"/>
-    <hyperlink ref="C6" r:id="rId90"/>
-    <hyperlink ref="C7" r:id="rId91"/>
-    <hyperlink ref="C8" r:id="rId92"/>
-    <hyperlink ref="C9" r:id="rId93"/>
-    <hyperlink ref="C10" r:id="rId94"/>
-    <hyperlink ref="C11" r:id="rId95"/>
-    <hyperlink ref="C12" r:id="rId96"/>
-    <hyperlink ref="C13" r:id="rId97"/>
-    <hyperlink ref="C14" r:id="rId98"/>
-    <hyperlink ref="C15" r:id="rId99"/>
-    <hyperlink ref="C16" r:id="rId100"/>
-    <hyperlink ref="C17" r:id="rId101"/>
-    <hyperlink ref="C18" r:id="rId102"/>
-    <hyperlink ref="C19" r:id="rId103"/>
-    <hyperlink ref="C20" r:id="rId104"/>
-    <hyperlink ref="C21" r:id="rId105"/>
-    <hyperlink ref="C22" r:id="rId106"/>
-    <hyperlink ref="C23" r:id="rId107"/>
-    <hyperlink ref="C24" r:id="rId108"/>
-    <hyperlink ref="C25" r:id="rId109"/>
-    <hyperlink ref="C26" r:id="rId110"/>
-    <hyperlink ref="C27" r:id="rId111"/>
-    <hyperlink ref="C28" r:id="rId112"/>
-    <hyperlink ref="C29" r:id="rId113"/>
-    <hyperlink ref="C30" r:id="rId114"/>
-    <hyperlink ref="C31" r:id="rId115"/>
-    <hyperlink ref="C32" r:id="rId116"/>
-    <hyperlink ref="C33" r:id="rId117"/>
-    <hyperlink ref="C34" r:id="rId118"/>
-    <hyperlink ref="C35" r:id="rId119"/>
-    <hyperlink ref="C36" r:id="rId120"/>
-    <hyperlink ref="C37" r:id="rId121"/>
-    <hyperlink ref="C38" r:id="rId122"/>
-    <hyperlink ref="C39" r:id="rId123"/>
-    <hyperlink ref="C40" r:id="rId124"/>
-    <hyperlink ref="C41" r:id="rId125"/>
-    <hyperlink ref="C42" r:id="rId126"/>
-    <hyperlink ref="C43" r:id="rId127"/>
-    <hyperlink ref="C44" r:id="rId128"/>
-    <hyperlink ref="C45" r:id="rId129"/>
-    <hyperlink ref="C46" r:id="rId130"/>
-    <hyperlink ref="C47" r:id="rId131"/>
-    <hyperlink ref="C48" r:id="rId132"/>
-    <hyperlink ref="C49" r:id="rId133"/>
-    <hyperlink ref="C50" r:id="rId134"/>
-    <hyperlink ref="C51" r:id="rId135"/>
-    <hyperlink ref="C52" r:id="rId136"/>
-    <hyperlink ref="C53" r:id="rId137"/>
-    <hyperlink ref="C54" r:id="rId138"/>
-    <hyperlink ref="C55" r:id="rId139"/>
-    <hyperlink ref="C56" r:id="rId140"/>
-    <hyperlink ref="C57" r:id="rId141"/>
-    <hyperlink ref="C58" r:id="rId142"/>
-    <hyperlink ref="C59" r:id="rId143"/>
-    <hyperlink ref="C60" r:id="rId144"/>
-    <hyperlink ref="C61" r:id="rId145"/>
-    <hyperlink ref="C62" r:id="rId146"/>
-    <hyperlink ref="C63" r:id="rId147"/>
-    <hyperlink ref="C64" r:id="rId148"/>
-    <hyperlink ref="C65" r:id="rId149"/>
-    <hyperlink ref="C66" r:id="rId150"/>
-    <hyperlink ref="C67" r:id="rId151"/>
-    <hyperlink ref="C68" r:id="rId152"/>
-    <hyperlink ref="C69" r:id="rId153"/>
-    <hyperlink ref="C70" r:id="rId154"/>
-    <hyperlink ref="C71" r:id="rId155"/>
-    <hyperlink ref="C72" r:id="rId156"/>
-    <hyperlink ref="C73" r:id="rId157"/>
-    <hyperlink ref="C74" r:id="rId158"/>
-    <hyperlink ref="C75" r:id="rId159"/>
-    <hyperlink ref="C76" r:id="rId160"/>
-    <hyperlink ref="C77" r:id="rId161"/>
-    <hyperlink ref="C78" r:id="rId162"/>
-    <hyperlink ref="C79" r:id="rId163"/>
-    <hyperlink ref="C80" r:id="rId164"/>
-    <hyperlink ref="C81" r:id="rId165"/>
-    <hyperlink ref="C82" r:id="rId166"/>
-    <hyperlink ref="C83" r:id="rId167"/>
-    <hyperlink ref="C84" r:id="rId168"/>
-    <hyperlink ref="C85" r:id="rId169"/>
-    <hyperlink ref="C86" r:id="rId170"/>
-    <hyperlink ref="C87" r:id="rId171"/>
-    <hyperlink ref="C88" r:id="rId172"/>
-    <hyperlink ref="C89" r:id="rId173"/>
-    <hyperlink ref="C90" r:id="rId174"/>
-    <hyperlink ref="C91" r:id="rId175"/>
-    <hyperlink ref="C92" r:id="rId176"/>
-    <hyperlink ref="C93" r:id="rId177"/>
-    <hyperlink ref="C94" r:id="rId178"/>
-    <hyperlink ref="C95" r:id="rId179"/>
-    <hyperlink ref="C96" r:id="rId180"/>
-    <hyperlink ref="C97" r:id="rId181"/>
-    <hyperlink ref="C98" r:id="rId182"/>
-    <hyperlink ref="C99" r:id="rId183"/>
-    <hyperlink ref="C100" r:id="rId184"/>
-    <hyperlink ref="C101" r:id="rId185"/>
-    <hyperlink ref="C102" r:id="rId186"/>
-    <hyperlink ref="C103" r:id="rId187"/>
-    <hyperlink ref="C104" r:id="rId188"/>
-    <hyperlink ref="C105" r:id="rId189"/>
-    <hyperlink ref="C106" r:id="rId190"/>
-    <hyperlink ref="C107" r:id="rId191"/>
-    <hyperlink ref="C108" r:id="rId192"/>
-    <hyperlink ref="C109" r:id="rId193"/>
-    <hyperlink ref="C110" r:id="rId194"/>
-    <hyperlink ref="C111" r:id="rId195"/>
-    <hyperlink ref="C112" r:id="rId196"/>
-    <hyperlink ref="C113" r:id="rId197"/>
-    <hyperlink ref="C114" r:id="rId198"/>
-    <hyperlink ref="C115" r:id="rId199"/>
-    <hyperlink ref="C116" r:id="rId200"/>
-    <hyperlink ref="C117" r:id="rId201"/>
-    <hyperlink ref="C118" r:id="rId202"/>
-    <hyperlink ref="C119" r:id="rId203"/>
-    <hyperlink ref="C120" r:id="rId204"/>
-    <hyperlink ref="C121" r:id="rId205"/>
+    <hyperlink ref="O4" r:id="rId1" location="Personajes!B5" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="O6" r:id="rId2" location="Personajes!B7" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="O11" r:id="rId3" location="Personajes!B12" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="O15" r:id="rId4" location="Personajes!B16" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="O19" r:id="rId5" location="Personajes!B20" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="O23" r:id="rId6" location="Personajes!B24" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="O26" r:id="rId7" location="Personajes!B27" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="O28" r:id="rId8" location="Personajes!B29" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="O30" r:id="rId9" location="Personajes!B31" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="O5" r:id="rId10" location="Personajes!B5" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="O7:O10" r:id="rId11" location="Personajes!B7" display="1.2" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="O12:O14" r:id="rId12" location="Personajes!B12" display="1.3" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="O16:O18" r:id="rId13" location="Personajes!B16" display="1.4" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="O20:O22" r:id="rId14" location="Personajes!B20" display="1.5" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="O24:O25" r:id="rId15" location="Personajes!B24" display="1.6" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="O27" r:id="rId16" location="Personajes!B27" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="O29" r:id="rId17" location="Personajes!B29" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="O31:O35" r:id="rId18" location="Personajes!B31" display="1.9" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="O35" r:id="rId19" location="Personajes!B31" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="O36" r:id="rId20" location="Personajes!B37" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="O39" r:id="rId21" location="Personajes!B40" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="O43" r:id="rId22" location="Personajes!B44" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="O46" r:id="rId23" location="Personajes!B47" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="O50" r:id="rId24" location="Personajes!B51" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="O52" r:id="rId25" location="Personajes!B53" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="O56" r:id="rId26" location="Personajes!B57" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
+    <hyperlink ref="O59" r:id="rId27" location="Personajes!B60" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
+    <hyperlink ref="O61" r:id="rId28" location="Personajes!B62" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
+    <hyperlink ref="O37:O38" r:id="rId29" location="Personajes!B37" display="2.1" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
+    <hyperlink ref="O40:O42" r:id="rId30" location="Personajes!B40" display="2.2" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
+    <hyperlink ref="O44:O45" r:id="rId31" location="Personajes!B44" display="2.3" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
+    <hyperlink ref="O47:O49" r:id="rId32" location="Personajes!B47" display="2.4" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
+    <hyperlink ref="O51" r:id="rId33" location="Personajes!B51" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
+    <hyperlink ref="O53:O55" r:id="rId34" location="Personajes!B53" display="2.6" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
+    <hyperlink ref="O57:O58" r:id="rId35" location="Personajes!B57" display="2.7" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
+    <hyperlink ref="O60" r:id="rId36" location="Personajes!B60" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
+    <hyperlink ref="O62" r:id="rId37" location="Personajes!B62" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
+    <hyperlink ref="O63" r:id="rId38" location="Personajes!B64" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
+    <hyperlink ref="O65" r:id="rId39" location="Personajes!B66" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
+    <hyperlink ref="O69" r:id="rId40" location="Personajes!B70" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
+    <hyperlink ref="O71" r:id="rId41" location="Personajes!B72" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
+    <hyperlink ref="O76" r:id="rId42" location="Personajes!B77" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
+    <hyperlink ref="O82" r:id="rId43" location="Personajes!B83" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
+    <hyperlink ref="O86" r:id="rId44" location="Personajes!B87" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
+    <hyperlink ref="O88" r:id="rId45" location="Personajes!B89" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
+    <hyperlink ref="O91" r:id="rId46" location="Personajes!B92" xr:uid="{00000000-0004-0000-0600-00002D000000}"/>
+    <hyperlink ref="O64" r:id="rId47" location="Personajes!B64" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
+    <hyperlink ref="O66:O68" r:id="rId48" location="Personajes!B66" display="3.2" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
+    <hyperlink ref="O70" r:id="rId49" location="Personajes!B70" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
+    <hyperlink ref="O72:O75" r:id="rId50" location="Personajes!B72" display="3.4" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
+    <hyperlink ref="O77:O81" r:id="rId51" location="Personajes!B77" display="3.5" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
+    <hyperlink ref="O83:O85" r:id="rId52" location="Personajes!B83" display="3.6" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
+    <hyperlink ref="O87" r:id="rId53" location="Personajes!B87" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
+    <hyperlink ref="O89:O90" r:id="rId54" location="Personajes!B89" display="3.8" xr:uid="{00000000-0004-0000-0600-000035000000}"/>
+    <hyperlink ref="O92:O96" r:id="rId55" location="Personajes!B92" display="3.9" xr:uid="{00000000-0004-0000-0600-000036000000}"/>
+    <hyperlink ref="O97" r:id="rId56" location="Personajes!B98" xr:uid="{00000000-0004-0000-0600-000037000000}"/>
+    <hyperlink ref="O98" r:id="rId57" location="Personajes!B98" xr:uid="{00000000-0004-0000-0600-000038000000}"/>
+    <hyperlink ref="O99" r:id="rId58" location="Personajes!B98" xr:uid="{00000000-0004-0000-0600-000039000000}"/>
+    <hyperlink ref="O100" r:id="rId59" location="Personajes!B101" xr:uid="{00000000-0004-0000-0600-00003A000000}"/>
+    <hyperlink ref="O101" r:id="rId60" location="Personajes!B101" xr:uid="{00000000-0004-0000-0600-00003B000000}"/>
+    <hyperlink ref="O102" r:id="rId61" location="Personajes!B101" xr:uid="{00000000-0004-0000-0600-00003C000000}"/>
+    <hyperlink ref="O103" r:id="rId62" location="Personajes!B104" xr:uid="{00000000-0004-0000-0600-00003D000000}"/>
+    <hyperlink ref="O104" r:id="rId63" location="Personajes!B104" xr:uid="{00000000-0004-0000-0600-00003E000000}"/>
+    <hyperlink ref="O105" r:id="rId64" location="Personajes!B104" xr:uid="{00000000-0004-0000-0600-00003F000000}"/>
+    <hyperlink ref="O106" r:id="rId65" location="Personajes!B104" xr:uid="{00000000-0004-0000-0600-000040000000}"/>
+    <hyperlink ref="O107" r:id="rId66" location="Personajes!B108" xr:uid="{00000000-0004-0000-0600-000041000000}"/>
+    <hyperlink ref="O108" r:id="rId67" location="Personajes!B108" xr:uid="{00000000-0004-0000-0600-000042000000}"/>
+    <hyperlink ref="O109" r:id="rId68" location="Personajes!B108" xr:uid="{00000000-0004-0000-0600-000043000000}"/>
+    <hyperlink ref="O110" r:id="rId69" location="Personajes!B111" xr:uid="{00000000-0004-0000-0600-000044000000}"/>
+    <hyperlink ref="O111" r:id="rId70" location="Personajes!B111" xr:uid="{00000000-0004-0000-0600-000045000000}"/>
+    <hyperlink ref="O112" r:id="rId71" location="Personajes!B111" xr:uid="{00000000-0004-0000-0600-000046000000}"/>
+    <hyperlink ref="O113" r:id="rId72" location="Personajes!B111" xr:uid="{00000000-0004-0000-0600-000047000000}"/>
+    <hyperlink ref="O114" r:id="rId73" location="Personajes!B115" xr:uid="{00000000-0004-0000-0600-000048000000}"/>
+    <hyperlink ref="O115" r:id="rId74" location="Personajes!B115" xr:uid="{00000000-0004-0000-0600-000049000000}"/>
+    <hyperlink ref="O116" r:id="rId75" location="Personajes!B115" xr:uid="{00000000-0004-0000-0600-00004A000000}"/>
+    <hyperlink ref="O117" r:id="rId76" location="Personajes!B115" xr:uid="{00000000-0004-0000-0600-00004B000000}"/>
+    <hyperlink ref="O118" r:id="rId77" location="Personajes!B119" xr:uid="{00000000-0004-0000-0600-00004C000000}"/>
+    <hyperlink ref="O119" r:id="rId78" location="Personajes!B119" xr:uid="{00000000-0004-0000-0600-00004D000000}"/>
+    <hyperlink ref="O120" r:id="rId79" location="Personajes!B121" xr:uid="{00000000-0004-0000-0600-00004E000000}"/>
+    <hyperlink ref="O121" r:id="rId80" location="Personajes!B121" xr:uid="{00000000-0004-0000-0600-00004F000000}"/>
+    <hyperlink ref="O100:O102" r:id="rId81" location="Personajes!B101" display="4.2" xr:uid="{00000000-0004-0000-0600-000050000000}"/>
+    <hyperlink ref="O103:O106" r:id="rId82" location="Personajes!B104" display="4.3" xr:uid="{00000000-0004-0000-0600-000051000000}"/>
+    <hyperlink ref="O107:O109" r:id="rId83" location="Personajes!B108" display="4.4" xr:uid="{00000000-0004-0000-0600-000052000000}"/>
+    <hyperlink ref="O110:O113" r:id="rId84" location="Personajes!B111" display="4.5" xr:uid="{00000000-0004-0000-0600-000053000000}"/>
+    <hyperlink ref="O114:O117" r:id="rId85" location="Personajes!B115" display="4.6" xr:uid="{00000000-0004-0000-0600-000054000000}"/>
+    <hyperlink ref="O118:O119" r:id="rId86" location="Personajes!B119" display="4.7" xr:uid="{00000000-0004-0000-0600-000055000000}"/>
+    <hyperlink ref="O120:O121" r:id="rId87" location="Personajes!B121" display="4.8" xr:uid="{00000000-0004-0000-0600-000056000000}"/>
+    <hyperlink ref="C4" r:id="rId88" xr:uid="{00000000-0004-0000-0600-000057000000}"/>
+    <hyperlink ref="C5" r:id="rId89" xr:uid="{00000000-0004-0000-0600-000058000000}"/>
+    <hyperlink ref="C6" r:id="rId90" xr:uid="{00000000-0004-0000-0600-000059000000}"/>
+    <hyperlink ref="C7" r:id="rId91" xr:uid="{00000000-0004-0000-0600-00005A000000}"/>
+    <hyperlink ref="C8" r:id="rId92" xr:uid="{00000000-0004-0000-0600-00005B000000}"/>
+    <hyperlink ref="C9" r:id="rId93" xr:uid="{00000000-0004-0000-0600-00005C000000}"/>
+    <hyperlink ref="C10" r:id="rId94" xr:uid="{00000000-0004-0000-0600-00005D000000}"/>
+    <hyperlink ref="C11" r:id="rId95" xr:uid="{00000000-0004-0000-0600-00005E000000}"/>
+    <hyperlink ref="C12" r:id="rId96" xr:uid="{00000000-0004-0000-0600-00005F000000}"/>
+    <hyperlink ref="C13" r:id="rId97" xr:uid="{00000000-0004-0000-0600-000060000000}"/>
+    <hyperlink ref="C14" r:id="rId98" xr:uid="{00000000-0004-0000-0600-000061000000}"/>
+    <hyperlink ref="C15" r:id="rId99" xr:uid="{00000000-0004-0000-0600-000062000000}"/>
+    <hyperlink ref="C16" r:id="rId100" xr:uid="{00000000-0004-0000-0600-000063000000}"/>
+    <hyperlink ref="C17" r:id="rId101" xr:uid="{00000000-0004-0000-0600-000064000000}"/>
+    <hyperlink ref="C18" r:id="rId102" xr:uid="{00000000-0004-0000-0600-000065000000}"/>
+    <hyperlink ref="C19" r:id="rId103" xr:uid="{00000000-0004-0000-0600-000066000000}"/>
+    <hyperlink ref="C20" r:id="rId104" xr:uid="{00000000-0004-0000-0600-000067000000}"/>
+    <hyperlink ref="C21" r:id="rId105" xr:uid="{00000000-0004-0000-0600-000068000000}"/>
+    <hyperlink ref="C22" r:id="rId106" xr:uid="{00000000-0004-0000-0600-000069000000}"/>
+    <hyperlink ref="C23" r:id="rId107" xr:uid="{00000000-0004-0000-0600-00006A000000}"/>
+    <hyperlink ref="C24" r:id="rId108" xr:uid="{00000000-0004-0000-0600-00006B000000}"/>
+    <hyperlink ref="C25" r:id="rId109" xr:uid="{00000000-0004-0000-0600-00006C000000}"/>
+    <hyperlink ref="C26" r:id="rId110" xr:uid="{00000000-0004-0000-0600-00006D000000}"/>
+    <hyperlink ref="C27" r:id="rId111" xr:uid="{00000000-0004-0000-0600-00006E000000}"/>
+    <hyperlink ref="C28" r:id="rId112" xr:uid="{00000000-0004-0000-0600-00006F000000}"/>
+    <hyperlink ref="C29" r:id="rId113" xr:uid="{00000000-0004-0000-0600-000070000000}"/>
+    <hyperlink ref="C30" r:id="rId114" xr:uid="{00000000-0004-0000-0600-000071000000}"/>
+    <hyperlink ref="C31" r:id="rId115" xr:uid="{00000000-0004-0000-0600-000072000000}"/>
+    <hyperlink ref="C32" r:id="rId116" xr:uid="{00000000-0004-0000-0600-000073000000}"/>
+    <hyperlink ref="C33" r:id="rId117" xr:uid="{00000000-0004-0000-0600-000074000000}"/>
+    <hyperlink ref="C34" r:id="rId118" xr:uid="{00000000-0004-0000-0600-000075000000}"/>
+    <hyperlink ref="C35" r:id="rId119" xr:uid="{00000000-0004-0000-0600-000076000000}"/>
+    <hyperlink ref="C36" r:id="rId120" xr:uid="{00000000-0004-0000-0600-000077000000}"/>
+    <hyperlink ref="C37" r:id="rId121" xr:uid="{00000000-0004-0000-0600-000078000000}"/>
+    <hyperlink ref="C38" r:id="rId122" xr:uid="{00000000-0004-0000-0600-000079000000}"/>
+    <hyperlink ref="C39" r:id="rId123" xr:uid="{00000000-0004-0000-0600-00007A000000}"/>
+    <hyperlink ref="C40" r:id="rId124" xr:uid="{00000000-0004-0000-0600-00007B000000}"/>
+    <hyperlink ref="C41" r:id="rId125" xr:uid="{00000000-0004-0000-0600-00007C000000}"/>
+    <hyperlink ref="C42" r:id="rId126" xr:uid="{00000000-0004-0000-0600-00007D000000}"/>
+    <hyperlink ref="C43" r:id="rId127" xr:uid="{00000000-0004-0000-0600-00007E000000}"/>
+    <hyperlink ref="C44" r:id="rId128" xr:uid="{00000000-0004-0000-0600-00007F000000}"/>
+    <hyperlink ref="C45" r:id="rId129" xr:uid="{00000000-0004-0000-0600-000080000000}"/>
+    <hyperlink ref="C46" r:id="rId130" xr:uid="{00000000-0004-0000-0600-000081000000}"/>
+    <hyperlink ref="C47" r:id="rId131" xr:uid="{00000000-0004-0000-0600-000082000000}"/>
+    <hyperlink ref="C48" r:id="rId132" xr:uid="{00000000-0004-0000-0600-000083000000}"/>
+    <hyperlink ref="C49" r:id="rId133" xr:uid="{00000000-0004-0000-0600-000084000000}"/>
+    <hyperlink ref="C50" r:id="rId134" xr:uid="{00000000-0004-0000-0600-000085000000}"/>
+    <hyperlink ref="C51" r:id="rId135" xr:uid="{00000000-0004-0000-0600-000086000000}"/>
+    <hyperlink ref="C52" r:id="rId136" xr:uid="{00000000-0004-0000-0600-000087000000}"/>
+    <hyperlink ref="C53" r:id="rId137" xr:uid="{00000000-0004-0000-0600-000088000000}"/>
+    <hyperlink ref="C54" r:id="rId138" xr:uid="{00000000-0004-0000-0600-000089000000}"/>
+    <hyperlink ref="C55" r:id="rId139" xr:uid="{00000000-0004-0000-0600-00008A000000}"/>
+    <hyperlink ref="C56" r:id="rId140" xr:uid="{00000000-0004-0000-0600-00008B000000}"/>
+    <hyperlink ref="C57" r:id="rId141" xr:uid="{00000000-0004-0000-0600-00008C000000}"/>
+    <hyperlink ref="C58" r:id="rId142" xr:uid="{00000000-0004-0000-0600-00008D000000}"/>
+    <hyperlink ref="C59" r:id="rId143" xr:uid="{00000000-0004-0000-0600-00008E000000}"/>
+    <hyperlink ref="C60" r:id="rId144" xr:uid="{00000000-0004-0000-0600-00008F000000}"/>
+    <hyperlink ref="C61" r:id="rId145" xr:uid="{00000000-0004-0000-0600-000090000000}"/>
+    <hyperlink ref="C62" r:id="rId146" xr:uid="{00000000-0004-0000-0600-000091000000}"/>
+    <hyperlink ref="C63" r:id="rId147" xr:uid="{00000000-0004-0000-0600-000092000000}"/>
+    <hyperlink ref="C64" r:id="rId148" xr:uid="{00000000-0004-0000-0600-000093000000}"/>
+    <hyperlink ref="C65" r:id="rId149" xr:uid="{00000000-0004-0000-0600-000094000000}"/>
+    <hyperlink ref="C66" r:id="rId150" xr:uid="{00000000-0004-0000-0600-000095000000}"/>
+    <hyperlink ref="C67" r:id="rId151" xr:uid="{00000000-0004-0000-0600-000096000000}"/>
+    <hyperlink ref="C68" r:id="rId152" xr:uid="{00000000-0004-0000-0600-000097000000}"/>
+    <hyperlink ref="C69" r:id="rId153" xr:uid="{00000000-0004-0000-0600-000098000000}"/>
+    <hyperlink ref="C70" r:id="rId154" xr:uid="{00000000-0004-0000-0600-000099000000}"/>
+    <hyperlink ref="C71" r:id="rId155" xr:uid="{00000000-0004-0000-0600-00009A000000}"/>
+    <hyperlink ref="C72" r:id="rId156" xr:uid="{00000000-0004-0000-0600-00009B000000}"/>
+    <hyperlink ref="C73" r:id="rId157" xr:uid="{00000000-0004-0000-0600-00009C000000}"/>
+    <hyperlink ref="C74" r:id="rId158" xr:uid="{00000000-0004-0000-0600-00009D000000}"/>
+    <hyperlink ref="C75" r:id="rId159" xr:uid="{00000000-0004-0000-0600-00009E000000}"/>
+    <hyperlink ref="C76" r:id="rId160" xr:uid="{00000000-0004-0000-0600-00009F000000}"/>
+    <hyperlink ref="C77" r:id="rId161" xr:uid="{00000000-0004-0000-0600-0000A0000000}"/>
+    <hyperlink ref="C78" r:id="rId162" xr:uid="{00000000-0004-0000-0600-0000A1000000}"/>
+    <hyperlink ref="C79" r:id="rId163" xr:uid="{00000000-0004-0000-0600-0000A2000000}"/>
+    <hyperlink ref="C80" r:id="rId164" xr:uid="{00000000-0004-0000-0600-0000A3000000}"/>
+    <hyperlink ref="C81" r:id="rId165" xr:uid="{00000000-0004-0000-0600-0000A4000000}"/>
+    <hyperlink ref="C82" r:id="rId166" xr:uid="{00000000-0004-0000-0600-0000A5000000}"/>
+    <hyperlink ref="C83" r:id="rId167" xr:uid="{00000000-0004-0000-0600-0000A6000000}"/>
+    <hyperlink ref="C84" r:id="rId168" xr:uid="{00000000-0004-0000-0600-0000A7000000}"/>
+    <hyperlink ref="C85" r:id="rId169" xr:uid="{00000000-0004-0000-0600-0000A8000000}"/>
+    <hyperlink ref="C86" r:id="rId170" xr:uid="{00000000-0004-0000-0600-0000A9000000}"/>
+    <hyperlink ref="C87" r:id="rId171" xr:uid="{00000000-0004-0000-0600-0000AA000000}"/>
+    <hyperlink ref="C88" r:id="rId172" xr:uid="{00000000-0004-0000-0600-0000AB000000}"/>
+    <hyperlink ref="C89" r:id="rId173" xr:uid="{00000000-0004-0000-0600-0000AC000000}"/>
+    <hyperlink ref="C90" r:id="rId174" xr:uid="{00000000-0004-0000-0600-0000AD000000}"/>
+    <hyperlink ref="C91" r:id="rId175" xr:uid="{00000000-0004-0000-0600-0000AE000000}"/>
+    <hyperlink ref="C92" r:id="rId176" xr:uid="{00000000-0004-0000-0600-0000AF000000}"/>
+    <hyperlink ref="C93" r:id="rId177" xr:uid="{00000000-0004-0000-0600-0000B0000000}"/>
+    <hyperlink ref="C94" r:id="rId178" xr:uid="{00000000-0004-0000-0600-0000B1000000}"/>
+    <hyperlink ref="C95" r:id="rId179" xr:uid="{00000000-0004-0000-0600-0000B2000000}"/>
+    <hyperlink ref="C96" r:id="rId180" xr:uid="{00000000-0004-0000-0600-0000B3000000}"/>
+    <hyperlink ref="C97" r:id="rId181" xr:uid="{00000000-0004-0000-0600-0000B4000000}"/>
+    <hyperlink ref="C98" r:id="rId182" xr:uid="{00000000-0004-0000-0600-0000B5000000}"/>
+    <hyperlink ref="C99" r:id="rId183" xr:uid="{00000000-0004-0000-0600-0000B6000000}"/>
+    <hyperlink ref="C100" r:id="rId184" xr:uid="{00000000-0004-0000-0600-0000B7000000}"/>
+    <hyperlink ref="C101" r:id="rId185" xr:uid="{00000000-0004-0000-0600-0000B8000000}"/>
+    <hyperlink ref="C102" r:id="rId186" xr:uid="{00000000-0004-0000-0600-0000B9000000}"/>
+    <hyperlink ref="C103" r:id="rId187" xr:uid="{00000000-0004-0000-0600-0000BA000000}"/>
+    <hyperlink ref="C104" r:id="rId188" xr:uid="{00000000-0004-0000-0600-0000BB000000}"/>
+    <hyperlink ref="C105" r:id="rId189" xr:uid="{00000000-0004-0000-0600-0000BC000000}"/>
+    <hyperlink ref="C106" r:id="rId190" xr:uid="{00000000-0004-0000-0600-0000BD000000}"/>
+    <hyperlink ref="C107" r:id="rId191" xr:uid="{00000000-0004-0000-0600-0000BE000000}"/>
+    <hyperlink ref="C108" r:id="rId192" xr:uid="{00000000-0004-0000-0600-0000BF000000}"/>
+    <hyperlink ref="C109" r:id="rId193" xr:uid="{00000000-0004-0000-0600-0000C0000000}"/>
+    <hyperlink ref="C110" r:id="rId194" xr:uid="{00000000-0004-0000-0600-0000C1000000}"/>
+    <hyperlink ref="C111" r:id="rId195" xr:uid="{00000000-0004-0000-0600-0000C2000000}"/>
+    <hyperlink ref="C112" r:id="rId196" xr:uid="{00000000-0004-0000-0600-0000C3000000}"/>
+    <hyperlink ref="C113" r:id="rId197" xr:uid="{00000000-0004-0000-0600-0000C4000000}"/>
+    <hyperlink ref="C114" r:id="rId198" xr:uid="{00000000-0004-0000-0600-0000C5000000}"/>
+    <hyperlink ref="C115" r:id="rId199" xr:uid="{00000000-0004-0000-0600-0000C6000000}"/>
+    <hyperlink ref="C116" r:id="rId200" xr:uid="{00000000-0004-0000-0600-0000C7000000}"/>
+    <hyperlink ref="C117" r:id="rId201" xr:uid="{00000000-0004-0000-0600-0000C8000000}"/>
+    <hyperlink ref="C118" r:id="rId202" xr:uid="{00000000-0004-0000-0600-0000C9000000}"/>
+    <hyperlink ref="C119" r:id="rId203" xr:uid="{00000000-0004-0000-0600-0000CA000000}"/>
+    <hyperlink ref="C120" r:id="rId204" xr:uid="{00000000-0004-0000-0600-0000CB000000}"/>
+    <hyperlink ref="C121" r:id="rId205" xr:uid="{00000000-0004-0000-0600-0000CC000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId206"/>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -2448,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="515">
   <si>
     <t>Metadatos - Global + Estadísticas</t>
   </si>
@@ -131,9 +131,6 @@
     <t>M-003</t>
   </si>
   <si>
-    <t>Game/media/audio/musica/introduction_lvl.wav</t>
-  </si>
-  <si>
     <t>Creación en FL Studio</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>M-005</t>
   </si>
   <si>
-    <t>Game/media/audio/musica/victory.wav</t>
-  </si>
-  <si>
     <t>00.05.564</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>M-006</t>
   </si>
   <si>
-    <t>Game/media/audio/musica/defeat.wav</t>
-  </si>
-  <si>
     <t>00.05.993</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>M-007</t>
   </si>
   <si>
-    <t>Game/media/audio/musica/lvl1_1.wav</t>
-  </si>
-  <si>
     <t>00.46.696</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>M-009</t>
   </si>
   <si>
-    <t>Game/media/audio/musica/lvl1_2.wav</t>
-  </si>
-  <si>
     <t>00.38.989</t>
   </si>
   <si>
@@ -203,9 +188,6 @@
     <t>M-010</t>
   </si>
   <si>
-    <t>Game/media/audio/musica/lvl1_3.wav</t>
-  </si>
-  <si>
     <t>00.36.412</t>
   </si>
   <si>
@@ -215,9 +197,6 @@
     <t>M-008</t>
   </si>
   <si>
-    <t>Game/media/audio/musica/menu.wav</t>
-  </si>
-  <si>
     <t>00.40.358</t>
   </si>
   <si>
@@ -533,9 +512,6 @@
     <t>D-012</t>
   </si>
   <si>
-    <t>Game/media/audio/sintesis/item_persigue.wav</t>
-  </si>
-  <si>
     <t>Csound</t>
   </si>
   <si>
@@ -548,9 +524,6 @@
     <t>D-013</t>
   </si>
   <si>
-    <t>Game/media/audio/sintesis/pitido_salida.wav</t>
-  </si>
-  <si>
     <t>00.04.498</t>
   </si>
   <si>
@@ -560,9 +533,6 @@
     <t>D-014</t>
   </si>
   <si>
-    <t>Game/media/audio/sintesis/coche_policia.wav</t>
-  </si>
-  <si>
     <t>00.06.317</t>
   </si>
   <si>
@@ -1566,6 +1536,45 @@
   </si>
   <si>
     <t>Game/media/audio/voices/C-P8EN_0.wav</t>
+  </si>
+  <si>
+    <t>M-002</t>
+  </si>
+  <si>
+    <t>00.02.831</t>
+  </si>
+  <si>
+    <t>Game/media/audio/music/invulnerability.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/music/menu.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/music/lvl1_3.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/music/lvl1_2.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/music/lvl1_1.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/music/defeat.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/music/victory.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/music/introduction_lvl.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/synthesis/police_car.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/synthesis/exit_beep.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/synthesis/item_follow.wav</t>
   </si>
 </sst>
 </file>
@@ -2498,20 +2507,20 @@
         <v>6</v>
       </c>
       <c r="C6" s="8">
-        <f>'Metadatos M'!D12</f>
+        <f>'Metadatos M'!D13</f>
         <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f>'Metadatos M'!E12</f>
-        <v>7</v>
+        <f>'Metadatos M'!E13</f>
+        <v>8</v>
       </c>
       <c r="E6" s="8">
-        <f>'Metadatos M'!F12</f>
+        <f>'Metadatos M'!F13</f>
         <v>0</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F11" si="0">SUM(C6:E6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -2622,7 +2631,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F12" s="13">
         <f>SUM(F6:F11)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2641,17 +2650,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
     <col min="4" max="6" width="3" customWidth="1"/>
     <col min="7" max="7" width="51.28515625" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
@@ -2711,7 +2720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
@@ -2741,13 +2750,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>33</v>
+        <v>511</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28" t="s">
@@ -2755,40 +2764,40 @@
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="42">
+        <v>32</v>
+      </c>
+      <c r="L4" s="42">
+        <v>2</v>
+      </c>
+      <c r="M4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="31">
-        <v>32</v>
-      </c>
-      <c r="L4" s="31">
-        <v>2</v>
-      </c>
-      <c r="M4" s="31" t="s">
+      <c r="N4" s="42">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="81" t="s">
         <v>38</v>
-      </c>
-      <c r="N4" s="31">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>41</v>
+        <v>510</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
@@ -2796,16 +2805,16 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="I5" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="31">
         <v>32</v>
@@ -2814,22 +2823,22 @@
         <v>2</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N5" s="31">
         <v>-1</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>45</v>
+        <v>509</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
@@ -2837,16 +2846,16 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="31">
         <v>32</v>
@@ -2855,22 +2864,22 @@
         <v>2</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N6" s="31">
         <v>-1</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>49</v>
+        <v>508</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
@@ -2878,16 +2887,16 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="31">
         <v>32</v>
@@ -2896,22 +2905,22 @@
         <v>2</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N7" s="31">
         <v>-1</v>
       </c>
       <c r="O7" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>53</v>
+        <v>507</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
@@ -2919,16 +2928,16 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="I8" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="31">
         <v>32</v>
@@ -2937,22 +2946,22 @@
         <v>2</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N8" s="31">
         <v>-1</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>57</v>
+        <v>506</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28" t="s">
@@ -2960,16 +2969,16 @@
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="31">
         <v>32</v>
@@ -2978,22 +2987,22 @@
         <v>2</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N9" s="31">
         <v>-1</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>61</v>
+        <v>505</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28" t="s">
@@ -3001,16 +3010,16 @@
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="I10" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="31">
         <v>32</v>
@@ -3019,42 +3028,83 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N10" s="31">
         <v>-1</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="37"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="31">
+        <v>32</v>
+      </c>
+      <c r="L11" s="31">
+        <v>2</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="N11" s="31">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <f>COUNTA(D6:D11)</f>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>COUNTA(D6:D12)</f>
         <v>0</v>
       </c>
-      <c r="E12">
-        <f>COUNTA(E4:E11)</f>
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <f>COUNTA(F6:F11)</f>
+      <c r="E13">
+        <f>COUNTA(E4:E12)</f>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f>COUNTA(F6:F12)</f>
         <v>0</v>
       </c>
     </row>
@@ -3074,9 +3124,11 @@
     <hyperlink ref="O9" r:id="rId12" location="'Circuito1'!B7"/>
     <hyperlink ref="C10" r:id="rId13"/>
     <hyperlink ref="O10" r:id="rId14" location="'Menu Principal'!B11"/>
+    <hyperlink ref="C11" r:id="rId15"/>
+    <hyperlink ref="O11" r:id="rId16" location="'Niveles'!B13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -3108,7 +3160,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -3184,10 +3236,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -3195,16 +3247,16 @@
         <v>27</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="42">
         <v>16</v>
@@ -3219,7 +3271,7 @@
         <v>-8</v>
       </c>
       <c r="O4" s="81" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -3314,7 +3366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3338,7 +3390,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -3414,10 +3466,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -3425,16 +3477,16 @@
         <v>27</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K4" s="42">
         <v>32</v>
@@ -3443,22 +3495,22 @@
         <v>1</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N4" s="42">
         <v>-13</v>
       </c>
       <c r="O4" s="81" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -3466,16 +3518,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K5" s="31">
         <v>32</v>
@@ -3484,21 +3536,21 @@
         <v>1</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N5" s="31">
         <v>-13</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -3506,16 +3558,16 @@
         <v>27</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="31">
         <v>32</v>
@@ -3524,21 +3576,21 @@
         <v>1</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N6" s="31">
         <v>-54</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -3546,16 +3598,16 @@
         <v>27</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="31">
         <v>32</v>
@@ -3564,21 +3616,21 @@
         <v>1</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N7" s="31">
         <v>-23</v>
       </c>
       <c r="O7" s="80" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -3586,16 +3638,16 @@
         <v>27</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="31">
         <v>32</v>
@@ -3604,21 +3656,21 @@
         <v>1</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N8" s="31">
         <v>-55</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -3626,16 +3678,16 @@
         <v>27</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="31">
         <v>32</v>
@@ -3644,21 +3696,21 @@
         <v>1</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N9" s="31">
         <v>-56</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -3666,16 +3718,16 @@
         <v>27</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="31">
         <v>32</v>
@@ -3684,21 +3736,21 @@
         <v>1</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="N10" s="31">
         <v>-51</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -3706,16 +3758,16 @@
         <v>27</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K11" s="31">
         <v>32</v>
@@ -3724,21 +3776,21 @@
         <v>1</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="N11" s="31">
         <v>-41</v>
       </c>
       <c r="O11" s="80" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -3746,16 +3798,16 @@
         <v>27</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K12" s="31">
         <v>32</v>
@@ -3764,21 +3816,21 @@
         <v>1</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N12" s="31">
         <v>-15</v>
       </c>
       <c r="O12" s="80" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -3786,16 +3838,16 @@
         <v>27</v>
       </c>
       <c r="G13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="K13" s="31">
         <v>32</v>
@@ -3804,22 +3856,22 @@
         <v>1</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N13" s="31">
         <v>-5</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -3827,16 +3879,16 @@
         <v>27</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="31">
         <v>32</v>
@@ -3845,22 +3897,22 @@
         <v>2</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N14" s="31">
         <v>-21</v>
       </c>
       <c r="O14" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -3868,16 +3920,16 @@
         <v>27</v>
       </c>
       <c r="G15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="K15" s="31">
         <v>32</v>
@@ -3886,22 +3938,22 @@
         <v>2</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N15" s="31">
         <v>-33</v>
       </c>
       <c r="O15" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -3909,16 +3961,16 @@
         <v>27</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="31">
         <v>32</v>
@@ -3927,22 +3979,22 @@
         <v>2</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N16" s="31">
         <v>0</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -3950,16 +4002,16 @@
         <v>27</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="31">
         <v>32</v>
@@ -3968,22 +4020,22 @@
         <v>1</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N17" s="31">
         <v>-18</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -3991,16 +4043,16 @@
         <v>27</v>
       </c>
       <c r="G18" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="K18" s="31">
         <v>32</v>
@@ -4009,22 +4061,22 @@
         <v>2</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N18" s="31">
         <v>-41</v>
       </c>
       <c r="O18" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -4032,16 +4084,16 @@
         <v>27</v>
       </c>
       <c r="G19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="K19" s="31">
         <v>32</v>
@@ -4050,22 +4102,22 @@
         <v>2</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N19" s="31">
         <v>-27</v>
       </c>
       <c r="O19" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -4073,16 +4125,16 @@
         <v>27</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="31">
         <v>32</v>
@@ -4091,22 +4143,22 @@
         <v>2</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="N20" s="31">
         <v>-18</v>
       </c>
       <c r="O20" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -4114,16 +4166,16 @@
         <v>27</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="31">
         <v>32</v>
@@ -4132,22 +4184,22 @@
         <v>2</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N21" s="31">
         <v>-17</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -4155,16 +4207,16 @@
         <v>27</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22" s="31">
         <v>32</v>
@@ -4173,22 +4225,22 @@
         <v>2</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N22" s="31">
         <v>-27</v>
       </c>
       <c r="O22" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -4196,16 +4248,16 @@
         <v>27</v>
       </c>
       <c r="G23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="K23" s="31">
         <v>32</v>
@@ -4214,22 +4266,22 @@
         <v>1</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N23" s="31">
         <v>-29</v>
       </c>
       <c r="O23" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -4237,16 +4289,16 @@
         <v>27</v>
       </c>
       <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="K24" s="31">
         <v>32</v>
@@ -4255,22 +4307,22 @@
         <v>2</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N24" s="31">
         <v>-54</v>
       </c>
       <c r="O24" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -4278,16 +4330,16 @@
         <v>27</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="31">
         <v>32</v>
@@ -4296,22 +4348,22 @@
         <v>2</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="N25" s="31">
         <v>-42</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -4319,16 +4371,16 @@
         <v>27</v>
       </c>
       <c r="G26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="K26" s="31">
         <v>32</v>
@@ -4337,22 +4389,22 @@
         <v>2</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N26" s="31">
         <v>-21</v>
       </c>
       <c r="O26" s="80" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -4360,16 +4412,16 @@
         <v>27</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="31">
         <v>32</v>
@@ -4378,22 +4430,22 @@
         <v>1</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N27" s="31">
         <v>-6</v>
       </c>
       <c r="O27" s="80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -4401,16 +4453,16 @@
         <v>27</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="31">
         <v>32</v>
@@ -4419,13 +4471,13 @@
         <v>2</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="O28" s="80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4528,7 +4580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4552,7 +4604,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -4730,15 +4782,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="6" width="3" style="2" customWidth="1"/>
     <col min="7" max="7" width="51.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
@@ -4754,7 +4806,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -4798,7 +4850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
@@ -4828,13 +4880,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>167</v>
+        <v>514</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28" t="s">
@@ -4842,40 +4894,40 @@
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="31">
+        <v>35</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="42">
         <v>32</v>
       </c>
-      <c r="L4" s="31">
-        <v>1</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>98</v>
+      <c r="L4" s="42">
+        <v>1</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="81" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>172</v>
+        <v>513</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
@@ -4883,16 +4935,16 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="31">
         <v>32</v>
@@ -4901,22 +4953,22 @@
         <v>1</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>176</v>
+        <v>512</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
@@ -4924,16 +4976,16 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="31">
         <v>32</v>
@@ -4942,13 +4994,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5015,7 +5067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
@@ -5040,7 +5092,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -5116,10 +5168,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>25</v>
@@ -5127,16 +5179,16 @@
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
       <c r="G4" s="58" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="42">
         <v>16</v>
@@ -5145,21 +5197,21 @@
         <v>1</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="N4" s="42">
         <v>-28</v>
       </c>
       <c r="O4" s="81" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>25</v>
@@ -5167,16 +5219,16 @@
       <c r="E5" s="46"/>
       <c r="F5" s="28"/>
       <c r="G5" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="31">
         <v>16</v>
@@ -5185,21 +5237,21 @@
         <v>1</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N5" s="57">
         <v>-30</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>25</v>
@@ -5207,16 +5259,16 @@
       <c r="E6" s="46"/>
       <c r="F6" s="28"/>
       <c r="G6" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="31">
         <v>16</v>
@@ -5225,21 +5277,21 @@
         <v>1</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N6" s="31">
         <v>-29</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>25</v>
@@ -5247,40 +5299,40 @@
       <c r="E7" s="46"/>
       <c r="F7" s="28"/>
       <c r="G7" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H7" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="31">
+        <v>16</v>
+      </c>
+      <c r="L7" s="31">
+        <v>1</v>
+      </c>
+      <c r="M7" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="31">
-        <v>16</v>
-      </c>
-      <c r="L7" s="31">
-        <v>1</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>193</v>
       </c>
       <c r="N7" s="28">
         <v>-27</v>
       </c>
       <c r="O7" s="80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="60" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -5288,16 +5340,16 @@
       <c r="E8" s="46"/>
       <c r="F8" s="28"/>
       <c r="G8" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="31">
         <v>16</v>
@@ -5306,22 +5358,22 @@
         <v>1</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="N8" s="28">
         <v>-22</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="60" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>25</v>
@@ -5329,16 +5381,16 @@
       <c r="E9" s="46"/>
       <c r="F9" s="28"/>
       <c r="G9" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="31">
         <v>16</v>
@@ -5347,22 +5399,22 @@
         <v>1</v>
       </c>
       <c r="M9" s="59" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N9" s="28">
         <v>-31</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="60" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>25</v>
@@ -5370,16 +5422,16 @@
       <c r="E10" s="46"/>
       <c r="F10" s="28"/>
       <c r="G10" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="31">
         <v>16</v>
@@ -5388,22 +5440,22 @@
         <v>1</v>
       </c>
       <c r="M10" s="59" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N10" s="28">
         <v>-24</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="60" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>25</v>
@@ -5411,16 +5463,16 @@
       <c r="E11" s="46"/>
       <c r="F11" s="28"/>
       <c r="G11" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="31">
         <v>16</v>
@@ -5429,22 +5481,22 @@
         <v>1</v>
       </c>
       <c r="M11" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N11" s="28">
         <v>-23</v>
       </c>
       <c r="O11" s="80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="60" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>25</v>
@@ -5452,16 +5504,16 @@
       <c r="E12" s="46"/>
       <c r="F12" s="28"/>
       <c r="G12" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="31">
         <v>16</v>
@@ -5470,22 +5522,22 @@
         <v>1</v>
       </c>
       <c r="M12" s="59" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="N12" s="28">
         <v>-28</v>
       </c>
       <c r="O12" s="80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="60" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>25</v>
@@ -5493,16 +5545,16 @@
       <c r="E13" s="46"/>
       <c r="F13" s="28"/>
       <c r="G13" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="31">
         <v>16</v>
@@ -5511,22 +5563,22 @@
         <v>1</v>
       </c>
       <c r="M13" s="59" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N13" s="28">
         <v>-25</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="60" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>25</v>
@@ -5534,16 +5586,16 @@
       <c r="E14" s="46"/>
       <c r="F14" s="28"/>
       <c r="G14" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="31">
         <v>16</v>
@@ -5552,22 +5604,22 @@
         <v>1</v>
       </c>
       <c r="M14" s="59" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="N14" s="28">
         <v>-28</v>
       </c>
       <c r="O14" s="80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="60" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>25</v>
@@ -5575,16 +5627,16 @@
       <c r="E15" s="46"/>
       <c r="F15" s="28"/>
       <c r="G15" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="31">
         <v>16</v>
@@ -5593,22 +5645,22 @@
         <v>1</v>
       </c>
       <c r="M15" s="59" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="N15" s="28">
         <v>-26</v>
       </c>
       <c r="O15" s="80" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="60" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>25</v>
@@ -5616,16 +5668,16 @@
       <c r="E16" s="46"/>
       <c r="F16" s="28"/>
       <c r="G16" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="31">
         <v>16</v>
@@ -5634,22 +5686,22 @@
         <v>1</v>
       </c>
       <c r="M16" s="59" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="N16" s="28">
         <v>-25</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="60" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>25</v>
@@ -5657,40 +5709,40 @@
       <c r="E17" s="46"/>
       <c r="F17" s="28"/>
       <c r="G17" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H17" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="31">
+        <v>16</v>
+      </c>
+      <c r="L17" s="31">
+        <v>1</v>
+      </c>
+      <c r="M17" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="31">
-        <v>16</v>
-      </c>
-      <c r="L17" s="31">
-        <v>1</v>
-      </c>
-      <c r="M17" s="59" t="s">
-        <v>193</v>
       </c>
       <c r="N17" s="28">
         <v>-25</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="60" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>25</v>
@@ -5698,16 +5750,16 @@
       <c r="E18" s="46"/>
       <c r="F18" s="28"/>
       <c r="G18" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="31">
         <v>16</v>
@@ -5716,22 +5768,22 @@
         <v>1</v>
       </c>
       <c r="M18" s="59" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N18" s="28">
         <v>-24</v>
       </c>
       <c r="O18" s="80" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="60" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>25</v>
@@ -5739,16 +5791,16 @@
       <c r="E19" s="46"/>
       <c r="F19" s="28"/>
       <c r="G19" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="31">
         <v>16</v>
@@ -5757,22 +5809,22 @@
         <v>1</v>
       </c>
       <c r="M19" s="59" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="N19" s="28">
         <v>-26</v>
       </c>
       <c r="O19" s="80" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="60" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>25</v>
@@ -5780,16 +5832,16 @@
       <c r="E20" s="46"/>
       <c r="F20" s="28"/>
       <c r="G20" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="31">
         <v>16</v>
@@ -5798,22 +5850,22 @@
         <v>1</v>
       </c>
       <c r="M20" s="59" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="N20" s="28">
         <v>-29</v>
       </c>
       <c r="O20" s="80" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="60" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>25</v>
@@ -5821,16 +5873,16 @@
       <c r="E21" s="46"/>
       <c r="F21" s="28"/>
       <c r="G21" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="31">
         <v>16</v>
@@ -5839,22 +5891,22 @@
         <v>1</v>
       </c>
       <c r="M21" s="59" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N21" s="28">
         <v>-24</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="60" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>25</v>
@@ -5862,16 +5914,16 @@
       <c r="E22" s="46"/>
       <c r="F22" s="28"/>
       <c r="G22" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22" s="31">
         <v>16</v>
@@ -5880,22 +5932,22 @@
         <v>1</v>
       </c>
       <c r="M22" s="59" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N22" s="28">
         <v>-27</v>
       </c>
       <c r="O22" s="80" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="60" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>25</v>
@@ -5903,16 +5955,16 @@
       <c r="E23" s="46"/>
       <c r="F23" s="28"/>
       <c r="G23" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="31">
         <v>16</v>
@@ -5921,22 +5973,22 @@
         <v>1</v>
       </c>
       <c r="M23" s="59" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="N23" s="28">
         <v>-26</v>
       </c>
       <c r="O23" s="80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="60" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>25</v>
@@ -5944,16 +5996,16 @@
       <c r="E24" s="46"/>
       <c r="F24" s="28"/>
       <c r="G24" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" s="31">
         <v>16</v>
@@ -5962,22 +6014,22 @@
         <v>1</v>
       </c>
       <c r="M24" s="59" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N24" s="28">
         <v>-26</v>
       </c>
       <c r="O24" s="80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="60" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>25</v>
@@ -5985,16 +6037,16 @@
       <c r="E25" s="46"/>
       <c r="F25" s="28"/>
       <c r="G25" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="31">
         <v>16</v>
@@ -6003,22 +6055,22 @@
         <v>1</v>
       </c>
       <c r="M25" s="59" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="N25" s="28">
         <v>-23</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="60" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>25</v>
@@ -6026,16 +6078,16 @@
       <c r="E26" s="46"/>
       <c r="F26" s="28"/>
       <c r="G26" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" s="31">
         <v>16</v>
@@ -6044,22 +6096,22 @@
         <v>1</v>
       </c>
       <c r="M26" s="59" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="N26" s="28">
         <v>-27</v>
       </c>
       <c r="O26" s="80" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="60" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>25</v>
@@ -6067,16 +6119,16 @@
       <c r="E27" s="46"/>
       <c r="F27" s="28"/>
       <c r="G27" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="31">
         <v>16</v>
@@ -6085,22 +6137,22 @@
         <v>1</v>
       </c>
       <c r="M27" s="59" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="N27" s="28">
         <v>-29</v>
       </c>
       <c r="O27" s="80" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="60" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>25</v>
@@ -6108,16 +6160,16 @@
       <c r="E28" s="46"/>
       <c r="F28" s="28"/>
       <c r="G28" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="31">
         <v>16</v>
@@ -6126,22 +6178,22 @@
         <v>1</v>
       </c>
       <c r="M28" s="59" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N28" s="28">
         <v>-29</v>
       </c>
       <c r="O28" s="80" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="60" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>25</v>
@@ -6149,16 +6201,16 @@
       <c r="E29" s="46"/>
       <c r="F29" s="28"/>
       <c r="G29" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K29" s="31">
         <v>16</v>
@@ -6167,22 +6219,22 @@
         <v>1</v>
       </c>
       <c r="M29" s="59" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N29" s="28">
         <v>-28</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="60" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>25</v>
@@ -6190,16 +6242,16 @@
       <c r="E30" s="46"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K30" s="31">
         <v>16</v>
@@ -6208,22 +6260,22 @@
         <v>1</v>
       </c>
       <c r="M30" s="59" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="N30" s="28">
         <v>-22</v>
       </c>
       <c r="O30" s="80" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="60" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>25</v>
@@ -6231,16 +6283,16 @@
       <c r="E31" s="46"/>
       <c r="F31" s="28"/>
       <c r="G31" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" s="31">
         <v>16</v>
@@ -6249,22 +6301,22 @@
         <v>1</v>
       </c>
       <c r="M31" s="59" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="N31" s="28">
         <v>-20</v>
       </c>
       <c r="O31" s="80" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="60" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>25</v>
@@ -6272,16 +6324,16 @@
       <c r="E32" s="46"/>
       <c r="F32" s="28"/>
       <c r="G32" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K32" s="31">
         <v>16</v>
@@ -6290,22 +6342,22 @@
         <v>1</v>
       </c>
       <c r="M32" s="59" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="N32" s="28">
         <v>-19</v>
       </c>
       <c r="O32" s="80" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="60" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>25</v>
@@ -6313,16 +6365,16 @@
       <c r="E33" s="46"/>
       <c r="F33" s="28"/>
       <c r="G33" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K33" s="31">
         <v>16</v>
@@ -6331,22 +6383,22 @@
         <v>1</v>
       </c>
       <c r="M33" s="59" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="N33" s="28">
         <v>-22</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="60" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C34" s="79" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>25</v>
@@ -6354,16 +6406,16 @@
       <c r="E34" s="46"/>
       <c r="F34" s="28"/>
       <c r="G34" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K34" s="31">
         <v>16</v>
@@ -6372,22 +6424,22 @@
         <v>1</v>
       </c>
       <c r="M34" s="59" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="N34" s="28">
         <v>-20</v>
       </c>
       <c r="O34" s="80" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="60" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C35" s="79" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>25</v>
@@ -6395,16 +6447,16 @@
       <c r="E35" s="46"/>
       <c r="F35" s="28"/>
       <c r="G35" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K35" s="31">
         <v>16</v>
@@ -6413,22 +6465,22 @@
         <v>1</v>
       </c>
       <c r="M35" s="59" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="N35" s="28">
         <v>-19</v>
       </c>
       <c r="O35" s="80" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="60" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C36" s="79" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>25</v>
@@ -6436,16 +6488,16 @@
       <c r="E36" s="46"/>
       <c r="F36" s="28"/>
       <c r="G36" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K36" s="31">
         <v>16</v>
@@ -6454,22 +6506,22 @@
         <v>1</v>
       </c>
       <c r="M36" s="59" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N36" s="28">
         <v>-15</v>
       </c>
       <c r="O36" s="80" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="60" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C37" s="79" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>25</v>
@@ -6477,16 +6529,16 @@
       <c r="E37" s="46"/>
       <c r="F37" s="28"/>
       <c r="G37" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K37" s="31">
         <v>16</v>
@@ -6495,22 +6547,22 @@
         <v>1</v>
       </c>
       <c r="M37" s="59" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="N37" s="28">
         <v>-15</v>
       </c>
       <c r="O37" s="80" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="60" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C38" s="79" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>25</v>
@@ -6518,16 +6570,16 @@
       <c r="E38" s="46"/>
       <c r="F38" s="28"/>
       <c r="G38" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" s="31">
         <v>16</v>
@@ -6536,22 +6588,22 @@
         <v>1</v>
       </c>
       <c r="M38" s="59" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N38" s="28">
         <v>-19</v>
       </c>
       <c r="O38" s="80" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="60" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>25</v>
@@ -6559,16 +6611,16 @@
       <c r="E39" s="46"/>
       <c r="F39" s="28"/>
       <c r="G39" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" s="31">
         <v>16</v>
@@ -6577,22 +6629,22 @@
         <v>1</v>
       </c>
       <c r="M39" s="59" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="N39" s="28">
         <v>-17</v>
       </c>
       <c r="O39" s="80" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="60" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>25</v>
@@ -6600,16 +6652,16 @@
       <c r="E40" s="46"/>
       <c r="F40" s="28"/>
       <c r="G40" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K40" s="31">
         <v>16</v>
@@ -6618,22 +6670,22 @@
         <v>1</v>
       </c>
       <c r="M40" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N40" s="28">
         <v>-20</v>
       </c>
       <c r="O40" s="80" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="60" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C41" s="79" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>25</v>
@@ -6641,16 +6693,16 @@
       <c r="E41" s="46"/>
       <c r="F41" s="28"/>
       <c r="G41" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J41" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K41" s="31">
         <v>16</v>
@@ -6659,22 +6711,22 @@
         <v>1</v>
       </c>
       <c r="M41" s="59" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="N41" s="28">
         <v>-18</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="60" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C42" s="79" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>25</v>
@@ -6682,16 +6734,16 @@
       <c r="E42" s="46"/>
       <c r="F42" s="28"/>
       <c r="G42" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K42" s="31">
         <v>16</v>
@@ -6700,22 +6752,22 @@
         <v>1</v>
       </c>
       <c r="M42" s="59" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N42" s="28">
         <v>-25</v>
       </c>
       <c r="O42" s="80" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="60" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C43" s="79" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>25</v>
@@ -6723,16 +6775,16 @@
       <c r="E43" s="46"/>
       <c r="F43" s="28"/>
       <c r="G43" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J43" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K43" s="31">
         <v>16</v>
@@ -6741,22 +6793,22 @@
         <v>1</v>
       </c>
       <c r="M43" s="59" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N43" s="28">
         <v>-14</v>
       </c>
       <c r="O43" s="80" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="60" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C44" s="79" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>25</v>
@@ -6764,16 +6816,16 @@
       <c r="E44" s="46"/>
       <c r="F44" s="28"/>
       <c r="G44" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J44" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K44" s="31">
         <v>16</v>
@@ -6782,22 +6834,22 @@
         <v>1</v>
       </c>
       <c r="M44" s="59" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="N44" s="28">
         <v>-13</v>
       </c>
       <c r="O44" s="80" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="60" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C45" s="79" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>25</v>
@@ -6805,16 +6857,16 @@
       <c r="E45" s="46"/>
       <c r="F45" s="28"/>
       <c r="G45" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J45" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K45" s="31">
         <v>16</v>
@@ -6823,22 +6875,22 @@
         <v>1</v>
       </c>
       <c r="M45" s="59" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N45" s="28">
         <v>-20</v>
       </c>
       <c r="O45" s="80" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="60" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C46" s="79" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>25</v>
@@ -6846,16 +6898,16 @@
       <c r="E46" s="46"/>
       <c r="F46" s="28"/>
       <c r="G46" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J46" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" s="31">
         <v>16</v>
@@ -6864,22 +6916,22 @@
         <v>1</v>
       </c>
       <c r="M46" s="59" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="N46" s="28">
         <v>-14</v>
       </c>
       <c r="O46" s="80" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="60" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C47" s="79" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>25</v>
@@ -6887,16 +6939,16 @@
       <c r="E47" s="46"/>
       <c r="F47" s="28"/>
       <c r="G47" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J47" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" s="31">
         <v>16</v>
@@ -6905,22 +6957,22 @@
         <v>1</v>
       </c>
       <c r="M47" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N47" s="28">
         <v>-11</v>
       </c>
       <c r="O47" s="80" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="60" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C48" s="79" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>25</v>
@@ -6928,16 +6980,16 @@
       <c r="E48" s="46"/>
       <c r="F48" s="28"/>
       <c r="G48" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48" s="31">
         <v>16</v>
@@ -6946,22 +6998,22 @@
         <v>1</v>
       </c>
       <c r="M48" s="59" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="N48" s="28">
         <v>-13</v>
       </c>
       <c r="O48" s="80" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="60" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C49" s="79" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>25</v>
@@ -6969,16 +7021,16 @@
       <c r="E49" s="46"/>
       <c r="F49" s="28"/>
       <c r="G49" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K49" s="31">
         <v>16</v>
@@ -6987,22 +7039,22 @@
         <v>1</v>
       </c>
       <c r="M49" s="59" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N49" s="28">
         <v>-11</v>
       </c>
       <c r="O49" s="80" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="60" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C50" s="79" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>25</v>
@@ -7010,16 +7062,16 @@
       <c r="E50" s="46"/>
       <c r="F50" s="28"/>
       <c r="G50" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K50" s="31">
         <v>16</v>
@@ -7028,22 +7080,22 @@
         <v>1</v>
       </c>
       <c r="M50" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N50" s="28">
         <v>-19</v>
       </c>
       <c r="O50" s="80" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="60" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>25</v>
@@ -7051,16 +7103,16 @@
       <c r="E51" s="46"/>
       <c r="F51" s="28"/>
       <c r="G51" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J51" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K51" s="31">
         <v>16</v>
@@ -7069,22 +7121,22 @@
         <v>1</v>
       </c>
       <c r="M51" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N51" s="28">
         <v>-19</v>
       </c>
       <c r="O51" s="80" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="60" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D52" s="28" t="s">
         <v>25</v>
@@ -7092,16 +7144,16 @@
       <c r="E52" s="46"/>
       <c r="F52" s="28"/>
       <c r="G52" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K52" s="31">
         <v>16</v>
@@ -7110,22 +7162,22 @@
         <v>1</v>
       </c>
       <c r="M52" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N52" s="28">
         <v>-19</v>
       </c>
       <c r="O52" s="80" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="60" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C53" s="79" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>25</v>
@@ -7133,16 +7185,16 @@
       <c r="E53" s="46"/>
       <c r="F53" s="28"/>
       <c r="G53" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J53" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K53" s="31">
         <v>16</v>
@@ -7151,22 +7203,22 @@
         <v>1</v>
       </c>
       <c r="M53" s="59" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="N53" s="28">
         <v>-20</v>
       </c>
       <c r="O53" s="80" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="60" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C54" s="79" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>25</v>
@@ -7174,16 +7226,16 @@
       <c r="E54" s="46"/>
       <c r="F54" s="28"/>
       <c r="G54" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K54" s="31">
         <v>16</v>
@@ -7192,22 +7244,22 @@
         <v>1</v>
       </c>
       <c r="M54" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N54" s="28">
         <v>-19</v>
       </c>
       <c r="O54" s="80" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="60" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>25</v>
@@ -7215,16 +7267,16 @@
       <c r="E55" s="46"/>
       <c r="F55" s="28"/>
       <c r="G55" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J55" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K55" s="31">
         <v>16</v>
@@ -7233,22 +7285,22 @@
         <v>1</v>
       </c>
       <c r="M55" s="59" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="N55" s="28">
         <v>-20</v>
       </c>
       <c r="O55" s="80" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="60" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>25</v>
@@ -7256,16 +7308,16 @@
       <c r="E56" s="46"/>
       <c r="F56" s="28"/>
       <c r="G56" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J56" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K56" s="31">
         <v>16</v>
@@ -7274,22 +7326,22 @@
         <v>1</v>
       </c>
       <c r="M56" s="59" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N56" s="28">
         <v>-15</v>
       </c>
       <c r="O56" s="80" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="60" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D57" s="28" t="s">
         <v>25</v>
@@ -7297,16 +7349,16 @@
       <c r="E57" s="46"/>
       <c r="F57" s="28"/>
       <c r="G57" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K57" s="31">
         <v>16</v>
@@ -7315,22 +7367,22 @@
         <v>1</v>
       </c>
       <c r="M57" s="59" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="N57" s="28">
         <v>-15</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="60" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>25</v>
@@ -7338,16 +7390,16 @@
       <c r="E58" s="46"/>
       <c r="F58" s="28"/>
       <c r="G58" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K58" s="31">
         <v>16</v>
@@ -7356,22 +7408,22 @@
         <v>1</v>
       </c>
       <c r="M58" s="59" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N58" s="28">
         <v>-15</v>
       </c>
       <c r="O58" s="80" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="60" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C59" s="79" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>25</v>
@@ -7379,16 +7431,16 @@
       <c r="E59" s="46"/>
       <c r="F59" s="28"/>
       <c r="G59" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J59" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K59" s="31">
         <v>16</v>
@@ -7397,22 +7449,22 @@
         <v>1</v>
       </c>
       <c r="M59" s="59" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="N59" s="28">
         <v>-15</v>
       </c>
       <c r="O59" s="80" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="60" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C60" s="79" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>25</v>
@@ -7420,16 +7472,16 @@
       <c r="E60" s="46"/>
       <c r="F60" s="28"/>
       <c r="G60" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K60" s="31">
         <v>16</v>
@@ -7438,22 +7490,22 @@
         <v>1</v>
       </c>
       <c r="M60" s="59" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N60" s="28">
         <v>-14</v>
       </c>
       <c r="O60" s="80" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="60" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>25</v>
@@ -7461,16 +7513,16 @@
       <c r="E61" s="46"/>
       <c r="F61" s="28"/>
       <c r="G61" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K61" s="31">
         <v>16</v>
@@ -7479,22 +7531,22 @@
         <v>1</v>
       </c>
       <c r="M61" s="59" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="N61" s="28">
         <v>-13</v>
       </c>
       <c r="O61" s="80" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="60" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C62" s="79" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>25</v>
@@ -7502,16 +7554,16 @@
       <c r="E62" s="46"/>
       <c r="F62" s="28"/>
       <c r="G62" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J62" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K62" s="31">
         <v>16</v>
@@ -7520,22 +7572,22 @@
         <v>1</v>
       </c>
       <c r="M62" s="59" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="N62" s="28">
         <v>-13</v>
       </c>
       <c r="O62" s="80" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="60" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C63" s="79" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>25</v>
@@ -7543,16 +7595,16 @@
       <c r="E63" s="46"/>
       <c r="F63" s="28"/>
       <c r="G63" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J63" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K63" s="31">
         <v>16</v>
@@ -7561,22 +7613,22 @@
         <v>1</v>
       </c>
       <c r="M63" s="59" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N63" s="28">
         <v>-25</v>
       </c>
       <c r="O63" s="80" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="60" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C64" s="79" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>25</v>
@@ -7584,16 +7636,16 @@
       <c r="E64" s="46"/>
       <c r="F64" s="28"/>
       <c r="G64" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J64" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K64" s="31">
         <v>16</v>
@@ -7602,22 +7654,22 @@
         <v>1</v>
       </c>
       <c r="M64" s="59" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N64" s="28">
         <v>-25</v>
       </c>
       <c r="O64" s="80" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="60" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C65" s="79" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>25</v>
@@ -7625,16 +7677,16 @@
       <c r="E65" s="46"/>
       <c r="F65" s="28"/>
       <c r="G65" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J65" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K65" s="31">
         <v>16</v>
@@ -7643,22 +7695,22 @@
         <v>1</v>
       </c>
       <c r="M65" s="59" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="N65" s="28">
         <v>-25</v>
       </c>
       <c r="O65" s="80" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="60" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C66" s="79" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>25</v>
@@ -7666,16 +7718,16 @@
       <c r="E66" s="46"/>
       <c r="F66" s="28"/>
       <c r="G66" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J66" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K66" s="31">
         <v>16</v>
@@ -7684,22 +7736,22 @@
         <v>1</v>
       </c>
       <c r="M66" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N66" s="28">
         <v>-25</v>
       </c>
       <c r="O66" s="80" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="60" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C67" s="79" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>25</v>
@@ -7707,16 +7759,16 @@
       <c r="E67" s="46"/>
       <c r="F67" s="28"/>
       <c r="G67" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J67" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K67" s="31">
         <v>16</v>
@@ -7725,22 +7777,22 @@
         <v>1</v>
       </c>
       <c r="M67" s="59" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="N67" s="28">
         <v>-25</v>
       </c>
       <c r="O67" s="80" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="60" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>25</v>
@@ -7748,16 +7800,16 @@
       <c r="E68" s="46"/>
       <c r="F68" s="28"/>
       <c r="G68" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J68" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K68" s="31">
         <v>16</v>
@@ -7766,22 +7818,22 @@
         <v>1</v>
       </c>
       <c r="M68" s="59" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="N68" s="28">
         <v>-25</v>
       </c>
       <c r="O68" s="80" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="60" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C69" s="79" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>25</v>
@@ -7789,16 +7841,16 @@
       <c r="E69" s="46"/>
       <c r="F69" s="28"/>
       <c r="G69" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J69" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K69" s="31">
         <v>16</v>
@@ -7807,22 +7859,22 @@
         <v>1</v>
       </c>
       <c r="M69" s="59" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="N69" s="28">
         <v>-26</v>
       </c>
       <c r="O69" s="80" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="60" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C70" s="79" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>25</v>
@@ -7830,16 +7882,16 @@
       <c r="E70" s="46"/>
       <c r="F70" s="28"/>
       <c r="G70" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J70" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K70" s="31">
         <v>16</v>
@@ -7848,22 +7900,22 @@
         <v>1</v>
       </c>
       <c r="M70" s="59" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="N70" s="28">
         <v>-31</v>
       </c>
       <c r="O70" s="80" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="60" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C71" s="79" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>25</v>
@@ -7871,16 +7923,16 @@
       <c r="E71" s="46"/>
       <c r="F71" s="28"/>
       <c r="G71" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J71" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K71" s="31">
         <v>16</v>
@@ -7889,22 +7941,22 @@
         <v>1</v>
       </c>
       <c r="M71" s="59" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="N71" s="28">
         <v>-26</v>
       </c>
       <c r="O71" s="80" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="60" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C72" s="79" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>25</v>
@@ -7912,16 +7964,16 @@
       <c r="E72" s="46"/>
       <c r="F72" s="28"/>
       <c r="G72" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J72" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K72" s="31">
         <v>16</v>
@@ -7930,22 +7982,22 @@
         <v>1</v>
       </c>
       <c r="M72" s="59" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="N72" s="28">
         <v>-30</v>
       </c>
       <c r="O72" s="80" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="60" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C73" s="79" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>25</v>
@@ -7953,16 +8005,16 @@
       <c r="E73" s="46"/>
       <c r="F73" s="28"/>
       <c r="G73" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J73" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K73" s="31">
         <v>16</v>
@@ -7971,22 +8023,22 @@
         <v>1</v>
       </c>
       <c r="M73" s="59" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="N73" s="28">
         <v>-27</v>
       </c>
       <c r="O73" s="80" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="60" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C74" s="79" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>25</v>
@@ -7994,40 +8046,40 @@
       <c r="E74" s="46"/>
       <c r="F74" s="28"/>
       <c r="G74" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H74" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" s="31">
+        <v>16</v>
+      </c>
+      <c r="L74" s="31">
+        <v>1</v>
+      </c>
+      <c r="M74" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J74" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="K74" s="31">
-        <v>16</v>
-      </c>
-      <c r="L74" s="31">
-        <v>1</v>
-      </c>
-      <c r="M74" s="59" t="s">
-        <v>193</v>
       </c>
       <c r="N74" s="28">
         <v>-26</v>
       </c>
       <c r="O74" s="80" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="60" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C75" s="79" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>25</v>
@@ -8035,16 +8087,16 @@
       <c r="E75" s="46"/>
       <c r="F75" s="28"/>
       <c r="G75" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J75" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K75" s="31">
         <v>16</v>
@@ -8053,22 +8105,22 @@
         <v>1</v>
       </c>
       <c r="M75" s="59" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N75" s="28">
         <v>-27</v>
       </c>
       <c r="O75" s="80" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="60" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C76" s="79" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D76" s="28" t="s">
         <v>25</v>
@@ -8076,40 +8128,40 @@
       <c r="E76" s="46"/>
       <c r="F76" s="28"/>
       <c r="G76" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H76" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K76" s="31">
+        <v>16</v>
+      </c>
+      <c r="L76" s="31">
+        <v>1</v>
+      </c>
+      <c r="M76" s="59" t="s">
         <v>183</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J76" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="K76" s="31">
-        <v>16</v>
-      </c>
-      <c r="L76" s="31">
-        <v>1</v>
-      </c>
-      <c r="M76" s="59" t="s">
-        <v>193</v>
       </c>
       <c r="N76" s="28">
         <v>-34</v>
       </c>
       <c r="O76" s="80" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="60" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C77" s="79" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>25</v>
@@ -8117,16 +8169,16 @@
       <c r="E77" s="46"/>
       <c r="F77" s="28"/>
       <c r="G77" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J77" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K77" s="31">
         <v>16</v>
@@ -8135,22 +8187,22 @@
         <v>1</v>
       </c>
       <c r="M77" s="59" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="N77" s="28">
         <v>-20</v>
       </c>
       <c r="O77" s="80" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="60" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C78" s="79" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>25</v>
@@ -8158,16 +8210,16 @@
       <c r="E78" s="46"/>
       <c r="F78" s="28"/>
       <c r="G78" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J78" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K78" s="31">
         <v>16</v>
@@ -8176,22 +8228,22 @@
         <v>1</v>
       </c>
       <c r="M78" s="59" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N78" s="28">
         <v>-29</v>
       </c>
       <c r="O78" s="80" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="60" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C79" s="79" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>25</v>
@@ -8199,40 +8251,40 @@
       <c r="E79" s="46"/>
       <c r="F79" s="28"/>
       <c r="G79" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H79" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" s="31">
+        <v>16</v>
+      </c>
+      <c r="L79" s="31">
+        <v>1</v>
+      </c>
+      <c r="M79" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J79" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="K79" s="31">
-        <v>16</v>
-      </c>
-      <c r="L79" s="31">
-        <v>1</v>
-      </c>
-      <c r="M79" s="28" t="s">
-        <v>193</v>
       </c>
       <c r="N79" s="28">
         <v>-28</v>
       </c>
       <c r="O79" s="80" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="60" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C80" s="79" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>25</v>
@@ -8240,16 +8292,16 @@
       <c r="E80" s="46"/>
       <c r="F80" s="28"/>
       <c r="G80" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I80" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J80" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K80" s="31">
         <v>16</v>
@@ -8258,22 +8310,22 @@
         <v>1</v>
       </c>
       <c r="M80" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N80" s="28">
         <v>-19</v>
       </c>
       <c r="O80" s="80" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="60" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C81" s="79" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>25</v>
@@ -8281,16 +8333,16 @@
       <c r="E81" s="46"/>
       <c r="F81" s="28"/>
       <c r="G81" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J81" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K81" s="31">
         <v>16</v>
@@ -8299,22 +8351,22 @@
         <v>1</v>
       </c>
       <c r="M81" s="59" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N81" s="28">
         <v>-27</v>
       </c>
       <c r="O81" s="80" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="60" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C82" s="79" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D82" s="28" t="s">
         <v>25</v>
@@ -8322,16 +8374,16 @@
       <c r="E82" s="46"/>
       <c r="F82" s="28"/>
       <c r="G82" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J82" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K82" s="31">
         <v>16</v>
@@ -8340,22 +8392,22 @@
         <v>1</v>
       </c>
       <c r="M82" s="59" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N82" s="28">
         <v>-36</v>
       </c>
       <c r="O82" s="80" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="60" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C83" s="79" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D83" s="28" t="s">
         <v>25</v>
@@ -8363,16 +8415,16 @@
       <c r="E83" s="46"/>
       <c r="F83" s="28"/>
       <c r="G83" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J83" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K83" s="31">
         <v>16</v>
@@ -8381,22 +8433,22 @@
         <v>1</v>
       </c>
       <c r="M83" s="59" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="N83" s="28">
         <v>-34</v>
       </c>
       <c r="O83" s="80" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="60" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C84" s="79" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>25</v>
@@ -8404,16 +8456,16 @@
       <c r="E84" s="46"/>
       <c r="F84" s="28"/>
       <c r="G84" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J84" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K84" s="31">
         <v>16</v>
@@ -8422,22 +8474,22 @@
         <v>1</v>
       </c>
       <c r="M84" s="59" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N84" s="28">
         <v>-36</v>
       </c>
       <c r="O84" s="80" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="60" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C85" s="79" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>25</v>
@@ -8445,16 +8497,16 @@
       <c r="E85" s="46"/>
       <c r="F85" s="28"/>
       <c r="G85" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J85" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K85" s="31">
         <v>16</v>
@@ -8463,22 +8515,22 @@
         <v>1</v>
       </c>
       <c r="M85" s="59" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="N85" s="28">
         <v>-34</v>
       </c>
       <c r="O85" s="80" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="60" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C86" s="79" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>25</v>
@@ -8486,16 +8538,16 @@
       <c r="E86" s="46"/>
       <c r="F86" s="28"/>
       <c r="G86" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J86" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K86" s="31">
         <v>16</v>
@@ -8504,22 +8556,22 @@
         <v>1</v>
       </c>
       <c r="M86" s="59" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="N86" s="28">
         <v>-29</v>
       </c>
       <c r="O86" s="80" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="60" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C87" s="79" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>25</v>
@@ -8527,16 +8579,16 @@
       <c r="E87" s="46"/>
       <c r="F87" s="28"/>
       <c r="G87" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J87" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K87" s="31">
         <v>16</v>
@@ -8545,22 +8597,22 @@
         <v>1</v>
       </c>
       <c r="M87" s="59" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="N87" s="28">
         <v>-29</v>
       </c>
       <c r="O87" s="80" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="60" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C88" s="79" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>25</v>
@@ -8568,16 +8620,16 @@
       <c r="E88" s="46"/>
       <c r="F88" s="28"/>
       <c r="G88" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J88" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K88" s="31">
         <v>16</v>
@@ -8586,22 +8638,22 @@
         <v>1</v>
       </c>
       <c r="M88" s="59" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="N88" s="28">
         <v>-28</v>
       </c>
       <c r="O88" s="80" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="60" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C89" s="79" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>25</v>
@@ -8609,16 +8661,16 @@
       <c r="E89" s="46"/>
       <c r="F89" s="28"/>
       <c r="G89" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J89" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K89" s="31">
         <v>16</v>
@@ -8627,22 +8679,22 @@
         <v>1</v>
       </c>
       <c r="M89" s="59" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="N89" s="28">
         <v>-32</v>
       </c>
       <c r="O89" s="80" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="60" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C90" s="79" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>25</v>
@@ -8650,16 +8702,16 @@
       <c r="E90" s="46"/>
       <c r="F90" s="28"/>
       <c r="G90" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J90" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K90" s="31">
         <v>16</v>
@@ -8668,22 +8720,22 @@
         <v>1</v>
       </c>
       <c r="M90" s="59" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="N90" s="28">
         <v>-28</v>
       </c>
       <c r="O90" s="80" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="60" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C91" s="79" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>25</v>
@@ -8691,16 +8743,16 @@
       <c r="E91" s="46"/>
       <c r="F91" s="28"/>
       <c r="G91" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I91" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J91" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K91" s="31">
         <v>16</v>
@@ -8709,22 +8761,22 @@
         <v>1</v>
       </c>
       <c r="M91" s="59" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N91" s="28">
         <v>-23</v>
       </c>
       <c r="O91" s="80" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="60" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C92" s="79" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>25</v>
@@ -8732,16 +8784,16 @@
       <c r="E92" s="46"/>
       <c r="F92" s="28"/>
       <c r="G92" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J92" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K92" s="31">
         <v>16</v>
@@ -8750,22 +8802,22 @@
         <v>1</v>
       </c>
       <c r="M92" s="59" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="N92" s="28">
         <v>-25</v>
       </c>
       <c r="O92" s="80" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="60" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C93" s="79" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>25</v>
@@ -8773,16 +8825,16 @@
       <c r="E93" s="46"/>
       <c r="F93" s="28"/>
       <c r="G93" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J93" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K93" s="31">
         <v>16</v>
@@ -8791,22 +8843,22 @@
         <v>1</v>
       </c>
       <c r="M93" s="59" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N93" s="28">
         <v>-23</v>
       </c>
       <c r="O93" s="80" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="60" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C94" s="79" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>25</v>
@@ -8814,16 +8866,16 @@
       <c r="E94" s="46"/>
       <c r="F94" s="28"/>
       <c r="G94" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I94" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J94" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K94" s="31">
         <v>16</v>
@@ -8832,22 +8884,22 @@
         <v>1</v>
       </c>
       <c r="M94" s="59" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="N94" s="28">
         <v>-23</v>
       </c>
       <c r="O94" s="80" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="60" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C95" s="79" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>25</v>
@@ -8855,16 +8907,16 @@
       <c r="E95" s="46"/>
       <c r="F95" s="28"/>
       <c r="G95" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J95" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K95" s="31">
         <v>16</v>
@@ -8873,22 +8925,22 @@
         <v>1</v>
       </c>
       <c r="M95" s="59" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="N95" s="28">
         <v>-25</v>
       </c>
       <c r="O95" s="80" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="60" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C96" s="79" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>25</v>
@@ -8896,16 +8948,16 @@
       <c r="E96" s="46"/>
       <c r="F96" s="28"/>
       <c r="G96" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I96" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J96" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K96" s="31">
         <v>16</v>
@@ -8914,22 +8966,22 @@
         <v>1</v>
       </c>
       <c r="M96" s="59" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="N96" s="28">
         <v>-23</v>
       </c>
       <c r="O96" s="80" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="62" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C97" s="79" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D97" s="63" t="s">
         <v>25</v>
@@ -8937,16 +8989,16 @@
       <c r="E97" s="63"/>
       <c r="F97" s="63"/>
       <c r="G97" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H97" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I97" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J97" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K97" s="66">
         <v>16</v>
@@ -8955,22 +9007,22 @@
         <v>1</v>
       </c>
       <c r="M97" s="67" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="N97" s="63">
         <v>-36</v>
       </c>
       <c r="O97" s="80" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="62" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C98" s="79" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D98" s="63" t="s">
         <v>25</v>
@@ -8978,16 +9030,16 @@
       <c r="E98" s="63"/>
       <c r="F98" s="63"/>
       <c r="G98" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H98" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I98" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J98" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K98" s="66">
         <v>16</v>
@@ -8996,22 +9048,22 @@
         <v>1</v>
       </c>
       <c r="M98" s="67" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="N98" s="63">
         <v>-55</v>
       </c>
       <c r="O98" s="80" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="62" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C99" s="79" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D99" s="63" t="s">
         <v>25</v>
@@ -9019,16 +9071,16 @@
       <c r="E99" s="63"/>
       <c r="F99" s="63"/>
       <c r="G99" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H99" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I99" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J99" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K99" s="66">
         <v>16</v>
@@ -9037,22 +9089,22 @@
         <v>1</v>
       </c>
       <c r="M99" s="67" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="N99" s="63">
         <v>-39</v>
       </c>
       <c r="O99" s="80" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="62" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C100" s="79" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D100" s="63" t="s">
         <v>25</v>
@@ -9060,16 +9112,16 @@
       <c r="E100" s="63"/>
       <c r="F100" s="63"/>
       <c r="G100" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H100" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I100" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J100" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K100" s="66">
         <v>16</v>
@@ -9078,22 +9130,22 @@
         <v>1</v>
       </c>
       <c r="M100" s="67" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="N100" s="63">
         <v>-58</v>
       </c>
       <c r="O100" s="80" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="62" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C101" s="79" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D101" s="63" t="s">
         <v>25</v>
@@ -9101,16 +9153,16 @@
       <c r="E101" s="63"/>
       <c r="F101" s="63"/>
       <c r="G101" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H101" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I101" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J101" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K101" s="66">
         <v>16</v>
@@ -9119,22 +9171,22 @@
         <v>1</v>
       </c>
       <c r="M101" s="67" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="N101" s="63">
         <v>-32</v>
       </c>
       <c r="O101" s="80" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="62" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C102" s="79" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D102" s="63" t="s">
         <v>25</v>
@@ -9142,16 +9194,16 @@
       <c r="E102" s="63"/>
       <c r="F102" s="63"/>
       <c r="G102" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H102" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I102" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J102" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K102" s="66">
         <v>16</v>
@@ -9160,22 +9212,22 @@
         <v>1</v>
       </c>
       <c r="M102" s="67" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="N102" s="63">
         <v>-67</v>
       </c>
       <c r="O102" s="80" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="62" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C103" s="79" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D103" s="63" t="s">
         <v>25</v>
@@ -9183,16 +9235,16 @@
       <c r="E103" s="63"/>
       <c r="F103" s="63"/>
       <c r="G103" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H103" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I103" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J103" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K103" s="66">
         <v>16</v>
@@ -9201,22 +9253,22 @@
         <v>1</v>
       </c>
       <c r="M103" s="67" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="N103" s="63">
         <v>-38</v>
       </c>
       <c r="O103" s="80" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="62" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C104" s="79" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D104" s="63" t="s">
         <v>25</v>
@@ -9224,16 +9276,16 @@
       <c r="E104" s="63"/>
       <c r="F104" s="63"/>
       <c r="G104" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H104" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I104" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J104" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K104" s="66">
         <v>16</v>
@@ -9242,22 +9294,22 @@
         <v>1</v>
       </c>
       <c r="M104" s="67" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="N104" s="63">
         <v>-73</v>
       </c>
       <c r="O104" s="80" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="62" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C105" s="79" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D105" s="63" t="s">
         <v>25</v>
@@ -9265,16 +9317,16 @@
       <c r="E105" s="63"/>
       <c r="F105" s="63"/>
       <c r="G105" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H105" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I105" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J105" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K105" s="66">
         <v>16</v>
@@ -9283,22 +9335,22 @@
         <v>1</v>
       </c>
       <c r="M105" s="67" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="N105" s="63">
         <v>-43</v>
       </c>
       <c r="O105" s="80" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="62" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C106" s="79" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D106" s="63" t="s">
         <v>25</v>
@@ -9306,16 +9358,16 @@
       <c r="E106" s="63"/>
       <c r="F106" s="63"/>
       <c r="G106" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H106" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I106" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J106" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K106" s="66">
         <v>16</v>
@@ -9324,22 +9376,22 @@
         <v>1</v>
       </c>
       <c r="M106" s="67" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="N106" s="63">
         <v>-61</v>
       </c>
       <c r="O106" s="80" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="62" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C107" s="79" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D107" s="63" t="s">
         <v>25</v>
@@ -9347,16 +9399,16 @@
       <c r="E107" s="63"/>
       <c r="F107" s="63"/>
       <c r="G107" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H107" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I107" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J107" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K107" s="66">
         <v>16</v>
@@ -9365,22 +9417,22 @@
         <v>1</v>
       </c>
       <c r="M107" s="67" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="N107" s="63">
         <v>-61</v>
       </c>
       <c r="O107" s="80" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="62" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C108" s="79" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D108" s="63" t="s">
         <v>25</v>
@@ -9388,16 +9440,16 @@
       <c r="E108" s="63"/>
       <c r="F108" s="63"/>
       <c r="G108" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H108" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I108" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J108" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K108" s="66">
         <v>16</v>
@@ -9406,22 +9458,22 @@
         <v>1</v>
       </c>
       <c r="M108" s="67" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="N108" s="63">
         <v>-58</v>
       </c>
       <c r="O108" s="80" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="62" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C109" s="79" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D109" s="63" t="s">
         <v>25</v>
@@ -9429,16 +9481,16 @@
       <c r="E109" s="63"/>
       <c r="F109" s="63"/>
       <c r="G109" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H109" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I109" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J109" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K109" s="66">
         <v>16</v>
@@ -9447,22 +9499,22 @@
         <v>1</v>
       </c>
       <c r="M109" s="67" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="N109" s="63">
         <v>-61</v>
       </c>
       <c r="O109" s="80" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="62" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C110" s="79" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D110" s="63" t="s">
         <v>25</v>
@@ -9470,16 +9522,16 @@
       <c r="E110" s="63"/>
       <c r="F110" s="63"/>
       <c r="G110" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H110" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I110" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J110" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K110" s="66">
         <v>16</v>
@@ -9488,22 +9540,22 @@
         <v>1</v>
       </c>
       <c r="M110" s="67" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="N110" s="63">
         <v>-51</v>
       </c>
       <c r="O110" s="80" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="62" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C111" s="79" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D111" s="63" t="s">
         <v>25</v>
@@ -9511,16 +9563,16 @@
       <c r="E111" s="63"/>
       <c r="F111" s="63"/>
       <c r="G111" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H111" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I111" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J111" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K111" s="66">
         <v>16</v>
@@ -9529,22 +9581,22 @@
         <v>1</v>
       </c>
       <c r="M111" s="67" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="N111" s="63">
         <v>-55</v>
       </c>
       <c r="O111" s="80" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="62" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C112" s="79" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D112" s="63" t="s">
         <v>25</v>
@@ -9552,16 +9604,16 @@
       <c r="E112" s="63"/>
       <c r="F112" s="63"/>
       <c r="G112" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H112" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I112" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J112" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K112" s="66">
         <v>16</v>
@@ -9570,22 +9622,22 @@
         <v>1</v>
       </c>
       <c r="M112" s="67" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="N112" s="63">
         <v>-75</v>
       </c>
       <c r="O112" s="80" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="62" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C113" s="79" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D113" s="63" t="s">
         <v>25</v>
@@ -9593,16 +9645,16 @@
       <c r="E113" s="63"/>
       <c r="F113" s="63"/>
       <c r="G113" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H113" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I113" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J113" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K113" s="66">
         <v>16</v>
@@ -9611,22 +9663,22 @@
         <v>1</v>
       </c>
       <c r="M113" s="67" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="N113" s="63">
         <v>-38</v>
       </c>
       <c r="O113" s="80" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="62" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C114" s="79" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D114" s="63" t="s">
         <v>25</v>
@@ -9634,16 +9686,16 @@
       <c r="E114" s="63"/>
       <c r="F114" s="63"/>
       <c r="G114" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H114" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I114" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J114" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K114" s="66">
         <v>16</v>
@@ -9652,22 +9704,22 @@
         <v>1</v>
       </c>
       <c r="M114" s="67" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="N114" s="63">
         <v>-65</v>
       </c>
       <c r="O114" s="80" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="62" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C115" s="79" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D115" s="63" t="s">
         <v>25</v>
@@ -9675,16 +9727,16 @@
       <c r="E115" s="63"/>
       <c r="F115" s="63"/>
       <c r="G115" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H115" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I115" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J115" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K115" s="66">
         <v>16</v>
@@ -9693,21 +9745,21 @@
         <v>1</v>
       </c>
       <c r="M115" s="67" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="N115" s="63">
         <v>-43</v>
       </c>
       <c r="O115" s="80" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B116" s="68" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C116" s="79" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D116" s="63" t="s">
         <v>25</v>
@@ -9715,16 +9767,16 @@
       <c r="E116" s="63"/>
       <c r="F116" s="63"/>
       <c r="G116" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H116" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I116" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J116" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K116" s="66">
         <v>16</v>
@@ -9733,21 +9785,21 @@
         <v>1</v>
       </c>
       <c r="M116" s="67" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="N116" s="63">
         <v>-65</v>
       </c>
       <c r="O116" s="80" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B117" s="68" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C117" s="79" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="D117" s="63" t="s">
         <v>25</v>
@@ -9755,16 +9807,16 @@
       <c r="E117" s="63"/>
       <c r="F117" s="63"/>
       <c r="G117" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H117" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I117" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J117" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K117" s="66">
         <v>16</v>
@@ -9773,21 +9825,21 @@
         <v>1</v>
       </c>
       <c r="M117" s="67" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="N117" s="63">
         <v>-43</v>
       </c>
       <c r="O117" s="80" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B118" s="68" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C118" s="79" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D118" s="63" t="s">
         <v>25</v>
@@ -9795,16 +9847,16 @@
       <c r="E118" s="63"/>
       <c r="F118" s="63"/>
       <c r="G118" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H118" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I118" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J118" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K118" s="66">
         <v>16</v>
@@ -9813,21 +9865,21 @@
         <v>1</v>
       </c>
       <c r="M118" s="69" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="N118" s="70">
         <v>-50</v>
       </c>
       <c r="O118" s="80" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B119" s="68" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C119" s="79" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D119" s="63" t="s">
         <v>25</v>
@@ -9835,16 +9887,16 @@
       <c r="E119" s="63"/>
       <c r="F119" s="63"/>
       <c r="G119" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H119" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I119" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J119" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K119" s="66">
         <v>16</v>
@@ -9853,21 +9905,21 @@
         <v>1</v>
       </c>
       <c r="M119" s="67" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="N119" s="63">
         <v>-36</v>
       </c>
       <c r="O119" s="80" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B120" s="68" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C120" s="79" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D120" s="63" t="s">
         <v>25</v>
@@ -9875,16 +9927,16 @@
       <c r="E120" s="63"/>
       <c r="F120" s="63"/>
       <c r="G120" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H120" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I120" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J120" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K120" s="66">
         <v>16</v>
@@ -9893,21 +9945,21 @@
         <v>1</v>
       </c>
       <c r="M120" s="67" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="N120" s="63">
         <v>-75</v>
       </c>
       <c r="O120" s="80" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B121" s="68" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C121" s="79" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D121" s="63" t="s">
         <v>25</v>
@@ -9915,16 +9967,16 @@
       <c r="E121" s="63"/>
       <c r="F121" s="63"/>
       <c r="G121" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H121" s="64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I121" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J121" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K121" s="66">
         <v>16</v>
@@ -9933,13 +9985,13 @@
         <v>1</v>
       </c>
       <c r="M121" s="67" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="N121" s="63">
         <v>-75</v>
       </c>
       <c r="O121" s="80" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Proyectos GitHub\Wasted-Racing\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -152,18 +152,12 @@
     <t>M-005</t>
   </si>
   <si>
-    <t>00.05.564</t>
-  </si>
-  <si>
     <t>1.18</t>
   </si>
   <si>
     <t>M-006</t>
   </si>
   <si>
-    <t>00.05.993</t>
-  </si>
-  <si>
     <t>1.19</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>M-010</t>
-  </si>
-  <si>
     <t>00.36.412</t>
   </si>
   <si>
@@ -536,9 +527,6 @@
     <t>00.06.317</t>
   </si>
   <si>
-    <t>1.21</t>
-  </si>
-  <si>
     <t>Tabla de metadatos - Voces</t>
   </si>
   <si>
@@ -1575,6 +1563,18 @@
   </si>
   <si>
     <t>Game/media/audio/synthesis/item_follow.wav</t>
+  </si>
+  <si>
+    <t>M-004</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>00.20.312</t>
+  </si>
+  <si>
+    <t>00.13.851</t>
   </si>
 </sst>
 </file>
@@ -2652,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28" t="s">
@@ -2794,10 +2794,10 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
-        <v>39</v>
+        <v>511</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
@@ -2823,22 +2823,22 @@
         <v>2</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>40</v>
+        <v>513</v>
       </c>
       <c r="N5" s="31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>41</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
@@ -2864,22 +2864,22 @@
         <v>2</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>43</v>
+        <v>514</v>
       </c>
       <c r="N6" s="31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
@@ -2905,22 +2905,22 @@
         <v>2</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N7" s="31">
         <v>-1</v>
       </c>
       <c r="O7" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
@@ -2946,22 +2946,22 @@
         <v>2</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8" s="31">
         <v>-1</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28" t="s">
@@ -2987,22 +2987,22 @@
         <v>2</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N9" s="31">
         <v>-1</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28" t="s">
@@ -3028,22 +3028,22 @@
         <v>2</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N10" s="31">
         <v>-1</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
@@ -3069,13 +3069,13 @@
         <v>2</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N11" s="31">
         <v>-1</v>
       </c>
       <c r="O11" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3113,9 +3113,9 @@
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="O4" r:id="rId2" location="'Niveles'!B23"/>
     <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="O5" r:id="rId4" location="'Niveles'!B31"/>
+    <hyperlink ref="O5" r:id="rId4" location="'Niveles'!B30"/>
     <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B32"/>
+    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B31"/>
     <hyperlink ref="C7" r:id="rId7"/>
     <hyperlink ref="O7" r:id="rId8" location="'Circuito1'!B5"/>
     <hyperlink ref="C8" r:id="rId9"/>
@@ -3160,7 +3160,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -3236,10 +3236,10 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -3247,13 +3247,13 @@
         <v>27</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>36</v>
@@ -3271,7 +3271,7 @@
         <v>-8</v>
       </c>
       <c r="O4" s="81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -3366,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,7 +3390,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -3477,16 +3477,16 @@
         <v>27</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K4" s="42">
         <v>32</v>
@@ -3495,22 +3495,22 @@
         <v>1</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N4" s="42">
         <v>-13</v>
       </c>
       <c r="O4" s="81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -3518,16 +3518,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K5" s="31">
         <v>32</v>
@@ -3536,21 +3536,21 @@
         <v>1</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N5" s="31">
         <v>-13</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -3558,10 +3558,10 @@
         <v>27</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>35</v>
@@ -3576,21 +3576,21 @@
         <v>1</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N6" s="31">
         <v>-54</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -3598,10 +3598,10 @@
         <v>27</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>35</v>
@@ -3616,21 +3616,21 @@
         <v>1</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N7" s="31">
         <v>-23</v>
       </c>
       <c r="O7" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -3638,10 +3638,10 @@
         <v>27</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>35</v>
@@ -3656,21 +3656,21 @@
         <v>1</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N8" s="31">
         <v>-55</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -3678,10 +3678,10 @@
         <v>27</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>35</v>
@@ -3696,21 +3696,21 @@
         <v>1</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N9" s="31">
         <v>-56</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -3718,10 +3718,10 @@
         <v>27</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>35</v>
@@ -3736,21 +3736,21 @@
         <v>1</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N10" s="31">
         <v>-51</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -3758,16 +3758,16 @@
         <v>27</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K11" s="31">
         <v>32</v>
@@ -3776,21 +3776,21 @@
         <v>1</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N11" s="31">
         <v>-41</v>
       </c>
       <c r="O11" s="80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -3798,16 +3798,16 @@
         <v>27</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K12" s="31">
         <v>32</v>
@@ -3816,21 +3816,21 @@
         <v>1</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N12" s="31">
         <v>-15</v>
       </c>
       <c r="O12" s="80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -3838,16 +3838,16 @@
         <v>27</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>35</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K13" s="31">
         <v>32</v>
@@ -3856,22 +3856,22 @@
         <v>1</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N13" s="31">
         <v>-5</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -3879,7 +3879,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>34</v>
@@ -3897,22 +3897,22 @@
         <v>2</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N14" s="31">
         <v>-21</v>
       </c>
       <c r="O14" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -3920,7 +3920,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>34</v>
@@ -3929,7 +3929,7 @@
         <v>35</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K15" s="31">
         <v>32</v>
@@ -3938,22 +3938,22 @@
         <v>2</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N15" s="31">
         <v>-33</v>
       </c>
       <c r="O15" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
@@ -3961,7 +3961,7 @@
         <v>27</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>34</v>
@@ -3979,22 +3979,22 @@
         <v>2</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N16" s="31">
         <v>0</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -4002,7 +4002,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>34</v>
@@ -4020,22 +4020,22 @@
         <v>1</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N17" s="31">
         <v>-18</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -4043,7 +4043,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>34</v>
@@ -4052,7 +4052,7 @@
         <v>35</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K18" s="31">
         <v>32</v>
@@ -4061,22 +4061,22 @@
         <v>2</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N18" s="31">
         <v>-41</v>
       </c>
       <c r="O18" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
@@ -4084,16 +4084,16 @@
         <v>27</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K19" s="31">
         <v>32</v>
@@ -4102,22 +4102,22 @@
         <v>2</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N19" s="31">
         <v>-27</v>
       </c>
       <c r="O19" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -4125,7 +4125,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>34</v>
@@ -4143,22 +4143,22 @@
         <v>2</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N20" s="31">
         <v>-18</v>
       </c>
       <c r="O20" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -4166,7 +4166,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>34</v>
@@ -4184,22 +4184,22 @@
         <v>2</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N21" s="31">
         <v>-17</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -4207,7 +4207,7 @@
         <v>27</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>34</v>
@@ -4225,22 +4225,22 @@
         <v>2</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N22" s="31">
         <v>-27</v>
       </c>
       <c r="O22" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -4248,7 +4248,7 @@
         <v>27</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>34</v>
@@ -4257,7 +4257,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K23" s="31">
         <v>32</v>
@@ -4266,22 +4266,22 @@
         <v>1</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N23" s="31">
         <v>-29</v>
       </c>
       <c r="O23" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -4289,16 +4289,16 @@
         <v>27</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K24" s="31">
         <v>32</v>
@@ -4307,22 +4307,22 @@
         <v>2</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N24" s="31">
         <v>-54</v>
       </c>
       <c r="O24" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -4330,7 +4330,7 @@
         <v>27</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>34</v>
@@ -4348,22 +4348,22 @@
         <v>2</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N25" s="31">
         <v>-42</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -4371,16 +4371,16 @@
         <v>27</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K26" s="31">
         <v>32</v>
@@ -4389,22 +4389,22 @@
         <v>2</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N26" s="31">
         <v>-21</v>
       </c>
       <c r="O26" s="80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -4412,10 +4412,10 @@
         <v>27</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>35</v>
@@ -4430,22 +4430,22 @@
         <v>1</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N27" s="31">
         <v>-6</v>
       </c>
       <c r="O27" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -4453,10 +4453,10 @@
         <v>27</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>35</v>
@@ -4471,13 +4471,13 @@
         <v>2</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O28" s="80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
     <hyperlink ref="O8" r:id="rId14" location="'Menu principal'!B10"/>
     <hyperlink ref="C9" r:id="rId15"/>
     <hyperlink ref="G9" r:id="rId16"/>
-    <hyperlink ref="O9" r:id="rId17" location="'Niveles'!B33"/>
+    <hyperlink ref="O9" r:id="rId17" location="'Niveles'!B32"/>
     <hyperlink ref="C10" r:id="rId18"/>
     <hyperlink ref="G10" r:id="rId19"/>
     <hyperlink ref="O10" r:id="rId20" location="'Niveles'!B29"/>
@@ -4604,7 +4604,7 @@
   <sheetData>
     <row r="1" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -4782,8 +4782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4806,7 +4806,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -4883,10 +4883,10 @@
     <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28" t="s">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H4" s="30" t="s">
         <v>34</v>
@@ -4912,22 +4912,22 @@
         <v>1</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O4" s="81" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H5" s="30" t="s">
         <v>34</v>
@@ -4953,10 +4953,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O5" s="80" t="s">
         <v>38</v>
@@ -4965,10 +4965,10 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>34</v>
@@ -4994,13 +4994,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="O5" r:id="rId4" location="'Niveles'!B24"/>
     <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B34"/>
+    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5092,7 +5092,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -5168,10 +5168,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="53" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>25</v>
@@ -5179,10 +5179,10 @@
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
       <c r="G4" s="58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>35</v>
@@ -5197,21 +5197,21 @@
         <v>1</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N4" s="42">
         <v>-28</v>
       </c>
       <c r="O4" s="81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>25</v>
@@ -5219,39 +5219,39 @@
       <c r="E5" s="46"/>
       <c r="F5" s="28"/>
       <c r="G5" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H5" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="31">
+        <v>16</v>
+      </c>
+      <c r="L5" s="31">
+        <v>1</v>
+      </c>
+      <c r="M5" s="31" t="s">
         <v>173</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="31">
-        <v>16</v>
-      </c>
-      <c r="L5" s="31">
-        <v>1</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>177</v>
       </c>
       <c r="N5" s="57">
         <v>-30</v>
       </c>
       <c r="O5" s="80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>25</v>
@@ -5259,10 +5259,10 @@
       <c r="E6" s="46"/>
       <c r="F6" s="28"/>
       <c r="G6" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>35</v>
@@ -5277,21 +5277,21 @@
         <v>1</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N6" s="31">
         <v>-29</v>
       </c>
       <c r="O6" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>25</v>
@@ -5299,10 +5299,10 @@
       <c r="E7" s="46"/>
       <c r="F7" s="28"/>
       <c r="G7" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>35</v>
@@ -5317,22 +5317,22 @@
         <v>1</v>
       </c>
       <c r="M7" s="59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N7" s="28">
         <v>-27</v>
       </c>
       <c r="O7" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="60" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -5340,10 +5340,10 @@
       <c r="E8" s="46"/>
       <c r="F8" s="28"/>
       <c r="G8" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>35</v>
@@ -5358,22 +5358,22 @@
         <v>1</v>
       </c>
       <c r="M8" s="59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N8" s="28">
         <v>-22</v>
       </c>
       <c r="O8" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="60" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>25</v>
@@ -5381,10 +5381,10 @@
       <c r="E9" s="46"/>
       <c r="F9" s="28"/>
       <c r="G9" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>35</v>
@@ -5399,22 +5399,22 @@
         <v>1</v>
       </c>
       <c r="M9" s="59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N9" s="28">
         <v>-31</v>
       </c>
       <c r="O9" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="60" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>25</v>
@@ -5422,10 +5422,10 @@
       <c r="E10" s="46"/>
       <c r="F10" s="28"/>
       <c r="G10" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>35</v>
@@ -5440,22 +5440,22 @@
         <v>1</v>
       </c>
       <c r="M10" s="59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N10" s="28">
         <v>-24</v>
       </c>
       <c r="O10" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="60" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>25</v>
@@ -5463,10 +5463,10 @@
       <c r="E11" s="46"/>
       <c r="F11" s="28"/>
       <c r="G11" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>35</v>
@@ -5481,22 +5481,22 @@
         <v>1</v>
       </c>
       <c r="M11" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N11" s="28">
         <v>-23</v>
       </c>
       <c r="O11" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="60" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>25</v>
@@ -5504,10 +5504,10 @@
       <c r="E12" s="46"/>
       <c r="F12" s="28"/>
       <c r="G12" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>35</v>
@@ -5522,22 +5522,22 @@
         <v>1</v>
       </c>
       <c r="M12" s="59" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N12" s="28">
         <v>-28</v>
       </c>
       <c r="O12" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>25</v>
@@ -5545,10 +5545,10 @@
       <c r="E13" s="46"/>
       <c r="F13" s="28"/>
       <c r="G13" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>35</v>
@@ -5563,22 +5563,22 @@
         <v>1</v>
       </c>
       <c r="M13" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N13" s="28">
         <v>-25</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>25</v>
@@ -5586,10 +5586,10 @@
       <c r="E14" s="46"/>
       <c r="F14" s="28"/>
       <c r="G14" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>35</v>
@@ -5604,22 +5604,22 @@
         <v>1</v>
       </c>
       <c r="M14" s="59" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N14" s="28">
         <v>-28</v>
       </c>
       <c r="O14" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="60" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>25</v>
@@ -5627,10 +5627,10 @@
       <c r="E15" s="46"/>
       <c r="F15" s="28"/>
       <c r="G15" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>35</v>
@@ -5645,22 +5645,22 @@
         <v>1</v>
       </c>
       <c r="M15" s="59" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N15" s="28">
         <v>-26</v>
       </c>
       <c r="O15" s="80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="60" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>25</v>
@@ -5668,10 +5668,10 @@
       <c r="E16" s="46"/>
       <c r="F16" s="28"/>
       <c r="G16" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>35</v>
@@ -5686,22 +5686,22 @@
         <v>1</v>
       </c>
       <c r="M16" s="59" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N16" s="28">
         <v>-25</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="60" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>25</v>
@@ -5709,10 +5709,10 @@
       <c r="E17" s="46"/>
       <c r="F17" s="28"/>
       <c r="G17" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>35</v>
@@ -5727,22 +5727,22 @@
         <v>1</v>
       </c>
       <c r="M17" s="59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N17" s="28">
         <v>-25</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="60" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>25</v>
@@ -5750,10 +5750,10 @@
       <c r="E18" s="46"/>
       <c r="F18" s="28"/>
       <c r="G18" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H18" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>35</v>
@@ -5768,22 +5768,22 @@
         <v>1</v>
       </c>
       <c r="M18" s="59" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N18" s="28">
         <v>-24</v>
       </c>
       <c r="O18" s="80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="60" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>25</v>
@@ -5791,10 +5791,10 @@
       <c r="E19" s="46"/>
       <c r="F19" s="28"/>
       <c r="G19" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>35</v>
@@ -5809,22 +5809,22 @@
         <v>1</v>
       </c>
       <c r="M19" s="59" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N19" s="28">
         <v>-26</v>
       </c>
       <c r="O19" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>25</v>
@@ -5832,10 +5832,10 @@
       <c r="E20" s="46"/>
       <c r="F20" s="28"/>
       <c r="G20" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>35</v>
@@ -5850,22 +5850,22 @@
         <v>1</v>
       </c>
       <c r="M20" s="59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N20" s="28">
         <v>-29</v>
       </c>
       <c r="O20" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>25</v>
@@ -5873,10 +5873,10 @@
       <c r="E21" s="46"/>
       <c r="F21" s="28"/>
       <c r="G21" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>35</v>
@@ -5891,22 +5891,22 @@
         <v>1</v>
       </c>
       <c r="M21" s="59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N21" s="28">
         <v>-24</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="60" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>25</v>
@@ -5914,10 +5914,10 @@
       <c r="E22" s="46"/>
       <c r="F22" s="28"/>
       <c r="G22" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>35</v>
@@ -5932,22 +5932,22 @@
         <v>1</v>
       </c>
       <c r="M22" s="59" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N22" s="28">
         <v>-27</v>
       </c>
       <c r="O22" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="60" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>25</v>
@@ -5955,10 +5955,10 @@
       <c r="E23" s="46"/>
       <c r="F23" s="28"/>
       <c r="G23" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>35</v>
@@ -5973,22 +5973,22 @@
         <v>1</v>
       </c>
       <c r="M23" s="59" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N23" s="28">
         <v>-26</v>
       </c>
       <c r="O23" s="80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="60" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>25</v>
@@ -5996,10 +5996,10 @@
       <c r="E24" s="46"/>
       <c r="F24" s="28"/>
       <c r="G24" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>35</v>
@@ -6014,22 +6014,22 @@
         <v>1</v>
       </c>
       <c r="M24" s="59" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N24" s="28">
         <v>-26</v>
       </c>
       <c r="O24" s="80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="60" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>25</v>
@@ -6037,10 +6037,10 @@
       <c r="E25" s="46"/>
       <c r="F25" s="28"/>
       <c r="G25" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>35</v>
@@ -6055,22 +6055,22 @@
         <v>1</v>
       </c>
       <c r="M25" s="59" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N25" s="28">
         <v>-23</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="60" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>25</v>
@@ -6078,10 +6078,10 @@
       <c r="E26" s="46"/>
       <c r="F26" s="28"/>
       <c r="G26" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>35</v>
@@ -6096,22 +6096,22 @@
         <v>1</v>
       </c>
       <c r="M26" s="59" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N26" s="28">
         <v>-27</v>
       </c>
       <c r="O26" s="80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="60" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>25</v>
@@ -6119,10 +6119,10 @@
       <c r="E27" s="46"/>
       <c r="F27" s="28"/>
       <c r="G27" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>35</v>
@@ -6137,22 +6137,22 @@
         <v>1</v>
       </c>
       <c r="M27" s="59" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N27" s="28">
         <v>-29</v>
       </c>
       <c r="O27" s="80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="60" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>25</v>
@@ -6160,10 +6160,10 @@
       <c r="E28" s="46"/>
       <c r="F28" s="28"/>
       <c r="G28" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>35</v>
@@ -6178,22 +6178,22 @@
         <v>1</v>
       </c>
       <c r="M28" s="59" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N28" s="28">
         <v>-29</v>
       </c>
       <c r="O28" s="80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="60" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>25</v>
@@ -6201,10 +6201,10 @@
       <c r="E29" s="46"/>
       <c r="F29" s="28"/>
       <c r="G29" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>35</v>
@@ -6219,22 +6219,22 @@
         <v>1</v>
       </c>
       <c r="M29" s="59" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N29" s="28">
         <v>-28</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="60" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>25</v>
@@ -6242,10 +6242,10 @@
       <c r="E30" s="46"/>
       <c r="F30" s="28"/>
       <c r="G30" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>35</v>
@@ -6260,22 +6260,22 @@
         <v>1</v>
       </c>
       <c r="M30" s="59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N30" s="28">
         <v>-22</v>
       </c>
       <c r="O30" s="80" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>25</v>
@@ -6283,10 +6283,10 @@
       <c r="E31" s="46"/>
       <c r="F31" s="28"/>
       <c r="G31" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>35</v>
@@ -6301,22 +6301,22 @@
         <v>1</v>
       </c>
       <c r="M31" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N31" s="28">
         <v>-20</v>
       </c>
       <c r="O31" s="80" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>25</v>
@@ -6324,10 +6324,10 @@
       <c r="E32" s="46"/>
       <c r="F32" s="28"/>
       <c r="G32" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>35</v>
@@ -6342,22 +6342,22 @@
         <v>1</v>
       </c>
       <c r="M32" s="59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N32" s="28">
         <v>-19</v>
       </c>
       <c r="O32" s="80" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>25</v>
@@ -6365,10 +6365,10 @@
       <c r="E33" s="46"/>
       <c r="F33" s="28"/>
       <c r="G33" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>35</v>
@@ -6383,22 +6383,22 @@
         <v>1</v>
       </c>
       <c r="M33" s="59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N33" s="28">
         <v>-22</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="60" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C34" s="79" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>25</v>
@@ -6406,10 +6406,10 @@
       <c r="E34" s="46"/>
       <c r="F34" s="28"/>
       <c r="G34" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>35</v>
@@ -6424,22 +6424,22 @@
         <v>1</v>
       </c>
       <c r="M34" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N34" s="28">
         <v>-20</v>
       </c>
       <c r="O34" s="80" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="60" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C35" s="79" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>25</v>
@@ -6447,10 +6447,10 @@
       <c r="E35" s="46"/>
       <c r="F35" s="28"/>
       <c r="G35" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>35</v>
@@ -6465,22 +6465,22 @@
         <v>1</v>
       </c>
       <c r="M35" s="59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N35" s="28">
         <v>-19</v>
       </c>
       <c r="O35" s="80" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="60" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C36" s="79" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>25</v>
@@ -6488,40 +6488,40 @@
       <c r="E36" s="46"/>
       <c r="F36" s="28"/>
       <c r="G36" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H36" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="31">
+        <v>16</v>
+      </c>
+      <c r="L36" s="31">
+        <v>1</v>
+      </c>
+      <c r="M36" s="59" t="s">
         <v>173</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="31">
-        <v>16</v>
-      </c>
-      <c r="L36" s="31">
-        <v>1</v>
-      </c>
-      <c r="M36" s="59" t="s">
-        <v>177</v>
       </c>
       <c r="N36" s="28">
         <v>-15</v>
       </c>
       <c r="O36" s="80" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="60" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C37" s="79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>25</v>
@@ -6529,10 +6529,10 @@
       <c r="E37" s="46"/>
       <c r="F37" s="28"/>
       <c r="G37" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>35</v>
@@ -6547,22 +6547,22 @@
         <v>1</v>
       </c>
       <c r="M37" s="59" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N37" s="28">
         <v>-15</v>
       </c>
       <c r="O37" s="80" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C38" s="79" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>25</v>
@@ -6570,10 +6570,10 @@
       <c r="E38" s="46"/>
       <c r="F38" s="28"/>
       <c r="G38" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>35</v>
@@ -6588,22 +6588,22 @@
         <v>1</v>
       </c>
       <c r="M38" s="59" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N38" s="28">
         <v>-19</v>
       </c>
       <c r="O38" s="80" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="60" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>25</v>
@@ -6611,10 +6611,10 @@
       <c r="E39" s="46"/>
       <c r="F39" s="28"/>
       <c r="G39" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>35</v>
@@ -6629,22 +6629,22 @@
         <v>1</v>
       </c>
       <c r="M39" s="59" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N39" s="28">
         <v>-17</v>
       </c>
       <c r="O39" s="80" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="60" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>25</v>
@@ -6652,10 +6652,10 @@
       <c r="E40" s="46"/>
       <c r="F40" s="28"/>
       <c r="G40" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>35</v>
@@ -6670,22 +6670,22 @@
         <v>1</v>
       </c>
       <c r="M40" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N40" s="28">
         <v>-20</v>
       </c>
       <c r="O40" s="80" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="60" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C41" s="79" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>25</v>
@@ -6693,10 +6693,10 @@
       <c r="E41" s="46"/>
       <c r="F41" s="28"/>
       <c r="G41" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>35</v>
@@ -6711,22 +6711,22 @@
         <v>1</v>
       </c>
       <c r="M41" s="59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N41" s="28">
         <v>-18</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="60" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C42" s="79" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>25</v>
@@ -6734,10 +6734,10 @@
       <c r="E42" s="46"/>
       <c r="F42" s="28"/>
       <c r="G42" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>35</v>
@@ -6752,22 +6752,22 @@
         <v>1</v>
       </c>
       <c r="M42" s="59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N42" s="28">
         <v>-25</v>
       </c>
       <c r="O42" s="80" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="60" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C43" s="79" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>25</v>
@@ -6775,10 +6775,10 @@
       <c r="E43" s="46"/>
       <c r="F43" s="28"/>
       <c r="G43" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>35</v>
@@ -6793,22 +6793,22 @@
         <v>1</v>
       </c>
       <c r="M43" s="59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N43" s="28">
         <v>-14</v>
       </c>
       <c r="O43" s="80" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C44" s="79" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>25</v>
@@ -6816,10 +6816,10 @@
       <c r="E44" s="46"/>
       <c r="F44" s="28"/>
       <c r="G44" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>35</v>
@@ -6834,22 +6834,22 @@
         <v>1</v>
       </c>
       <c r="M44" s="59" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N44" s="28">
         <v>-13</v>
       </c>
       <c r="O44" s="80" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="60" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C45" s="79" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>25</v>
@@ -6857,10 +6857,10 @@
       <c r="E45" s="46"/>
       <c r="F45" s="28"/>
       <c r="G45" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>35</v>
@@ -6875,22 +6875,22 @@
         <v>1</v>
       </c>
       <c r="M45" s="59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N45" s="28">
         <v>-20</v>
       </c>
       <c r="O45" s="80" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="60" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C46" s="79" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>25</v>
@@ -6898,10 +6898,10 @@
       <c r="E46" s="46"/>
       <c r="F46" s="28"/>
       <c r="G46" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>35</v>
@@ -6916,22 +6916,22 @@
         <v>1</v>
       </c>
       <c r="M46" s="59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N46" s="28">
         <v>-14</v>
       </c>
       <c r="O46" s="80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="60" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C47" s="79" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>25</v>
@@ -6939,10 +6939,10 @@
       <c r="E47" s="46"/>
       <c r="F47" s="28"/>
       <c r="G47" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>35</v>
@@ -6957,22 +6957,22 @@
         <v>1</v>
       </c>
       <c r="M47" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N47" s="28">
         <v>-11</v>
       </c>
       <c r="O47" s="80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="60" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C48" s="79" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>25</v>
@@ -6980,10 +6980,10 @@
       <c r="E48" s="46"/>
       <c r="F48" s="28"/>
       <c r="G48" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I48" s="28" t="s">
         <v>35</v>
@@ -6998,22 +6998,22 @@
         <v>1</v>
       </c>
       <c r="M48" s="59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N48" s="28">
         <v>-13</v>
       </c>
       <c r="O48" s="80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="60" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C49" s="79" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>25</v>
@@ -7021,10 +7021,10 @@
       <c r="E49" s="46"/>
       <c r="F49" s="28"/>
       <c r="G49" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>35</v>
@@ -7039,22 +7039,22 @@
         <v>1</v>
       </c>
       <c r="M49" s="59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N49" s="28">
         <v>-11</v>
       </c>
       <c r="O49" s="80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="60" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C50" s="79" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>25</v>
@@ -7062,10 +7062,10 @@
       <c r="E50" s="46"/>
       <c r="F50" s="28"/>
       <c r="G50" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>35</v>
@@ -7080,22 +7080,22 @@
         <v>1</v>
       </c>
       <c r="M50" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N50" s="28">
         <v>-19</v>
       </c>
       <c r="O50" s="80" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="60" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>25</v>
@@ -7103,10 +7103,10 @@
       <c r="E51" s="46"/>
       <c r="F51" s="28"/>
       <c r="G51" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>35</v>
@@ -7121,22 +7121,22 @@
         <v>1</v>
       </c>
       <c r="M51" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N51" s="28">
         <v>-19</v>
       </c>
       <c r="O51" s="80" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="60" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D52" s="28" t="s">
         <v>25</v>
@@ -7144,10 +7144,10 @@
       <c r="E52" s="46"/>
       <c r="F52" s="28"/>
       <c r="G52" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>35</v>
@@ -7162,22 +7162,22 @@
         <v>1</v>
       </c>
       <c r="M52" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N52" s="28">
         <v>-19</v>
       </c>
       <c r="O52" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="60" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C53" s="79" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>25</v>
@@ -7185,10 +7185,10 @@
       <c r="E53" s="46"/>
       <c r="F53" s="28"/>
       <c r="G53" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>35</v>
@@ -7203,22 +7203,22 @@
         <v>1</v>
       </c>
       <c r="M53" s="59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N53" s="28">
         <v>-20</v>
       </c>
       <c r="O53" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="60" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C54" s="79" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>25</v>
@@ -7226,10 +7226,10 @@
       <c r="E54" s="46"/>
       <c r="F54" s="28"/>
       <c r="G54" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>35</v>
@@ -7244,22 +7244,22 @@
         <v>1</v>
       </c>
       <c r="M54" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N54" s="28">
         <v>-19</v>
       </c>
       <c r="O54" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="60" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>25</v>
@@ -7267,10 +7267,10 @@
       <c r="E55" s="46"/>
       <c r="F55" s="28"/>
       <c r="G55" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>35</v>
@@ -7285,22 +7285,22 @@
         <v>1</v>
       </c>
       <c r="M55" s="59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N55" s="28">
         <v>-20</v>
       </c>
       <c r="O55" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="60" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>25</v>
@@ -7308,10 +7308,10 @@
       <c r="E56" s="46"/>
       <c r="F56" s="28"/>
       <c r="G56" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>35</v>
@@ -7326,22 +7326,22 @@
         <v>1</v>
       </c>
       <c r="M56" s="59" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N56" s="28">
         <v>-15</v>
       </c>
       <c r="O56" s="80" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="60" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D57" s="28" t="s">
         <v>25</v>
@@ -7349,10 +7349,10 @@
       <c r="E57" s="46"/>
       <c r="F57" s="28"/>
       <c r="G57" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>35</v>
@@ -7367,22 +7367,22 @@
         <v>1</v>
       </c>
       <c r="M57" s="59" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N57" s="28">
         <v>-15</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="60" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>25</v>
@@ -7390,10 +7390,10 @@
       <c r="E58" s="46"/>
       <c r="F58" s="28"/>
       <c r="G58" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>35</v>
@@ -7408,22 +7408,22 @@
         <v>1</v>
       </c>
       <c r="M58" s="59" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N58" s="28">
         <v>-15</v>
       </c>
       <c r="O58" s="80" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="60" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C59" s="79" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>25</v>
@@ -7431,10 +7431,10 @@
       <c r="E59" s="46"/>
       <c r="F59" s="28"/>
       <c r="G59" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>35</v>
@@ -7449,22 +7449,22 @@
         <v>1</v>
       </c>
       <c r="M59" s="59" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="N59" s="28">
         <v>-15</v>
       </c>
       <c r="O59" s="80" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="60" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C60" s="79" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>25</v>
@@ -7472,10 +7472,10 @@
       <c r="E60" s="46"/>
       <c r="F60" s="28"/>
       <c r="G60" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>35</v>
@@ -7490,22 +7490,22 @@
         <v>1</v>
       </c>
       <c r="M60" s="59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N60" s="28">
         <v>-14</v>
       </c>
       <c r="O60" s="80" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="60" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>25</v>
@@ -7513,10 +7513,10 @@
       <c r="E61" s="46"/>
       <c r="F61" s="28"/>
       <c r="G61" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>35</v>
@@ -7531,22 +7531,22 @@
         <v>1</v>
       </c>
       <c r="M61" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N61" s="28">
         <v>-13</v>
       </c>
       <c r="O61" s="80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="60" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C62" s="79" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>25</v>
@@ -7554,10 +7554,10 @@
       <c r="E62" s="46"/>
       <c r="F62" s="28"/>
       <c r="G62" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>35</v>
@@ -7572,22 +7572,22 @@
         <v>1</v>
       </c>
       <c r="M62" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N62" s="28">
         <v>-13</v>
       </c>
       <c r="O62" s="80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="60" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C63" s="79" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>25</v>
@@ -7595,10 +7595,10 @@
       <c r="E63" s="46"/>
       <c r="F63" s="28"/>
       <c r="G63" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I63" s="28" t="s">
         <v>35</v>
@@ -7613,22 +7613,22 @@
         <v>1</v>
       </c>
       <c r="M63" s="59" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N63" s="28">
         <v>-25</v>
       </c>
       <c r="O63" s="80" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="60" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C64" s="79" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>25</v>
@@ -7636,10 +7636,10 @@
       <c r="E64" s="46"/>
       <c r="F64" s="28"/>
       <c r="G64" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I64" s="28" t="s">
         <v>35</v>
@@ -7654,22 +7654,22 @@
         <v>1</v>
       </c>
       <c r="M64" s="59" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N64" s="28">
         <v>-25</v>
       </c>
       <c r="O64" s="80" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="60" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C65" s="79" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>25</v>
@@ -7677,10 +7677,10 @@
       <c r="E65" s="46"/>
       <c r="F65" s="28"/>
       <c r="G65" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I65" s="28" t="s">
         <v>35</v>
@@ -7695,22 +7695,22 @@
         <v>1</v>
       </c>
       <c r="M65" s="59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N65" s="28">
         <v>-25</v>
       </c>
       <c r="O65" s="80" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="60" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C66" s="79" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D66" s="28" t="s">
         <v>25</v>
@@ -7718,10 +7718,10 @@
       <c r="E66" s="46"/>
       <c r="F66" s="28"/>
       <c r="G66" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I66" s="28" t="s">
         <v>35</v>
@@ -7736,22 +7736,22 @@
         <v>1</v>
       </c>
       <c r="M66" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N66" s="28">
         <v>-25</v>
       </c>
       <c r="O66" s="80" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="60" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C67" s="79" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>25</v>
@@ -7759,10 +7759,10 @@
       <c r="E67" s="46"/>
       <c r="F67" s="28"/>
       <c r="G67" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I67" s="28" t="s">
         <v>35</v>
@@ -7777,22 +7777,22 @@
         <v>1</v>
       </c>
       <c r="M67" s="59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N67" s="28">
         <v>-25</v>
       </c>
       <c r="O67" s="80" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="60" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>25</v>
@@ -7800,10 +7800,10 @@
       <c r="E68" s="46"/>
       <c r="F68" s="28"/>
       <c r="G68" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I68" s="28" t="s">
         <v>35</v>
@@ -7818,22 +7818,22 @@
         <v>1</v>
       </c>
       <c r="M68" s="59" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N68" s="28">
         <v>-25</v>
       </c>
       <c r="O68" s="80" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="60" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C69" s="79" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>25</v>
@@ -7841,10 +7841,10 @@
       <c r="E69" s="46"/>
       <c r="F69" s="28"/>
       <c r="G69" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I69" s="28" t="s">
         <v>35</v>
@@ -7859,22 +7859,22 @@
         <v>1</v>
       </c>
       <c r="M69" s="59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N69" s="28">
         <v>-26</v>
       </c>
       <c r="O69" s="80" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="60" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C70" s="79" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>25</v>
@@ -7882,10 +7882,10 @@
       <c r="E70" s="46"/>
       <c r="F70" s="28"/>
       <c r="G70" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>35</v>
@@ -7900,22 +7900,22 @@
         <v>1</v>
       </c>
       <c r="M70" s="59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N70" s="28">
         <v>-31</v>
       </c>
       <c r="O70" s="80" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="60" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C71" s="79" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>25</v>
@@ -7923,10 +7923,10 @@
       <c r="E71" s="46"/>
       <c r="F71" s="28"/>
       <c r="G71" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I71" s="28" t="s">
         <v>35</v>
@@ -7941,22 +7941,22 @@
         <v>1</v>
       </c>
       <c r="M71" s="59" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N71" s="28">
         <v>-26</v>
       </c>
       <c r="O71" s="80" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="60" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C72" s="79" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D72" s="28" t="s">
         <v>25</v>
@@ -7964,10 +7964,10 @@
       <c r="E72" s="46"/>
       <c r="F72" s="28"/>
       <c r="G72" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>35</v>
@@ -7982,22 +7982,22 @@
         <v>1</v>
       </c>
       <c r="M72" s="59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N72" s="28">
         <v>-30</v>
       </c>
       <c r="O72" s="80" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="60" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C73" s="79" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>25</v>
@@ -8005,10 +8005,10 @@
       <c r="E73" s="46"/>
       <c r="F73" s="28"/>
       <c r="G73" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I73" s="28" t="s">
         <v>35</v>
@@ -8023,22 +8023,22 @@
         <v>1</v>
       </c>
       <c r="M73" s="59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N73" s="28">
         <v>-27</v>
       </c>
       <c r="O73" s="80" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="60" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C74" s="79" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>25</v>
@@ -8046,10 +8046,10 @@
       <c r="E74" s="46"/>
       <c r="F74" s="28"/>
       <c r="G74" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I74" s="28" t="s">
         <v>35</v>
@@ -8064,22 +8064,22 @@
         <v>1</v>
       </c>
       <c r="M74" s="59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N74" s="28">
         <v>-26</v>
       </c>
       <c r="O74" s="80" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="60" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C75" s="79" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D75" s="28" t="s">
         <v>25</v>
@@ -8087,10 +8087,10 @@
       <c r="E75" s="46"/>
       <c r="F75" s="28"/>
       <c r="G75" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I75" s="28" t="s">
         <v>35</v>
@@ -8105,22 +8105,22 @@
         <v>1</v>
       </c>
       <c r="M75" s="59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N75" s="28">
         <v>-27</v>
       </c>
       <c r="O75" s="80" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="60" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C76" s="79" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D76" s="28" t="s">
         <v>25</v>
@@ -8128,10 +8128,10 @@
       <c r="E76" s="46"/>
       <c r="F76" s="28"/>
       <c r="G76" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I76" s="28" t="s">
         <v>35</v>
@@ -8146,22 +8146,22 @@
         <v>1</v>
       </c>
       <c r="M76" s="59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N76" s="28">
         <v>-34</v>
       </c>
       <c r="O76" s="80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="60" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C77" s="79" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>25</v>
@@ -8169,10 +8169,10 @@
       <c r="E77" s="46"/>
       <c r="F77" s="28"/>
       <c r="G77" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>35</v>
@@ -8187,22 +8187,22 @@
         <v>1</v>
       </c>
       <c r="M77" s="59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N77" s="28">
         <v>-20</v>
       </c>
       <c r="O77" s="80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="60" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C78" s="79" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>25</v>
@@ -8210,10 +8210,10 @@
       <c r="E78" s="46"/>
       <c r="F78" s="28"/>
       <c r="G78" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>35</v>
@@ -8228,22 +8228,22 @@
         <v>1</v>
       </c>
       <c r="M78" s="59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N78" s="28">
         <v>-29</v>
       </c>
       <c r="O78" s="80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="60" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C79" s="79" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>25</v>
@@ -8251,10 +8251,10 @@
       <c r="E79" s="46"/>
       <c r="F79" s="28"/>
       <c r="G79" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>35</v>
@@ -8269,22 +8269,22 @@
         <v>1</v>
       </c>
       <c r="M79" s="28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N79" s="28">
         <v>-28</v>
       </c>
       <c r="O79" s="80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="60" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C80" s="79" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>25</v>
@@ -8292,10 +8292,10 @@
       <c r="E80" s="46"/>
       <c r="F80" s="28"/>
       <c r="G80" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>35</v>
@@ -8310,22 +8310,22 @@
         <v>1</v>
       </c>
       <c r="M80" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N80" s="28">
         <v>-19</v>
       </c>
       <c r="O80" s="80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="60" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C81" s="79" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>25</v>
@@ -8333,10 +8333,10 @@
       <c r="E81" s="46"/>
       <c r="F81" s="28"/>
       <c r="G81" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>35</v>
@@ -8351,22 +8351,22 @@
         <v>1</v>
       </c>
       <c r="M81" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N81" s="28">
         <v>-27</v>
       </c>
       <c r="O81" s="80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C82" s="79" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D82" s="28" t="s">
         <v>25</v>
@@ -8374,10 +8374,10 @@
       <c r="E82" s="46"/>
       <c r="F82" s="28"/>
       <c r="G82" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>35</v>
@@ -8392,22 +8392,22 @@
         <v>1</v>
       </c>
       <c r="M82" s="59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N82" s="28">
         <v>-36</v>
       </c>
       <c r="O82" s="80" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="60" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C83" s="79" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D83" s="28" t="s">
         <v>25</v>
@@ -8415,10 +8415,10 @@
       <c r="E83" s="46"/>
       <c r="F83" s="28"/>
       <c r="G83" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>35</v>
@@ -8433,22 +8433,22 @@
         <v>1</v>
       </c>
       <c r="M83" s="59" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N83" s="28">
         <v>-34</v>
       </c>
       <c r="O83" s="80" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="60" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C84" s="79" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>25</v>
@@ -8456,10 +8456,10 @@
       <c r="E84" s="46"/>
       <c r="F84" s="28"/>
       <c r="G84" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>35</v>
@@ -8474,22 +8474,22 @@
         <v>1</v>
       </c>
       <c r="M84" s="59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N84" s="28">
         <v>-36</v>
       </c>
       <c r="O84" s="80" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="60" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C85" s="79" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D85" s="28" t="s">
         <v>25</v>
@@ -8497,10 +8497,10 @@
       <c r="E85" s="46"/>
       <c r="F85" s="28"/>
       <c r="G85" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>35</v>
@@ -8515,22 +8515,22 @@
         <v>1</v>
       </c>
       <c r="M85" s="59" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N85" s="28">
         <v>-34</v>
       </c>
       <c r="O85" s="80" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="60" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C86" s="79" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>25</v>
@@ -8538,10 +8538,10 @@
       <c r="E86" s="46"/>
       <c r="F86" s="28"/>
       <c r="G86" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>35</v>
@@ -8556,22 +8556,22 @@
         <v>1</v>
       </c>
       <c r="M86" s="59" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N86" s="28">
         <v>-29</v>
       </c>
       <c r="O86" s="80" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="60" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C87" s="79" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D87" s="28" t="s">
         <v>25</v>
@@ -8579,10 +8579,10 @@
       <c r="E87" s="46"/>
       <c r="F87" s="28"/>
       <c r="G87" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I87" s="28" t="s">
         <v>35</v>
@@ -8597,22 +8597,22 @@
         <v>1</v>
       </c>
       <c r="M87" s="59" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N87" s="28">
         <v>-29</v>
       </c>
       <c r="O87" s="80" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="60" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C88" s="79" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>25</v>
@@ -8620,10 +8620,10 @@
       <c r="E88" s="46"/>
       <c r="F88" s="28"/>
       <c r="G88" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>35</v>
@@ -8638,22 +8638,22 @@
         <v>1</v>
       </c>
       <c r="M88" s="59" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N88" s="28">
         <v>-28</v>
       </c>
       <c r="O88" s="80" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="60" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C89" s="79" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D89" s="28" t="s">
         <v>25</v>
@@ -8661,10 +8661,10 @@
       <c r="E89" s="46"/>
       <c r="F89" s="28"/>
       <c r="G89" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>35</v>
@@ -8679,22 +8679,22 @@
         <v>1</v>
       </c>
       <c r="M89" s="59" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="N89" s="28">
         <v>-32</v>
       </c>
       <c r="O89" s="80" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="60" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C90" s="79" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>25</v>
@@ -8702,10 +8702,10 @@
       <c r="E90" s="46"/>
       <c r="F90" s="28"/>
       <c r="G90" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I90" s="28" t="s">
         <v>35</v>
@@ -8720,22 +8720,22 @@
         <v>1</v>
       </c>
       <c r="M90" s="59" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N90" s="28">
         <v>-28</v>
       </c>
       <c r="O90" s="80" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="60" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C91" s="79" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>25</v>
@@ -8743,10 +8743,10 @@
       <c r="E91" s="46"/>
       <c r="F91" s="28"/>
       <c r="G91" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I91" s="28" t="s">
         <v>35</v>
@@ -8761,22 +8761,22 @@
         <v>1</v>
       </c>
       <c r="M91" s="59" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N91" s="28">
         <v>-23</v>
       </c>
       <c r="O91" s="80" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="60" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C92" s="79" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>25</v>
@@ -8784,10 +8784,10 @@
       <c r="E92" s="46"/>
       <c r="F92" s="28"/>
       <c r="G92" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I92" s="28" t="s">
         <v>35</v>
@@ -8802,22 +8802,22 @@
         <v>1</v>
       </c>
       <c r="M92" s="59" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N92" s="28">
         <v>-25</v>
       </c>
       <c r="O92" s="80" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="60" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C93" s="79" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D93" s="28" t="s">
         <v>25</v>
@@ -8825,10 +8825,10 @@
       <c r="E93" s="46"/>
       <c r="F93" s="28"/>
       <c r="G93" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I93" s="28" t="s">
         <v>35</v>
@@ -8843,22 +8843,22 @@
         <v>1</v>
       </c>
       <c r="M93" s="59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N93" s="28">
         <v>-23</v>
       </c>
       <c r="O93" s="80" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="60" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C94" s="79" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>25</v>
@@ -8866,10 +8866,10 @@
       <c r="E94" s="46"/>
       <c r="F94" s="28"/>
       <c r="G94" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I94" s="28" t="s">
         <v>35</v>
@@ -8884,22 +8884,22 @@
         <v>1</v>
       </c>
       <c r="M94" s="59" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N94" s="28">
         <v>-23</v>
       </c>
       <c r="O94" s="80" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="60" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C95" s="79" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>25</v>
@@ -8907,10 +8907,10 @@
       <c r="E95" s="46"/>
       <c r="F95" s="28"/>
       <c r="G95" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I95" s="28" t="s">
         <v>35</v>
@@ -8925,22 +8925,22 @@
         <v>1</v>
       </c>
       <c r="M95" s="59" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N95" s="28">
         <v>-25</v>
       </c>
       <c r="O95" s="80" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="60" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C96" s="79" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>25</v>
@@ -8948,10 +8948,10 @@
       <c r="E96" s="46"/>
       <c r="F96" s="28"/>
       <c r="G96" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I96" s="28" t="s">
         <v>35</v>
@@ -8966,22 +8966,22 @@
         <v>1</v>
       </c>
       <c r="M96" s="59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N96" s="28">
         <v>-23</v>
       </c>
       <c r="O96" s="80" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="62" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C97" s="79" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D97" s="63" t="s">
         <v>25</v>
@@ -8989,10 +8989,10 @@
       <c r="E97" s="63"/>
       <c r="F97" s="63"/>
       <c r="G97" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H97" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I97" s="63" t="s">
         <v>35</v>
@@ -9007,22 +9007,22 @@
         <v>1</v>
       </c>
       <c r="M97" s="67" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N97" s="63">
         <v>-36</v>
       </c>
       <c r="O97" s="80" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="62" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C98" s="79" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D98" s="63" t="s">
         <v>25</v>
@@ -9030,10 +9030,10 @@
       <c r="E98" s="63"/>
       <c r="F98" s="63"/>
       <c r="G98" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H98" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I98" s="63" t="s">
         <v>35</v>
@@ -9048,22 +9048,22 @@
         <v>1</v>
       </c>
       <c r="M98" s="67" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N98" s="63">
         <v>-55</v>
       </c>
       <c r="O98" s="80" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="62" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C99" s="79" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D99" s="63" t="s">
         <v>25</v>
@@ -9071,10 +9071,10 @@
       <c r="E99" s="63"/>
       <c r="F99" s="63"/>
       <c r="G99" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H99" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I99" s="63" t="s">
         <v>35</v>
@@ -9089,22 +9089,22 @@
         <v>1</v>
       </c>
       <c r="M99" s="67" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N99" s="63">
         <v>-39</v>
       </c>
       <c r="O99" s="80" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="62" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C100" s="79" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D100" s="63" t="s">
         <v>25</v>
@@ -9112,10 +9112,10 @@
       <c r="E100" s="63"/>
       <c r="F100" s="63"/>
       <c r="G100" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H100" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I100" s="63" t="s">
         <v>35</v>
@@ -9130,22 +9130,22 @@
         <v>1</v>
       </c>
       <c r="M100" s="67" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N100" s="63">
         <v>-58</v>
       </c>
       <c r="O100" s="80" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="62" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C101" s="79" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D101" s="63" t="s">
         <v>25</v>
@@ -9153,10 +9153,10 @@
       <c r="E101" s="63"/>
       <c r="F101" s="63"/>
       <c r="G101" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H101" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I101" s="63" t="s">
         <v>35</v>
@@ -9171,22 +9171,22 @@
         <v>1</v>
       </c>
       <c r="M101" s="67" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N101" s="63">
         <v>-32</v>
       </c>
       <c r="O101" s="80" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="62" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C102" s="79" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D102" s="63" t="s">
         <v>25</v>
@@ -9194,10 +9194,10 @@
       <c r="E102" s="63"/>
       <c r="F102" s="63"/>
       <c r="G102" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H102" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I102" s="63" t="s">
         <v>35</v>
@@ -9212,22 +9212,22 @@
         <v>1</v>
       </c>
       <c r="M102" s="67" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N102" s="63">
         <v>-67</v>
       </c>
       <c r="O102" s="80" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="62" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C103" s="79" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D103" s="63" t="s">
         <v>25</v>
@@ -9235,10 +9235,10 @@
       <c r="E103" s="63"/>
       <c r="F103" s="63"/>
       <c r="G103" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H103" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I103" s="63" t="s">
         <v>35</v>
@@ -9253,22 +9253,22 @@
         <v>1</v>
       </c>
       <c r="M103" s="67" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N103" s="63">
         <v>-38</v>
       </c>
       <c r="O103" s="80" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="62" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C104" s="79" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D104" s="63" t="s">
         <v>25</v>
@@ -9276,10 +9276,10 @@
       <c r="E104" s="63"/>
       <c r="F104" s="63"/>
       <c r="G104" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H104" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I104" s="63" t="s">
         <v>35</v>
@@ -9294,22 +9294,22 @@
         <v>1</v>
       </c>
       <c r="M104" s="67" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="N104" s="63">
         <v>-73</v>
       </c>
       <c r="O104" s="80" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="62" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C105" s="79" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D105" s="63" t="s">
         <v>25</v>
@@ -9317,10 +9317,10 @@
       <c r="E105" s="63"/>
       <c r="F105" s="63"/>
       <c r="G105" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H105" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I105" s="63" t="s">
         <v>35</v>
@@ -9335,22 +9335,22 @@
         <v>1</v>
       </c>
       <c r="M105" s="67" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N105" s="63">
         <v>-43</v>
       </c>
       <c r="O105" s="80" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="62" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C106" s="79" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D106" s="63" t="s">
         <v>25</v>
@@ -9358,10 +9358,10 @@
       <c r="E106" s="63"/>
       <c r="F106" s="63"/>
       <c r="G106" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H106" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I106" s="63" t="s">
         <v>35</v>
@@ -9376,22 +9376,22 @@
         <v>1</v>
       </c>
       <c r="M106" s="67" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N106" s="63">
         <v>-61</v>
       </c>
       <c r="O106" s="80" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="62" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C107" s="79" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D107" s="63" t="s">
         <v>25</v>
@@ -9399,10 +9399,10 @@
       <c r="E107" s="63"/>
       <c r="F107" s="63"/>
       <c r="G107" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H107" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I107" s="63" t="s">
         <v>35</v>
@@ -9417,22 +9417,22 @@
         <v>1</v>
       </c>
       <c r="M107" s="67" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N107" s="63">
         <v>-61</v>
       </c>
       <c r="O107" s="80" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="62" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C108" s="79" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D108" s="63" t="s">
         <v>25</v>
@@ -9440,10 +9440,10 @@
       <c r="E108" s="63"/>
       <c r="F108" s="63"/>
       <c r="G108" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H108" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I108" s="63" t="s">
         <v>35</v>
@@ -9458,22 +9458,22 @@
         <v>1</v>
       </c>
       <c r="M108" s="67" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="N108" s="63">
         <v>-58</v>
       </c>
       <c r="O108" s="80" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="62" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C109" s="79" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D109" s="63" t="s">
         <v>25</v>
@@ -9481,10 +9481,10 @@
       <c r="E109" s="63"/>
       <c r="F109" s="63"/>
       <c r="G109" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H109" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I109" s="63" t="s">
         <v>35</v>
@@ -9499,22 +9499,22 @@
         <v>1</v>
       </c>
       <c r="M109" s="67" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="N109" s="63">
         <v>-61</v>
       </c>
       <c r="O109" s="80" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="62" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C110" s="79" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D110" s="63" t="s">
         <v>25</v>
@@ -9522,10 +9522,10 @@
       <c r="E110" s="63"/>
       <c r="F110" s="63"/>
       <c r="G110" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H110" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I110" s="63" t="s">
         <v>35</v>
@@ -9540,22 +9540,22 @@
         <v>1</v>
       </c>
       <c r="M110" s="67" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="N110" s="63">
         <v>-51</v>
       </c>
       <c r="O110" s="80" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="62" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C111" s="79" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D111" s="63" t="s">
         <v>25</v>
@@ -9563,10 +9563,10 @@
       <c r="E111" s="63"/>
       <c r="F111" s="63"/>
       <c r="G111" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H111" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I111" s="63" t="s">
         <v>35</v>
@@ -9581,22 +9581,22 @@
         <v>1</v>
       </c>
       <c r="M111" s="67" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N111" s="63">
         <v>-55</v>
       </c>
       <c r="O111" s="80" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="62" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C112" s="79" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D112" s="63" t="s">
         <v>25</v>
@@ -9604,10 +9604,10 @@
       <c r="E112" s="63"/>
       <c r="F112" s="63"/>
       <c r="G112" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H112" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I112" s="63" t="s">
         <v>35</v>
@@ -9622,22 +9622,22 @@
         <v>1</v>
       </c>
       <c r="M112" s="67" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N112" s="63">
         <v>-75</v>
       </c>
       <c r="O112" s="80" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="62" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C113" s="79" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D113" s="63" t="s">
         <v>25</v>
@@ -9645,10 +9645,10 @@
       <c r="E113" s="63"/>
       <c r="F113" s="63"/>
       <c r="G113" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H113" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I113" s="63" t="s">
         <v>35</v>
@@ -9663,22 +9663,22 @@
         <v>1</v>
       </c>
       <c r="M113" s="67" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="N113" s="63">
         <v>-38</v>
       </c>
       <c r="O113" s="80" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="62" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C114" s="79" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D114" s="63" t="s">
         <v>25</v>
@@ -9686,10 +9686,10 @@
       <c r="E114" s="63"/>
       <c r="F114" s="63"/>
       <c r="G114" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H114" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I114" s="63" t="s">
         <v>35</v>
@@ -9704,22 +9704,22 @@
         <v>1</v>
       </c>
       <c r="M114" s="67" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N114" s="63">
         <v>-65</v>
       </c>
       <c r="O114" s="80" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="62" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C115" s="79" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D115" s="63" t="s">
         <v>25</v>
@@ -9727,10 +9727,10 @@
       <c r="E115" s="63"/>
       <c r="F115" s="63"/>
       <c r="G115" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H115" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I115" s="63" t="s">
         <v>35</v>
@@ -9745,21 +9745,21 @@
         <v>1</v>
       </c>
       <c r="M115" s="67" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N115" s="63">
         <v>-43</v>
       </c>
       <c r="O115" s="80" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B116" s="68" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C116" s="79" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D116" s="63" t="s">
         <v>25</v>
@@ -9767,10 +9767,10 @@
       <c r="E116" s="63"/>
       <c r="F116" s="63"/>
       <c r="G116" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H116" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I116" s="63" t="s">
         <v>35</v>
@@ -9785,21 +9785,21 @@
         <v>1</v>
       </c>
       <c r="M116" s="67" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N116" s="63">
         <v>-65</v>
       </c>
       <c r="O116" s="80" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B117" s="68" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C117" s="79" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D117" s="63" t="s">
         <v>25</v>
@@ -9807,10 +9807,10 @@
       <c r="E117" s="63"/>
       <c r="F117" s="63"/>
       <c r="G117" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H117" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I117" s="63" t="s">
         <v>35</v>
@@ -9825,21 +9825,21 @@
         <v>1</v>
       </c>
       <c r="M117" s="67" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N117" s="63">
         <v>-43</v>
       </c>
       <c r="O117" s="80" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B118" s="68" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C118" s="79" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D118" s="63" t="s">
         <v>25</v>
@@ -9847,10 +9847,10 @@
       <c r="E118" s="63"/>
       <c r="F118" s="63"/>
       <c r="G118" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H118" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I118" s="63" t="s">
         <v>35</v>
@@ -9865,21 +9865,21 @@
         <v>1</v>
       </c>
       <c r="M118" s="69" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N118" s="70">
         <v>-50</v>
       </c>
       <c r="O118" s="80" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B119" s="68" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C119" s="79" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D119" s="63" t="s">
         <v>25</v>
@@ -9887,10 +9887,10 @@
       <c r="E119" s="63"/>
       <c r="F119" s="63"/>
       <c r="G119" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H119" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I119" s="63" t="s">
         <v>35</v>
@@ -9905,21 +9905,21 @@
         <v>1</v>
       </c>
       <c r="M119" s="67" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N119" s="63">
         <v>-36</v>
       </c>
       <c r="O119" s="80" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B120" s="68" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C120" s="79" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D120" s="63" t="s">
         <v>25</v>
@@ -9927,10 +9927,10 @@
       <c r="E120" s="63"/>
       <c r="F120" s="63"/>
       <c r="G120" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H120" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I120" s="63" t="s">
         <v>35</v>
@@ -9945,21 +9945,21 @@
         <v>1</v>
       </c>
       <c r="M120" s="67" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N120" s="63">
         <v>-75</v>
       </c>
       <c r="O120" s="80" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B121" s="68" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C121" s="79" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D121" s="63" t="s">
         <v>25</v>
@@ -9967,10 +9967,10 @@
       <c r="E121" s="63"/>
       <c r="F121" s="63"/>
       <c r="G121" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H121" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I121" s="63" t="s">
         <v>35</v>
@@ -9985,13 +9985,13 @@
         <v>1</v>
       </c>
       <c r="M121" s="67" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N121" s="63">
         <v>-75</v>
       </c>
       <c r="O121" s="80" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -2652,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3113,9 +3113,9 @@
     <hyperlink ref="C4" r:id="rId1"/>
     <hyperlink ref="O4" r:id="rId2" location="'Niveles'!B23"/>
     <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="O5" r:id="rId4" location="'Niveles'!B30"/>
+    <hyperlink ref="O5" r:id="rId4" location="'Niveles'!B29"/>
     <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B31"/>
+    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B30"/>
     <hyperlink ref="C7" r:id="rId7"/>
     <hyperlink ref="O7" r:id="rId8" location="'Circuito1'!B5"/>
     <hyperlink ref="C8" r:id="rId9"/>
@@ -3366,7 +3366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -4528,10 +4528,10 @@
     <hyperlink ref="O8" r:id="rId14" location="'Menu principal'!B10"/>
     <hyperlink ref="C9" r:id="rId15"/>
     <hyperlink ref="G9" r:id="rId16"/>
-    <hyperlink ref="O9" r:id="rId17" location="'Niveles'!B32"/>
+    <hyperlink ref="O9" r:id="rId17" location="'Niveles'!B31"/>
     <hyperlink ref="C10" r:id="rId18"/>
     <hyperlink ref="G10" r:id="rId19"/>
-    <hyperlink ref="O10" r:id="rId20" location="'Niveles'!B29"/>
+    <hyperlink ref="O10" r:id="rId20" location="'Niveles'!B28"/>
     <hyperlink ref="C11" r:id="rId21"/>
     <hyperlink ref="G11" r:id="rId22"/>
     <hyperlink ref="O11" r:id="rId23" location="'Niveles'!B18"/>
@@ -4782,7 +4782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -5056,7 +5056,7 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="O5" r:id="rId4" location="'Niveles'!B24"/>
     <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B33"/>
+    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Proyectos GitHub\Wasted-Racing\Docs\TDS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="Metadatos D" sheetId="6" r:id="rId6"/>
     <sheet name="Metadatos V" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="530">
   <si>
     <t>Metadatos - Global + Estadísticas</t>
   </si>
@@ -1575,6 +1570,51 @@
   </si>
   <si>
     <t>00.13.851</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/jacobzeier/sounds/166178/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/theolm/sounds/264934/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Nakhas/sounds/344817/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/magnus589/sounds/184576/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/kyles/sounds/406483/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/dobroide/sounds/65471/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/newagesoup/sounds/377827/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/karolist/sounds/370632/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/Anandthethird/sounds/366750/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/j1987/sounds/140727/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/EverydaySounds/sounds/125064/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/deleted_user_7146007/sounds/383657/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/YOH/sounds/259733/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/MrAuralization/sounds/320844/</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/HuvaaKoodia/sounds/77172/</t>
   </si>
 </sst>
 </file>
@@ -2107,9 +2147,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Texto explicativo" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2447,7 +2487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2461,7 +2501,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2549,15 +2589,15 @@
         <v>8</v>
       </c>
       <c r="C8" s="8">
-        <f>'Metadatos H'!D30</f>
+        <f>'Metadatos H'!D51</f>
         <v>0</v>
       </c>
       <c r="D8" s="8">
-        <f>'Metadatos H'!E30</f>
+        <f>'Metadatos H'!E51</f>
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <f>'Metadatos H'!F30</f>
+        <f>'Metadatos H'!F51</f>
         <v>25</v>
       </c>
       <c r="F8" s="9">
@@ -2652,11 +2692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -3140,7 +3180,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -3364,13 +3404,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -4481,32 +4521,421 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="37"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="80"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D30" s="2">
-        <f>COUNTA(D4:D29)</f>
+      <c r="A30" s="45"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="H30" s="30"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="80"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="80"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="80"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="80"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="80"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="79" t="s">
+        <v>520</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="80"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="80"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="80"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="H38" s="30"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="80"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="80"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="H40" s="30"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="80"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="H41" s="30"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="80"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="80"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="H43" s="30"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="80"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="45"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="H44" s="30"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="80"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="80"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="45"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="80"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="45"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="80"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="45"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="80"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="80"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="37"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <f>COUNTA(D4:D50)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="2">
-        <f>COUNTA(E4:E29)</f>
+      <c r="E51" s="2">
+        <f>COUNTA(E4:E50)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="2">
-        <f>COUNTA(F4:F29)</f>
+      <c r="F51" s="2">
+        <f>COUNTA(F4:F50)</f>
         <v>25</v>
       </c>
     </row>
@@ -4570,6 +4999,7 @@
     <hyperlink ref="C28" r:id="rId56"/>
     <hyperlink ref="O28" r:id="rId57" location="'Niveles'!B15"/>
     <hyperlink ref="O27" r:id="rId58" location="'Niveles'!B9"/>
+    <hyperlink ref="G35" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4584,7 +5014,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -4782,11 +5212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -5071,7 +5501,7 @@
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="805" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
     <sheet name="Metadatos M" sheetId="2" r:id="rId2"/>
-    <sheet name="Metadatos A" sheetId="3" r:id="rId3"/>
-    <sheet name="Metadatos H" sheetId="4" r:id="rId4"/>
-    <sheet name="Metadatos F" sheetId="5" r:id="rId5"/>
-    <sheet name="Metadatos D" sheetId="6" r:id="rId6"/>
-    <sheet name="Metadatos V" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId3"/>
+    <sheet name="Metadatos A" sheetId="3" r:id="rId4"/>
+    <sheet name="Metadatos H" sheetId="4" r:id="rId5"/>
+    <sheet name="Metadatos F" sheetId="5" r:id="rId6"/>
+    <sheet name="Metadatos D" sheetId="6" r:id="rId7"/>
+    <sheet name="Metadatos V" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="544">
   <si>
     <t>Metadatos - Global + Estadísticas</t>
   </si>
@@ -1615,6 +1621,48 @@
   </si>
   <si>
     <t>https://freesound.org/people/HuvaaKoodia/sounds/77172/</t>
+  </si>
+  <si>
+    <t>Game/media/audio/synthesis/cyborg_speed.wav</t>
+  </si>
+  <si>
+    <t>D-001</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>Game/media/audio/synthesis/init_invulnerability.wav</t>
+  </si>
+  <si>
+    <t>D-007</t>
+  </si>
+  <si>
+    <t>00.01.165</t>
+  </si>
+  <si>
+    <t>Recorte</t>
+  </si>
+  <si>
+    <t>D-010</t>
+  </si>
+  <si>
+    <t>Game/media/audio/synthesis/obs_collision.wav</t>
+  </si>
+  <si>
+    <t>00.01.500</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>D-005</t>
+  </si>
+  <si>
+    <t>Game/media/audio/synthesis/select_item.wav</t>
+  </si>
+  <si>
+    <t>00.02.432</t>
   </si>
 </sst>
 </file>
@@ -2147,9 +2195,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto explicativo" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2487,7 +2535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2501,7 +2549,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2631,20 +2679,20 @@
         <v>10</v>
       </c>
       <c r="C10" s="8">
-        <f>'Metadatos D'!D9</f>
+        <f>'Metadatos D'!D12</f>
         <v>0</v>
       </c>
       <c r="D10" s="8">
-        <f>'Metadatos D'!E9</f>
-        <v>3</v>
+        <f>'Metadatos D'!E12</f>
+        <v>7</v>
       </c>
       <c r="E10" s="8">
-        <f>'Metadatos D'!F9</f>
+        <f>'Metadatos D'!F12</f>
         <v>0</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -2671,7 +2719,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F12" s="13">
         <f>SUM(F6:F11)</f>
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2744,7 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -3174,13 +3222,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -3402,15 +3462,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -5006,7 +5066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O9"/>
   <sheetViews>
@@ -5014,7 +5074,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -5208,15 +5268,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
@@ -5434,48 +5494,192 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="25"/>
+      <c r="G7" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="31">
+        <v>32</v>
+      </c>
+      <c r="L7" s="31">
+        <v>1</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="N7" s="31">
+        <v>-10.5</v>
+      </c>
+      <c r="O7" s="80" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="37"/>
+      <c r="B8" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>533</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="31">
+        <v>32</v>
+      </c>
+      <c r="L8" s="31">
+        <v>1</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="N8" s="31">
+        <v>-8</v>
+      </c>
+      <c r="O8" s="80" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="2">
-        <f>COUNTA(D4:D8)</f>
+      <c r="B9" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="31">
+        <v>32</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="N9" s="31">
+        <v>-3</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="31">
+        <v>32</v>
+      </c>
+      <c r="L10" s="31">
+        <v>1</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="N10" s="31">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <f>COUNTA(E4:E8)</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <f>COUNTA(F4:F8)</f>
+      <c r="O10" s="80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <f>COUNTA(D4:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <f>COUNTA(E4:E11)</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
+        <f>COUNTA(F4:F11)</f>
         <v>0</v>
       </c>
     </row>
@@ -5487,21 +5691,29 @@
     <hyperlink ref="O5" r:id="rId4" location="'Niveles'!B24"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B32"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="O7" r:id="rId8" location="'Personajes'!B123"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="O8" r:id="rId10" location="'Niveles'!B12"/>
+    <hyperlink ref="C9" r:id="rId11"/>
+    <hyperlink ref="O9" r:id="rId12" location="'Niveles'!B22"/>
+    <hyperlink ref="C10" r:id="rId13"/>
+    <hyperlink ref="O10" r:id="rId14" location="'Niveles'!B8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -2,26 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="805" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4995" tabRatio="805"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
     <sheet name="Metadatos M" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId3"/>
-    <sheet name="Metadatos A" sheetId="3" r:id="rId4"/>
-    <sheet name="Metadatos H" sheetId="4" r:id="rId5"/>
-    <sheet name="Metadatos F" sheetId="5" r:id="rId6"/>
-    <sheet name="Metadatos D" sheetId="6" r:id="rId7"/>
-    <sheet name="Metadatos V" sheetId="7" r:id="rId8"/>
+    <sheet name="Metadatos A" sheetId="3" r:id="rId3"/>
+    <sheet name="Metadatos H" sheetId="4" r:id="rId4"/>
+    <sheet name="Metadatos F" sheetId="5" r:id="rId5"/>
+    <sheet name="Metadatos D" sheetId="6" r:id="rId6"/>
+    <sheet name="Metadatos V" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="588">
   <si>
     <t>Metadatos - Global + Estadísticas</t>
   </si>
@@ -1663,13 +1662,145 @@
   </si>
   <si>
     <t>00.02.432</t>
+  </si>
+  <si>
+    <t>F-001</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/caja_rompiendose.wav</t>
+  </si>
+  <si>
+    <t>Masterización</t>
+  </si>
+  <si>
+    <t>00.00.694</t>
+  </si>
+  <si>
+    <t>F-002</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/trampa.wav</t>
+  </si>
+  <si>
+    <t>Grabación propia</t>
+  </si>
+  <si>
+    <t>00.00.646</t>
+  </si>
+  <si>
+    <t>F-003</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/golpe acelerar patines 1.wav</t>
+  </si>
+  <si>
+    <t>00.00.539</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/golpe acelerar patines 2.wav</t>
+  </si>
+  <si>
+    <t>00.00.411</t>
+  </si>
+  <si>
+    <t>00.00.360</t>
+  </si>
+  <si>
+    <t>00.00.221</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/golpe acelerar patines 3.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/golpe acelerar patines 4.wav</t>
+  </si>
+  <si>
+    <t>F-008</t>
+  </si>
+  <si>
+    <t>00.02.392</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/deslizar patines.wav</t>
+  </si>
+  <si>
+    <t>F-004</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/frenazo.wav</t>
+  </si>
+  <si>
+    <t>00.01.333</t>
+  </si>
+  <si>
+    <t>F-007</t>
+  </si>
+  <si>
+    <t>F-006</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/caida salto.wav</t>
+  </si>
+  <si>
+    <t>00.00.595</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/derrape_continuo.wav</t>
+  </si>
+  <si>
+    <t>00.00.068</t>
+  </si>
+  <si>
+    <t>F-009</t>
+  </si>
+  <si>
+    <t>Game/media/audio/foleys/derrape_final.wav</t>
+  </si>
+  <si>
+    <t>00.00.246</t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/smcameron/sounds/51468/</t>
+  </si>
+  <si>
+    <t>H-044</t>
+  </si>
+  <si>
+    <t>Game/media/audio/hards/objeto_teledirigido.wav</t>
+  </si>
+  <si>
+    <t>Masterización y desvanecer progresivamente</t>
+  </si>
+  <si>
+    <t>00.02.322</t>
+  </si>
+  <si>
+    <t>D-015</t>
+  </si>
+  <si>
+    <t>Game/media/audio/synthesis/cambio_posicion.wav</t>
+  </si>
+  <si>
+    <t>Desvanecer progresivamente</t>
+  </si>
+  <si>
+    <t>00.00.400</t>
+  </si>
+  <si>
+    <t>1.15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1754,6 +1885,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8.8000000000000007"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2027,7 +2163,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2130,15 +2266,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2193,6 +2320,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2545,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2637,20 +2766,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="8">
-        <f>'Metadatos H'!D51</f>
+        <f>'Metadatos H'!D50</f>
         <v>0</v>
       </c>
       <c r="D8" s="8">
-        <f>'Metadatos H'!E51</f>
+        <f>'Metadatos H'!E50</f>
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <f>'Metadatos H'!F51</f>
-        <v>25</v>
+        <f>'Metadatos H'!F50</f>
+        <v>42</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2658,20 +2787,20 @@
         <v>9</v>
       </c>
       <c r="C9" s="8">
-        <f>'Metadatos F'!D9</f>
+        <f>'Metadatos F'!D16</f>
+        <v>11</v>
+      </c>
+      <c r="D9" s="8">
+        <f>'Metadatos F'!E16</f>
         <v>0</v>
       </c>
-      <c r="D9" s="8">
-        <f>'Metadatos F'!E9</f>
-        <v>0</v>
-      </c>
       <c r="E9" s="8">
-        <f>'Metadatos F'!F9</f>
+        <f>'Metadatos F'!F16</f>
         <v>0</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -2679,20 +2808,20 @@
         <v>10</v>
       </c>
       <c r="C10" s="8">
-        <f>'Metadatos D'!D12</f>
+        <f>'Metadatos D'!D13</f>
         <v>0</v>
       </c>
       <c r="D10" s="8">
-        <f>'Metadatos D'!E12</f>
-        <v>7</v>
+        <f>'Metadatos D'!E13</f>
+        <v>8</v>
       </c>
       <c r="E10" s="8">
-        <f>'Metadatos D'!F12</f>
+        <f>'Metadatos D'!F13</f>
         <v>0</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -2719,7 +2848,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F12" s="13">
         <f>SUM(F6:F11)</f>
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2972,7 @@
       <c r="B4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="76" t="s">
         <v>507</v>
       </c>
       <c r="D4" s="28"/>
@@ -2875,7 +3004,7 @@
       <c r="N4" s="42">
         <v>-1</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2884,7 +3013,7 @@
       <c r="B5" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="76" t="s">
         <v>506</v>
       </c>
       <c r="D5" s="28"/>
@@ -2916,7 +3045,7 @@
       <c r="N5" s="31">
         <v>0</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="77" t="s">
         <v>512</v>
       </c>
     </row>
@@ -2925,7 +3054,7 @@
       <c r="B6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="76" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="28"/>
@@ -2957,7 +3086,7 @@
       <c r="N6" s="31">
         <v>0</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="77" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2966,7 +3095,7 @@
       <c r="B7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="76" t="s">
         <v>504</v>
       </c>
       <c r="D7" s="28"/>
@@ -2998,7 +3127,7 @@
       <c r="N7" s="31">
         <v>-1</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3007,7 +3136,7 @@
       <c r="B8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="76" t="s">
         <v>503</v>
       </c>
       <c r="D8" s="28"/>
@@ -3039,7 +3168,7 @@
       <c r="N8" s="31">
         <v>-1</v>
       </c>
-      <c r="O8" s="80" t="s">
+      <c r="O8" s="77" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3048,7 +3177,7 @@
       <c r="B9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>502</v>
       </c>
       <c r="D9" s="28"/>
@@ -3080,7 +3209,7 @@
       <c r="N9" s="31">
         <v>-1</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="77" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3089,7 +3218,7 @@
       <c r="B10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="76" t="s">
         <v>501</v>
       </c>
       <c r="D10" s="28"/>
@@ -3121,7 +3250,7 @@
       <c r="N10" s="31">
         <v>-1</v>
       </c>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="77" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3130,7 +3259,7 @@
       <c r="B11" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="76" t="s">
         <v>500</v>
       </c>
       <c r="D11" s="28"/>
@@ -3162,7 +3291,7 @@
       <c r="N11" s="31">
         <v>-1</v>
       </c>
-      <c r="O11" s="80" t="s">
+      <c r="O11" s="77" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3221,18 +3350,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O9"/>
   <sheetViews>
@@ -3338,7 +3455,7 @@
       <c r="B4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="76" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="39"/>
@@ -3370,7 +3487,7 @@
       <c r="N4" s="42">
         <v>-8</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3462,12 +3579,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,7 +3685,7 @@
       <c r="B4" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="79" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="40"/>
@@ -3600,7 +3717,7 @@
       <c r="N4" s="42">
         <v>-13</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>48</v>
       </c>
       <c r="P4" s="27"/>
@@ -3609,7 +3726,7 @@
       <c r="B5" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="76" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="28"/>
@@ -3641,7 +3758,7 @@
       <c r="N5" s="31">
         <v>-13</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="77" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3649,7 +3766,7 @@
       <c r="B6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="76" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="28"/>
@@ -3681,7 +3798,7 @@
       <c r="N6" s="31">
         <v>-54</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="77" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3689,7 +3806,7 @@
       <c r="B7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="76" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="28"/>
@@ -3721,7 +3838,7 @@
       <c r="N7" s="31">
         <v>-23</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="77" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3729,7 +3846,7 @@
       <c r="B8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="76" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="28"/>
@@ -3761,7 +3878,7 @@
       <c r="N8" s="31">
         <v>-55</v>
       </c>
-      <c r="O8" s="80" t="s">
+      <c r="O8" s="77" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3769,7 +3886,7 @@
       <c r="B9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="28"/>
@@ -3801,7 +3918,7 @@
       <c r="N9" s="31">
         <v>-56</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="77" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3809,7 +3926,7 @@
       <c r="B10" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="76" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="28"/>
@@ -3841,7 +3958,7 @@
       <c r="N10" s="31">
         <v>-51</v>
       </c>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="77" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3849,7 +3966,7 @@
       <c r="B11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="76" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="28"/>
@@ -3881,7 +3998,7 @@
       <c r="N11" s="31">
         <v>-41</v>
       </c>
-      <c r="O11" s="80" t="s">
+      <c r="O11" s="77" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3889,7 +4006,7 @@
       <c r="B12" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="76" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="28"/>
@@ -3921,7 +4038,7 @@
       <c r="N12" s="31">
         <v>-15</v>
       </c>
-      <c r="O12" s="80" t="s">
+      <c r="O12" s="77" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3929,7 +4046,7 @@
       <c r="B13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="76" t="s">
         <v>110</v>
       </c>
       <c r="D13" s="28"/>
@@ -3961,7 +4078,7 @@
       <c r="N13" s="31">
         <v>-5</v>
       </c>
-      <c r="O13" s="80" t="s">
+      <c r="O13" s="77" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3970,7 +4087,7 @@
       <c r="B14" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="76" t="s">
         <v>114</v>
       </c>
       <c r="D14" s="28"/>
@@ -4002,7 +4119,7 @@
       <c r="N14" s="31">
         <v>-21</v>
       </c>
-      <c r="O14" s="80" t="s">
+      <c r="O14" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4011,7 +4128,7 @@
       <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="76" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="28"/>
@@ -4043,7 +4160,7 @@
       <c r="N15" s="31">
         <v>-33</v>
       </c>
-      <c r="O15" s="80" t="s">
+      <c r="O15" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4052,7 +4169,7 @@
       <c r="B16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="76" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="28"/>
@@ -4084,7 +4201,7 @@
       <c r="N16" s="31">
         <v>0</v>
       </c>
-      <c r="O16" s="80" t="s">
+      <c r="O16" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4093,7 +4210,7 @@
       <c r="B17" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="76" t="s">
         <v>121</v>
       </c>
       <c r="D17" s="28"/>
@@ -4125,7 +4242,7 @@
       <c r="N17" s="31">
         <v>-18</v>
       </c>
-      <c r="O17" s="80" t="s">
+      <c r="O17" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4134,7 +4251,7 @@
       <c r="B18" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="76" t="s">
         <v>124</v>
       </c>
       <c r="D18" s="28"/>
@@ -4166,7 +4283,7 @@
       <c r="N18" s="31">
         <v>-41</v>
       </c>
-      <c r="O18" s="80" t="s">
+      <c r="O18" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4175,7 +4292,7 @@
       <c r="B19" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="76" t="s">
         <v>127</v>
       </c>
       <c r="D19" s="28"/>
@@ -4207,7 +4324,7 @@
       <c r="N19" s="31">
         <v>-27</v>
       </c>
-      <c r="O19" s="80" t="s">
+      <c r="O19" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4216,7 +4333,7 @@
       <c r="B20" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="76" t="s">
         <v>130</v>
       </c>
       <c r="D20" s="28"/>
@@ -4248,7 +4365,7 @@
       <c r="N20" s="31">
         <v>-18</v>
       </c>
-      <c r="O20" s="80" t="s">
+      <c r="O20" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4257,7 +4374,7 @@
       <c r="B21" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="76" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="28"/>
@@ -4289,7 +4406,7 @@
       <c r="N21" s="31">
         <v>-17</v>
       </c>
-      <c r="O21" s="80" t="s">
+      <c r="O21" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4298,7 +4415,7 @@
       <c r="B22" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="76" t="s">
         <v>136</v>
       </c>
       <c r="D22" s="28"/>
@@ -4330,7 +4447,7 @@
       <c r="N22" s="31">
         <v>-27</v>
       </c>
-      <c r="O22" s="80" t="s">
+      <c r="O22" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4339,7 +4456,7 @@
       <c r="B23" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="76" t="s">
         <v>138</v>
       </c>
       <c r="D23" s="28"/>
@@ -4371,7 +4488,7 @@
       <c r="N23" s="31">
         <v>-29</v>
       </c>
-      <c r="O23" s="80" t="s">
+      <c r="O23" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4380,7 +4497,7 @@
       <c r="B24" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="76" t="s">
         <v>141</v>
       </c>
       <c r="D24" s="28"/>
@@ -4412,7 +4529,7 @@
       <c r="N24" s="31">
         <v>-54</v>
       </c>
-      <c r="O24" s="80" t="s">
+      <c r="O24" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4421,7 +4538,7 @@
       <c r="B25" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="76" t="s">
         <v>145</v>
       </c>
       <c r="D25" s="28"/>
@@ -4453,7 +4570,7 @@
       <c r="N25" s="31">
         <v>-42</v>
       </c>
-      <c r="O25" s="80" t="s">
+      <c r="O25" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4462,7 +4579,7 @@
       <c r="B26" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="76" t="s">
         <v>110</v>
       </c>
       <c r="D26" s="28"/>
@@ -4494,7 +4611,7 @@
       <c r="N26" s="31">
         <v>-21</v>
       </c>
-      <c r="O26" s="80" t="s">
+      <c r="O26" s="77" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4503,7 +4620,7 @@
       <c r="B27" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="76" t="s">
         <v>148</v>
       </c>
       <c r="D27" s="28"/>
@@ -4535,7 +4652,7 @@
       <c r="N27" s="31">
         <v>-6</v>
       </c>
-      <c r="O27" s="80" t="s">
+      <c r="O27" s="77" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4544,7 +4661,7 @@
       <c r="B28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="76" t="s">
         <v>151</v>
       </c>
       <c r="D28" s="28"/>
@@ -4576,18 +4693,20 @@
       <c r="N28" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="O28" s="80" t="s">
+      <c r="O28" s="77" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="79"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="76" t="s">
         <v>101</v>
       </c>
       <c r="H29" s="30"/>
@@ -4597,16 +4716,18 @@
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
-      <c r="O29" s="80"/>
+      <c r="O29" s="77"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="79"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29" t="s">
+      <c r="F30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="76" t="s">
         <v>515</v>
       </c>
       <c r="H30" s="30"/>
@@ -4616,15 +4737,17 @@
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
-      <c r="O30" s="80"/>
+      <c r="O30" s="77"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="79"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G31" s="29" t="s">
         <v>516</v>
       </c>
@@ -4635,15 +4758,17 @@
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
-      <c r="O31" s="80"/>
+      <c r="O31" s="77"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="26"/>
-      <c r="C32" s="79"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G32" s="29" t="s">
         <v>517</v>
       </c>
@@ -4654,15 +4779,17 @@
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
-      <c r="O32" s="80"/>
+      <c r="O32" s="77"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="79"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G33" s="29" t="s">
         <v>518</v>
       </c>
@@ -4673,15 +4800,16 @@
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
-      <c r="O33" s="80"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="79"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G34" s="29" t="s">
         <v>519</v>
       </c>
@@ -4690,18 +4818,18 @@
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="80"/>
+      <c r="O34" s="77"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="79"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="79" t="s">
+      <c r="F35" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="76" t="s">
         <v>520</v>
       </c>
       <c r="H35" s="30"/>
@@ -4711,15 +4839,17 @@
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
-      <c r="O35" s="80"/>
+      <c r="O35" s="77"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="79"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="F36" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G36" s="29" t="s">
         <v>521</v>
       </c>
@@ -4730,15 +4860,17 @@
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
-      <c r="O36" s="80"/>
+      <c r="O36" s="77"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="79"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="F37" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G37" s="29" t="s">
         <v>522</v>
       </c>
@@ -4749,15 +4881,17 @@
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
-      <c r="O37" s="80"/>
+      <c r="O37" s="77"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="79"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="F38" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G38" s="29" t="s">
         <v>523</v>
       </c>
@@ -4768,15 +4902,17 @@
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
-      <c r="O38" s="80"/>
+      <c r="O38" s="77"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="79"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="F39" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G39" s="29" t="s">
         <v>524</v>
       </c>
@@ -4787,15 +4923,17 @@
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
-      <c r="O39" s="80"/>
+      <c r="O39" s="77"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="79"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="F40" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G40" s="29" t="s">
         <v>525</v>
       </c>
@@ -4806,15 +4944,17 @@
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
       <c r="N40" s="31"/>
-      <c r="O40" s="80"/>
+      <c r="O40" s="77"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="79"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="F41" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G41" s="29" t="s">
         <v>526</v>
       </c>
@@ -4825,15 +4965,17 @@
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
-      <c r="O41" s="80"/>
+      <c r="O41" s="77"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="79"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G42" s="29" t="s">
         <v>528</v>
       </c>
@@ -4844,15 +4986,17 @@
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
-      <c r="O42" s="80"/>
+      <c r="O42" s="77"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="79"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="F43" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G43" s="29" t="s">
         <v>527</v>
       </c>
@@ -4863,15 +5007,17 @@
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="31"/>
-      <c r="O43" s="80"/>
+      <c r="O43" s="77"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="79"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="F44" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="G44" s="29" t="s">
         <v>529</v>
       </c>
@@ -4882,29 +5028,53 @@
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
       <c r="N44" s="31"/>
-      <c r="O44" s="80"/>
+      <c r="O44" s="77"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="79"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>580</v>
+      </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="80"/>
+      <c r="F45" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="76" t="s">
+        <v>578</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="31">
+        <v>32</v>
+      </c>
+      <c r="L45" s="31">
+        <v>1</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="N45" s="31">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="77" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="79"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -4916,12 +5086,12 @@
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
       <c r="N46" s="31"/>
-      <c r="O46" s="80"/>
+      <c r="O46" s="77"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="79"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -4933,12 +5103,12 @@
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
       <c r="N47" s="31"/>
-      <c r="O47" s="80"/>
+      <c r="O47" s="77"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="79"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
@@ -4950,53 +5120,36 @@
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
       <c r="N48" s="31"/>
-      <c r="O48" s="80"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="80"/>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="37"/>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="2">
-        <f>COUNTA(D4:D50)</f>
+      <c r="O48" s="77"/>
+    </row>
+    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="37"/>
+    </row>
+    <row r="50" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <f>COUNTA(D4:D49)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="2">
-        <f>COUNTA(E4:E50)</f>
+      <c r="E50" s="2">
+        <f>COUNTA(E4:E49)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="2">
-        <f>COUNTA(F4:F50)</f>
-        <v>25</v>
+      <c r="F50" s="2">
+        <f>COUNTA(F4:F49)</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5057,28 +5210,33 @@
     <hyperlink ref="O26" r:id="rId54" location="'Niveles'!B17"/>
     <hyperlink ref="C27" r:id="rId55"/>
     <hyperlink ref="C28" r:id="rId56"/>
-    <hyperlink ref="O28" r:id="rId57" location="'Niveles'!B15"/>
-    <hyperlink ref="O27" r:id="rId58" location="'Niveles'!B9"/>
-    <hyperlink ref="G35" r:id="rId59"/>
+    <hyperlink ref="O27" r:id="rId57" location="'Niveles'!B9"/>
+    <hyperlink ref="G35" r:id="rId58"/>
+    <hyperlink ref="G29" r:id="rId59"/>
+    <hyperlink ref="G30" r:id="rId60"/>
+    <hyperlink ref="C45" r:id="rId61"/>
+    <hyperlink ref="G45" r:id="rId62"/>
+    <hyperlink ref="O45" r:id="rId63" location="'Niveles'!B14"/>
+    <hyperlink ref="O28" r:id="rId64" location="'Niveles'!B15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O9"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="6" width="3" style="2" customWidth="1"/>
     <col min="7" max="7" width="51.28515625" customWidth="1"/>
     <col min="8" max="8" width="24.140625" customWidth="1"/>
@@ -5168,112 +5326,512 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+    <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="40"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="55"/>
+      <c r="G4" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="42">
+        <v>32</v>
+      </c>
+      <c r="L4" s="42">
+        <v>1</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="N4" s="42">
+        <v>-2</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="B5" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="28"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="49"/>
+      <c r="G5" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="31">
+        <v>32</v>
+      </c>
+      <c r="L5" s="31">
+        <v>1</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="N5" s="31">
+        <v>-2</v>
+      </c>
+      <c r="O5" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>553</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="28"/>
       <c r="F6" s="28"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
+      <c r="G6" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="31">
+        <v>32</v>
+      </c>
+      <c r="L6" s="31">
+        <v>1</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="N6" s="31">
+        <v>-2</v>
+      </c>
+      <c r="O6" s="77" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="28"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="25"/>
+      <c r="G7" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="31">
+        <v>32</v>
+      </c>
+      <c r="L7" s="31">
+        <v>1</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="N7" s="31">
+        <v>-2</v>
+      </c>
+      <c r="O7" s="77" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="37"/>
+      <c r="B8" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="31">
+        <v>32</v>
+      </c>
+      <c r="L8" s="31">
+        <v>1</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="N8" s="31">
+        <v>-2</v>
+      </c>
+      <c r="O8" s="77" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="2">
-        <f>COUNTA(D4:D8)</f>
+      <c r="B9" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="31">
+        <v>32</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="N9" s="31">
+        <v>-2</v>
+      </c>
+      <c r="O9" s="77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>564</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="31">
+        <v>32</v>
+      </c>
+      <c r="L10" s="31">
+        <v>1</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="N10" s="31">
+        <v>-17</v>
+      </c>
+      <c r="O10" s="77" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="31">
+        <v>32</v>
+      </c>
+      <c r="L11" s="31">
+        <v>1</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="N11" s="31">
+        <v>-13</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="31">
+        <v>32</v>
+      </c>
+      <c r="L12" s="31">
+        <v>1</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="N12" s="31">
+        <v>-3</v>
+      </c>
+      <c r="O12" s="77" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>573</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="31">
+        <v>32</v>
+      </c>
+      <c r="L13" s="31">
+        <v>1</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="N13" s="31">
+        <v>-14</v>
+      </c>
+      <c r="O13" s="77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>576</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="31">
+        <v>32</v>
+      </c>
+      <c r="L14" s="31">
+        <v>1</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="N14" s="31">
+        <v>-16</v>
+      </c>
+      <c r="O14" s="77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <f>COUNTA(D4:D15)</f>
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <f>COUNTA(E4:E15)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <f>COUNTA(E4:E8)</f>
+      <c r="F16" s="2">
+        <f>COUNTA(F4:F15)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <f>COUNTA(F4:F8)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="O4" r:id="rId2" location="'Niveles'!B7"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4" location="'Niveles'!B10"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6" location="'Niveles'!B11"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="O7" r:id="rId8" location="'Niveles'!B11"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="O9" r:id="rId10" location="'Niveles'!B11"/>
+    <hyperlink ref="C8" r:id="rId11"/>
+    <hyperlink ref="O8" r:id="rId12" location="'Niveles'!B11"/>
+    <hyperlink ref="C11" r:id="rId13"/>
+    <hyperlink ref="O11" r:id="rId14" location="'Niveles'!B20"/>
+    <hyperlink ref="C10" r:id="rId15"/>
+    <hyperlink ref="O10" r:id="rId16" location="'Niveles'!B25"/>
+    <hyperlink ref="C12" r:id="rId17"/>
+    <hyperlink ref="O12" r:id="rId18" location="'Niveles'!B25"/>
+    <hyperlink ref="C14" r:id="rId19"/>
+    <hyperlink ref="O14" r:id="rId20" location="'Niveles'!B6"/>
+    <hyperlink ref="C13" r:id="rId21"/>
+    <hyperlink ref="O13" r:id="rId22" location="'Niveles'!B5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5375,7 +5933,7 @@
       <c r="B4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="76" t="s">
         <v>510</v>
       </c>
       <c r="D4" s="28"/>
@@ -5407,7 +5965,7 @@
       <c r="N4" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5416,7 +5974,7 @@
       <c r="B5" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="76" t="s">
         <v>509</v>
       </c>
       <c r="D5" s="28"/>
@@ -5448,7 +6006,7 @@
       <c r="N5" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="77" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5457,7 +6015,7 @@
       <c r="B6" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="76" t="s">
         <v>508</v>
       </c>
       <c r="D6" s="28"/>
@@ -5489,7 +6047,7 @@
       <c r="N6" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="77" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5497,7 +6055,7 @@
       <c r="B7" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="76" t="s">
         <v>530</v>
       </c>
       <c r="D7" s="28"/>
@@ -5529,7 +6087,7 @@
       <c r="N7" s="31">
         <v>-10.5</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="77" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5537,7 +6095,7 @@
       <c r="B8" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="76" t="s">
         <v>533</v>
       </c>
       <c r="D8" s="28"/>
@@ -5569,7 +6127,7 @@
       <c r="N8" s="31">
         <v>-8</v>
       </c>
-      <c r="O8" s="80" t="s">
+      <c r="O8" s="77" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5577,7 +6135,7 @@
       <c r="B9" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>538</v>
       </c>
       <c r="D9" s="28"/>
@@ -5609,7 +6167,7 @@
       <c r="N9" s="31">
         <v>-3</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="77" t="s">
         <v>540</v>
       </c>
     </row>
@@ -5617,7 +6175,7 @@
       <c r="B10" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="76" t="s">
         <v>542</v>
       </c>
       <c r="D10" s="28"/>
@@ -5649,37 +6207,77 @@
       <c r="N10" s="31">
         <v>0</v>
       </c>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="77" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="37"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
-        <f>COUNTA(D4:D11)</f>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="31">
+        <v>32</v>
+      </c>
+      <c r="L11" s="31">
+        <v>1</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="N11" s="31">
+        <v>-18.5</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <f>COUNTA(D4:D12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <f>COUNTA(E4:E11)</f>
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <f>COUNTA(F4:F11)</f>
+      <c r="E13" s="2">
+        <f>COUNTA(E4:E12)</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <f>COUNTA(F4:F12)</f>
         <v>0</v>
       </c>
     </row>
@@ -5699,18 +6297,20 @@
     <hyperlink ref="O9" r:id="rId12" location="'Niveles'!B22"/>
     <hyperlink ref="C10" r:id="rId13"/>
     <hyperlink ref="O10" r:id="rId14" location="'Niveles'!B8"/>
+    <hyperlink ref="C11" r:id="rId15"/>
+    <hyperlink ref="O11" r:id="rId16" location="'Niveles'!B26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,7 +6412,7 @@
       <c r="B4" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="79" t="s">
         <v>167</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -5820,7 +6420,7 @@
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="55" t="s">
         <v>168</v>
       </c>
       <c r="H4" s="30" t="s">
@@ -5844,7 +6444,7 @@
       <c r="N4" s="42">
         <v>-28</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="78" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5852,7 +6452,7 @@
       <c r="B5" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="76" t="s">
         <v>172</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -5881,10 +6481,10 @@
       <c r="M5" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N5" s="57">
+      <c r="N5" s="54">
         <v>-30</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="77" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5892,7 +6492,7 @@
       <c r="B6" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="76" t="s">
         <v>175</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -5924,7 +6524,7 @@
       <c r="N6" s="31">
         <v>-29</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="77" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5932,7 +6532,7 @@
       <c r="B7" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="76" t="s">
         <v>178</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -5958,22 +6558,22 @@
       <c r="L7" s="31">
         <v>1</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="56" t="s">
         <v>179</v>
       </c>
       <c r="N7" s="28">
         <v>-27</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="77" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="76" t="s">
         <v>181</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -5999,22 +6599,22 @@
       <c r="L8" s="31">
         <v>1</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="56" t="s">
         <v>182</v>
       </c>
       <c r="N8" s="28">
         <v>-22</v>
       </c>
-      <c r="O8" s="80" t="s">
+      <c r="O8" s="77" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>184</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -6040,22 +6640,22 @@
       <c r="L9" s="31">
         <v>1</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="56" t="s">
         <v>134</v>
       </c>
       <c r="N9" s="28">
         <v>-31</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="77" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="76" t="s">
         <v>186</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -6081,22 +6681,22 @@
       <c r="L10" s="31">
         <v>1</v>
       </c>
-      <c r="M10" s="59" t="s">
+      <c r="M10" s="56" t="s">
         <v>187</v>
       </c>
       <c r="N10" s="28">
         <v>-24</v>
       </c>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="77" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="76" t="s">
         <v>189</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -6122,22 +6722,22 @@
       <c r="L11" s="31">
         <v>1</v>
       </c>
-      <c r="M11" s="59" t="s">
+      <c r="M11" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N11" s="28">
         <v>-23</v>
       </c>
-      <c r="O11" s="80" t="s">
+      <c r="O11" s="77" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="76" t="s">
         <v>192</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -6163,22 +6763,22 @@
       <c r="L12" s="31">
         <v>1</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="56" t="s">
         <v>193</v>
       </c>
       <c r="N12" s="28">
         <v>-28</v>
       </c>
-      <c r="O12" s="80" t="s">
+      <c r="O12" s="77" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="76" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -6204,22 +6804,22 @@
       <c r="L13" s="31">
         <v>1</v>
       </c>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="56" t="s">
         <v>196</v>
       </c>
       <c r="N13" s="28">
         <v>-25</v>
       </c>
-      <c r="O13" s="80" t="s">
+      <c r="O13" s="77" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="76" t="s">
         <v>198</v>
       </c>
       <c r="D14" s="28" t="s">
@@ -6245,22 +6845,22 @@
       <c r="L14" s="31">
         <v>1</v>
       </c>
-      <c r="M14" s="59" t="s">
+      <c r="M14" s="56" t="s">
         <v>193</v>
       </c>
       <c r="N14" s="28">
         <v>-28</v>
       </c>
-      <c r="O14" s="80" t="s">
+      <c r="O14" s="77" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="76" t="s">
         <v>200</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -6286,22 +6886,22 @@
       <c r="L15" s="31">
         <v>1</v>
       </c>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="56" t="s">
         <v>201</v>
       </c>
       <c r="N15" s="28">
         <v>-26</v>
       </c>
-      <c r="O15" s="80" t="s">
+      <c r="O15" s="77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="76" t="s">
         <v>203</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -6327,22 +6927,22 @@
       <c r="L16" s="31">
         <v>1</v>
       </c>
-      <c r="M16" s="59" t="s">
+      <c r="M16" s="56" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="28">
         <v>-25</v>
       </c>
-      <c r="O16" s="80" t="s">
+      <c r="O16" s="77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="76" t="s">
         <v>206</v>
       </c>
       <c r="D17" s="28" t="s">
@@ -6368,22 +6968,22 @@
       <c r="L17" s="31">
         <v>1</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="56" t="s">
         <v>179</v>
       </c>
       <c r="N17" s="28">
         <v>-25</v>
       </c>
-      <c r="O17" s="80" t="s">
+      <c r="O17" s="77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="76" t="s">
         <v>208</v>
       </c>
       <c r="D18" s="28" t="s">
@@ -6409,22 +7009,22 @@
       <c r="L18" s="31">
         <v>1</v>
       </c>
-      <c r="M18" s="59" t="s">
+      <c r="M18" s="56" t="s">
         <v>209</v>
       </c>
       <c r="N18" s="28">
         <v>-24</v>
       </c>
-      <c r="O18" s="80" t="s">
+      <c r="O18" s="77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="76" t="s">
         <v>211</v>
       </c>
       <c r="D19" s="28" t="s">
@@ -6450,22 +7050,22 @@
       <c r="L19" s="31">
         <v>1</v>
       </c>
-      <c r="M19" s="59" t="s">
+      <c r="M19" s="56" t="s">
         <v>212</v>
       </c>
       <c r="N19" s="28">
         <v>-26</v>
       </c>
-      <c r="O19" s="80" t="s">
+      <c r="O19" s="77" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="76" t="s">
         <v>214</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -6491,22 +7091,22 @@
       <c r="L20" s="31">
         <v>1</v>
       </c>
-      <c r="M20" s="59" t="s">
+      <c r="M20" s="56" t="s">
         <v>182</v>
       </c>
       <c r="N20" s="28">
         <v>-29</v>
       </c>
-      <c r="O20" s="80" t="s">
+      <c r="O20" s="77" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="76" t="s">
         <v>216</v>
       </c>
       <c r="D21" s="28" t="s">
@@ -6532,22 +7132,22 @@
       <c r="L21" s="31">
         <v>1</v>
       </c>
-      <c r="M21" s="59" t="s">
+      <c r="M21" s="56" t="s">
         <v>119</v>
       </c>
       <c r="N21" s="28">
         <v>-24</v>
       </c>
-      <c r="O21" s="80" t="s">
+      <c r="O21" s="77" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="76" t="s">
         <v>218</v>
       </c>
       <c r="D22" s="28" t="s">
@@ -6573,22 +7173,22 @@
       <c r="L22" s="31">
         <v>1</v>
       </c>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="56" t="s">
         <v>209</v>
       </c>
       <c r="N22" s="28">
         <v>-27</v>
       </c>
-      <c r="O22" s="80" t="s">
+      <c r="O22" s="77" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="76" t="s">
         <v>220</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -6614,22 +7214,22 @@
       <c r="L23" s="31">
         <v>1</v>
       </c>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="56" t="s">
         <v>221</v>
       </c>
       <c r="N23" s="28">
         <v>-26</v>
       </c>
-      <c r="O23" s="80" t="s">
+      <c r="O23" s="77" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="76" t="s">
         <v>223</v>
       </c>
       <c r="D24" s="28" t="s">
@@ -6655,22 +7255,22 @@
       <c r="L24" s="31">
         <v>1</v>
       </c>
-      <c r="M24" s="59" t="s">
+      <c r="M24" s="56" t="s">
         <v>224</v>
       </c>
       <c r="N24" s="28">
         <v>-26</v>
       </c>
-      <c r="O24" s="80" t="s">
+      <c r="O24" s="77" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="76" t="s">
         <v>226</v>
       </c>
       <c r="D25" s="28" t="s">
@@ -6696,22 +7296,22 @@
       <c r="L25" s="31">
         <v>1</v>
       </c>
-      <c r="M25" s="59" t="s">
+      <c r="M25" s="56" t="s">
         <v>227</v>
       </c>
       <c r="N25" s="28">
         <v>-23</v>
       </c>
-      <c r="O25" s="80" t="s">
+      <c r="O25" s="77" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="76" t="s">
         <v>229</v>
       </c>
       <c r="D26" s="28" t="s">
@@ -6737,22 +7337,22 @@
       <c r="L26" s="31">
         <v>1</v>
       </c>
-      <c r="M26" s="59" t="s">
+      <c r="M26" s="56" t="s">
         <v>231</v>
       </c>
       <c r="N26" s="28">
         <v>-27</v>
       </c>
-      <c r="O26" s="80" t="s">
+      <c r="O26" s="77" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="76" t="s">
         <v>233</v>
       </c>
       <c r="D27" s="28" t="s">
@@ -6778,22 +7378,22 @@
       <c r="L27" s="31">
         <v>1</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="56" t="s">
         <v>234</v>
       </c>
       <c r="N27" s="28">
         <v>-29</v>
       </c>
-      <c r="O27" s="80" t="s">
+      <c r="O27" s="77" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="76" t="s">
         <v>236</v>
       </c>
       <c r="D28" s="28" t="s">
@@ -6819,22 +7419,22 @@
       <c r="L28" s="31">
         <v>1</v>
       </c>
-      <c r="M28" s="59" t="s">
+      <c r="M28" s="56" t="s">
         <v>237</v>
       </c>
       <c r="N28" s="28">
         <v>-29</v>
       </c>
-      <c r="O28" s="80" t="s">
+      <c r="O28" s="77" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="76" t="s">
         <v>239</v>
       </c>
       <c r="D29" s="28" t="s">
@@ -6860,22 +7460,22 @@
       <c r="L29" s="31">
         <v>1</v>
       </c>
-      <c r="M29" s="59" t="s">
+      <c r="M29" s="56" t="s">
         <v>240</v>
       </c>
       <c r="N29" s="28">
         <v>-28</v>
       </c>
-      <c r="O29" s="80" t="s">
+      <c r="O29" s="77" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="76" t="s">
         <v>242</v>
       </c>
       <c r="D30" s="28" t="s">
@@ -6901,22 +7501,22 @@
       <c r="L30" s="31">
         <v>1</v>
       </c>
-      <c r="M30" s="59" t="s">
+      <c r="M30" s="56" t="s">
         <v>243</v>
       </c>
       <c r="N30" s="28">
         <v>-22</v>
       </c>
-      <c r="O30" s="80" t="s">
+      <c r="O30" s="77" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="76" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="28" t="s">
@@ -6942,22 +7542,22 @@
       <c r="L31" s="31">
         <v>1</v>
       </c>
-      <c r="M31" s="59" t="s">
+      <c r="M31" s="56" t="s">
         <v>247</v>
       </c>
       <c r="N31" s="28">
         <v>-20</v>
       </c>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="77" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="76" t="s">
         <v>249</v>
       </c>
       <c r="D32" s="28" t="s">
@@ -6983,22 +7583,22 @@
       <c r="L32" s="31">
         <v>1</v>
       </c>
-      <c r="M32" s="59" t="s">
+      <c r="M32" s="56" t="s">
         <v>250</v>
       </c>
       <c r="N32" s="28">
         <v>-19</v>
       </c>
-      <c r="O32" s="80" t="s">
+      <c r="O32" s="77" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="76" t="s">
         <v>252</v>
       </c>
       <c r="D33" s="28" t="s">
@@ -7024,22 +7624,22 @@
       <c r="L33" s="31">
         <v>1</v>
       </c>
-      <c r="M33" s="59" t="s">
+      <c r="M33" s="56" t="s">
         <v>243</v>
       </c>
       <c r="N33" s="28">
         <v>-22</v>
       </c>
-      <c r="O33" s="80" t="s">
+      <c r="O33" s="77" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="76" t="s">
         <v>254</v>
       </c>
       <c r="D34" s="28" t="s">
@@ -7065,22 +7665,22 @@
       <c r="L34" s="31">
         <v>1</v>
       </c>
-      <c r="M34" s="59" t="s">
+      <c r="M34" s="56" t="s">
         <v>247</v>
       </c>
       <c r="N34" s="28">
         <v>-20</v>
       </c>
-      <c r="O34" s="80" t="s">
+      <c r="O34" s="77" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="76" t="s">
         <v>256</v>
       </c>
       <c r="D35" s="28" t="s">
@@ -7106,22 +7706,22 @@
       <c r="L35" s="31">
         <v>1</v>
       </c>
-      <c r="M35" s="59" t="s">
+      <c r="M35" s="56" t="s">
         <v>250</v>
       </c>
       <c r="N35" s="28">
         <v>-19</v>
       </c>
-      <c r="O35" s="80" t="s">
+      <c r="O35" s="77" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="76" t="s">
         <v>258</v>
       </c>
       <c r="D36" s="28" t="s">
@@ -7147,22 +7747,22 @@
       <c r="L36" s="31">
         <v>1</v>
       </c>
-      <c r="M36" s="59" t="s">
+      <c r="M36" s="56" t="s">
         <v>173</v>
       </c>
       <c r="N36" s="28">
         <v>-15</v>
       </c>
-      <c r="O36" s="80" t="s">
+      <c r="O36" s="77" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="76" t="s">
         <v>261</v>
       </c>
       <c r="D37" s="28" t="s">
@@ -7188,22 +7788,22 @@
       <c r="L37" s="31">
         <v>1</v>
       </c>
-      <c r="M37" s="59" t="s">
+      <c r="M37" s="56" t="s">
         <v>262</v>
       </c>
       <c r="N37" s="28">
         <v>-15</v>
       </c>
-      <c r="O37" s="80" t="s">
+      <c r="O37" s="77" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="76" t="s">
         <v>264</v>
       </c>
       <c r="D38" s="28" t="s">
@@ -7229,22 +7829,22 @@
       <c r="L38" s="31">
         <v>1</v>
       </c>
-      <c r="M38" s="59" t="s">
+      <c r="M38" s="56" t="s">
         <v>265</v>
       </c>
       <c r="N38" s="28">
         <v>-19</v>
       </c>
-      <c r="O38" s="80" t="s">
+      <c r="O38" s="77" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="76" t="s">
         <v>267</v>
       </c>
       <c r="D39" s="28" t="s">
@@ -7270,22 +7870,22 @@
       <c r="L39" s="31">
         <v>1</v>
       </c>
-      <c r="M39" s="59" t="s">
+      <c r="M39" s="56" t="s">
         <v>268</v>
       </c>
       <c r="N39" s="28">
         <v>-17</v>
       </c>
-      <c r="O39" s="80" t="s">
+      <c r="O39" s="77" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="76" t="s">
         <v>271</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -7311,22 +7911,22 @@
       <c r="L40" s="31">
         <v>1</v>
       </c>
-      <c r="M40" s="59" t="s">
+      <c r="M40" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N40" s="28">
         <v>-20</v>
       </c>
-      <c r="O40" s="80" t="s">
+      <c r="O40" s="77" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="76" t="s">
         <v>273</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -7352,22 +7952,22 @@
       <c r="L41" s="31">
         <v>1</v>
       </c>
-      <c r="M41" s="59" t="s">
+      <c r="M41" s="56" t="s">
         <v>170</v>
       </c>
       <c r="N41" s="28">
         <v>-18</v>
       </c>
-      <c r="O41" s="80" t="s">
+      <c r="O41" s="77" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="76" t="s">
         <v>275</v>
       </c>
       <c r="D42" s="28" t="s">
@@ -7393,22 +7993,22 @@
       <c r="L42" s="31">
         <v>1</v>
       </c>
-      <c r="M42" s="59" t="s">
+      <c r="M42" s="56" t="s">
         <v>276</v>
       </c>
       <c r="N42" s="28">
         <v>-25</v>
       </c>
-      <c r="O42" s="80" t="s">
+      <c r="O42" s="77" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="76" t="s">
         <v>278</v>
       </c>
       <c r="D43" s="28" t="s">
@@ -7434,22 +8034,22 @@
       <c r="L43" s="31">
         <v>1</v>
       </c>
-      <c r="M43" s="59" t="s">
+      <c r="M43" s="56" t="s">
         <v>279</v>
       </c>
       <c r="N43" s="28">
         <v>-14</v>
       </c>
-      <c r="O43" s="80" t="s">
+      <c r="O43" s="77" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="76" t="s">
         <v>282</v>
       </c>
       <c r="D44" s="28" t="s">
@@ -7475,22 +8075,22 @@
       <c r="L44" s="31">
         <v>1</v>
       </c>
-      <c r="M44" s="59" t="s">
+      <c r="M44" s="56" t="s">
         <v>283</v>
       </c>
       <c r="N44" s="28">
         <v>-13</v>
       </c>
-      <c r="O44" s="80" t="s">
+      <c r="O44" s="77" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="C45" s="79" t="s">
+      <c r="C45" s="76" t="s">
         <v>285</v>
       </c>
       <c r="D45" s="28" t="s">
@@ -7516,22 +8116,22 @@
       <c r="L45" s="31">
         <v>1</v>
       </c>
-      <c r="M45" s="59" t="s">
+      <c r="M45" s="56" t="s">
         <v>134</v>
       </c>
       <c r="N45" s="28">
         <v>-20</v>
       </c>
-      <c r="O45" s="80" t="s">
+      <c r="O45" s="77" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="76" t="s">
         <v>287</v>
       </c>
       <c r="D46" s="28" t="s">
@@ -7557,22 +8157,22 @@
       <c r="L46" s="31">
         <v>1</v>
       </c>
-      <c r="M46" s="59" t="s">
+      <c r="M46" s="56" t="s">
         <v>288</v>
       </c>
       <c r="N46" s="28">
         <v>-14</v>
       </c>
-      <c r="O46" s="80" t="s">
+      <c r="O46" s="77" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="C47" s="79" t="s">
+      <c r="C47" s="76" t="s">
         <v>291</v>
       </c>
       <c r="D47" s="28" t="s">
@@ -7598,22 +8198,22 @@
       <c r="L47" s="31">
         <v>1</v>
       </c>
-      <c r="M47" s="59" t="s">
+      <c r="M47" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N47" s="28">
         <v>-11</v>
       </c>
-      <c r="O47" s="80" t="s">
+      <c r="O47" s="77" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="79" t="s">
+      <c r="C48" s="76" t="s">
         <v>293</v>
       </c>
       <c r="D48" s="28" t="s">
@@ -7639,22 +8239,22 @@
       <c r="L48" s="31">
         <v>1</v>
       </c>
-      <c r="M48" s="59" t="s">
+      <c r="M48" s="56" t="s">
         <v>294</v>
       </c>
       <c r="N48" s="28">
         <v>-13</v>
       </c>
-      <c r="O48" s="80" t="s">
+      <c r="O48" s="77" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="76" t="s">
         <v>296</v>
       </c>
       <c r="D49" s="28" t="s">
@@ -7680,22 +8280,22 @@
       <c r="L49" s="31">
         <v>1</v>
       </c>
-      <c r="M49" s="59" t="s">
+      <c r="M49" s="56" t="s">
         <v>276</v>
       </c>
       <c r="N49" s="28">
         <v>-11</v>
       </c>
-      <c r="O49" s="80" t="s">
+      <c r="O49" s="77" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="76" t="s">
         <v>298</v>
       </c>
       <c r="D50" s="28" t="s">
@@ -7721,22 +8321,22 @@
       <c r="L50" s="31">
         <v>1</v>
       </c>
-      <c r="M50" s="59" t="s">
+      <c r="M50" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N50" s="28">
         <v>-19</v>
       </c>
-      <c r="O50" s="80" t="s">
+      <c r="O50" s="77" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="76" t="s">
         <v>301</v>
       </c>
       <c r="D51" s="28" t="s">
@@ -7762,22 +8362,22 @@
       <c r="L51" s="31">
         <v>1</v>
       </c>
-      <c r="M51" s="59" t="s">
+      <c r="M51" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N51" s="28">
         <v>-19</v>
       </c>
-      <c r="O51" s="80" t="s">
+      <c r="O51" s="77" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="79" t="s">
+      <c r="C52" s="76" t="s">
         <v>303</v>
       </c>
       <c r="D52" s="28" t="s">
@@ -7803,22 +8403,22 @@
       <c r="L52" s="31">
         <v>1</v>
       </c>
-      <c r="M52" s="59" t="s">
+      <c r="M52" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N52" s="28">
         <v>-19</v>
       </c>
-      <c r="O52" s="80" t="s">
+      <c r="O52" s="77" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="76" t="s">
         <v>306</v>
       </c>
       <c r="D53" s="28" t="s">
@@ -7844,22 +8444,22 @@
       <c r="L53" s="31">
         <v>1</v>
       </c>
-      <c r="M53" s="59" t="s">
+      <c r="M53" s="56" t="s">
         <v>288</v>
       </c>
       <c r="N53" s="28">
         <v>-20</v>
       </c>
-      <c r="O53" s="80" t="s">
+      <c r="O53" s="77" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="76" t="s">
         <v>308</v>
       </c>
       <c r="D54" s="28" t="s">
@@ -7885,22 +8485,22 @@
       <c r="L54" s="31">
         <v>1</v>
       </c>
-      <c r="M54" s="59" t="s">
+      <c r="M54" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N54" s="28">
         <v>-19</v>
       </c>
-      <c r="O54" s="80" t="s">
+      <c r="O54" s="77" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="76" t="s">
         <v>310</v>
       </c>
       <c r="D55" s="28" t="s">
@@ -7926,22 +8526,22 @@
       <c r="L55" s="31">
         <v>1</v>
       </c>
-      <c r="M55" s="59" t="s">
+      <c r="M55" s="56" t="s">
         <v>288</v>
       </c>
       <c r="N55" s="28">
         <v>-20</v>
       </c>
-      <c r="O55" s="80" t="s">
+      <c r="O55" s="77" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
-      <c r="B56" s="60" t="s">
+      <c r="B56" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="76" t="s">
         <v>312</v>
       </c>
       <c r="D56" s="28" t="s">
@@ -7967,22 +8567,22 @@
       <c r="L56" s="31">
         <v>1</v>
       </c>
-      <c r="M56" s="59" t="s">
+      <c r="M56" s="56" t="s">
         <v>313</v>
       </c>
       <c r="N56" s="28">
         <v>-15</v>
       </c>
-      <c r="O56" s="80" t="s">
+      <c r="O56" s="77" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="76" t="s">
         <v>316</v>
       </c>
       <c r="D57" s="28" t="s">
@@ -8008,22 +8608,22 @@
       <c r="L57" s="31">
         <v>1</v>
       </c>
-      <c r="M57" s="59" t="s">
+      <c r="M57" s="56" t="s">
         <v>317</v>
       </c>
       <c r="N57" s="28">
         <v>-15</v>
       </c>
-      <c r="O57" s="80" t="s">
+      <c r="O57" s="77" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="28" t="s">
@@ -8049,22 +8649,22 @@
       <c r="L58" s="31">
         <v>1</v>
       </c>
-      <c r="M58" s="59" t="s">
+      <c r="M58" s="56" t="s">
         <v>313</v>
       </c>
       <c r="N58" s="28">
         <v>-15</v>
       </c>
-      <c r="O58" s="80" t="s">
+      <c r="O58" s="77" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="76" t="s">
         <v>321</v>
       </c>
       <c r="D59" s="28" t="s">
@@ -8090,22 +8690,22 @@
       <c r="L59" s="31">
         <v>1</v>
       </c>
-      <c r="M59" s="59" t="s">
+      <c r="M59" s="56" t="s">
         <v>322</v>
       </c>
       <c r="N59" s="28">
         <v>-15</v>
       </c>
-      <c r="O59" s="80" t="s">
+      <c r="O59" s="77" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="C60" s="79" t="s">
+      <c r="C60" s="76" t="s">
         <v>325</v>
       </c>
       <c r="D60" s="28" t="s">
@@ -8131,22 +8731,22 @@
       <c r="L60" s="31">
         <v>1</v>
       </c>
-      <c r="M60" s="59" t="s">
+      <c r="M60" s="56" t="s">
         <v>139</v>
       </c>
       <c r="N60" s="28">
         <v>-14</v>
       </c>
-      <c r="O60" s="80" t="s">
+      <c r="O60" s="77" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="76" t="s">
         <v>327</v>
       </c>
       <c r="D61" s="28" t="s">
@@ -8172,22 +8772,22 @@
       <c r="L61" s="31">
         <v>1</v>
       </c>
-      <c r="M61" s="59" t="s">
+      <c r="M61" s="56" t="s">
         <v>247</v>
       </c>
       <c r="N61" s="28">
         <v>-13</v>
       </c>
-      <c r="O61" s="80" t="s">
+      <c r="O61" s="77" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="76" t="s">
         <v>330</v>
       </c>
       <c r="D62" s="28" t="s">
@@ -8213,22 +8813,22 @@
       <c r="L62" s="31">
         <v>1</v>
       </c>
-      <c r="M62" s="59" t="s">
+      <c r="M62" s="56" t="s">
         <v>247</v>
       </c>
       <c r="N62" s="28">
         <v>-13</v>
       </c>
-      <c r="O62" s="80" t="s">
+      <c r="O62" s="77" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="76" t="s">
         <v>332</v>
       </c>
       <c r="D63" s="28" t="s">
@@ -8254,22 +8854,22 @@
       <c r="L63" s="31">
         <v>1</v>
       </c>
-      <c r="M63" s="59" t="s">
+      <c r="M63" s="56" t="s">
         <v>334</v>
       </c>
       <c r="N63" s="28">
         <v>-25</v>
       </c>
-      <c r="O63" s="80" t="s">
+      <c r="O63" s="77" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="76" t="s">
         <v>337</v>
       </c>
       <c r="D64" s="28" t="s">
@@ -8295,22 +8895,22 @@
       <c r="L64" s="31">
         <v>1</v>
       </c>
-      <c r="M64" s="59" t="s">
+      <c r="M64" s="56" t="s">
         <v>334</v>
       </c>
       <c r="N64" s="28">
         <v>-25</v>
       </c>
-      <c r="O64" s="80" t="s">
+      <c r="O64" s="77" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="76" t="s">
         <v>339</v>
       </c>
       <c r="D65" s="28" t="s">
@@ -8336,22 +8936,22 @@
       <c r="L65" s="31">
         <v>1</v>
       </c>
-      <c r="M65" s="59" t="s">
+      <c r="M65" s="56" t="s">
         <v>294</v>
       </c>
       <c r="N65" s="28">
         <v>-25</v>
       </c>
-      <c r="O65" s="80" t="s">
+      <c r="O65" s="77" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="76" t="s">
         <v>342</v>
       </c>
       <c r="D66" s="28" t="s">
@@ -8377,22 +8977,22 @@
       <c r="L66" s="31">
         <v>1</v>
       </c>
-      <c r="M66" s="59" t="s">
+      <c r="M66" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N66" s="28">
         <v>-25</v>
       </c>
-      <c r="O66" s="80" t="s">
+      <c r="O66" s="77" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="76" t="s">
         <v>344</v>
       </c>
       <c r="D67" s="28" t="s">
@@ -8418,22 +9018,22 @@
       <c r="L67" s="31">
         <v>1</v>
       </c>
-      <c r="M67" s="59" t="s">
+      <c r="M67" s="56" t="s">
         <v>294</v>
       </c>
       <c r="N67" s="28">
         <v>-25</v>
       </c>
-      <c r="O67" s="80" t="s">
+      <c r="O67" s="77" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
-      <c r="B68" s="60" t="s">
+      <c r="B68" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="C68" s="79" t="s">
+      <c r="C68" s="76" t="s">
         <v>346</v>
       </c>
       <c r="D68" s="28" t="s">
@@ -8459,22 +9059,22 @@
       <c r="L68" s="31">
         <v>1</v>
       </c>
-      <c r="M68" s="59" t="s">
+      <c r="M68" s="56" t="s">
         <v>347</v>
       </c>
       <c r="N68" s="28">
         <v>-25</v>
       </c>
-      <c r="O68" s="80" t="s">
+      <c r="O68" s="77" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="76" t="s">
         <v>349</v>
       </c>
       <c r="D69" s="28" t="s">
@@ -8500,22 +9100,22 @@
       <c r="L69" s="31">
         <v>1</v>
       </c>
-      <c r="M69" s="59" t="s">
+      <c r="M69" s="56" t="s">
         <v>294</v>
       </c>
       <c r="N69" s="28">
         <v>-26</v>
       </c>
-      <c r="O69" s="80" t="s">
+      <c r="O69" s="77" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="76" t="s">
         <v>352</v>
       </c>
       <c r="D70" s="28" t="s">
@@ -8541,22 +9141,22 @@
       <c r="L70" s="31">
         <v>1</v>
       </c>
-      <c r="M70" s="59" t="s">
+      <c r="M70" s="56" t="s">
         <v>250</v>
       </c>
       <c r="N70" s="28">
         <v>-31</v>
       </c>
-      <c r="O70" s="80" t="s">
+      <c r="O70" s="77" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="76" t="s">
         <v>354</v>
       </c>
       <c r="D71" s="28" t="s">
@@ -8582,22 +9182,22 @@
       <c r="L71" s="31">
         <v>1</v>
       </c>
-      <c r="M71" s="59" t="s">
+      <c r="M71" s="56" t="s">
         <v>355</v>
       </c>
       <c r="N71" s="28">
         <v>-26</v>
       </c>
-      <c r="O71" s="80" t="s">
+      <c r="O71" s="77" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="79" t="s">
+      <c r="C72" s="76" t="s">
         <v>358</v>
       </c>
       <c r="D72" s="28" t="s">
@@ -8623,22 +9223,22 @@
       <c r="L72" s="31">
         <v>1</v>
       </c>
-      <c r="M72" s="59" t="s">
+      <c r="M72" s="56" t="s">
         <v>250</v>
       </c>
       <c r="N72" s="28">
         <v>-30</v>
       </c>
-      <c r="O72" s="80" t="s">
+      <c r="O72" s="77" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="76" t="s">
         <v>360</v>
       </c>
       <c r="D73" s="28" t="s">
@@ -8664,22 +9264,22 @@
       <c r="L73" s="31">
         <v>1</v>
       </c>
-      <c r="M73" s="59" t="s">
+      <c r="M73" s="56" t="s">
         <v>119</v>
       </c>
       <c r="N73" s="28">
         <v>-27</v>
       </c>
-      <c r="O73" s="80" t="s">
+      <c r="O73" s="77" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
-      <c r="B74" s="60" t="s">
+      <c r="B74" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="C74" s="79" t="s">
+      <c r="C74" s="76" t="s">
         <v>362</v>
       </c>
       <c r="D74" s="28" t="s">
@@ -8705,22 +9305,22 @@
       <c r="L74" s="31">
         <v>1</v>
       </c>
-      <c r="M74" s="59" t="s">
+      <c r="M74" s="56" t="s">
         <v>179</v>
       </c>
       <c r="N74" s="28">
         <v>-26</v>
       </c>
-      <c r="O74" s="80" t="s">
+      <c r="O74" s="77" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
-      <c r="B75" s="60" t="s">
+      <c r="B75" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="76" t="s">
         <v>364</v>
       </c>
       <c r="D75" s="28" t="s">
@@ -8746,22 +9346,22 @@
       <c r="L75" s="31">
         <v>1</v>
       </c>
-      <c r="M75" s="59" t="s">
+      <c r="M75" s="56" t="s">
         <v>276</v>
       </c>
       <c r="N75" s="28">
         <v>-27</v>
       </c>
-      <c r="O75" s="80" t="s">
+      <c r="O75" s="77" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="C76" s="79" t="s">
+      <c r="C76" s="76" t="s">
         <v>366</v>
       </c>
       <c r="D76" s="28" t="s">
@@ -8787,22 +9387,22 @@
       <c r="L76" s="31">
         <v>1</v>
       </c>
-      <c r="M76" s="59" t="s">
+      <c r="M76" s="56" t="s">
         <v>179</v>
       </c>
       <c r="N76" s="28">
         <v>-34</v>
       </c>
-      <c r="O76" s="80" t="s">
+      <c r="O76" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="76" t="s">
         <v>369</v>
       </c>
       <c r="D77" s="28" t="s">
@@ -8828,22 +9428,22 @@
       <c r="L77" s="31">
         <v>1</v>
       </c>
-      <c r="M77" s="59" t="s">
+      <c r="M77" s="56" t="s">
         <v>288</v>
       </c>
       <c r="N77" s="28">
         <v>-20</v>
       </c>
-      <c r="O77" s="80" t="s">
+      <c r="O77" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="C78" s="79" t="s">
+      <c r="C78" s="76" t="s">
         <v>371</v>
       </c>
       <c r="D78" s="28" t="s">
@@ -8869,22 +9469,22 @@
       <c r="L78" s="31">
         <v>1</v>
       </c>
-      <c r="M78" s="59" t="s">
+      <c r="M78" s="56" t="s">
         <v>276</v>
       </c>
       <c r="N78" s="28">
         <v>-29</v>
       </c>
-      <c r="O78" s="80" t="s">
+      <c r="O78" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="C79" s="79" t="s">
+      <c r="C79" s="76" t="s">
         <v>373</v>
       </c>
       <c r="D79" s="28" t="s">
@@ -8916,16 +9516,16 @@
       <c r="N79" s="28">
         <v>-28</v>
       </c>
-      <c r="O79" s="80" t="s">
+      <c r="O79" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
-      <c r="B80" s="60" t="s">
+      <c r="B80" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="C80" s="79" t="s">
+      <c r="C80" s="76" t="s">
         <v>375</v>
       </c>
       <c r="D80" s="28" t="s">
@@ -8951,22 +9551,22 @@
       <c r="L80" s="31">
         <v>1</v>
       </c>
-      <c r="M80" s="59" t="s">
+      <c r="M80" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N80" s="28">
         <v>-19</v>
       </c>
-      <c r="O80" s="80" t="s">
+      <c r="O80" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
-      <c r="B81" s="60" t="s">
+      <c r="B81" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="C81" s="79" t="s">
+      <c r="C81" s="76" t="s">
         <v>377</v>
       </c>
       <c r="D81" s="28" t="s">
@@ -8992,22 +9592,22 @@
       <c r="L81" s="31">
         <v>1</v>
       </c>
-      <c r="M81" s="59" t="s">
+      <c r="M81" s="56" t="s">
         <v>190</v>
       </c>
       <c r="N81" s="28">
         <v>-27</v>
       </c>
-      <c r="O81" s="80" t="s">
+      <c r="O81" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
-      <c r="B82" s="60" t="s">
+      <c r="B82" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="76" t="s">
         <v>379</v>
       </c>
       <c r="D82" s="28" t="s">
@@ -9033,22 +9633,22 @@
       <c r="L82" s="31">
         <v>1</v>
       </c>
-      <c r="M82" s="59" t="s">
+      <c r="M82" s="56" t="s">
         <v>276</v>
       </c>
       <c r="N82" s="28">
         <v>-36</v>
       </c>
-      <c r="O82" s="80" t="s">
+      <c r="O82" s="77" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="76" t="s">
         <v>382</v>
       </c>
       <c r="D83" s="28" t="s">
@@ -9074,22 +9674,22 @@
       <c r="L83" s="31">
         <v>1</v>
       </c>
-      <c r="M83" s="59" t="s">
+      <c r="M83" s="56" t="s">
         <v>383</v>
       </c>
       <c r="N83" s="28">
         <v>-34</v>
       </c>
-      <c r="O83" s="80" t="s">
+      <c r="O83" s="77" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="76" t="s">
         <v>385</v>
       </c>
       <c r="D84" s="28" t="s">
@@ -9115,22 +9715,22 @@
       <c r="L84" s="31">
         <v>1</v>
       </c>
-      <c r="M84" s="59" t="s">
+      <c r="M84" s="56" t="s">
         <v>276</v>
       </c>
       <c r="N84" s="28">
         <v>-36</v>
       </c>
-      <c r="O84" s="80" t="s">
+      <c r="O84" s="77" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="76" t="s">
         <v>387</v>
       </c>
       <c r="D85" s="28" t="s">
@@ -9156,22 +9756,22 @@
       <c r="L85" s="31">
         <v>1</v>
       </c>
-      <c r="M85" s="59" t="s">
+      <c r="M85" s="56" t="s">
         <v>383</v>
       </c>
       <c r="N85" s="28">
         <v>-34</v>
       </c>
-      <c r="O85" s="80" t="s">
+      <c r="O85" s="77" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
-      <c r="B86" s="60" t="s">
+      <c r="B86" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="76" t="s">
         <v>389</v>
       </c>
       <c r="D86" s="28" t="s">
@@ -9197,22 +9797,22 @@
       <c r="L86" s="31">
         <v>1</v>
       </c>
-      <c r="M86" s="59" t="s">
+      <c r="M86" s="56" t="s">
         <v>390</v>
       </c>
       <c r="N86" s="28">
         <v>-29</v>
       </c>
-      <c r="O86" s="80" t="s">
+      <c r="O86" s="77" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="76" t="s">
         <v>393</v>
       </c>
       <c r="D87" s="28" t="s">
@@ -9238,22 +9838,22 @@
       <c r="L87" s="31">
         <v>1</v>
       </c>
-      <c r="M87" s="59" t="s">
+      <c r="M87" s="56" t="s">
         <v>394</v>
       </c>
       <c r="N87" s="28">
         <v>-29</v>
       </c>
-      <c r="O87" s="80" t="s">
+      <c r="O87" s="77" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
-      <c r="B88" s="60" t="s">
+      <c r="B88" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="C88" s="79" t="s">
+      <c r="C88" s="76" t="s">
         <v>396</v>
       </c>
       <c r="D88" s="28" t="s">
@@ -9279,22 +9879,22 @@
       <c r="L88" s="31">
         <v>1</v>
       </c>
-      <c r="M88" s="59" t="s">
+      <c r="M88" s="56" t="s">
         <v>397</v>
       </c>
       <c r="N88" s="28">
         <v>-28</v>
       </c>
-      <c r="O88" s="80" t="s">
+      <c r="O88" s="77" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="C89" s="79" t="s">
+      <c r="C89" s="76" t="s">
         <v>400</v>
       </c>
       <c r="D89" s="28" t="s">
@@ -9320,22 +9920,22 @@
       <c r="L89" s="31">
         <v>1</v>
       </c>
-      <c r="M89" s="59" t="s">
+      <c r="M89" s="56" t="s">
         <v>401</v>
       </c>
       <c r="N89" s="28">
         <v>-32</v>
       </c>
-      <c r="O89" s="80" t="s">
+      <c r="O89" s="77" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
-      <c r="B90" s="60" t="s">
+      <c r="B90" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="C90" s="79" t="s">
+      <c r="C90" s="76" t="s">
         <v>403</v>
       </c>
       <c r="D90" s="28" t="s">
@@ -9361,22 +9961,22 @@
       <c r="L90" s="31">
         <v>1</v>
       </c>
-      <c r="M90" s="59" t="s">
+      <c r="M90" s="56" t="s">
         <v>397</v>
       </c>
       <c r="N90" s="28">
         <v>-28</v>
       </c>
-      <c r="O90" s="80" t="s">
+      <c r="O90" s="77" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="C91" s="79" t="s">
+      <c r="C91" s="76" t="s">
         <v>405</v>
       </c>
       <c r="D91" s="28" t="s">
@@ -9402,22 +10002,22 @@
       <c r="L91" s="31">
         <v>1</v>
       </c>
-      <c r="M91" s="59" t="s">
+      <c r="M91" s="56" t="s">
         <v>406</v>
       </c>
       <c r="N91" s="28">
         <v>-23</v>
       </c>
-      <c r="O91" s="80" t="s">
+      <c r="O91" s="77" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
-      <c r="B92" s="60" t="s">
+      <c r="B92" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="76" t="s">
         <v>409</v>
       </c>
       <c r="D92" s="28" t="s">
@@ -9443,22 +10043,22 @@
       <c r="L92" s="31">
         <v>1</v>
       </c>
-      <c r="M92" s="59" t="s">
+      <c r="M92" s="56" t="s">
         <v>355</v>
       </c>
       <c r="N92" s="28">
         <v>-25</v>
       </c>
-      <c r="O92" s="80" t="s">
+      <c r="O92" s="77" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="76" t="s">
         <v>411</v>
       </c>
       <c r="D93" s="28" t="s">
@@ -9484,22 +10084,22 @@
       <c r="L93" s="31">
         <v>1</v>
       </c>
-      <c r="M93" s="59" t="s">
+      <c r="M93" s="56" t="s">
         <v>279</v>
       </c>
       <c r="N93" s="28">
         <v>-23</v>
       </c>
-      <c r="O93" s="80" t="s">
+      <c r="O93" s="77" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
-      <c r="B94" s="60" t="s">
+      <c r="B94" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="C94" s="79" t="s">
+      <c r="C94" s="76" t="s">
         <v>413</v>
       </c>
       <c r="D94" s="28" t="s">
@@ -9525,22 +10125,22 @@
       <c r="L94" s="31">
         <v>1</v>
       </c>
-      <c r="M94" s="59" t="s">
+      <c r="M94" s="56" t="s">
         <v>406</v>
       </c>
       <c r="N94" s="28">
         <v>-23</v>
       </c>
-      <c r="O94" s="80" t="s">
+      <c r="O94" s="77" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="C95" s="79" t="s">
+      <c r="C95" s="76" t="s">
         <v>415</v>
       </c>
       <c r="D95" s="28" t="s">
@@ -9566,22 +10166,22 @@
       <c r="L95" s="31">
         <v>1</v>
       </c>
-      <c r="M95" s="59" t="s">
+      <c r="M95" s="56" t="s">
         <v>355</v>
       </c>
       <c r="N95" s="28">
         <v>-25</v>
       </c>
-      <c r="O95" s="80" t="s">
+      <c r="O95" s="77" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
-      <c r="B96" s="60" t="s">
+      <c r="B96" s="57" t="s">
         <v>416</v>
       </c>
-      <c r="C96" s="79" t="s">
+      <c r="C96" s="76" t="s">
         <v>417</v>
       </c>
       <c r="D96" s="28" t="s">
@@ -9607,1103 +10207,1103 @@
       <c r="L96" s="31">
         <v>1</v>
       </c>
-      <c r="M96" s="59" t="s">
+      <c r="M96" s="56" t="s">
         <v>279</v>
       </c>
       <c r="N96" s="28">
         <v>-23</v>
       </c>
-      <c r="O96" s="80" t="s">
+      <c r="O96" s="77" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
-      <c r="B97" s="62" t="s">
+      <c r="B97" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="C97" s="79" t="s">
+      <c r="C97" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="D97" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H97" s="64" t="s">
+      <c r="D97" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H97" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I97" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J97" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K97" s="66">
-        <v>16</v>
-      </c>
-      <c r="L97" s="66">
-        <v>1</v>
-      </c>
-      <c r="M97" s="67" t="s">
+      <c r="I97" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K97" s="63">
+        <v>16</v>
+      </c>
+      <c r="L97" s="63">
+        <v>1</v>
+      </c>
+      <c r="M97" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="N97" s="63">
+      <c r="N97" s="60">
         <v>-36</v>
       </c>
-      <c r="O97" s="80" t="s">
+      <c r="O97" s="77" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
-      <c r="B98" s="62" t="s">
+      <c r="B98" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="C98" s="79" t="s">
+      <c r="C98" s="76" t="s">
         <v>424</v>
       </c>
-      <c r="D98" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63"/>
-      <c r="G98" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H98" s="64" t="s">
+      <c r="D98" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H98" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I98" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J98" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K98" s="66">
-        <v>16</v>
-      </c>
-      <c r="L98" s="66">
-        <v>1</v>
-      </c>
-      <c r="M98" s="67" t="s">
+      <c r="I98" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98" s="63">
+        <v>16</v>
+      </c>
+      <c r="L98" s="63">
+        <v>1</v>
+      </c>
+      <c r="M98" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="N98" s="63">
+      <c r="N98" s="60">
         <v>-55</v>
       </c>
-      <c r="O98" s="80" t="s">
+      <c r="O98" s="77" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
-      <c r="B99" s="62" t="s">
+      <c r="B99" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="C99" s="79" t="s">
+      <c r="C99" s="76" t="s">
         <v>427</v>
       </c>
-      <c r="D99" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63"/>
-      <c r="G99" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H99" s="64" t="s">
+      <c r="D99" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H99" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I99" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J99" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K99" s="66">
-        <v>16</v>
-      </c>
-      <c r="L99" s="66">
-        <v>1</v>
-      </c>
-      <c r="M99" s="67" t="s">
+      <c r="I99" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J99" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K99" s="63">
+        <v>16</v>
+      </c>
+      <c r="L99" s="63">
+        <v>1</v>
+      </c>
+      <c r="M99" s="64" t="s">
         <v>428</v>
       </c>
-      <c r="N99" s="63">
+      <c r="N99" s="60">
         <v>-39</v>
       </c>
-      <c r="O99" s="80" t="s">
+      <c r="O99" s="77" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
-      <c r="B100" s="62" t="s">
+      <c r="B100" s="59" t="s">
         <v>429</v>
       </c>
-      <c r="C100" s="79" t="s">
+      <c r="C100" s="76" t="s">
         <v>430</v>
       </c>
-      <c r="D100" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63"/>
-      <c r="G100" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H100" s="64" t="s">
+      <c r="D100" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H100" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I100" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J100" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K100" s="66">
-        <v>16</v>
-      </c>
-      <c r="L100" s="66">
-        <v>1</v>
-      </c>
-      <c r="M100" s="67" t="s">
+      <c r="I100" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J100" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100" s="63">
+        <v>16</v>
+      </c>
+      <c r="L100" s="63">
+        <v>1</v>
+      </c>
+      <c r="M100" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="N100" s="63">
+      <c r="N100" s="60">
         <v>-58</v>
       </c>
-      <c r="O100" s="80" t="s">
+      <c r="O100" s="77" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
-      <c r="B101" s="62" t="s">
+      <c r="B101" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="C101" s="79" t="s">
+      <c r="C101" s="76" t="s">
         <v>434</v>
       </c>
-      <c r="D101" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H101" s="64" t="s">
+      <c r="D101" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H101" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I101" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J101" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K101" s="66">
-        <v>16</v>
-      </c>
-      <c r="L101" s="66">
-        <v>1</v>
-      </c>
-      <c r="M101" s="67" t="s">
+      <c r="I101" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J101" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101" s="63">
+        <v>16</v>
+      </c>
+      <c r="L101" s="63">
+        <v>1</v>
+      </c>
+      <c r="M101" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="N101" s="63">
+      <c r="N101" s="60">
         <v>-32</v>
       </c>
-      <c r="O101" s="80" t="s">
+      <c r="O101" s="77" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
-      <c r="B102" s="62" t="s">
+      <c r="B102" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="C102" s="79" t="s">
+      <c r="C102" s="76" t="s">
         <v>437</v>
       </c>
-      <c r="D102" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
-      <c r="G102" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H102" s="64" t="s">
+      <c r="D102" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H102" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I102" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J102" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K102" s="66">
-        <v>16</v>
-      </c>
-      <c r="L102" s="66">
-        <v>1</v>
-      </c>
-      <c r="M102" s="67" t="s">
+      <c r="I102" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J102" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" s="63">
+        <v>16</v>
+      </c>
+      <c r="L102" s="63">
+        <v>1</v>
+      </c>
+      <c r="M102" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="N102" s="63">
+      <c r="N102" s="60">
         <v>-67</v>
       </c>
-      <c r="O102" s="80" t="s">
+      <c r="O102" s="77" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="76" t="s">
         <v>440</v>
       </c>
-      <c r="D103" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H103" s="64" t="s">
+      <c r="D103" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H103" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I103" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J103" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K103" s="66">
-        <v>16</v>
-      </c>
-      <c r="L103" s="66">
-        <v>1</v>
-      </c>
-      <c r="M103" s="67" t="s">
+      <c r="I103" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J103" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K103" s="63">
+        <v>16</v>
+      </c>
+      <c r="L103" s="63">
+        <v>1</v>
+      </c>
+      <c r="M103" s="64" t="s">
         <v>441</v>
       </c>
-      <c r="N103" s="63">
+      <c r="N103" s="60">
         <v>-38</v>
       </c>
-      <c r="O103" s="80" t="s">
+      <c r="O103" s="77" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
-      <c r="B104" s="62" t="s">
+      <c r="B104" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="76" t="s">
         <v>444</v>
       </c>
-      <c r="D104" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104" s="63"/>
-      <c r="F104" s="63"/>
-      <c r="G104" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H104" s="64" t="s">
+      <c r="D104" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H104" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I104" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J104" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K104" s="66">
-        <v>16</v>
-      </c>
-      <c r="L104" s="66">
-        <v>1</v>
-      </c>
-      <c r="M104" s="67" t="s">
+      <c r="I104" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J104" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K104" s="63">
+        <v>16</v>
+      </c>
+      <c r="L104" s="63">
+        <v>1</v>
+      </c>
+      <c r="M104" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="N104" s="63">
+      <c r="N104" s="60">
         <v>-73</v>
       </c>
-      <c r="O104" s="80" t="s">
+      <c r="O104" s="77" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="C105" s="79" t="s">
+      <c r="C105" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="D105" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H105" s="64" t="s">
+      <c r="D105" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H105" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I105" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J105" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K105" s="66">
-        <v>16</v>
-      </c>
-      <c r="L105" s="66">
-        <v>1</v>
-      </c>
-      <c r="M105" s="67" t="s">
+      <c r="I105" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J105" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K105" s="63">
+        <v>16</v>
+      </c>
+      <c r="L105" s="63">
+        <v>1</v>
+      </c>
+      <c r="M105" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="N105" s="63">
+      <c r="N105" s="60">
         <v>-43</v>
       </c>
-      <c r="O105" s="80" t="s">
+      <c r="O105" s="77" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
-      <c r="B106" s="62" t="s">
+      <c r="B106" s="59" t="s">
         <v>449</v>
       </c>
-      <c r="C106" s="79" t="s">
+      <c r="C106" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="D106" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H106" s="64" t="s">
+      <c r="D106" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H106" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I106" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J106" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K106" s="66">
-        <v>16</v>
-      </c>
-      <c r="L106" s="66">
-        <v>1</v>
-      </c>
-      <c r="M106" s="67" t="s">
+      <c r="I106" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J106" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" s="63">
+        <v>16</v>
+      </c>
+      <c r="L106" s="63">
+        <v>1</v>
+      </c>
+      <c r="M106" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="N106" s="63">
+      <c r="N106" s="60">
         <v>-61</v>
       </c>
-      <c r="O106" s="80" t="s">
+      <c r="O106" s="77" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
-      <c r="B107" s="62" t="s">
+      <c r="B107" s="59" t="s">
         <v>452</v>
       </c>
-      <c r="C107" s="79" t="s">
+      <c r="C107" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="D107" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H107" s="64" t="s">
+      <c r="D107" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H107" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I107" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J107" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K107" s="66">
-        <v>16</v>
-      </c>
-      <c r="L107" s="66">
-        <v>1</v>
-      </c>
-      <c r="M107" s="67" t="s">
+      <c r="I107" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J107" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K107" s="63">
+        <v>16</v>
+      </c>
+      <c r="L107" s="63">
+        <v>1</v>
+      </c>
+      <c r="M107" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="N107" s="63">
+      <c r="N107" s="60">
         <v>-61</v>
       </c>
-      <c r="O107" s="80" t="s">
+      <c r="O107" s="77" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
-      <c r="B108" s="62" t="s">
+      <c r="B108" s="59" t="s">
         <v>456</v>
       </c>
-      <c r="C108" s="79" t="s">
+      <c r="C108" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="D108" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H108" s="64" t="s">
+      <c r="D108" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H108" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I108" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J108" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K108" s="66">
-        <v>16</v>
-      </c>
-      <c r="L108" s="66">
-        <v>1</v>
-      </c>
-      <c r="M108" s="67" t="s">
+      <c r="I108" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J108" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K108" s="63">
+        <v>16</v>
+      </c>
+      <c r="L108" s="63">
+        <v>1</v>
+      </c>
+      <c r="M108" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="N108" s="63">
+      <c r="N108" s="60">
         <v>-58</v>
       </c>
-      <c r="O108" s="80" t="s">
+      <c r="O108" s="77" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="C109" s="79" t="s">
+      <c r="C109" s="76" t="s">
         <v>460</v>
       </c>
-      <c r="D109" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H109" s="64" t="s">
+      <c r="D109" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="60"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H109" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I109" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J109" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K109" s="66">
-        <v>16</v>
-      </c>
-      <c r="L109" s="66">
-        <v>1</v>
-      </c>
-      <c r="M109" s="67" t="s">
+      <c r="I109" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J109" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K109" s="63">
+        <v>16</v>
+      </c>
+      <c r="L109" s="63">
+        <v>1</v>
+      </c>
+      <c r="M109" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="N109" s="63">
+      <c r="N109" s="60">
         <v>-61</v>
       </c>
-      <c r="O109" s="80" t="s">
+      <c r="O109" s="77" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
-      <c r="B110" s="62" t="s">
+      <c r="B110" s="59" t="s">
         <v>461</v>
       </c>
-      <c r="C110" s="79" t="s">
+      <c r="C110" s="76" t="s">
         <v>462</v>
       </c>
-      <c r="D110" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" s="63"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H110" s="64" t="s">
+      <c r="D110" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H110" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I110" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J110" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K110" s="66">
-        <v>16</v>
-      </c>
-      <c r="L110" s="66">
-        <v>1</v>
-      </c>
-      <c r="M110" s="67" t="s">
+      <c r="I110" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J110" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K110" s="63">
+        <v>16</v>
+      </c>
+      <c r="L110" s="63">
+        <v>1</v>
+      </c>
+      <c r="M110" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="N110" s="63">
+      <c r="N110" s="60">
         <v>-51</v>
       </c>
-      <c r="O110" s="80" t="s">
+      <c r="O110" s="77" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
-      <c r="B111" s="62" t="s">
+      <c r="B111" s="59" t="s">
         <v>465</v>
       </c>
-      <c r="C111" s="79" t="s">
+      <c r="C111" s="76" t="s">
         <v>466</v>
       </c>
-      <c r="D111" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H111" s="64" t="s">
+      <c r="D111" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="60"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H111" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I111" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J111" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K111" s="66">
-        <v>16</v>
-      </c>
-      <c r="L111" s="66">
-        <v>1</v>
-      </c>
-      <c r="M111" s="67" t="s">
+      <c r="I111" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J111" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K111" s="63">
+        <v>16</v>
+      </c>
+      <c r="L111" s="63">
+        <v>1</v>
+      </c>
+      <c r="M111" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="N111" s="63">
+      <c r="N111" s="60">
         <v>-55</v>
       </c>
-      <c r="O111" s="80" t="s">
+      <c r="O111" s="77" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
-      <c r="B112" s="62" t="s">
+      <c r="B112" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="C112" s="79" t="s">
+      <c r="C112" s="76" t="s">
         <v>469</v>
       </c>
-      <c r="D112" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" s="63"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H112" s="64" t="s">
+      <c r="D112" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H112" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I112" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J112" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K112" s="66">
-        <v>16</v>
-      </c>
-      <c r="L112" s="66">
-        <v>1</v>
-      </c>
-      <c r="M112" s="67" t="s">
+      <c r="I112" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J112" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112" s="63">
+        <v>16</v>
+      </c>
+      <c r="L112" s="63">
+        <v>1</v>
+      </c>
+      <c r="M112" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="N112" s="63">
+      <c r="N112" s="60">
         <v>-75</v>
       </c>
-      <c r="O112" s="80" t="s">
+      <c r="O112" s="77" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
-      <c r="B113" s="62" t="s">
+      <c r="B113" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="76" t="s">
         <v>472</v>
       </c>
-      <c r="D113" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H113" s="64" t="s">
+      <c r="D113" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H113" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I113" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J113" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K113" s="66">
-        <v>16</v>
-      </c>
-      <c r="L113" s="66">
-        <v>1</v>
-      </c>
-      <c r="M113" s="67" t="s">
+      <c r="I113" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J113" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K113" s="63">
+        <v>16</v>
+      </c>
+      <c r="L113" s="63">
+        <v>1</v>
+      </c>
+      <c r="M113" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="N113" s="63">
+      <c r="N113" s="60">
         <v>-38</v>
       </c>
-      <c r="O113" s="80" t="s">
+      <c r="O113" s="77" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
-      <c r="B114" s="62" t="s">
+      <c r="B114" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="C114" s="79" t="s">
+      <c r="C114" s="76" t="s">
         <v>475</v>
       </c>
-      <c r="D114" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="63"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H114" s="64" t="s">
+      <c r="D114" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H114" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I114" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J114" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K114" s="66">
-        <v>16</v>
-      </c>
-      <c r="L114" s="66">
-        <v>1</v>
-      </c>
-      <c r="M114" s="67" t="s">
+      <c r="I114" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" s="63">
+        <v>16</v>
+      </c>
+      <c r="L114" s="63">
+        <v>1</v>
+      </c>
+      <c r="M114" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="N114" s="63">
+      <c r="N114" s="60">
         <v>-65</v>
       </c>
-      <c r="O114" s="80" t="s">
+      <c r="O114" s="77" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
-      <c r="B115" s="62" t="s">
+      <c r="B115" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="C115" s="79" t="s">
+      <c r="C115" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="D115" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="63"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H115" s="64" t="s">
+      <c r="D115" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="60"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H115" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I115" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J115" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K115" s="66">
-        <v>16</v>
-      </c>
-      <c r="L115" s="66">
-        <v>1</v>
-      </c>
-      <c r="M115" s="67" t="s">
+      <c r="I115" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J115" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115" s="63">
+        <v>16</v>
+      </c>
+      <c r="L115" s="63">
+        <v>1</v>
+      </c>
+      <c r="M115" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="N115" s="63">
+      <c r="N115" s="60">
         <v>-43</v>
       </c>
-      <c r="O115" s="80" t="s">
+      <c r="O115" s="77" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B116" s="68" t="s">
+      <c r="B116" s="65" t="s">
         <v>481</v>
       </c>
-      <c r="C116" s="79" t="s">
+      <c r="C116" s="76" t="s">
         <v>482</v>
       </c>
-      <c r="D116" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E116" s="63"/>
-      <c r="F116" s="63"/>
-      <c r="G116" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H116" s="64" t="s">
+      <c r="D116" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" s="60"/>
+      <c r="F116" s="60"/>
+      <c r="G116" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H116" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I116" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J116" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K116" s="66">
-        <v>16</v>
-      </c>
-      <c r="L116" s="66">
-        <v>1</v>
-      </c>
-      <c r="M116" s="67" t="s">
+      <c r="I116" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J116" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K116" s="63">
+        <v>16</v>
+      </c>
+      <c r="L116" s="63">
+        <v>1</v>
+      </c>
+      <c r="M116" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="N116" s="63">
+      <c r="N116" s="60">
         <v>-65</v>
       </c>
-      <c r="O116" s="80" t="s">
+      <c r="O116" s="77" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B117" s="68" t="s">
+      <c r="B117" s="65" t="s">
         <v>483</v>
       </c>
-      <c r="C117" s="79" t="s">
+      <c r="C117" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="D117" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E117" s="63"/>
-      <c r="F117" s="63"/>
-      <c r="G117" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H117" s="64" t="s">
+      <c r="D117" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H117" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I117" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J117" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K117" s="66">
-        <v>16</v>
-      </c>
-      <c r="L117" s="66">
-        <v>1</v>
-      </c>
-      <c r="M117" s="67" t="s">
+      <c r="I117" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J117" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K117" s="63">
+        <v>16</v>
+      </c>
+      <c r="L117" s="63">
+        <v>1</v>
+      </c>
+      <c r="M117" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="N117" s="63">
+      <c r="N117" s="60">
         <v>-43</v>
       </c>
-      <c r="O117" s="80" t="s">
+      <c r="O117" s="77" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B118" s="68" t="s">
+      <c r="B118" s="65" t="s">
         <v>485</v>
       </c>
-      <c r="C118" s="79" t="s">
+      <c r="C118" s="76" t="s">
         <v>486</v>
       </c>
-      <c r="D118" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" s="63"/>
-      <c r="F118" s="63"/>
-      <c r="G118" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H118" s="64" t="s">
+      <c r="D118" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="60"/>
+      <c r="F118" s="60"/>
+      <c r="G118" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H118" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I118" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J118" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K118" s="66">
-        <v>16</v>
-      </c>
-      <c r="L118" s="66">
-        <v>1</v>
-      </c>
-      <c r="M118" s="69" t="s">
+      <c r="I118" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J118" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" s="63">
+        <v>16</v>
+      </c>
+      <c r="L118" s="63">
+        <v>1</v>
+      </c>
+      <c r="M118" s="66" t="s">
         <v>487</v>
       </c>
-      <c r="N118" s="70">
+      <c r="N118" s="67">
         <v>-50</v>
       </c>
-      <c r="O118" s="80" t="s">
+      <c r="O118" s="77" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B119" s="68" t="s">
+      <c r="B119" s="65" t="s">
         <v>489</v>
       </c>
-      <c r="C119" s="79" t="s">
+      <c r="C119" s="76" t="s">
         <v>490</v>
       </c>
-      <c r="D119" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="63"/>
-      <c r="F119" s="63"/>
-      <c r="G119" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H119" s="64" t="s">
+      <c r="D119" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="60"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H119" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I119" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J119" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K119" s="66">
-        <v>16</v>
-      </c>
-      <c r="L119" s="66">
-        <v>1</v>
-      </c>
-      <c r="M119" s="67" t="s">
+      <c r="I119" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J119" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K119" s="63">
+        <v>16</v>
+      </c>
+      <c r="L119" s="63">
+        <v>1</v>
+      </c>
+      <c r="M119" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="N119" s="63">
+      <c r="N119" s="60">
         <v>-36</v>
       </c>
-      <c r="O119" s="80" t="s">
+      <c r="O119" s="77" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B120" s="68" t="s">
+      <c r="B120" s="65" t="s">
         <v>492</v>
       </c>
-      <c r="C120" s="79" t="s">
+      <c r="C120" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="D120" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120" s="63"/>
-      <c r="F120" s="63"/>
-      <c r="G120" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H120" s="64" t="s">
+      <c r="D120" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="60"/>
+      <c r="F120" s="60"/>
+      <c r="G120" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H120" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I120" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J120" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K120" s="66">
-        <v>16</v>
-      </c>
-      <c r="L120" s="66">
-        <v>1</v>
-      </c>
-      <c r="M120" s="67" t="s">
+      <c r="I120" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J120" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120" s="63">
+        <v>16</v>
+      </c>
+      <c r="L120" s="63">
+        <v>1</v>
+      </c>
+      <c r="M120" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="N120" s="63">
+      <c r="N120" s="60">
         <v>-75</v>
       </c>
-      <c r="O120" s="80" t="s">
+      <c r="O120" s="77" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B121" s="68" t="s">
+      <c r="B121" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="C121" s="79" t="s">
+      <c r="C121" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="D121" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="63"/>
-      <c r="F121" s="63"/>
-      <c r="G121" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="H121" s="64" t="s">
+      <c r="D121" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H121" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="I121" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="J121" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="K121" s="66">
-        <v>16</v>
-      </c>
-      <c r="L121" s="66">
-        <v>1</v>
-      </c>
-      <c r="M121" s="67" t="s">
+      <c r="I121" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J121" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K121" s="63">
+        <v>16</v>
+      </c>
+      <c r="L121" s="63">
+        <v>1</v>
+      </c>
+      <c r="M121" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="N121" s="63">
+      <c r="N121" s="60">
         <v>-75</v>
       </c>
-      <c r="O121" s="80" t="s">
+      <c r="O121" s="77" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B122" s="68"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="63"/>
-      <c r="J122" s="65"/>
-      <c r="K122" s="66"/>
-      <c r="L122" s="66"/>
-      <c r="M122" s="67"/>
-      <c r="N122" s="63"/>
-      <c r="O122" s="61"/>
+      <c r="B122" s="65"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="60"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="62"/>
+      <c r="K122" s="63"/>
+      <c r="L122" s="63"/>
+      <c r="M122" s="64"/>
+      <c r="N122" s="60"/>
+      <c r="O122" s="58"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B123" s="68"/>
-      <c r="D123" s="63"/>
-      <c r="E123" s="63"/>
-      <c r="F123" s="63"/>
-      <c r="G123" s="64"/>
-      <c r="H123" s="64"/>
-      <c r="I123" s="63"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="66"/>
-      <c r="L123" s="66"/>
-      <c r="M123" s="67"/>
-      <c r="N123" s="63"/>
-      <c r="O123" s="61"/>
+      <c r="B123" s="65"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="62"/>
+      <c r="K123" s="63"/>
+      <c r="L123" s="63"/>
+      <c r="M123" s="64"/>
+      <c r="N123" s="60"/>
+      <c r="O123" s="58"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B124" s="71"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="73"/>
-      <c r="E124" s="73"/>
-      <c r="F124" s="73"/>
-      <c r="G124" s="74"/>
-      <c r="H124" s="74"/>
-      <c r="I124" s="73"/>
-      <c r="J124" s="75"/>
-      <c r="K124" s="75"/>
-      <c r="L124" s="75"/>
-      <c r="M124" s="75"/>
-      <c r="N124" s="75"/>
-      <c r="O124" s="76"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="71"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="72"/>
+      <c r="K124" s="72"/>
+      <c r="L124" s="72"/>
+      <c r="M124" s="72"/>
+      <c r="N124" s="72"/>
+      <c r="O124" s="73"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B125" s="77"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="78">
+      <c r="B125" s="74"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="75">
         <f>COUNTA(D4:D124)</f>
         <v>118</v>
       </c>
-      <c r="E125" s="78">
+      <c r="E125" s="75">
         <v>0</v>
       </c>
-      <c r="F125" s="78">
+      <c r="F125" s="75">
         <v>0</v>
       </c>
-      <c r="G125" s="77"/>
-      <c r="H125" s="77"/>
-      <c r="I125" s="77"/>
-      <c r="J125" s="77"/>
-      <c r="K125" s="77"/>
-      <c r="L125" s="77"/>
-      <c r="M125" s="77"/>
-      <c r="N125" s="77"/>
-      <c r="O125" s="77"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="74"/>
+      <c r="L125" s="74"/>
+      <c r="M125" s="74"/>
+      <c r="N125" s="74"/>
+      <c r="O125" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Docs/TDS/TablaMetadatos.xlsx
+++ b/Docs/TDS/TablaMetadatos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Documents\GitHub\Wasted-Racing\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="660">
   <si>
     <t>Metadatos - Global + Estadísticas</t>
   </si>
@@ -1595,9 +1595,6 @@
     <t>https://freesound.org/people/dobroide/sounds/65471/</t>
   </si>
   <si>
-    <t>https://freesound.org/people/newagesoup/sounds/377827/</t>
-  </si>
-  <si>
     <t>https://freesound.org/people/karolist/sounds/370632/</t>
   </si>
   <si>
@@ -1794,13 +1791,249 @@
   </si>
   <si>
     <t>1.15</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/VHS_effect.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/VHS_beep.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/spray_effect.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/city_night_ambient.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/370632__karolist__slow-motion-sound.wav</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/metalic_hit_1.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/metalic_hit_2.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/fluorescent_hum.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/VHS_play.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/fluorescent_tilt.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/cyborg_eye.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/camera_noise.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/interference_first.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/interference_second.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/interference_third.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/metalic_hit.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/rollerblade_doppler.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/rollerblade_doppler_2.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/rollerblade_spinning.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/rollerblade_acceleration.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/rollerblade_acceleration_2.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/sparks.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/explosion_1.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/laces_1.mp3</t>
+  </si>
+  <si>
+    <t>Game/media/audio/credits/laces_2.mp3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.8000000000000007"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Revisable en el .aup en: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Docs/TDS/Credits/</t>
+    </r>
+  </si>
+  <si>
+    <t>.mp3</t>
+  </si>
+  <si>
+    <t>.wav</t>
+  </si>
+  <si>
+    <t>00.03.239</t>
+  </si>
+  <si>
+    <t>00.01.332</t>
+  </si>
+  <si>
+    <t>00.02.769</t>
+  </si>
+  <si>
+    <t>00.00.504</t>
+  </si>
+  <si>
+    <t>00.01.128</t>
+  </si>
+  <si>
+    <t>00.05.400</t>
+  </si>
+  <si>
+    <t>00.05.088</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>00.04.824</t>
+  </si>
+  <si>
+    <t>00.00.240</t>
+  </si>
+  <si>
+    <t>00.00.528</t>
+  </si>
+  <si>
+    <t>00.01.149</t>
+  </si>
+  <si>
+    <t>00.04.296</t>
+  </si>
+  <si>
+    <t>00.00.287</t>
+  </si>
+  <si>
+    <t>00.13.087</t>
+  </si>
+  <si>
+    <t>00.04.661</t>
+  </si>
+  <si>
+    <t>00.00.432</t>
+  </si>
+  <si>
+    <t>00.00.549</t>
+  </si>
+  <si>
+    <t>00.00.653</t>
+  </si>
+  <si>
+    <t>00.10.848</t>
+  </si>
+  <si>
+    <t>00.01.123</t>
+  </si>
+  <si>
+    <t>00.02.717</t>
+  </si>
+  <si>
+    <t>H-028</t>
+  </si>
+  <si>
+    <t>H-029</t>
+  </si>
+  <si>
+    <t>H-030</t>
+  </si>
+  <si>
+    <t>H-031</t>
+  </si>
+  <si>
+    <t>H-032</t>
+  </si>
+  <si>
+    <t>H-033</t>
+  </si>
+  <si>
+    <t>H-034</t>
+  </si>
+  <si>
+    <t>H-035</t>
+  </si>
+  <si>
+    <t>H-036</t>
+  </si>
+  <si>
+    <t>H-037</t>
+  </si>
+  <si>
+    <t>H-038</t>
+  </si>
+  <si>
+    <t>H-039</t>
+  </si>
+  <si>
+    <t>H-040</t>
+  </si>
+  <si>
+    <t>H-041</t>
+  </si>
+  <si>
+    <t>H-042</t>
+  </si>
+  <si>
+    <t>H-043</t>
+  </si>
+  <si>
+    <t>H-045</t>
+  </si>
+  <si>
+    <t>H-046</t>
+  </si>
+  <si>
+    <t>H-047</t>
+  </si>
+  <si>
+    <t>H-048</t>
+  </si>
+  <si>
+    <t>H-049</t>
+  </si>
+  <si>
+    <t>H-050</t>
+  </si>
+  <si>
+    <t>1.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1888,6 +2121,13 @@
     </font>
     <font>
       <sz val="8.8000000000000007"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2163,7 +2403,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2322,6 +2562,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2674,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,20 +3010,20 @@
         <v>8</v>
       </c>
       <c r="C8" s="8">
-        <f>'Metadatos H'!D50</f>
+        <f>'Metadatos H'!D62</f>
         <v>0</v>
       </c>
       <c r="D8" s="8">
-        <f>'Metadatos H'!E50</f>
+        <f>'Metadatos H'!E62</f>
         <v>0</v>
       </c>
       <c r="E8" s="8">
-        <f>'Metadatos H'!F50</f>
-        <v>42</v>
+        <f>'Metadatos H'!F62</f>
+        <v>54</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2848,7 +3092,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F12" s="13">
         <f>SUM(F6:F11)</f>
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +3114,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3581,17 +3825,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="6" width="3" style="2" customWidth="1"/>
     <col min="7" max="7" width="57.85546875" customWidth="1"/>
     <col min="8" max="8" width="59.7109375" customWidth="1"/>
@@ -4699,344 +4943,667 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>609</v>
+      </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="77"/>
+      <c r="G29" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="31">
+        <v>32</v>
+      </c>
+      <c r="L29" s="31">
+        <v>2</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0</v>
+      </c>
+      <c r="O29" s="77" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="76"/>
+      <c r="B30" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>610</v>
+      </c>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="76" t="s">
-        <v>515</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="77"/>
+      <c r="G30" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="31">
+        <v>32</v>
+      </c>
+      <c r="L30" s="31">
+        <v>1</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="N30" s="31">
+        <v>-28.5</v>
+      </c>
+      <c r="O30" s="77" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="76"/>
+      <c r="B31" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>611</v>
+      </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="77"/>
+        <v>57</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="31">
+        <v>32</v>
+      </c>
+      <c r="L31" s="31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="N31" s="31">
+        <v>-10</v>
+      </c>
+      <c r="O31" s="77" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>603</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>517</v>
-      </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="77"/>
+      <c r="G32" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="31">
+        <v>32</v>
+      </c>
+      <c r="L32" s="31">
+        <v>2</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="N32" s="31">
+        <v>-31.5</v>
+      </c>
+      <c r="O32" s="77" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="76"/>
+      <c r="B33" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>604</v>
+      </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="29" t="s">
-        <v>518</v>
-      </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
+      <c r="G33" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="31">
+        <v>32</v>
+      </c>
+      <c r="L33" s="31">
+        <v>2</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="N33" s="31">
+        <v>-31</v>
+      </c>
+      <c r="O33" s="77" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="76"/>
+      <c r="B34" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>605</v>
+      </c>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="O34" s="77"/>
+      <c r="G34" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="31">
+        <v>32</v>
+      </c>
+      <c r="L34" s="31">
+        <v>2</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="N34" s="31">
+        <v>-5</v>
+      </c>
+      <c r="O34" s="77" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="76"/>
+      <c r="B35" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>598</v>
+      </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G35" s="76" t="s">
-        <v>520</v>
-      </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="77"/>
+        <v>515</v>
+      </c>
+      <c r="H35" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="31">
+        <v>32</v>
+      </c>
+      <c r="L35" s="31">
+        <v>1</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="N35" s="31">
+        <v>-35</v>
+      </c>
+      <c r="O35" s="77" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="76"/>
+      <c r="B36" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>587</v>
+      </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="77"/>
+      <c r="G36" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="H36" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="K36" s="31">
+        <v>32</v>
+      </c>
+      <c r="L36" s="31">
+        <v>2</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="N36" s="31">
+        <v>-18</v>
+      </c>
+      <c r="O36" s="77" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="76"/>
+      <c r="B37" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>587</v>
+      </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="77"/>
+      <c r="G37" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="H37" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="K37" s="31">
+        <v>32</v>
+      </c>
+      <c r="L37" s="31">
+        <v>2</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="N37" s="31">
+        <v>-18</v>
+      </c>
+      <c r="O37" s="77" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="76"/>
+      <c r="B38" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>599</v>
+      </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="77"/>
+      <c r="G38" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="H38" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" s="31">
+        <v>32</v>
+      </c>
+      <c r="L38" s="31">
+        <v>2</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="N38" s="31">
+        <v>-5</v>
+      </c>
+      <c r="O38" s="77" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="76"/>
+      <c r="B39" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>600</v>
+      </c>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="77"/>
+      <c r="G39" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="H39" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="31">
+        <v>32</v>
+      </c>
+      <c r="L39" s="31">
+        <v>2</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="N39" s="31">
+        <v>-5</v>
+      </c>
+      <c r="O39" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="76"/>
+      <c r="B40" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>601</v>
+      </c>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="77"/>
+      <c r="G40" s="76" t="s">
+        <v>516</v>
+      </c>
+      <c r="H40" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="31">
+        <v>32</v>
+      </c>
+      <c r="L40" s="31">
+        <v>2</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="N40" s="31">
+        <v>-5</v>
+      </c>
+      <c r="O40" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="76"/>
+      <c r="B41" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>588</v>
+      </c>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="77"/>
+      <c r="G41" s="76" t="s">
+        <v>517</v>
+      </c>
+      <c r="H41" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="31">
+        <v>32</v>
+      </c>
+      <c r="L41" s="31">
+        <v>2</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="N41" s="31">
+        <v>-7</v>
+      </c>
+      <c r="O41" s="77" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="76"/>
+      <c r="B42" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>589</v>
+      </c>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="77"/>
+      <c r="G42" s="76" t="s">
+        <v>518</v>
+      </c>
+      <c r="H42" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="31">
+        <v>32</v>
+      </c>
+      <c r="L42" s="31">
+        <v>2</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="N42" s="31">
+        <v>-16</v>
+      </c>
+      <c r="O42" s="77" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="76"/>
+      <c r="B43" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>606</v>
+      </c>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="77"/>
+      <c r="G43" s="76" t="s">
+        <v>519</v>
+      </c>
+      <c r="H43" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="31">
+        <v>32</v>
+      </c>
+      <c r="L43" s="31">
+        <v>1</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="N43" s="83">
+        <v>-9</v>
+      </c>
+      <c r="O43" s="77" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="76"/>
+      <c r="B44" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>607</v>
+      </c>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
       <c r="F44" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="77"/>
+      <c r="G44" s="76" t="s">
+        <v>519</v>
+      </c>
+      <c r="H44" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" s="31">
+        <v>32</v>
+      </c>
+      <c r="L44" s="31">
+        <v>1</v>
+      </c>
+      <c r="M44" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="N44" s="83">
+        <v>-9</v>
+      </c>
+      <c r="O44" s="77" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="26" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="C45" s="76" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
@@ -5044,13 +5611,13 @@
         <v>27</v>
       </c>
       <c r="G45" s="76" t="s">
-        <v>578</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>581</v>
+        <v>519</v>
+      </c>
+      <c r="H45" s="82" t="s">
+        <v>612</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>35</v>
+        <v>613</v>
       </c>
       <c r="J45" s="31" t="s">
         <v>36</v>
@@ -5059,97 +5626,589 @@
         <v>32</v>
       </c>
       <c r="L45" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="N45" s="31">
-        <v>-1</v>
+        <v>628</v>
+      </c>
+      <c r="N45" s="83">
+        <v>-17.2</v>
       </c>
       <c r="O45" s="77" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="76"/>
+      <c r="B46" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="C46" s="76" t="s">
+        <v>590</v>
+      </c>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="77"/>
+      <c r="F46" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="H46" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="31">
+        <v>32</v>
+      </c>
+      <c r="L46" s="31">
+        <v>2</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="N46" s="31">
+        <v>-28.5</v>
+      </c>
+      <c r="O46" s="77" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="76"/>
+      <c r="B47" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>591</v>
+      </c>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="77"/>
+      <c r="F47" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="76" t="s">
+        <v>521</v>
+      </c>
+      <c r="H47" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="31">
+        <v>32</v>
+      </c>
+      <c r="L47" s="31">
+        <v>2</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="N47" s="31">
+        <v>-4</v>
+      </c>
+      <c r="O47" s="77" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="76"/>
+      <c r="B48" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>602</v>
+      </c>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="77"/>
-    </row>
-    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="37"/>
-    </row>
-    <row r="50" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="2">
-        <f>COUNTA(D4:D49)</f>
+      <c r="F48" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="H48" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="31">
+        <v>32</v>
+      </c>
+      <c r="L48" s="31">
+        <v>2</v>
+      </c>
+      <c r="M48" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="N48" s="31">
+        <v>-0.5</v>
+      </c>
+      <c r="O48" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
+      <c r="B49" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="C49" s="76" t="s">
+        <v>592</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="H49" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="31">
+        <v>32</v>
+      </c>
+      <c r="L49" s="31">
+        <v>2</v>
+      </c>
+      <c r="M49" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="N49" s="31">
+        <v>-20</v>
+      </c>
+      <c r="O49" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
+      <c r="B50" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>593</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="H50" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="31">
+        <v>32</v>
+      </c>
+      <c r="L50" s="31">
+        <v>2</v>
+      </c>
+      <c r="M50" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="N50" s="31">
+        <v>-14.5</v>
+      </c>
+      <c r="O50" s="77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="C51" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="76" t="s">
+        <v>523</v>
+      </c>
+      <c r="H51" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="31">
+        <v>32</v>
+      </c>
+      <c r="L51" s="31">
+        <v>2</v>
+      </c>
+      <c r="M51" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="N51" s="31">
+        <v>-29</v>
+      </c>
+      <c r="O51" s="77" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="C52" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="H52" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" s="31">
+        <v>32</v>
+      </c>
+      <c r="L52" s="31">
+        <v>2</v>
+      </c>
+      <c r="M52" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="N52" s="31">
+        <v>-29</v>
+      </c>
+      <c r="O52" s="77" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="C53" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="H53" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="31">
+        <v>32</v>
+      </c>
+      <c r="L53" s="31">
+        <v>2</v>
+      </c>
+      <c r="M53" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="N53" s="31">
+        <v>-10</v>
+      </c>
+      <c r="O53" s="77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
+      <c r="B54" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="76" t="s">
+        <v>527</v>
+      </c>
+      <c r="H54" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="31">
+        <v>32</v>
+      </c>
+      <c r="L54" s="31">
+        <v>2</v>
+      </c>
+      <c r="M54" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="N54" s="31">
+        <v>-10</v>
+      </c>
+      <c r="O54" s="77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="C55" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="H55" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="31">
+        <v>32</v>
+      </c>
+      <c r="L55" s="31">
+        <v>2</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="N55" s="31">
+        <v>-13</v>
+      </c>
+      <c r="O55" s="77" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>597</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="76" t="s">
+        <v>528</v>
+      </c>
+      <c r="H56" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="31">
+        <v>32</v>
+      </c>
+      <c r="L56" s="31">
+        <v>2</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="N56" s="31">
         <v>0</v>
       </c>
-      <c r="E50" s="2">
-        <f>COUNTA(E4:E49)</f>
+      <c r="O56" s="77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>579</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="76" t="s">
+        <v>577</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="31">
+        <v>32</v>
+      </c>
+      <c r="L57" s="31">
+        <v>1</v>
+      </c>
+      <c r="M57" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="N57" s="31">
+        <v>-1</v>
+      </c>
+      <c r="O57" s="77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="77"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="45"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="77"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="45"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="77"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="37"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="2">
+        <f>COUNTA(D4:D61)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="2">
-        <f>COUNTA(F4:F49)</f>
-        <v>42</v>
+      <c r="E62" s="2">
+        <f>COUNTA(E4:E61)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <f>COUNTA(F4:F61)</f>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5211,16 +6270,96 @@
     <hyperlink ref="C27" r:id="rId55"/>
     <hyperlink ref="C28" r:id="rId56"/>
     <hyperlink ref="O27" r:id="rId57" location="'Niveles'!B9"/>
-    <hyperlink ref="G35" r:id="rId58"/>
-    <hyperlink ref="G29" r:id="rId59"/>
-    <hyperlink ref="G30" r:id="rId60"/>
-    <hyperlink ref="C45" r:id="rId61"/>
-    <hyperlink ref="G45" r:id="rId62"/>
-    <hyperlink ref="O45" r:id="rId63" location="'Niveles'!B14"/>
+    <hyperlink ref="G46" r:id="rId58"/>
+    <hyperlink ref="G34" r:id="rId59"/>
+    <hyperlink ref="G36" r:id="rId60"/>
+    <hyperlink ref="C57" r:id="rId61"/>
+    <hyperlink ref="G57" r:id="rId62"/>
+    <hyperlink ref="O57" r:id="rId63" location="'Niveles'!B14"/>
     <hyperlink ref="O28" r:id="rId64" location="'Niveles'!B15"/>
+    <hyperlink ref="G40" r:id="rId65"/>
+    <hyperlink ref="C36" r:id="rId66"/>
+    <hyperlink ref="C40" r:id="rId67"/>
+    <hyperlink ref="G41" r:id="rId68"/>
+    <hyperlink ref="C41" r:id="rId69"/>
+    <hyperlink ref="G42" r:id="rId70"/>
+    <hyperlink ref="C42" r:id="rId71"/>
+    <hyperlink ref="G45" r:id="rId72"/>
+    <hyperlink ref="C46" r:id="rId73"/>
+    <hyperlink ref="C47" r:id="rId74"/>
+    <hyperlink ref="G50" r:id="rId75"/>
+    <hyperlink ref="C50" r:id="rId76"/>
+    <hyperlink ref="G49" r:id="rId77"/>
+    <hyperlink ref="C49" r:id="rId78"/>
+    <hyperlink ref="G51" r:id="rId79"/>
+    <hyperlink ref="G52" r:id="rId80"/>
+    <hyperlink ref="G53" r:id="rId81"/>
+    <hyperlink ref="G54" r:id="rId82"/>
+    <hyperlink ref="C52" r:id="rId83"/>
+    <hyperlink ref="G55" r:id="rId84"/>
+    <hyperlink ref="C54" r:id="rId85"/>
+    <hyperlink ref="C51" r:id="rId86"/>
+    <hyperlink ref="C55" r:id="rId87"/>
+    <hyperlink ref="G56" r:id="rId88"/>
+    <hyperlink ref="C56" r:id="rId89"/>
+    <hyperlink ref="G35" r:id="rId90"/>
+    <hyperlink ref="C35" r:id="rId91"/>
+    <hyperlink ref="G37" r:id="rId92"/>
+    <hyperlink ref="C37" r:id="rId93"/>
+    <hyperlink ref="G38" r:id="rId94"/>
+    <hyperlink ref="C38" r:id="rId95"/>
+    <hyperlink ref="G39" r:id="rId96"/>
+    <hyperlink ref="C39" r:id="rId97"/>
+    <hyperlink ref="G48" r:id="rId98"/>
+    <hyperlink ref="C48" r:id="rId99"/>
+    <hyperlink ref="C34" r:id="rId100"/>
+    <hyperlink ref="G32" r:id="rId101"/>
+    <hyperlink ref="C32" r:id="rId102"/>
+    <hyperlink ref="G33" r:id="rId103"/>
+    <hyperlink ref="C33" r:id="rId104"/>
+    <hyperlink ref="C53" r:id="rId105"/>
+    <hyperlink ref="C45" r:id="rId106"/>
+    <hyperlink ref="G43" r:id="rId107"/>
+    <hyperlink ref="C43" r:id="rId108"/>
+    <hyperlink ref="G44" r:id="rId109"/>
+    <hyperlink ref="C44" r:id="rId110"/>
+    <hyperlink ref="C31" r:id="rId111"/>
+    <hyperlink ref="C30" r:id="rId112"/>
+    <hyperlink ref="C29" r:id="rId113"/>
+    <hyperlink ref="H29" r:id="rId114"/>
+    <hyperlink ref="H30:H56" r:id="rId115" display="Revisable en el .aup en: Docs/TDS/Credits/"/>
+    <hyperlink ref="G47" r:id="rId116"/>
+    <hyperlink ref="O37" r:id="rId117" location="'Creditos'!B7"/>
+    <hyperlink ref="O36" r:id="rId118" location="'Creditos'!B7"/>
+    <hyperlink ref="O41" r:id="rId119" location="'Creditos'!B8"/>
+    <hyperlink ref="O38" r:id="rId120" location="'Creditos'!B12"/>
+    <hyperlink ref="O35" r:id="rId121" location="'Creditos'!B13"/>
+    <hyperlink ref="O39" r:id="rId122" location="'Creditos'!B14"/>
+    <hyperlink ref="O40" r:id="rId123" location="'Creditos'!B15"/>
+    <hyperlink ref="O42" r:id="rId124" location="'Creditos'!B18"/>
+    <hyperlink ref="O44" r:id="rId125" location="'Creditos'!B22"/>
+    <hyperlink ref="O31" r:id="rId126" location="'Creditos'!B17"/>
+    <hyperlink ref="O30" r:id="rId127" location="'Creditos'!B19"/>
+    <hyperlink ref="O46" r:id="rId128" location="'Creditos'!B21"/>
+    <hyperlink ref="O47" r:id="rId129" location="'Creditos'!B24"/>
+    <hyperlink ref="O56" r:id="rId130" location="'Creditos'!B25"/>
+    <hyperlink ref="O45" r:id="rId131" location="'Creditos'!B27"/>
+    <hyperlink ref="O49" r:id="rId132" location="'Creditos'!B28"/>
+    <hyperlink ref="O50" r:id="rId133" location="'Creditos'!B30"/>
+    <hyperlink ref="O29" r:id="rId134" location="'Creditos'!B31"/>
+    <hyperlink ref="O34" r:id="rId135" location="'Creditos'!B32"/>
+    <hyperlink ref="O55" r:id="rId136" location="'Creditos'!B34"/>
+    <hyperlink ref="O53" r:id="rId137" location="'Creditos'!B38"/>
+    <hyperlink ref="O54" r:id="rId138" location="'Creditos'!B38"/>
+    <hyperlink ref="O32" r:id="rId139" location="'Creditos'!B11"/>
+    <hyperlink ref="O51" r:id="rId140" location="'Creditos'!B35"/>
+    <hyperlink ref="O33" r:id="rId141" location="'Creditos'!B11"/>
+    <hyperlink ref="O43" r:id="rId142" location="'Creditos'!B22"/>
+    <hyperlink ref="O48" r:id="rId143" location="'Creditos'!B28"/>
+    <hyperlink ref="O52" r:id="rId144" location="'Creditos'!B35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId145"/>
 </worksheet>
 </file>
 
@@ -5328,10 +6467,10 @@
     </row>
     <row r="4" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="79" t="s">
         <v>544</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>545</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>25</v>
@@ -5339,10 +6478,10 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>35</v>
@@ -5357,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N4" s="42">
         <v>-2</v>
@@ -5368,10 +6507,10 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" s="76" t="s">
         <v>548</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>549</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>25</v>
@@ -5379,10 +6518,10 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>35</v>
@@ -5397,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N5" s="31">
         <v>-2</v>
@@ -5408,10 +6547,10 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>552</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>553</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>25</v>
@@ -5419,10 +6558,10 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>35</v>
@@ -5437,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N6" s="31">
         <v>-2</v>
@@ -5448,10 +6587,10 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>25</v>
@@ -5459,10 +6598,10 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>35</v>
@@ -5477,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N7" s="31">
         <v>-2</v>
@@ -5488,10 +6627,10 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>25</v>
@@ -5499,10 +6638,10 @@
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>35</v>
@@ -5517,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N8" s="31">
         <v>-2</v>
@@ -5528,10 +6667,10 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>25</v>
@@ -5539,10 +6678,10 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>35</v>
@@ -5557,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N9" s="31">
         <v>-2</v>
@@ -5568,10 +6707,10 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>25</v>
@@ -5579,10 +6718,10 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>35</v>
@@ -5597,21 +6736,21 @@
         <v>1</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N10" s="31">
         <v>-17</v>
       </c>
       <c r="O10" s="77" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>565</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>566</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>25</v>
@@ -5619,10 +6758,10 @@
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>35</v>
@@ -5637,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N11" s="31">
         <v>-13</v>
@@ -5648,10 +6787,10 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>569</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>570</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>25</v>
@@ -5659,10 +6798,10 @@
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>35</v>
@@ -5677,21 +6816,21 @@
         <v>1</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N12" s="31">
         <v>-3</v>
       </c>
       <c r="O12" s="77" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>25</v>
@@ -5699,10 +6838,10 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>35</v>
@@ -5717,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N13" s="31">
         <v>-14</v>
@@ -5728,10 +6867,10 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" s="76" t="s">
         <v>575</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>576</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>25</v>
@@ -5739,10 +6878,10 @@
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="81" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>35</v>
@@ -5757,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N14" s="31">
         <v>-16</v>
@@ -6053,10 +7192,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C7" s="76" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
@@ -6088,15 +7227,15 @@
         <v>-10.5</v>
       </c>
       <c r="O7" s="77" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28" t="s">
@@ -6107,7 +7246,7 @@
         <v>157</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>35</v>
@@ -6122,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N8" s="31">
         <v>-8</v>
@@ -6133,10 +7272,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>537</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>538</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28" t="s">
@@ -6162,21 +7301,21 @@
         <v>1</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N9" s="31">
         <v>-3</v>
       </c>
       <c r="O9" s="77" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>541</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>542</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28" t="s">
@@ -6202,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N10" s="31">
         <v>0</v>
@@ -6213,10 +7352,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>583</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>584</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
@@ -6227,7 +7366,7 @@
         <v>157</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>35</v>
@@ -6242,13 +7381,13 @@
         <v>1</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N11" s="31">
         <v>-18.5</v>
       </c>
       <c r="O11" s="77" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
